--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -156,7 +156,7 @@
     <t>200-300</t>
   </si>
   <si>
-    <t>Flask of Fresh Air</t>
+    <t>Flask Of Fresh Air</t>
   </si>
   <si>
     <t>Litch</t>
@@ -205,6 +205,69 @@
   </si>
   <si>
     <t>1400-1800</t>
+  </si>
+  <si>
+    <t>Shadow Beast</t>
+  </si>
+  <si>
+    <t>10000-15000</t>
+  </si>
+  <si>
+    <t>2000-4000</t>
+  </si>
+  <si>
+    <t>Witches Demon</t>
+  </si>
+  <si>
+    <t>18000-24000</t>
+  </si>
+  <si>
+    <t>4500-5800</t>
+  </si>
+  <si>
+    <t>Astral Celestial being</t>
+  </si>
+  <si>
+    <t>36000-48000</t>
+  </si>
+  <si>
+    <t>6700-10000</t>
+  </si>
+  <si>
+    <t>Faceless Man</t>
+  </si>
+  <si>
+    <t>52000-70000</t>
+  </si>
+  <si>
+    <t>12000-15000</t>
+  </si>
+  <si>
+    <t>Hell Dragon</t>
+  </si>
+  <si>
+    <t>85000-120000</t>
+  </si>
+  <si>
+    <t>16000-22000</t>
+  </si>
+  <si>
+    <t>Treasure Box Of Horrors</t>
+  </si>
+  <si>
+    <t>130000-150000</t>
+  </si>
+  <si>
+    <t>25000-32000</t>
+  </si>
+  <si>
+    <t>Demon Prince</t>
+  </si>
+  <si>
+    <t>175000-250000</t>
+  </si>
+  <si>
+    <t>35000-40000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -563,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,24 +638,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1384,6 +1447,362 @@
         <v>0.16</v>
       </c>
       <c r="R15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>450</v>
+      </c>
+      <c r="D16">
+        <v>470</v>
+      </c>
+      <c r="E16">
+        <v>460</v>
+      </c>
+      <c r="F16">
+        <v>460</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>470</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>480</v>
+      </c>
+      <c r="C17">
+        <v>496</v>
+      </c>
+      <c r="D17">
+        <v>490</v>
+      </c>
+      <c r="E17">
+        <v>499</v>
+      </c>
+      <c r="F17">
+        <v>499</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>490</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.04</v>
+      </c>
+      <c r="L17">
+        <v>1100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>520</v>
+      </c>
+      <c r="C18">
+        <v>525</v>
+      </c>
+      <c r="D18">
+        <v>530</v>
+      </c>
+      <c r="E18">
+        <v>520</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>545</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>1200</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>560</v>
+      </c>
+      <c r="C19">
+        <v>560</v>
+      </c>
+      <c r="D19">
+        <v>560</v>
+      </c>
+      <c r="E19">
+        <v>560</v>
+      </c>
+      <c r="F19">
+        <v>570</v>
+      </c>
+      <c r="G19">
+        <v>110</v>
+      </c>
+      <c r="H19">
+        <v>570</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+      <c r="L19">
+        <v>1300</v>
+      </c>
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>590</v>
+      </c>
+      <c r="C20">
+        <v>600</v>
+      </c>
+      <c r="D20">
+        <v>610</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
+        <v>607</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>610</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>0.02</v>
+      </c>
+      <c r="L20">
+        <v>1500</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>630</v>
+      </c>
+      <c r="C21">
+        <v>650</v>
+      </c>
+      <c r="D21">
+        <v>640</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
+        <v>620</v>
+      </c>
+      <c r="G21">
+        <v>140</v>
+      </c>
+      <c r="H21">
+        <v>650</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>0.04</v>
+      </c>
+      <c r="L21">
+        <v>1700</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
+      </c>
+      <c r="C22">
+        <v>710</v>
+      </c>
+      <c r="D22">
+        <v>680</v>
+      </c>
+      <c r="E22">
+        <v>710</v>
+      </c>
+      <c r="F22">
+        <v>715</v>
+      </c>
+      <c r="G22">
+        <v>130</v>
+      </c>
+      <c r="H22">
+        <v>710</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>0.08</v>
+      </c>
+      <c r="L22">
+        <v>1700</v>
+      </c>
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1404,11 +1823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,36 +1835,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1459,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1473,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1487,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1501,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1515,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1529,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1543,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1557,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1571,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1585,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1599,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1613,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1627,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1641,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1655,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1669,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1683,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1697,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1711,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1725,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1739,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1753,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1767,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1781,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1795,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1809,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1823,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1837,7 +2256,203 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -192,7 +192,7 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>1500-3000</t>
+    <t>1300-1600</t>
   </si>
   <si>
     <t>800-1200</t>
@@ -201,7 +201,7 @@
     <t>Umbering Spirit Lord</t>
   </si>
   <si>
-    <t>4000-6000</t>
+    <t>1575-1780</t>
   </si>
   <si>
     <t>1400-1800</t>
@@ -210,7 +210,7 @@
     <t>Shadow Beast</t>
   </si>
   <si>
-    <t>10000-15000</t>
+    <t>1800-1975</t>
   </si>
   <si>
     <t>2000-4000</t>
@@ -219,7 +219,7 @@
     <t>Witches Demon</t>
   </si>
   <si>
-    <t>18000-24000</t>
+    <t>2200-4000</t>
   </si>
   <si>
     <t>4500-5800</t>
@@ -228,7 +228,7 @@
     <t>Astral Celestial being</t>
   </si>
   <si>
-    <t>36000-48000</t>
+    <t>4300-5000</t>
   </si>
   <si>
     <t>6700-10000</t>
@@ -237,7 +237,7 @@
     <t>Faceless Man</t>
   </si>
   <si>
-    <t>52000-70000</t>
+    <t>5350-6300</t>
   </si>
   <si>
     <t>12000-15000</t>
@@ -246,7 +246,7 @@
     <t>Hell Dragon</t>
   </si>
   <si>
-    <t>85000-120000</t>
+    <t>6475-7590</t>
   </si>
   <si>
     <t>16000-22000</t>
@@ -255,7 +255,7 @@
     <t>Treasure Box Of Horrors</t>
   </si>
   <si>
-    <t>130000-150000</t>
+    <t>8000-10000</t>
   </si>
   <si>
     <t>25000-32000</t>
@@ -264,7 +264,7 @@
     <t>Demon Prince</t>
   </si>
   <si>
-    <t>175000-250000</t>
+    <t>11000-12500</t>
   </si>
   <si>
     <t>35000-40000</t>
@@ -650,7 +650,7 @@
     <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -268,6 +268,81 @@
   </si>
   <si>
     <t>35000-40000</t>
+  </si>
+  <si>
+    <t>Labyrinth Fiend</t>
+  </si>
+  <si>
+    <t>12670-13800</t>
+  </si>
+  <si>
+    <t>42000-49000</t>
+  </si>
+  <si>
+    <t>Key To The Labyrinth</t>
+  </si>
+  <si>
+    <t>Deaths Horsemen</t>
+  </si>
+  <si>
+    <t>14000-15000</t>
+  </si>
+  <si>
+    <t>53000-58000</t>
+  </si>
+  <si>
+    <t>Celestial Entity</t>
+  </si>
+  <si>
+    <t>15000-16500</t>
+  </si>
+  <si>
+    <t>62370-73000</t>
+  </si>
+  <si>
+    <t>Shade of Light</t>
+  </si>
+  <si>
+    <t>17000-20000</t>
+  </si>
+  <si>
+    <t>75000-80000</t>
+  </si>
+  <si>
+    <t>Ruby Fiend</t>
+  </si>
+  <si>
+    <t>22000-24000</t>
+  </si>
+  <si>
+    <t>82000-86000</t>
+  </si>
+  <si>
+    <t>Astral Hell God</t>
+  </si>
+  <si>
+    <t>25000-27000</t>
+  </si>
+  <si>
+    <t>90000-100000</t>
+  </si>
+  <si>
+    <t>Jester Of Beleth</t>
+  </si>
+  <si>
+    <t>28000-29500</t>
+  </si>
+  <si>
+    <t>110000-130000</t>
+  </si>
+  <si>
+    <t>Satanic Cult Leader</t>
+  </si>
+  <si>
+    <t>30000-50000</t>
+  </si>
+  <si>
+    <t>150000-200000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -630,7 +705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +726,7 @@
     <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
@@ -1803,6 +1878,409 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>750</v>
+      </c>
+      <c r="C23">
+        <v>730</v>
+      </c>
+      <c r="D23">
+        <v>740</v>
+      </c>
+      <c r="E23">
+        <v>755</v>
+      </c>
+      <c r="F23">
+        <v>750</v>
+      </c>
+      <c r="G23">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <v>750</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23">
+        <v>0.01</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>720</v>
+      </c>
+      <c r="C24">
+        <v>780</v>
+      </c>
+      <c r="D24">
+        <v>760</v>
+      </c>
+      <c r="E24">
+        <v>750</v>
+      </c>
+      <c r="F24">
+        <v>785</v>
+      </c>
+      <c r="G24">
+        <v>145</v>
+      </c>
+      <c r="H24">
+        <v>790</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0.04</v>
+      </c>
+      <c r="L24">
+        <v>2300</v>
+      </c>
+      <c r="M24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>830</v>
+      </c>
+      <c r="C25">
+        <v>845</v>
+      </c>
+      <c r="D25">
+        <v>830</v>
+      </c>
+      <c r="E25">
+        <v>840</v>
+      </c>
+      <c r="F25">
+        <v>840</v>
+      </c>
+      <c r="G25">
+        <v>155</v>
+      </c>
+      <c r="H25">
+        <v>840</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>0.02</v>
+      </c>
+      <c r="L25">
+        <v>2450</v>
+      </c>
+      <c r="M25" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26">
+        <v>850</v>
+      </c>
+      <c r="C26">
+        <v>850</v>
+      </c>
+      <c r="D26">
+        <v>860</v>
+      </c>
+      <c r="E26">
+        <v>840</v>
+      </c>
+      <c r="F26">
+        <v>830</v>
+      </c>
+      <c r="G26">
+        <v>160</v>
+      </c>
+      <c r="H26">
+        <v>870</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+      <c r="L26">
+        <v>2600</v>
+      </c>
+      <c r="M26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>920</v>
+      </c>
+      <c r="C27">
+        <v>890</v>
+      </c>
+      <c r="D27">
+        <v>900</v>
+      </c>
+      <c r="E27">
+        <v>880</v>
+      </c>
+      <c r="F27">
+        <v>870</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>920</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="L27">
+        <v>3000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>950</v>
+      </c>
+      <c r="C28">
+        <v>950</v>
+      </c>
+      <c r="D28">
+        <v>940</v>
+      </c>
+      <c r="E28">
+        <v>950</v>
+      </c>
+      <c r="F28">
+        <v>930</v>
+      </c>
+      <c r="G28">
+        <v>230</v>
+      </c>
+      <c r="H28">
+        <v>950</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+      <c r="L28">
+        <v>3300</v>
+      </c>
+      <c r="M28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29">
+        <v>960</v>
+      </c>
+      <c r="C29">
+        <v>970</v>
+      </c>
+      <c r="D29">
+        <v>950</v>
+      </c>
+      <c r="E29">
+        <v>975</v>
+      </c>
+      <c r="F29">
+        <v>978</v>
+      </c>
+      <c r="G29">
+        <v>260</v>
+      </c>
+      <c r="H29">
+        <v>970</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>0.04</v>
+      </c>
+      <c r="L29">
+        <v>3400</v>
+      </c>
+      <c r="M29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30">
+        <v>999</v>
+      </c>
+      <c r="C30">
+        <v>999</v>
+      </c>
+      <c r="D30">
+        <v>999</v>
+      </c>
+      <c r="E30">
+        <v>999</v>
+      </c>
+      <c r="F30">
+        <v>999</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <v>100000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+      <c r="L30">
+        <v>5000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1827,7 +2305,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,25 +2324,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1878,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1892,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1906,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1920,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1934,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1948,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1962,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1976,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1990,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2004,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2018,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2032,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2046,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2060,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2074,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2088,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2102,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2116,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2130,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2144,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2158,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2172,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2186,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2200,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2214,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2228,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2242,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2256,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2270,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2284,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2298,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2312,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2326,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2340,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2354,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2368,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2382,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2396,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2410,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2424,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2438,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2452,7 +2930,231 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>91</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>38</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,9 @@
     <t>1-6</t>
   </si>
   <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
     <t>Surface</t>
   </si>
   <si>
@@ -156,9 +159,6 @@
     <t>200-300</t>
   </si>
   <si>
-    <t>Flask Of Fresh Air</t>
-  </si>
-  <si>
     <t>Litch</t>
   </si>
   <si>
@@ -279,7 +279,7 @@
     <t>42000-49000</t>
   </si>
   <si>
-    <t>Key To The Labyrinth</t>
+    <t>Key of the Labyrinth</t>
   </si>
   <si>
     <t>Deaths Horsemen</t>
@@ -343,6 +343,114 @@
   </si>
   <si>
     <t>150000-200000</t>
+  </si>
+  <si>
+    <t>Labyrinth Imp</t>
+  </si>
+  <si>
+    <t>150-300</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Three Sister Hag</t>
+  </si>
+  <si>
+    <t>500-750</t>
+  </si>
+  <si>
+    <t>350-425</t>
+  </si>
+  <si>
+    <t>Tendrils of Nature</t>
+  </si>
+  <si>
+    <t>800-925</t>
+  </si>
+  <si>
+    <t>450-525</t>
+  </si>
+  <si>
+    <t>Labyrinth Golem</t>
+  </si>
+  <si>
+    <t>1000-1350</t>
+  </si>
+  <si>
+    <t>575-650</t>
+  </si>
+  <si>
+    <t>Lost Soul</t>
+  </si>
+  <si>
+    <t>1475-1600</t>
+  </si>
+  <si>
+    <t>700-900</t>
+  </si>
+  <si>
+    <t>Oozing Mess Of Bones</t>
+  </si>
+  <si>
+    <t>1650-1876</t>
+  </si>
+  <si>
+    <t>925-1340</t>
+  </si>
+  <si>
+    <t>Minotar</t>
+  </si>
+  <si>
+    <t>2400-3500</t>
+  </si>
+  <si>
+    <t>1360-1500</t>
+  </si>
+  <si>
+    <t>Hell Screamer</t>
+  </si>
+  <si>
+    <t>4800-5900</t>
+  </si>
+  <si>
+    <t>1600-1850</t>
+  </si>
+  <si>
+    <t>Labyrinth Clockwork Mage</t>
+  </si>
+  <si>
+    <t>5975-6400</t>
+  </si>
+  <si>
+    <t>1975-2500</t>
+  </si>
+  <si>
+    <t>Lumbering Giant</t>
+  </si>
+  <si>
+    <t>6400-7000</t>
+  </si>
+  <si>
+    <t>2600-3200</t>
+  </si>
+  <si>
+    <t>Monstrous Book</t>
+  </si>
+  <si>
+    <t>7200-7500</t>
+  </si>
+  <si>
+    <t>3400-4000</t>
+  </si>
+  <si>
+    <t>Treasure Hunter</t>
+  </si>
+  <si>
+    <t>7600-8000</t>
+  </si>
+  <si>
+    <t>4200-4500</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -705,7 +813,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,12 +821,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="4" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -835,13 +943,19 @@
       <c r="O2">
         <v>1</v>
       </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -877,21 +991,21 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -927,21 +1041,21 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -977,21 +1091,21 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1027,27 +1141,27 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -1083,27 +1197,27 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>0.15</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -1139,21 +1253,21 @@
         <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1189,21 +1303,21 @@
         <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -1239,22 +1353,22 @@
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1304,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>0.15</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1366,7 +1480,7 @@
         <v>0.15</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1416,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1466,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1516,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15">
         <v>0.16</v>
       </c>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1578,7 +1692,7 @@
         <v>0.2</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1628,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1678,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1728,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1778,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1828,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1878,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1934,7 +2048,7 @@
         <v>0.01</v>
       </c>
       <c r="R23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1984,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2034,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2084,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2134,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2184,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2234,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2280,8 +2394,611 @@
       <c r="N30" t="s">
         <v>108</v>
       </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
       <c r="R30" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>275</v>
+      </c>
+      <c r="C31">
+        <v>290</v>
+      </c>
+      <c r="D31">
+        <v>280</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>0.01</v>
+      </c>
+      <c r="L31">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>110</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32">
+        <v>450</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32">
+        <v>530</v>
+      </c>
+      <c r="E32">
+        <v>525</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <v>85</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0.02</v>
+      </c>
+      <c r="L32">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>750</v>
+      </c>
+      <c r="C33">
+        <v>850</v>
+      </c>
+      <c r="D33">
+        <v>800</v>
+      </c>
+      <c r="E33">
+        <v>750</v>
+      </c>
+      <c r="F33">
+        <v>850</v>
+      </c>
+      <c r="G33">
+        <v>95</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0.02</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="M33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="C34">
+        <v>1100</v>
+      </c>
+      <c r="D34">
+        <v>1115</v>
+      </c>
+      <c r="E34">
+        <v>850</v>
+      </c>
+      <c r="F34">
+        <v>950</v>
+      </c>
+      <c r="G34">
+        <v>125</v>
+      </c>
+      <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0.03</v>
+      </c>
+      <c r="L34">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>1300</v>
+      </c>
+      <c r="C35">
+        <v>1100</v>
+      </c>
+      <c r="D35">
+        <v>1270</v>
+      </c>
+      <c r="E35">
+        <v>1200</v>
+      </c>
+      <c r="F35">
+        <v>1300</v>
+      </c>
+      <c r="G35">
+        <v>150</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0.02</v>
+      </c>
+      <c r="L35">
+        <v>360</v>
+      </c>
+      <c r="M35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36">
+        <v>1400</v>
+      </c>
+      <c r="C36">
+        <v>1280</v>
+      </c>
+      <c r="D36">
+        <v>1376</v>
+      </c>
+      <c r="E36">
+        <v>1580</v>
+      </c>
+      <c r="F36">
+        <v>1500</v>
+      </c>
+      <c r="G36">
+        <v>175</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>450</v>
+      </c>
+      <c r="M36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>1900</v>
+      </c>
+      <c r="C37">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>1875</v>
+      </c>
+      <c r="E37">
+        <v>1576</v>
+      </c>
+      <c r="F37">
+        <v>1500</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0.04</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38">
+        <v>2000</v>
+      </c>
+      <c r="C38">
+        <v>1900</v>
+      </c>
+      <c r="D38">
+        <v>1800</v>
+      </c>
+      <c r="E38">
+        <v>1950</v>
+      </c>
+      <c r="F38">
+        <v>2100</v>
+      </c>
+      <c r="G38">
+        <v>260</v>
+      </c>
+      <c r="H38">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0.02</v>
+      </c>
+      <c r="L38">
+        <v>576</v>
+      </c>
+      <c r="M38" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>2200</v>
+      </c>
+      <c r="C39">
+        <v>2100</v>
+      </c>
+      <c r="D39">
+        <v>2300</v>
+      </c>
+      <c r="E39">
+        <v>1960</v>
+      </c>
+      <c r="F39">
+        <v>1850</v>
+      </c>
+      <c r="G39">
+        <v>320</v>
+      </c>
+      <c r="H39">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.03</v>
+      </c>
+      <c r="L39">
+        <v>625</v>
+      </c>
+      <c r="M39" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40">
+        <v>2400</v>
+      </c>
+      <c r="C40">
+        <v>2500</v>
+      </c>
+      <c r="D40">
+        <v>2300</v>
+      </c>
+      <c r="E40">
+        <v>2800</v>
+      </c>
+      <c r="F40">
+        <v>2700</v>
+      </c>
+      <c r="G40">
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0.03</v>
+      </c>
+      <c r="L40">
+        <v>700</v>
+      </c>
+      <c r="M40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41">
+        <v>2760</v>
+      </c>
+      <c r="C41">
+        <v>2590</v>
+      </c>
+      <c r="D41">
+        <v>2850</v>
+      </c>
+      <c r="E41">
+        <v>2800</v>
+      </c>
+      <c r="F41">
+        <v>2890</v>
+      </c>
+      <c r="G41">
+        <v>375</v>
+      </c>
+      <c r="H41">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>0.02</v>
+      </c>
+      <c r="L41">
+        <v>756</v>
+      </c>
+      <c r="M41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N41" t="s">
+        <v>141</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42">
+        <v>2800</v>
+      </c>
+      <c r="C42">
+        <v>2850</v>
+      </c>
+      <c r="D42">
+        <v>3000</v>
+      </c>
+      <c r="E42">
+        <v>2975</v>
+      </c>
+      <c r="F42">
+        <v>2999</v>
+      </c>
+      <c r="G42">
+        <v>400</v>
+      </c>
+      <c r="H42">
+        <v>95</v>
+      </c>
+      <c r="I42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0.03</v>
+      </c>
+      <c r="L42">
+        <v>860</v>
+      </c>
+      <c r="M42" t="s">
+        <v>143</v>
+      </c>
+      <c r="N42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +3022,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,7 +3030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
@@ -2324,25 +3041,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2356,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2370,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2384,12 +3101,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2398,12 +3115,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2412,12 +3129,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2426,12 +3143,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2440,12 +3157,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2454,12 +3171,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2468,12 +3185,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2482,12 +3199,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2496,12 +3213,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2510,12 +3227,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2524,12 +3241,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -2538,12 +3255,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2552,12 +3269,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2566,12 +3283,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -2580,12 +3297,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2594,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2608,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2622,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2636,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2650,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2664,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2678,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2692,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2706,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2720,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2734,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2748,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2762,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2776,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2790,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2804,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2818,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2832,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2846,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2860,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2874,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2888,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2902,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2916,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2930,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2944,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2958,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2972,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2986,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3000,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3014,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3028,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3042,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3056,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3070,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3084,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3098,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3112,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3126,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3140,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3154,7 +3871,343 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -451,6 +451,141 @@
   </si>
   <si>
     <t>4200-4500</t>
+  </si>
+  <si>
+    <t>Adult Red Dragon</t>
+  </si>
+  <si>
+    <t>9000-14000</t>
+  </si>
+  <si>
+    <t>4500-6000</t>
+  </si>
+  <si>
+    <t>Litch Lord of the Labyrinth</t>
+  </si>
+  <si>
+    <t>14000-17000</t>
+  </si>
+  <si>
+    <t>6200-8000</t>
+  </si>
+  <si>
+    <t>Whisper of Fate</t>
+  </si>
+  <si>
+    <t>19000-25000</t>
+  </si>
+  <si>
+    <t>9000-12000</t>
+  </si>
+  <si>
+    <t>Demonic Angel</t>
+  </si>
+  <si>
+    <t>25000-30000</t>
+  </si>
+  <si>
+    <t>12300-14500</t>
+  </si>
+  <si>
+    <t>Virgin Priestess Zombie</t>
+  </si>
+  <si>
+    <t>32000-35000</t>
+  </si>
+  <si>
+    <t>15300-18900</t>
+  </si>
+  <si>
+    <t>Hells Paladin</t>
+  </si>
+  <si>
+    <t>35000-41000</t>
+  </si>
+  <si>
+    <t>19000-22500</t>
+  </si>
+  <si>
+    <t>Ancient Gold Dragon</t>
+  </si>
+  <si>
+    <t>41500-4700</t>
+  </si>
+  <si>
+    <t>23000-25000</t>
+  </si>
+  <si>
+    <t>Broken Hearted Banshee</t>
+  </si>
+  <si>
+    <t>47000-50000</t>
+  </si>
+  <si>
+    <t>25500-27000</t>
+  </si>
+  <si>
+    <t>Red Wizard of Krull</t>
+  </si>
+  <si>
+    <t>50000-54000</t>
+  </si>
+  <si>
+    <t>28000-31500</t>
+  </si>
+  <si>
+    <t>Devils Lover</t>
+  </si>
+  <si>
+    <t>55000-59500</t>
+  </si>
+  <si>
+    <t>34000-40000</t>
+  </si>
+  <si>
+    <t>Fabled Princess</t>
+  </si>
+  <si>
+    <t>60400-65700</t>
+  </si>
+  <si>
+    <t>43000-50000</t>
+  </si>
+  <si>
+    <t>Demon Hunter</t>
+  </si>
+  <si>
+    <t>66700-69800</t>
+  </si>
+  <si>
+    <t>66000-70000</t>
+  </si>
+  <si>
+    <t>Cyclops Bat</t>
+  </si>
+  <si>
+    <t>70000-76000</t>
+  </si>
+  <si>
+    <t>75000-83000</t>
+  </si>
+  <si>
+    <t>Water Fiend</t>
+  </si>
+  <si>
+    <t>79500-86700</t>
+  </si>
+  <si>
+    <t>84500-87000</t>
+  </si>
+  <si>
+    <t>Labyrinth Hound</t>
+  </si>
+  <si>
+    <t>89000-94000</t>
+  </si>
+  <si>
+    <t>90000-120000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -813,7 +948,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,13 +956,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
@@ -2998,6 +3133,768 @@
         <v>1</v>
       </c>
       <c r="R42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43">
+        <v>4500</v>
+      </c>
+      <c r="C43">
+        <v>6000</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+      <c r="E43">
+        <v>6300</v>
+      </c>
+      <c r="F43">
+        <v>6400</v>
+      </c>
+      <c r="G43">
+        <v>450</v>
+      </c>
+      <c r="H43">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0.02</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+      <c r="M43" t="s">
+        <v>146</v>
+      </c>
+      <c r="N43" t="s">
+        <v>147</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44">
+        <v>8000</v>
+      </c>
+      <c r="C44">
+        <v>9000</v>
+      </c>
+      <c r="D44">
+        <v>7560</v>
+      </c>
+      <c r="E44">
+        <v>9700</v>
+      </c>
+      <c r="F44">
+        <v>9100</v>
+      </c>
+      <c r="G44">
+        <v>475</v>
+      </c>
+      <c r="H44">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>0.03</v>
+      </c>
+      <c r="L44">
+        <v>1200</v>
+      </c>
+      <c r="M44" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <v>10600</v>
+      </c>
+      <c r="D45">
+        <v>11000</v>
+      </c>
+      <c r="E45">
+        <v>10870</v>
+      </c>
+      <c r="F45">
+        <v>12000</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+      <c r="L45">
+        <v>1300</v>
+      </c>
+      <c r="M45" t="s">
+        <v>152</v>
+      </c>
+      <c r="N45" t="s">
+        <v>153</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46">
+        <v>14900</v>
+      </c>
+      <c r="C46">
+        <v>13000</v>
+      </c>
+      <c r="D46">
+        <v>14999</v>
+      </c>
+      <c r="E46">
+        <v>14670</v>
+      </c>
+      <c r="F46">
+        <v>14500</v>
+      </c>
+      <c r="G46">
+        <v>560</v>
+      </c>
+      <c r="H46">
+        <v>253</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>0.03</v>
+      </c>
+      <c r="L46">
+        <v>1600</v>
+      </c>
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+      <c r="N46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>16000</v>
+      </c>
+      <c r="C47">
+        <v>14600</v>
+      </c>
+      <c r="D47">
+        <v>15999</v>
+      </c>
+      <c r="E47">
+        <v>16000</v>
+      </c>
+      <c r="F47">
+        <v>16000</v>
+      </c>
+      <c r="G47">
+        <v>620</v>
+      </c>
+      <c r="H47">
+        <v>275</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0.04</v>
+      </c>
+      <c r="L47">
+        <v>1800</v>
+      </c>
+      <c r="M47" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="R47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48">
+        <v>18750</v>
+      </c>
+      <c r="C48">
+        <v>18500</v>
+      </c>
+      <c r="D48">
+        <v>19000</v>
+      </c>
+      <c r="E48">
+        <v>18900</v>
+      </c>
+      <c r="F48">
+        <v>18950</v>
+      </c>
+      <c r="G48">
+        <v>660</v>
+      </c>
+      <c r="H48">
+        <v>325</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+      <c r="L48">
+        <v>2000</v>
+      </c>
+      <c r="M48" t="s">
+        <v>161</v>
+      </c>
+      <c r="N48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <v>22000</v>
+      </c>
+      <c r="C49">
+        <v>22040</v>
+      </c>
+      <c r="D49">
+        <v>21000</v>
+      </c>
+      <c r="E49">
+        <v>21000</v>
+      </c>
+      <c r="F49">
+        <v>2100</v>
+      </c>
+      <c r="G49">
+        <v>690</v>
+      </c>
+      <c r="H49">
+        <v>375</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>0.04</v>
+      </c>
+      <c r="L49">
+        <v>2200</v>
+      </c>
+      <c r="M49" t="s">
+        <v>164</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50">
+        <v>23000</v>
+      </c>
+      <c r="C50">
+        <v>21000</v>
+      </c>
+      <c r="D50">
+        <v>22000</v>
+      </c>
+      <c r="E50">
+        <v>24000</v>
+      </c>
+      <c r="F50">
+        <v>20000</v>
+      </c>
+      <c r="G50">
+        <v>715</v>
+      </c>
+      <c r="H50">
+        <v>400</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>0.03</v>
+      </c>
+      <c r="L50">
+        <v>2400</v>
+      </c>
+      <c r="M50" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51">
+        <v>24000</v>
+      </c>
+      <c r="C51">
+        <v>23400</v>
+      </c>
+      <c r="D51">
+        <v>25000</v>
+      </c>
+      <c r="E51">
+        <v>24500</v>
+      </c>
+      <c r="F51">
+        <v>2500</v>
+      </c>
+      <c r="G51">
+        <v>745</v>
+      </c>
+      <c r="H51">
+        <v>440</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0.01</v>
+      </c>
+      <c r="L51">
+        <v>2600</v>
+      </c>
+      <c r="M51" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52">
+        <v>25000</v>
+      </c>
+      <c r="C52">
+        <v>27000</v>
+      </c>
+      <c r="D52">
+        <v>26000</v>
+      </c>
+      <c r="E52">
+        <v>25000</v>
+      </c>
+      <c r="F52">
+        <v>28600</v>
+      </c>
+      <c r="G52">
+        <v>800</v>
+      </c>
+      <c r="H52">
+        <v>490</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0.04</v>
+      </c>
+      <c r="L52">
+        <v>2800</v>
+      </c>
+      <c r="M52" t="s">
+        <v>173</v>
+      </c>
+      <c r="N52" t="s">
+        <v>174</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53">
+        <v>29000</v>
+      </c>
+      <c r="C53">
+        <v>28000</v>
+      </c>
+      <c r="D53">
+        <v>30600</v>
+      </c>
+      <c r="E53">
+        <v>27000</v>
+      </c>
+      <c r="F53">
+        <v>30000</v>
+      </c>
+      <c r="G53">
+        <v>850</v>
+      </c>
+      <c r="H53">
+        <v>525</v>
+      </c>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>15</v>
+      </c>
+      <c r="K53">
+        <v>0.01</v>
+      </c>
+      <c r="L53">
+        <v>3000</v>
+      </c>
+      <c r="M53" t="s">
+        <v>176</v>
+      </c>
+      <c r="N53" t="s">
+        <v>177</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53">
+        <v>0.15</v>
+      </c>
+      <c r="R53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54">
+        <v>29800</v>
+      </c>
+      <c r="C54">
+        <v>31000</v>
+      </c>
+      <c r="D54">
+        <v>30500</v>
+      </c>
+      <c r="E54">
+        <v>29800</v>
+      </c>
+      <c r="F54">
+        <v>2870</v>
+      </c>
+      <c r="G54">
+        <v>900</v>
+      </c>
+      <c r="H54">
+        <v>550</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>0.04</v>
+      </c>
+      <c r="L54">
+        <v>3400</v>
+      </c>
+      <c r="M54" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" t="s">
+        <v>180</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55">
+        <v>34000</v>
+      </c>
+      <c r="C55">
+        <v>35000</v>
+      </c>
+      <c r="D55">
+        <v>36000</v>
+      </c>
+      <c r="E55">
+        <v>32000</v>
+      </c>
+      <c r="F55">
+        <v>31000</v>
+      </c>
+      <c r="G55">
+        <v>930</v>
+      </c>
+      <c r="H55">
+        <v>625</v>
+      </c>
+      <c r="I55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>0.03</v>
+      </c>
+      <c r="L55">
+        <v>3500</v>
+      </c>
+      <c r="M55" t="s">
+        <v>182</v>
+      </c>
+      <c r="N55" t="s">
+        <v>183</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56">
+        <v>36000</v>
+      </c>
+      <c r="C56">
+        <v>35000</v>
+      </c>
+      <c r="D56">
+        <v>38300</v>
+      </c>
+      <c r="E56">
+        <v>34000</v>
+      </c>
+      <c r="F56">
+        <v>34000</v>
+      </c>
+      <c r="G56">
+        <v>950</v>
+      </c>
+      <c r="H56">
+        <v>660</v>
+      </c>
+      <c r="I56" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>0.03</v>
+      </c>
+      <c r="L56">
+        <v>3800</v>
+      </c>
+      <c r="M56" t="s">
+        <v>185</v>
+      </c>
+      <c r="N56" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56">
+        <v>0.15</v>
+      </c>
+      <c r="R56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57">
+        <v>38000</v>
+      </c>
+      <c r="C57">
+        <v>40000</v>
+      </c>
+      <c r="D57">
+        <v>39000</v>
+      </c>
+      <c r="E57">
+        <v>43000</v>
+      </c>
+      <c r="F57">
+        <v>43400</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>750</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>0.04</v>
+      </c>
+      <c r="L57">
+        <v>4000</v>
+      </c>
+      <c r="M57" t="s">
+        <v>188</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3022,7 +3919,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3030,7 +3927,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
@@ -3041,25 +3938,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3073,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3087,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3101,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3115,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3129,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3143,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3157,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3171,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3185,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3199,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3213,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3227,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3241,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3255,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3269,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3283,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3297,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3311,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3325,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3339,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3353,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3367,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3381,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3395,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3409,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3423,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3437,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3451,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3465,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3479,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3493,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3507,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3521,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3535,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3549,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3563,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3577,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3591,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3605,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3619,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3633,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3647,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3661,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3675,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3689,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3703,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3717,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3731,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3745,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3759,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3773,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3787,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3801,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3815,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3829,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3843,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3857,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3871,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3885,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3899,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3913,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3927,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3941,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3955,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3969,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3983,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3997,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4011,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4025,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4039,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4053,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4067,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4081,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4095,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4109,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4123,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4137,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4151,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4165,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4179,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4193,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4207,7 +5104,427 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93">
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99">
+        <v>23</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100">
+        <v>21</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113">
+        <v>24</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>name</t>
   </si>
@@ -586,6 +586,66 @@
   </si>
   <si>
     <t>90000-120000</t>
+  </si>
+  <si>
+    <t>Hob Goblin Leader</t>
+  </si>
+  <si>
+    <t>95600-120780</t>
+  </si>
+  <si>
+    <t>125000-130000</t>
+  </si>
+  <si>
+    <t>Shadow Mephit</t>
+  </si>
+  <si>
+    <t>156000-180000</t>
+  </si>
+  <si>
+    <t>135000-145000</t>
+  </si>
+  <si>
+    <t>Clock Work Pegasus</t>
+  </si>
+  <si>
+    <t>185000-220000</t>
+  </si>
+  <si>
+    <t>152000-160000</t>
+  </si>
+  <si>
+    <t>Labyrinth Specter</t>
+  </si>
+  <si>
+    <t>230000-250000</t>
+  </si>
+  <si>
+    <t>160000-176000</t>
+  </si>
+  <si>
+    <t>Tarrasque</t>
+  </si>
+  <si>
+    <t>265000-270000</t>
+  </si>
+  <si>
+    <t>180000-230000</t>
+  </si>
+  <si>
+    <t>Treant</t>
+  </si>
+  <si>
+    <t>270000-290000</t>
+  </si>
+  <si>
+    <t>240000-260000</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>270000-300000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -948,7 +1008,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,18 +1017,18 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
@@ -3895,6 +3955,356 @@
         <v>1</v>
       </c>
       <c r="R57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58">
+        <v>67000</v>
+      </c>
+      <c r="C58">
+        <v>65000</v>
+      </c>
+      <c r="D58">
+        <v>78000</v>
+      </c>
+      <c r="E58">
+        <v>64000</v>
+      </c>
+      <c r="F58">
+        <v>80000</v>
+      </c>
+      <c r="G58">
+        <v>1050</v>
+      </c>
+      <c r="H58">
+        <v>775</v>
+      </c>
+      <c r="I58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>0.03</v>
+      </c>
+      <c r="L58">
+        <v>4200</v>
+      </c>
+      <c r="M58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N58" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59">
+        <v>120000</v>
+      </c>
+      <c r="C59">
+        <v>88000</v>
+      </c>
+      <c r="D59">
+        <v>89000</v>
+      </c>
+      <c r="E59">
+        <v>97000</v>
+      </c>
+      <c r="F59">
+        <v>110000</v>
+      </c>
+      <c r="G59">
+        <v>1120</v>
+      </c>
+      <c r="H59">
+        <v>820</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>0.4</v>
+      </c>
+      <c r="L59">
+        <v>4400</v>
+      </c>
+      <c r="M59" t="s">
+        <v>194</v>
+      </c>
+      <c r="N59" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60">
+        <v>117000</v>
+      </c>
+      <c r="C60">
+        <v>108000</v>
+      </c>
+      <c r="D60">
+        <v>110000</v>
+      </c>
+      <c r="E60">
+        <v>109000</v>
+      </c>
+      <c r="F60">
+        <v>112000</v>
+      </c>
+      <c r="G60">
+        <v>1150</v>
+      </c>
+      <c r="H60">
+        <v>850</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>0.04</v>
+      </c>
+      <c r="L60">
+        <v>4500</v>
+      </c>
+      <c r="M60" t="s">
+        <v>197</v>
+      </c>
+      <c r="N60" t="s">
+        <v>198</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61">
+        <v>120000</v>
+      </c>
+      <c r="C61">
+        <v>121000</v>
+      </c>
+      <c r="D61">
+        <v>122000</v>
+      </c>
+      <c r="E61">
+        <v>118000</v>
+      </c>
+      <c r="F61">
+        <v>119000</v>
+      </c>
+      <c r="G61">
+        <v>1200</v>
+      </c>
+      <c r="H61">
+        <v>890</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>0.03</v>
+      </c>
+      <c r="L61">
+        <v>4700</v>
+      </c>
+      <c r="M61" t="s">
+        <v>200</v>
+      </c>
+      <c r="N61" t="s">
+        <v>201</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62">
+        <v>120000</v>
+      </c>
+      <c r="C62">
+        <v>125000</v>
+      </c>
+      <c r="D62">
+        <v>122000</v>
+      </c>
+      <c r="E62">
+        <v>122000</v>
+      </c>
+      <c r="F62">
+        <v>100000</v>
+      </c>
+      <c r="G62">
+        <v>1260</v>
+      </c>
+      <c r="H62">
+        <v>910</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>0.03</v>
+      </c>
+      <c r="L62">
+        <v>5000</v>
+      </c>
+      <c r="M62" t="s">
+        <v>203</v>
+      </c>
+      <c r="N62" t="s">
+        <v>204</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63">
+        <v>120000</v>
+      </c>
+      <c r="C63">
+        <v>133000</v>
+      </c>
+      <c r="D63">
+        <v>130000</v>
+      </c>
+      <c r="E63">
+        <v>133000</v>
+      </c>
+      <c r="F63">
+        <v>124000</v>
+      </c>
+      <c r="G63">
+        <v>1300</v>
+      </c>
+      <c r="H63">
+        <v>960</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0.05</v>
+      </c>
+      <c r="L63">
+        <v>5250</v>
+      </c>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64">
+        <v>133000</v>
+      </c>
+      <c r="C64">
+        <v>135000</v>
+      </c>
+      <c r="D64">
+        <v>136000</v>
+      </c>
+      <c r="E64">
+        <v>134000</v>
+      </c>
+      <c r="F64">
+        <v>139000</v>
+      </c>
+      <c r="G64">
+        <v>1400</v>
+      </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>40</v>
+      </c>
+      <c r="K64">
+        <v>0.06</v>
+      </c>
+      <c r="L64">
+        <v>6000</v>
+      </c>
+      <c r="M64" t="s">
+        <v>209</v>
+      </c>
+      <c r="N64" t="s">
+        <v>209</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3919,7 +4329,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,25 +4348,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3970,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3984,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3998,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4012,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4026,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4040,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4054,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4068,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4082,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4096,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4110,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4124,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4138,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4152,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4166,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4180,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4194,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4208,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4222,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4236,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4250,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4264,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4278,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4292,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4306,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4320,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4334,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4348,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4362,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4376,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4390,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4404,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4418,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4432,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4446,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4460,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4474,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4488,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4502,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4516,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4530,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4544,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4558,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4572,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4586,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4600,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4614,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4628,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4642,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4656,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4670,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4684,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4698,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4712,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4726,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4740,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4754,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4768,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4782,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4796,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4810,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4824,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4838,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4852,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4866,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4880,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4894,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4908,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4922,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4936,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4950,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4964,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4978,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4992,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5006,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5020,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5034,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5048,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5062,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5076,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5090,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5104,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5118,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5132,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5146,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5160,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5174,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5188,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5202,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5216,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5230,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5244,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5258,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5272,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5286,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5300,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5314,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5328,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5342,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5356,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5370,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5384,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5398,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5412,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5426,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5440,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5454,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5468,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5482,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5496,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5510,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5524,7 +5934,203 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115">
+        <v>26</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118">
+        <v>31</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122">
+        <v>36</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126">
+        <v>46</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127">
+        <v>46</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -684,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -705,12 +705,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -761,7 +755,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,16 +779,16 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
@@ -1505,19 +1499,19 @@
         <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>46</v>
@@ -1555,19 +1549,19 @@
         <v>60</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>25000</v>
+        <v>4580</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>25000</v>
+        <v>4580</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>25000</v>
+        <v>4580</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>25000</v>
+        <v>4580</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>25000</v>
+        <v>4580</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>50</v>
@@ -1611,19 +1605,19 @@
         <v>63</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>55000</v>
+        <v>8000</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>55000</v>
+        <v>8000</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>55000</v>
+        <v>8000</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>55000</v>
+        <v>8000</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>55000</v>
+        <v>8000</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>75</v>
@@ -1667,19 +1661,19 @@
         <v>66</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>90</v>
@@ -1717,19 +1711,19 @@
         <v>69</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>100</v>
@@ -1767,19 +1761,19 @@
         <v>72</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>157000</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>157000</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>157000</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>157000</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>157000</v>
+        <v>35000</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>35000</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>110</v>
@@ -1817,19 +1811,19 @@
         <v>75</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>430000</v>
+        <v>37000</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>430000</v>
+        <v>37000</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>430000</v>
+        <v>37000</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>430000</v>
+        <v>37000</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>430000</v>
+        <v>37000</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>120</v>
@@ -1867,19 +1861,19 @@
         <v>78</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>140</v>
@@ -1917,19 +1911,19 @@
         <v>81</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>750000</v>
+        <v>59000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>750000</v>
+        <v>59000</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>750000</v>
+        <v>59000</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>750000</v>
+        <v>59000</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>750000</v>
+        <v>59000</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>130</v>
@@ -1967,19 +1961,19 @@
         <v>84</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>825000</v>
+        <v>68000</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>825000</v>
+        <v>68000</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>825000</v>
+        <v>68000</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>825000</v>
+        <v>68000</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>825000</v>
+        <v>68000</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>140</v>
@@ -2023,19 +2017,19 @@
         <v>88</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>145</v>
@@ -2073,19 +2067,19 @@
         <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>935000</v>
+        <v>75000</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>935000</v>
+        <v>75000</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>935000</v>
+        <v>75000</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>935000</v>
+        <v>75000</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>935000</v>
+        <v>75000</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>155</v>
@@ -2123,19 +2117,19 @@
         <v>94</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>958000</v>
+        <v>120000</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>958000</v>
+        <v>120000</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>958000</v>
+        <v>120000</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>958000</v>
+        <v>120000</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>958000</v>
+        <v>120000</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>160</v>
@@ -2173,19 +2167,19 @@
         <v>97</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>975000</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>975000</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>975000</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>975000</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>975000</v>
+        <v>130000</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>130000</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>200</v>
@@ -2223,19 +2217,19 @@
         <v>100</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>230</v>
@@ -2273,19 +2267,19 @@
         <v>103</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2000000</v>
+        <v>180000</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>2000000</v>
+        <v>180000</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2000000</v>
+        <v>180000</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>2000000</v>
+        <v>180000</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>2000000</v>
+        <v>180000</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>260</v>
@@ -2323,19 +2317,19 @@
         <v>106</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>300</v>
@@ -2373,19 +2367,19 @@
         <v>109</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3750000</v>
+        <v>5000</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3750000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>3750000</v>
+        <v>5000</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>3750000</v>
+        <v>5000</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>3750000</v>
+        <v>5000</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>75</v>
@@ -2423,19 +2417,19 @@
         <v>112</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>4000000</v>
+        <v>15000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>4000000</v>
+        <v>15000</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>4000000</v>
+        <v>15000</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>4000000</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>4000000</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>85</v>
@@ -2473,19 +2467,19 @@
         <v>115</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>4150000</v>
+        <v>45000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>4150000</v>
+        <v>45000</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>4150000</v>
+        <v>45000</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>4150000</v>
+        <v>45000</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>4150000</v>
+        <v>45000</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>95</v>
@@ -2523,19 +2517,19 @@
         <v>118</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>4300000</v>
+        <v>49000</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>4300000</v>
+        <v>49000</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>4300000</v>
+        <v>49000</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>4300000</v>
+        <v>49000</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>4300000</v>
+        <v>49000</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>125</v>
@@ -2573,19 +2567,19 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>4580000</v>
+        <v>60000</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>4580000</v>
+        <v>60000</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>4580000</v>
+        <v>60000</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>4580000</v>
+        <v>60000</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>4580000</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>150</v>
@@ -2623,19 +2617,19 @@
         <v>124</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>4850000</v>
+        <v>63000</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>4850000</v>
+        <v>63000</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>4850000</v>
+        <v>63000</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>4850000</v>
+        <v>63000</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>4850000</v>
+        <v>63000</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>175</v>
@@ -2673,19 +2667,19 @@
         <v>127</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>5180000</v>
+        <v>75000</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>5180000</v>
+        <v>75000</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>5180000</v>
+        <v>75000</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>5180000</v>
+        <v>75000</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>5180000</v>
+        <v>75000</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>200</v>
@@ -2723,19 +2717,19 @@
         <v>130</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>5300000</v>
+        <v>85000</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>5300000</v>
+        <v>85000</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>5300000</v>
+        <v>85000</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>5300000</v>
+        <v>85000</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>5300000</v>
+        <v>85000</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>260</v>
@@ -2773,19 +2767,19 @@
         <v>133</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>5580000</v>
+        <v>93000</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>5580000</v>
+        <v>93000</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>5580000</v>
+        <v>93000</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>5580000</v>
+        <v>93000</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>5580000</v>
+        <v>93000</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>320</v>
@@ -2823,19 +2817,19 @@
         <v>136</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>5680000</v>
+        <v>125000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>5680000</v>
+        <v>125000</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>5680000</v>
+        <v>125000</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>5680000</v>
+        <v>125000</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>5680000</v>
+        <v>125000</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>350</v>
@@ -2873,19 +2867,19 @@
         <v>139</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>5835000</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>5835000</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>5835000</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>5835000</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>5835000</v>
+        <v>150000</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>150000</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>375</v>
@@ -2923,19 +2917,19 @@
         <v>142</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>6325800</v>
+        <v>160000</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>6325800</v>
+        <v>160000</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>6325800</v>
+        <v>160000</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>6325800</v>
+        <v>160000</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>6325800</v>
+        <v>160000</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>400</v>
@@ -2973,19 +2967,19 @@
         <v>145</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>6500000</v>
+        <v>170000</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>6500000</v>
+        <v>170000</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>6500000</v>
+        <v>170000</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>6500000</v>
+        <v>170000</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>6500000</v>
+        <v>170000</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>450</v>
@@ -3023,19 +3017,19 @@
         <v>148</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>6850000</v>
+        <v>180000</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>6850000</v>
+        <v>180000</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>6850000</v>
+        <v>180000</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>6850000</v>
+        <v>180000</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>6850000</v>
+        <v>180000</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>475</v>
@@ -3073,19 +3067,19 @@
         <v>151</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>6985000</v>
+        <v>190000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>6985000</v>
+        <v>190000</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>6985000</v>
+        <v>190000</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>6985000</v>
+        <v>190000</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>6985000</v>
+        <v>190000</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>500</v>
@@ -3123,19 +3117,19 @@
         <v>154</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>7158000</v>
+        <v>225000</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>7158000</v>
+        <v>225000</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>7158000</v>
+        <v>225000</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>7158000</v>
+        <v>225000</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>7158000</v>
+        <v>225000</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>560</v>
@@ -3173,19 +3167,19 @@
         <v>157</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>7485000</v>
+        <v>235000</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>7485000</v>
+        <v>235000</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>7485000</v>
+        <v>235000</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>7485000</v>
+        <v>235000</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>7485000</v>
+        <v>235000</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>620</v>
@@ -3223,19 +3217,19 @@
         <v>160</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>7580000</v>
+        <v>260000</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7580000</v>
+        <v>260000</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>7580000</v>
+        <v>260000</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>7580000</v>
+        <v>260000</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>7580000</v>
+        <v>260000</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>660</v>
@@ -3272,20 +3266,20 @@
       <c r="A49" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>7950000</v>
+      <c r="B49" s="1" t="n">
+        <v>275000</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>7950000</v>
+        <v>275000</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>7950000</v>
+        <v>275000</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>7950000</v>
+        <v>275000</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>7950000</v>
+        <v>275000</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>690</v>
@@ -3323,19 +3317,19 @@
         <v>166</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>8350000</v>
+        <v>283000</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>8350000</v>
+        <v>283000</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>8350000</v>
+        <v>283000</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>8350000</v>
+        <v>283000</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>8350000</v>
+        <v>283000</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>715</v>
@@ -3373,19 +3367,19 @@
         <v>169</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>8590000</v>
+        <v>285000</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>8590000</v>
+        <v>285000</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>8590000</v>
+        <v>285000</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>8590000</v>
+        <v>285000</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>8590000</v>
+        <v>285000</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>745</v>
@@ -3423,19 +3417,19 @@
         <v>172</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>9158000</v>
+        <v>290000</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>9158000</v>
+        <v>290000</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>9158000</v>
+        <v>290000</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>9158000</v>
+        <v>290000</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>9158000</v>
+        <v>290000</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>800</v>
@@ -3473,19 +3467,19 @@
         <v>175</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>9358000</v>
+        <v>295000</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>9358000</v>
+        <v>295000</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>9358000</v>
+        <v>295000</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>9358000</v>
+        <v>295000</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>9358000</v>
+        <v>295000</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>850</v>
@@ -3529,19 +3523,19 @@
         <v>178</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>9586000</v>
+        <v>300000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>9586000</v>
+        <v>300000</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>9586000</v>
+        <v>300000</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>9586000</v>
+        <v>300000</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>9586000</v>
+        <v>300000</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>900</v>
@@ -3579,19 +3573,19 @@
         <v>181</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10250000</v>
+        <v>310000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>10250000</v>
+        <v>310000</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>10250000</v>
+        <v>310000</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>10250000</v>
+        <v>310000</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>10250000</v>
+        <v>310000</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>930</v>
@@ -3629,19 +3623,19 @@
         <v>184</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10500000</v>
+        <v>320000</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>10500000</v>
+        <v>320000</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>10500000</v>
+        <v>320000</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>10500000</v>
+        <v>320000</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>10500000</v>
+        <v>320000</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>950</v>
@@ -3685,19 +3679,19 @@
         <v>187</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10856000</v>
+        <v>330000</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>10856000</v>
+        <v>330000</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>10856000</v>
+        <v>330000</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>10856000</v>
+        <v>330000</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>10856000</v>
+        <v>330000</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1000</v>
@@ -3735,19 +3729,19 @@
         <v>190</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>11500000</v>
+        <v>345000</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>11500000</v>
+        <v>345000</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>11500000</v>
+        <v>345000</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>11500000</v>
+        <v>345000</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>11500000</v>
+        <v>345000</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1050</v>
@@ -3785,19 +3779,19 @@
         <v>193</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>11999999</v>
+        <v>350000</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>11999999</v>
+        <v>350000</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>11999999</v>
+        <v>350000</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>11999999</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>10000000</v>
+        <v>350000</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>350000</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1120</v>
@@ -3835,19 +3829,19 @@
         <v>196</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>12000000</v>
+        <v>360000</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>12000000</v>
+        <v>360000</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>12000000</v>
+        <v>360000</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>12000000</v>
+        <v>360000</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>360000</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1150</v>
@@ -3885,19 +3879,19 @@
         <v>199</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>13000000</v>
+        <v>370000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>13000000</v>
+        <v>370000</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>13000000</v>
+        <v>370000</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>13000000</v>
+        <v>370000</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>12999999</v>
+        <v>370000</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1200</v>
@@ -3935,19 +3929,19 @@
         <v>202</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>14000000</v>
+        <v>380000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>14000000</v>
+        <v>380000</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>14000000</v>
+        <v>380000</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>14000000</v>
+        <v>380000</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>14000000</v>
+        <v>380000</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1260</v>
@@ -3985,19 +3979,19 @@
         <v>205</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>16000000</v>
+        <v>390000</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>16000000</v>
+        <v>390000</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>16000000</v>
+        <v>390000</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>16000000</v>
+        <v>390000</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>16000000</v>
+        <v>390000</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1300</v>
@@ -4035,19 +4029,19 @@
         <v>208</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>17000000</v>
+        <v>400000</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>17000000</v>
+        <v>400000</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>17000000</v>
+        <v>400000</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>17000000</v>
+        <v>400000</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>17000000</v>
+        <v>400000</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1500</v>
@@ -4102,7 +4096,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D193749-E0EF-C344-8699-C1BFE01BC90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
-    <sheet name="Monsters Skills" sheetId="2" r:id="rId2"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
+    <sheet name="Monsters Skills" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>name</t>
   </si>
@@ -694,13 +675,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,38 +693,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -754,44 +729,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -819,31 +794,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -871,23 +829,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,174 +840,203 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1178,7 +1148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1540,7 +1510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1596,7 +1566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1652,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1708,7 +1678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1758,23 +1728,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14">
         <v>3500</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>3500</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>3500</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>3500</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>3500</v>
       </c>
       <c r="G14">
@@ -1808,23 +1778,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15">
         <v>4580</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>4580</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>4580</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>4580</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>4580</v>
       </c>
       <c r="G15">
@@ -1864,23 +1834,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16">
         <v>8000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>8000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>8000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>8000</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>8000</v>
       </c>
       <c r="G16">
@@ -1920,23 +1890,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>66</v>
       </c>
       <c r="B17">
         <v>16000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>16000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>16000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>16000</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>16000</v>
       </c>
       <c r="G17">
@@ -1970,23 +1940,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>69</v>
       </c>
       <c r="B18">
         <v>32000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>32000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>32000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>32000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>32000</v>
       </c>
       <c r="G18">
@@ -2020,23 +1990,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>72</v>
       </c>
       <c r="B19">
         <v>35000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>35000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>35000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>35000</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>35000</v>
       </c>
       <c r="G19">
@@ -2070,23 +2040,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20">
         <v>37000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>37000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>37000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>37000</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>37000</v>
       </c>
       <c r="G20">
@@ -2120,23 +2090,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>78</v>
       </c>
       <c r="B21">
         <v>55000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>55000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>55000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>55000</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>55000</v>
       </c>
       <c r="G21">
@@ -2170,23 +2140,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22">
         <v>59000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>59000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>59000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>59000</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>59000</v>
       </c>
       <c r="G22">
@@ -2220,23 +2190,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23">
         <v>68000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>68000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>68000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>68000</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>68000</v>
       </c>
       <c r="G23">
@@ -2276,23 +2246,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>88</v>
       </c>
       <c r="B24">
         <v>72000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>72000</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>72000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>72000</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>72000</v>
       </c>
       <c r="G24">
@@ -2326,23 +2296,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>91</v>
       </c>
       <c r="B25">
         <v>75000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>75000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>75000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>75000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>75000</v>
       </c>
       <c r="G25">
@@ -2376,23 +2346,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>94</v>
       </c>
       <c r="B26">
         <v>120000</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>120000</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>120000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>120000</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>120000</v>
       </c>
       <c r="G26">
@@ -2426,7 +2396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -2476,23 +2446,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>100</v>
       </c>
       <c r="B28">
         <v>150000</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>150000</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>150000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>150000</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>150000</v>
       </c>
       <c r="G28">
@@ -2526,23 +2496,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>103</v>
       </c>
       <c r="B29">
         <v>180000</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>180000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>180000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>180000</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>180000</v>
       </c>
       <c r="G29">
@@ -2576,23 +2546,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>106</v>
       </c>
       <c r="B30">
         <v>250000</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>250000</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>250000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>250000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>250000</v>
       </c>
       <c r="G30">
@@ -2626,23 +2596,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>109</v>
       </c>
       <c r="B31">
         <v>5000</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>5000</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>5000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>5000</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>5000</v>
       </c>
       <c r="G31">
@@ -2676,23 +2646,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>112</v>
       </c>
       <c r="B32">
         <v>15000</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>15000</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>15000</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>15000</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>15000</v>
       </c>
       <c r="G32">
@@ -2726,23 +2696,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>115</v>
       </c>
       <c r="B33">
         <v>45000</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>45000</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>45000</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>45000</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>45000</v>
       </c>
       <c r="G33">
@@ -2776,23 +2746,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>118</v>
       </c>
       <c r="B34">
         <v>49000</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>49000</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>49000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>49000</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>49000</v>
       </c>
       <c r="G34">
@@ -2826,23 +2796,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>121</v>
       </c>
       <c r="B35">
         <v>60000</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>60000</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>60000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>60000</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>60000</v>
       </c>
       <c r="G35">
@@ -2876,23 +2846,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>124</v>
       </c>
       <c r="B36">
         <v>63000</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>63000</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>63000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>63000</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>63000</v>
       </c>
       <c r="G36">
@@ -2926,23 +2896,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>127</v>
       </c>
       <c r="B37">
         <v>75000</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>75000</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>75000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>75000</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>75000</v>
       </c>
       <c r="G37">
@@ -2976,23 +2946,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>130</v>
       </c>
       <c r="B38">
         <v>85000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>85000</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>85000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>85000</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>85000</v>
       </c>
       <c r="G38">
@@ -3026,23 +2996,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>133</v>
       </c>
       <c r="B39">
         <v>93000</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>93000</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>93000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>93000</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>93000</v>
       </c>
       <c r="G39">
@@ -3076,23 +3046,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>136</v>
       </c>
       <c r="B40">
         <v>125000</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>125000</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>125000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>125000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>125000</v>
       </c>
       <c r="G40">
@@ -3126,23 +3096,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>139</v>
       </c>
       <c r="B41">
         <v>150000</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>150000</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>150000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>150000</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>150000</v>
       </c>
       <c r="G41">
@@ -3176,23 +3146,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>142</v>
       </c>
       <c r="B42">
         <v>160000</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>160000</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>160000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>160000</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>160000</v>
       </c>
       <c r="G42">
@@ -3226,23 +3196,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>145</v>
       </c>
       <c r="B43">
         <v>170000</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>170000</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>170000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>170000</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>170000</v>
       </c>
       <c r="G43">
@@ -3276,23 +3246,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>148</v>
       </c>
       <c r="B44">
         <v>180000</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>180000</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>180000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>180000</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>180000</v>
       </c>
       <c r="G44">
@@ -3326,23 +3296,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>151</v>
       </c>
       <c r="B45">
         <v>190000</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>190000</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>190000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>190000</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>190000</v>
       </c>
       <c r="G45">
@@ -3376,23 +3346,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>154</v>
       </c>
       <c r="B46">
         <v>225000</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>225000</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>225000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>225000</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>225000</v>
       </c>
       <c r="G46">
@@ -3426,23 +3396,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>157</v>
       </c>
       <c r="B47">
         <v>235000</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>235000</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>235000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>235000</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>235000</v>
       </c>
       <c r="G47">
@@ -3476,23 +3446,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>160</v>
       </c>
       <c r="B48">
         <v>260000</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>260000</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>260000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>260000</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>260000</v>
       </c>
       <c r="G48">
@@ -3526,23 +3496,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>275000</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>275000</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>275000</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>275000</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>275000</v>
       </c>
       <c r="G49">
@@ -3576,23 +3546,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>166</v>
       </c>
       <c r="B50">
         <v>283000</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>283000</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>283000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>283000</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>283000</v>
       </c>
       <c r="G50">
@@ -3626,23 +3596,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>169</v>
       </c>
       <c r="B51">
         <v>285000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>285000</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>285000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>285000</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>285000</v>
       </c>
       <c r="G51">
@@ -3676,23 +3646,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>172</v>
       </c>
       <c r="B52">
         <v>290000</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>290000</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>290000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>290000</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>290000</v>
       </c>
       <c r="G52">
@@ -3726,23 +3696,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>175</v>
       </c>
       <c r="B53">
         <v>295000</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>295000</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>295000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>295000</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>295000</v>
       </c>
       <c r="G53">
@@ -3782,23 +3752,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>178</v>
       </c>
       <c r="B54">
         <v>300000</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>300000</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>300000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>300000</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>300000</v>
       </c>
       <c r="G54">
@@ -3832,23 +3802,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>181</v>
       </c>
       <c r="B55">
         <v>310000</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>310000</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>310000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>310000</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>310000</v>
       </c>
       <c r="G55">
@@ -3882,23 +3852,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>184</v>
       </c>
       <c r="B56">
         <v>320000</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>320000</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>320000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>320000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>320000</v>
       </c>
       <c r="G56">
@@ -3938,23 +3908,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>187</v>
       </c>
       <c r="B57">
         <v>330000</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>330000</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>330000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>330000</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>330000</v>
       </c>
       <c r="G57">
@@ -3988,23 +3958,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>190</v>
       </c>
       <c r="B58">
         <v>345000</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>345000</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>345000</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>345000</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>345000</v>
       </c>
       <c r="G58">
@@ -4038,23 +4008,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>193</v>
       </c>
       <c r="B59">
         <v>350000</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>350000</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>350000</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>350000</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>350000</v>
       </c>
       <c r="G59">
@@ -4088,23 +4058,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>196</v>
       </c>
       <c r="B60">
         <v>360000</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>360000</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>360000</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>360000</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>360000</v>
       </c>
       <c r="G60">
@@ -4138,23 +4108,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>199</v>
       </c>
       <c r="B61">
         <v>370000</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>370000</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>370000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>370000</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>370000</v>
       </c>
       <c r="G61">
@@ -4188,23 +4158,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>202</v>
       </c>
       <c r="B62">
         <v>380000</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>380000</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>380000</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>380000</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>380000</v>
       </c>
       <c r="G62">
@@ -4238,23 +4208,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>390000</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>390000</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>390000</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>390000</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>390000</v>
       </c>
       <c r="G63">
@@ -4288,23 +4258,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>208</v>
       </c>
       <c r="B64">
         <v>400000</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>400000</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>400000</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>400000</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>400000</v>
       </c>
       <c r="G64">
@@ -4339,29 +4309,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -4384,7 +4369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4398,7 +4383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4412,7 +4397,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4426,7 +4411,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4440,7 +4425,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4454,7 +4439,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4468,7 +4453,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4482,7 +4467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4496,7 +4481,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4510,7 +4495,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4524,7 +4509,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4538,7 +4523,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4552,7 +4537,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -4566,7 +4551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -4580,7 +4565,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4594,7 +4579,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -4608,7 +4593,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4622,7 +4607,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4636,7 +4621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4650,7 +4635,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4664,7 +4649,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4678,7 +4663,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4692,7 +4677,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -4706,7 +4691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4720,7 +4705,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4734,7 +4719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4748,7 +4733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4762,7 +4747,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4776,7 +4761,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4790,7 +4775,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4804,7 +4789,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -4818,7 +4803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4832,7 +4817,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -4846,7 +4831,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4860,7 +4845,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -4874,7 +4859,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -4888,7 +4873,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4902,7 +4887,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -4916,7 +4901,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4930,7 +4915,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4944,7 +4929,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -4958,7 +4943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4972,7 +4957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4986,7 +4971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -5000,7 +4985,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -5014,7 +4999,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -5028,7 +5013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -5042,7 +5027,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5056,7 +5041,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -5070,7 +5055,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -5084,7 +5069,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5098,7 +5083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5112,7 +5097,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -5126,7 +5111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -5140,7 +5125,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5154,7 +5139,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -5168,7 +5153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5182,7 +5167,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -5196,7 +5181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -5210,7 +5195,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -5224,7 +5209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5238,7 +5223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -5252,7 +5237,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5266,7 +5251,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -5280,7 +5265,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -5294,7 +5279,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5308,7 +5293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -5322,7 +5307,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -5336,7 +5321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5350,7 +5335,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -5364,7 +5349,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -5378,7 +5363,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -5392,7 +5377,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -5406,7 +5391,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -5420,7 +5405,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -5434,7 +5419,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -5448,7 +5433,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -5462,7 +5447,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -5476,7 +5461,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -5490,7 +5475,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -5504,7 +5489,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -5518,7 +5503,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -5532,7 +5517,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -5546,7 +5531,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -5560,7 +5545,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>148</v>
       </c>
@@ -5574,7 +5559,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -5588,7 +5573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -5602,7 +5587,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -5616,7 +5601,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -5630,7 +5615,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -5644,7 +5629,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -5658,7 +5643,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -5672,7 +5657,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -5686,7 +5671,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -5700,7 +5685,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -5714,7 +5699,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -5728,7 +5713,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>166</v>
       </c>
@@ -5742,7 +5727,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -5756,7 +5741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>169</v>
       </c>
@@ -5770,7 +5755,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -5784,7 +5769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -5798,7 +5783,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5812,7 +5797,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -5826,7 +5811,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -5840,7 +5825,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -5854,7 +5839,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -5868,7 +5853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -5882,7 +5867,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -5896,7 +5881,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -5910,7 +5895,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -5924,7 +5909,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -5938,7 +5923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -5952,7 +5937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>190</v>
       </c>
@@ -5966,7 +5951,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>190</v>
       </c>
@@ -5980,7 +5965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -5994,7 +5979,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>193</v>
       </c>
@@ -6008,7 +5993,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -6022,7 +6007,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>196</v>
       </c>
@@ -6036,7 +6021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>199</v>
       </c>
@@ -6050,7 +6035,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>199</v>
       </c>
@@ -6064,7 +6049,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -6078,7 +6063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>202</v>
       </c>
@@ -6092,7 +6077,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -6106,7 +6091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -6120,7 +6105,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6134,7 +6119,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -6149,7 +6134,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5846A-8D8A-554F-9164-1274CB8BD441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
-    <sheet name="Monsters Skills" sheetId="2" r:id="rId5"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
+    <sheet name="Monsters Skills" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="218">
   <si>
     <t>name</t>
   </si>
@@ -675,14 +691,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -693,28 +704,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,39 +1024,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,21 +1103,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1148,24 +1159,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -1198,30 +1209,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -1248,7 +1259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1622,7 +1633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1728,7 +1739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1778,7 +1789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1890,7 +1901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2140,7 +2151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2190,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2296,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -2446,7 +2457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -2546,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2646,7 +2657,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -2896,7 +2907,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -3046,7 +3057,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3096,7 +3107,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3246,7 +3257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -3296,7 +3307,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -3346,7 +3357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -3396,7 +3407,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3446,7 +3457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -3496,7 +3507,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -3596,7 +3607,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -3646,7 +3657,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -3696,7 +3707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -3752,7 +3763,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -3802,7 +3813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -4008,7 +4019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -4258,7 +4269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -4309,44 +4320,30 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4453,7 +4450,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -4551,7 +4548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -4565,7 +4562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4607,7 +4604,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4621,7 +4618,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4719,7 +4716,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4761,7 +4758,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4775,7 +4772,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4817,7 +4814,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -4831,7 +4828,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -4859,7 +4856,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -4873,7 +4870,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4985,7 +4982,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -4999,7 +4996,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -5055,7 +5052,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5097,7 +5094,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -5111,7 +5108,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -5153,7 +5150,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -5181,7 +5178,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -5195,7 +5192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -5209,7 +5206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5223,7 +5220,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -5279,7 +5276,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -5377,7 +5374,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -5391,7 +5388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -5405,7 +5402,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -5419,7 +5416,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -5503,7 +5500,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -5517,7 +5514,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -5545,7 +5542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>148</v>
       </c>
@@ -5559,7 +5556,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -5573,7 +5570,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -5601,7 +5598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -5615,7 +5612,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>166</v>
       </c>
@@ -5727,7 +5724,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -5741,7 +5738,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>169</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -5853,7 +5850,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -5881,7 +5878,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -5895,7 +5892,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -5909,7 +5906,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>190</v>
       </c>
@@ -5951,7 +5948,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>190</v>
       </c>
@@ -5965,7 +5962,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -5979,7 +5976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>193</v>
       </c>
@@ -5993,7 +5990,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>196</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>199</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>199</v>
       </c>
@@ -6049,7 +6046,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>202</v>
       </c>
@@ -6077,7 +6074,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -6105,7 +6102,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6119,7 +6116,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -6134,17 +6131,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="218">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -86,82 +86,82 @@
     <t xml:space="preserve">1-6</t>
   </si>
   <si>
+    <t xml:space="preserve">Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss Covered Skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon Smiths Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Cultist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell Weaving Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Green Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275-325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350-450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200-300</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flask Of Fresh Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon Imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moss Covered Skeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon Smiths Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Cultist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell Weaving Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Green Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275-325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirate Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350-450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200-300</t>
   </si>
   <si>
     <t xml:space="preserve">Litch</t>
@@ -775,10 +775,10 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8"/>
@@ -896,19 +896,13 @@
       <c r="O2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9</v>
@@ -944,21 +938,21 @@
         <v>25</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>11</v>
@@ -994,21 +988,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="O4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>16</v>
@@ -1044,21 +1038,21 @@
         <v>30</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>24</v>
@@ -1094,27 +1088,27 @@
         <v>40</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -1150,27 +1144,27 @@
         <v>75</v>
       </c>
       <c r="M7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>48</v>
@@ -1206,21 +1200,21 @@
         <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="O8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>50</v>
@@ -1256,21 +1250,21 @@
         <v>95</v>
       </c>
       <c r="M9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>96</v>
@@ -1306,22 +1300,22 @@
         <v>100</v>
       </c>
       <c r="M10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1427,7 @@
         <v>0.15</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>0.16</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1639,7 @@
         <v>0.2</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1995,7 @@
         <v>0.01</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,7 +2386,7 @@
         <v>75</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>110</v>
@@ -3501,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="0" t="n">
         <v>0.15</v>
@@ -3657,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q56" s="0" t="n">
         <v>0.15</v>
@@ -4088,7 +4082,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
@@ -4152,7 +4146,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -4166,7 +4160,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -4180,7 +4174,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -4194,7 +4188,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -4208,7 +4202,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -4222,7 +4216,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -4236,7 +4230,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -4250,7 +4244,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -4264,7 +4258,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -4278,7 +4272,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>6</v>
@@ -4292,7 +4286,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -4306,7 +4300,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -4320,7 +4314,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
@@ -4334,7 +4328,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
@@ -4348,7 +4342,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>12</v>
@@ -4362,7 +4356,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>10</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -778,7 +778,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>80</v>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>500</v>
@@ -1539,7 +1539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>61</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>64</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>70</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>20</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>4400</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>name</t>
   </si>
@@ -39,21 +39,6 @@
     <t>ac</t>
   </si>
   <si>
-    <t>is_celestial_entity</t>
-  </si>
-  <si>
-    <t>gold_cost</t>
-  </si>
-  <si>
-    <t>gold_dust_cost</t>
-  </si>
-  <si>
-    <t>can_cast</t>
-  </si>
-  <si>
-    <t>can_use_artifacts</t>
-  </si>
-  <si>
     <t>max_level</t>
   </si>
   <si>
@@ -69,27 +54,12 @@
     <t>gold</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>health_range</t>
   </si>
   <si>
     <t>attack_range</t>
   </si>
   <si>
-    <t>max_spell_damage</t>
-  </si>
-  <si>
-    <t>max_artifact_damage</t>
-  </si>
-  <si>
-    <t>spell_evasion</t>
-  </si>
-  <si>
-    <t>artifact_annulment</t>
-  </si>
-  <si>
     <t>published</t>
   </si>
   <si>
@@ -378,16 +348,307 @@
     <t>150000-200000</t>
   </si>
   <si>
-    <t>Celestial Treasure Goblin</t>
-  </si>
-  <si>
-    <t>950-1360</t>
-  </si>
-  <si>
-    <t>120-400</t>
-  </si>
-  <si>
-    <t>Alchemist Tools</t>
+    <t>Labyrinth Imp</t>
+  </si>
+  <si>
+    <t>150-300</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Three Sister Hag</t>
+  </si>
+  <si>
+    <t>500-750</t>
+  </si>
+  <si>
+    <t>350-425</t>
+  </si>
+  <si>
+    <t>Tendrils of Nature</t>
+  </si>
+  <si>
+    <t>800-925</t>
+  </si>
+  <si>
+    <t>450-525</t>
+  </si>
+  <si>
+    <t>Labyrinth Golem</t>
+  </si>
+  <si>
+    <t>1000-1350</t>
+  </si>
+  <si>
+    <t>575-650</t>
+  </si>
+  <si>
+    <t>Lost Soul</t>
+  </si>
+  <si>
+    <t>1475-1600</t>
+  </si>
+  <si>
+    <t>700-900</t>
+  </si>
+  <si>
+    <t>Oozing Mess Of Bones</t>
+  </si>
+  <si>
+    <t>1650-1876</t>
+  </si>
+  <si>
+    <t>925-1340</t>
+  </si>
+  <si>
+    <t>Minotar</t>
+  </si>
+  <si>
+    <t>2400-3500</t>
+  </si>
+  <si>
+    <t>1360-1500</t>
+  </si>
+  <si>
+    <t>Hell Screamer</t>
+  </si>
+  <si>
+    <t>4800-5900</t>
+  </si>
+  <si>
+    <t>1600-1850</t>
+  </si>
+  <si>
+    <t>Labyrinth Clockwork Mage</t>
+  </si>
+  <si>
+    <t>5975-6400</t>
+  </si>
+  <si>
+    <t>1975-2500</t>
+  </si>
+  <si>
+    <t>Lumbering Giant</t>
+  </si>
+  <si>
+    <t>6400-7000</t>
+  </si>
+  <si>
+    <t>2600-3200</t>
+  </si>
+  <si>
+    <t>Monstrous Book</t>
+  </si>
+  <si>
+    <t>7200-7500</t>
+  </si>
+  <si>
+    <t>3400-4000</t>
+  </si>
+  <si>
+    <t>Treasure Hunter</t>
+  </si>
+  <si>
+    <t>7600-8000</t>
+  </si>
+  <si>
+    <t>4200-4500</t>
+  </si>
+  <si>
+    <t>Adult Red Dragon</t>
+  </si>
+  <si>
+    <t>9000-14000</t>
+  </si>
+  <si>
+    <t>4500-6000</t>
+  </si>
+  <si>
+    <t>Litch Lord of the Labyrinth</t>
+  </si>
+  <si>
+    <t>14000-17000</t>
+  </si>
+  <si>
+    <t>6200-8000</t>
+  </si>
+  <si>
+    <t>Whisper of Fate</t>
+  </si>
+  <si>
+    <t>19000-25000</t>
+  </si>
+  <si>
+    <t>9000-12000</t>
+  </si>
+  <si>
+    <t>Demonic Angel</t>
+  </si>
+  <si>
+    <t>25000-30000</t>
+  </si>
+  <si>
+    <t>12300-14500</t>
+  </si>
+  <si>
+    <t>Virgin Priestess Zombie</t>
+  </si>
+  <si>
+    <t>32000-35000</t>
+  </si>
+  <si>
+    <t>15300-18900</t>
+  </si>
+  <si>
+    <t>Hells Paladin</t>
+  </si>
+  <si>
+    <t>35000-41000</t>
+  </si>
+  <si>
+    <t>19000-22500</t>
+  </si>
+  <si>
+    <t>Ancient Gold Dragon</t>
+  </si>
+  <si>
+    <t>41500-4700</t>
+  </si>
+  <si>
+    <t>23000-25000</t>
+  </si>
+  <si>
+    <t>Broken Hearted Banshee</t>
+  </si>
+  <si>
+    <t>47000-50000</t>
+  </si>
+  <si>
+    <t>25500-27000</t>
+  </si>
+  <si>
+    <t>Red Wizard of Krull</t>
+  </si>
+  <si>
+    <t>50000-54000</t>
+  </si>
+  <si>
+    <t>28000-31500</t>
+  </si>
+  <si>
+    <t>Devils Lover</t>
+  </si>
+  <si>
+    <t>55000-59500</t>
+  </si>
+  <si>
+    <t>34000-40000</t>
+  </si>
+  <si>
+    <t>Fabled Princess</t>
+  </si>
+  <si>
+    <t>60400-65700</t>
+  </si>
+  <si>
+    <t>43000-50000</t>
+  </si>
+  <si>
+    <t>Demon Hunter</t>
+  </si>
+  <si>
+    <t>66700-69800</t>
+  </si>
+  <si>
+    <t>66000-70000</t>
+  </si>
+  <si>
+    <t>Cyclops Bat</t>
+  </si>
+  <si>
+    <t>70000-76000</t>
+  </si>
+  <si>
+    <t>75000-83000</t>
+  </si>
+  <si>
+    <t>Water Fiend</t>
+  </si>
+  <si>
+    <t>79500-86700</t>
+  </si>
+  <si>
+    <t>84500-87000</t>
+  </si>
+  <si>
+    <t>Labyrinth Hound</t>
+  </si>
+  <si>
+    <t>89000-94000</t>
+  </si>
+  <si>
+    <t>90000-120000</t>
+  </si>
+  <si>
+    <t>Hob Goblin Leader</t>
+  </si>
+  <si>
+    <t>95600-120780</t>
+  </si>
+  <si>
+    <t>125000-130000</t>
+  </si>
+  <si>
+    <t>Shadow Mephit</t>
+  </si>
+  <si>
+    <t>156000-180000</t>
+  </si>
+  <si>
+    <t>135000-145000</t>
+  </si>
+  <si>
+    <t>Clock Work Pegasus</t>
+  </si>
+  <si>
+    <t>185000-220000</t>
+  </si>
+  <si>
+    <t>152000-160000</t>
+  </si>
+  <si>
+    <t>Labyrinth Specter</t>
+  </si>
+  <si>
+    <t>230000-250000</t>
+  </si>
+  <si>
+    <t>160000-176000</t>
+  </si>
+  <si>
+    <t>Tarrasque</t>
+  </si>
+  <si>
+    <t>265000-270000</t>
+  </si>
+  <si>
+    <t>180000-230000</t>
+  </si>
+  <si>
+    <t>Treant</t>
+  </si>
+  <si>
+    <t>270000-290000</t>
+  </si>
+  <si>
+    <t>240000-260000</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>270000-300000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -750,7 +1011,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,37 +1019,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,40 +1094,10 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>28</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -896,58 +1117,43 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="H2">
         <v>3</v>
       </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
       <c r="N2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.0</v>
-      </c>
-      <c r="X2">
-        <v>0.0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2">
         <v>0.18</v>
       </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -967,52 +1173,37 @@
       <c r="G3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="H3">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0.02</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>0.02</v>
-      </c>
-      <c r="Q3">
-        <v>25</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.0</v>
-      </c>
-      <c r="X3">
-        <v>0.0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1032,52 +1223,37 @@
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="M4">
+      <c r="H4">
         <v>9</v>
       </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>0.03</v>
-      </c>
-      <c r="Q4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.0</v>
-      </c>
-      <c r="X4">
-        <v>0.0</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1097,52 +1273,37 @@
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="H5">
         <v>8</v>
       </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>0.03</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.0</v>
-      </c>
-      <c r="X5">
-        <v>0.0</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1162,58 +1323,43 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="M6">
+      <c r="H6">
         <v>14</v>
       </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
       <c r="N6" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>0.03</v>
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>40</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0.0</v>
-      </c>
-      <c r="X6">
-        <v>0.0</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6">
         <v>0.1</v>
       </c>
-      <c r="AB6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -1233,58 +1379,43 @@
       <c r="G7">
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="H7">
         <v>25</v>
       </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>75</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0.0</v>
-      </c>
-      <c r="X7">
-        <v>0.0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7">
         <v>0.15</v>
       </c>
-      <c r="AB7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -1304,52 +1435,37 @@
       <c r="G8">
         <v>18</v>
       </c>
-      <c r="M8">
+      <c r="H8">
         <v>40</v>
       </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
       <c r="N8" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>80</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0.0</v>
-      </c>
-      <c r="X8">
-        <v>0.0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1369,52 +1485,37 @@
       <c r="G9">
         <v>22</v>
       </c>
-      <c r="M9">
+      <c r="H9">
         <v>60</v>
       </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
       <c r="N9" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>0.05</v>
-      </c>
-      <c r="Q9">
-        <v>95</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.0</v>
-      </c>
-      <c r="X9">
-        <v>0.0</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -1434,58 +1535,43 @@
       <c r="G10">
         <v>25</v>
       </c>
-      <c r="M10">
+      <c r="H10">
         <v>100</v>
       </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0.09</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
       <c r="N10" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>0.09</v>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
       </c>
       <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.0</v>
-      </c>
-      <c r="X10">
-        <v>0.0</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA10">
         <v>0.01</v>
       </c>
-      <c r="AB10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -1505,58 +1591,43 @@
       <c r="G11">
         <v>28</v>
       </c>
-      <c r="M11">
+      <c r="H11">
         <v>140</v>
       </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
       <c r="N11" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
       </c>
       <c r="Q11">
-        <v>250</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.0</v>
-      </c>
-      <c r="X11">
-        <v>0.0</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11">
         <v>0.15</v>
       </c>
-      <c r="AB11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -1576,58 +1647,43 @@
       <c r="G12">
         <v>100</v>
       </c>
-      <c r="M12">
+      <c r="H12">
         <v>200</v>
       </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>350</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
       </c>
       <c r="Q12">
-        <v>350</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" t="s">
-        <v>63</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0.0</v>
-      </c>
-      <c r="X12">
-        <v>0.0</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA12">
         <v>0.15</v>
       </c>
-      <c r="AB12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -1647,52 +1703,37 @@
       <c r="G13">
         <v>250</v>
       </c>
-      <c r="M13">
+      <c r="H13">
         <v>260</v>
       </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>0.1</v>
-      </c>
-      <c r="Q13">
-        <v>500</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.0</v>
-      </c>
-      <c r="X13">
-        <v>0.0</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -1712,52 +1753,37 @@
       <c r="G14">
         <v>1000</v>
       </c>
-      <c r="M14">
+      <c r="H14">
         <v>300</v>
       </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+      <c r="L14">
+        <v>750</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="O14">
-        <v>8</v>
-      </c>
-      <c r="P14">
-        <v>0.01</v>
-      </c>
-      <c r="Q14">
-        <v>750</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.0</v>
-      </c>
-      <c r="X14">
-        <v>0.0</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -1777,58 +1803,43 @@
       <c r="G15">
         <v>2300</v>
       </c>
-      <c r="M15">
+      <c r="H15">
         <v>425</v>
       </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
+        <v>825</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="O15">
-        <v>9</v>
-      </c>
-      <c r="P15">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
       </c>
       <c r="Q15">
-        <v>825</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0.0</v>
-      </c>
-      <c r="X15">
-        <v>0.0</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA15">
         <v>0.16</v>
       </c>
-      <c r="AB15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>8000</v>
@@ -1848,58 +1859,43 @@
       <c r="G16">
         <v>420</v>
       </c>
-      <c r="M16">
+      <c r="H16">
         <v>470</v>
       </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
       <c r="N16" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="O16">
-        <v>10</v>
-      </c>
-      <c r="P16">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>54</v>
       </c>
       <c r="Q16">
-        <v>1000</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0.0</v>
-      </c>
-      <c r="X16">
-        <v>0.0</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16">
         <v>0.2</v>
       </c>
-      <c r="AB16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="R16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>16000</v>
@@ -1919,52 +1915,37 @@
       <c r="G17">
         <v>460</v>
       </c>
-      <c r="M17">
+      <c r="H17">
         <v>490</v>
       </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.04</v>
+      </c>
+      <c r="L17">
+        <v>1100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17">
-        <v>0.04</v>
-      </c>
-      <c r="Q17">
-        <v>1100</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0.0</v>
-      </c>
-      <c r="X17">
-        <v>0.0</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>32000</v>
@@ -1984,52 +1965,37 @@
       <c r="G18">
         <v>480</v>
       </c>
-      <c r="M18">
+      <c r="H18">
         <v>545</v>
       </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>1200</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
       <c r="N18" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18">
-        <v>0.05</v>
-      </c>
-      <c r="Q18">
-        <v>1200</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T18" t="s">
-        <v>82</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.0</v>
-      </c>
-      <c r="X18">
-        <v>0.0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>35000</v>
@@ -2049,52 +2015,37 @@
       <c r="G19">
         <v>500</v>
       </c>
-      <c r="M19">
+      <c r="H19">
         <v>570</v>
       </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+      <c r="L19">
+        <v>1300</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19">
-        <v>0.05</v>
-      </c>
-      <c r="Q19">
-        <v>1300</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" t="s">
-        <v>85</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.0</v>
-      </c>
-      <c r="X19">
-        <v>0.0</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>37000</v>
@@ -2114,52 +2065,37 @@
       <c r="G20">
         <v>580</v>
       </c>
-      <c r="M20">
+      <c r="H20">
         <v>610</v>
       </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>0.02</v>
+      </c>
+      <c r="L20">
+        <v>1500</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="O20">
-        <v>10</v>
-      </c>
-      <c r="P20">
-        <v>0.02</v>
-      </c>
-      <c r="Q20">
-        <v>1500</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>87</v>
-      </c>
-      <c r="T20" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.0</v>
-      </c>
-      <c r="X20">
-        <v>0.0</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>55000</v>
@@ -2179,52 +2115,37 @@
       <c r="G21">
         <v>600</v>
       </c>
-      <c r="M21">
+      <c r="H21">
         <v>650</v>
       </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>0.04</v>
+      </c>
+      <c r="L21">
+        <v>1700</v>
+      </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
       <c r="N21" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="O21">
-        <v>10</v>
-      </c>
-      <c r="P21">
-        <v>0.04</v>
-      </c>
-      <c r="Q21">
-        <v>1700</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>90</v>
-      </c>
-      <c r="T21" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.0</v>
-      </c>
-      <c r="X21">
-        <v>0.0</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>59000</v>
@@ -2244,52 +2165,37 @@
       <c r="G22">
         <v>620</v>
       </c>
-      <c r="M22">
+      <c r="H22">
         <v>710</v>
       </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>0.08</v>
+      </c>
+      <c r="L22">
+        <v>1700</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
       <c r="N22" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22">
-        <v>0.08</v>
-      </c>
-      <c r="Q22">
-        <v>1700</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T22" t="s">
-        <v>94</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0.0</v>
-      </c>
-      <c r="X22">
-        <v>0.0</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>68000</v>
@@ -2309,58 +2215,43 @@
       <c r="G23">
         <v>670</v>
       </c>
-      <c r="M23">
+      <c r="H23">
         <v>750</v>
       </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23">
         <v>0.01</v>
       </c>
-      <c r="Q23">
-        <v>2000</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" t="s">
-        <v>97</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0.0</v>
-      </c>
-      <c r="X23">
-        <v>0.0</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23">
-        <v>0.01</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>72000</v>
@@ -2380,52 +2271,37 @@
       <c r="G24">
         <v>750</v>
       </c>
-      <c r="M24">
+      <c r="H24">
         <v>790</v>
       </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0.04</v>
+      </c>
+      <c r="L24">
+        <v>2300</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
       <c r="N24" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="O24">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>0.04</v>
-      </c>
-      <c r="Q24">
-        <v>2300</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" t="s">
-        <v>101</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0.0</v>
-      </c>
-      <c r="X24">
-        <v>0.0</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>75000</v>
@@ -2445,52 +2321,37 @@
       <c r="G25">
         <v>840</v>
       </c>
-      <c r="M25">
+      <c r="H25">
         <v>840</v>
       </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>0.02</v>
+      </c>
+      <c r="L25">
+        <v>2450</v>
+      </c>
+      <c r="M25" t="s">
+        <v>93</v>
+      </c>
       <c r="N25" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="O25">
-        <v>12</v>
-      </c>
-      <c r="P25">
-        <v>0.02</v>
-      </c>
-      <c r="Q25">
-        <v>2450</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>103</v>
-      </c>
-      <c r="T25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0.0</v>
-      </c>
-      <c r="X25">
-        <v>0.0</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>120000</v>
@@ -2510,52 +2371,37 @@
       <c r="G26">
         <v>980</v>
       </c>
-      <c r="M26">
+      <c r="H26">
         <v>870</v>
       </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+      <c r="L26">
+        <v>2600</v>
+      </c>
+      <c r="M26" t="s">
+        <v>96</v>
+      </c>
       <c r="N26" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="O26">
-        <v>12</v>
-      </c>
-      <c r="P26">
-        <v>0.05</v>
-      </c>
-      <c r="Q26">
-        <v>2600</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>106</v>
-      </c>
-      <c r="T26" t="s">
-        <v>107</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0.0</v>
-      </c>
-      <c r="X26">
-        <v>0.0</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>130000</v>
@@ -2575,52 +2421,37 @@
       <c r="G27">
         <v>1000</v>
       </c>
-      <c r="M27">
+      <c r="H27">
         <v>920</v>
       </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="L27">
+        <v>3000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
       <c r="N27" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O27">
-        <v>12</v>
-      </c>
-      <c r="P27">
-        <v>0.01</v>
-      </c>
-      <c r="Q27">
-        <v>3000</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>109</v>
-      </c>
-      <c r="T27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0.0</v>
-      </c>
-      <c r="X27">
-        <v>0.0</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>150000</v>
@@ -2640,52 +2471,37 @@
       <c r="G28">
         <v>1100</v>
       </c>
-      <c r="M28">
+      <c r="H28">
         <v>950</v>
       </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+      <c r="L28">
+        <v>3300</v>
+      </c>
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
       <c r="N28" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="O28">
-        <v>15</v>
-      </c>
-      <c r="P28">
-        <v>0.02</v>
-      </c>
-      <c r="Q28">
-        <v>3300</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>112</v>
-      </c>
-      <c r="T28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0.0</v>
-      </c>
-      <c r="X28">
-        <v>0.0</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>180000</v>
@@ -2705,52 +2521,37 @@
       <c r="G29">
         <v>1200</v>
       </c>
-      <c r="M29">
+      <c r="H29">
         <v>970</v>
       </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>0.04</v>
+      </c>
+      <c r="L29">
+        <v>3400</v>
+      </c>
+      <c r="M29" t="s">
+        <v>105</v>
+      </c>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="O29">
-        <v>15</v>
-      </c>
-      <c r="P29">
-        <v>0.04</v>
-      </c>
-      <c r="Q29">
-        <v>3400</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>115</v>
-      </c>
-      <c r="T29" t="s">
-        <v>116</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0.0</v>
-      </c>
-      <c r="X29">
-        <v>0.0</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>250000</v>
@@ -2770,133 +2571,1744 @@
       <c r="G30">
         <v>3000</v>
       </c>
-      <c r="M30">
+      <c r="H30">
         <v>100000</v>
       </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+      <c r="L30">
+        <v>5000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>108</v>
+      </c>
       <c r="N30" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>5000</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31">
+        <v>5000</v>
+      </c>
+      <c r="E31">
+        <v>5000</v>
+      </c>
+      <c r="F31">
+        <v>5000</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>0.01</v>
+      </c>
+      <c r="L31">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <v>15000</v>
+      </c>
+      <c r="C32">
+        <v>15000</v>
+      </c>
+      <c r="D32">
+        <v>15000</v>
+      </c>
+      <c r="E32">
+        <v>15000</v>
+      </c>
+      <c r="F32">
+        <v>15000</v>
+      </c>
+      <c r="G32">
+        <v>85</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0.02</v>
+      </c>
+      <c r="L32">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>45000</v>
+      </c>
+      <c r="C33">
+        <v>45000</v>
+      </c>
+      <c r="D33">
+        <v>45000</v>
+      </c>
+      <c r="E33">
+        <v>45000</v>
+      </c>
+      <c r="F33">
+        <v>45000</v>
+      </c>
+      <c r="G33">
+        <v>95</v>
+      </c>
+      <c r="H33">
         <v>20</v>
       </c>
-      <c r="P30">
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0.02</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="M33" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>49000</v>
+      </c>
+      <c r="C34">
+        <v>49000</v>
+      </c>
+      <c r="D34">
+        <v>49000</v>
+      </c>
+      <c r="E34">
+        <v>49000</v>
+      </c>
+      <c r="F34">
+        <v>49000</v>
+      </c>
+      <c r="G34">
+        <v>125</v>
+      </c>
+      <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0.03</v>
+      </c>
+      <c r="L34">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35">
+        <v>60000</v>
+      </c>
+      <c r="C35">
+        <v>60000</v>
+      </c>
+      <c r="D35">
+        <v>60000</v>
+      </c>
+      <c r="E35">
+        <v>60000</v>
+      </c>
+      <c r="F35">
+        <v>60000</v>
+      </c>
+      <c r="G35">
+        <v>150</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0.02</v>
+      </c>
+      <c r="L35">
+        <v>360</v>
+      </c>
+      <c r="M35" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>63000</v>
+      </c>
+      <c r="C36">
+        <v>63000</v>
+      </c>
+      <c r="D36">
+        <v>63000</v>
+      </c>
+      <c r="E36">
+        <v>63000</v>
+      </c>
+      <c r="F36">
+        <v>63000</v>
+      </c>
+      <c r="G36">
+        <v>175</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>450</v>
+      </c>
+      <c r="M36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37">
+        <v>75000</v>
+      </c>
+      <c r="C37">
+        <v>75000</v>
+      </c>
+      <c r="D37">
+        <v>75000</v>
+      </c>
+      <c r="E37">
+        <v>75000</v>
+      </c>
+      <c r="F37">
+        <v>75000</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0.04</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38">
+        <v>85000</v>
+      </c>
+      <c r="C38">
+        <v>85000</v>
+      </c>
+      <c r="D38">
+        <v>85000</v>
+      </c>
+      <c r="E38">
+        <v>85000</v>
+      </c>
+      <c r="F38">
+        <v>85000</v>
+      </c>
+      <c r="G38">
+        <v>260</v>
+      </c>
+      <c r="H38">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0.02</v>
+      </c>
+      <c r="L38">
+        <v>576</v>
+      </c>
+      <c r="M38" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39">
+        <v>93000</v>
+      </c>
+      <c r="C39">
+        <v>93000</v>
+      </c>
+      <c r="D39">
+        <v>93000</v>
+      </c>
+      <c r="E39">
+        <v>93000</v>
+      </c>
+      <c r="F39">
+        <v>93000</v>
+      </c>
+      <c r="G39">
+        <v>320</v>
+      </c>
+      <c r="H39">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.03</v>
+      </c>
+      <c r="L39">
+        <v>625</v>
+      </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40">
+        <v>125000</v>
+      </c>
+      <c r="C40">
+        <v>125000</v>
+      </c>
+      <c r="D40">
+        <v>125000</v>
+      </c>
+      <c r="E40">
+        <v>125000</v>
+      </c>
+      <c r="F40">
+        <v>125000</v>
+      </c>
+      <c r="G40">
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0.03</v>
+      </c>
+      <c r="L40">
+        <v>700</v>
+      </c>
+      <c r="M40" t="s">
+        <v>138</v>
+      </c>
+      <c r="N40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>150000</v>
+      </c>
+      <c r="C41">
+        <v>150000</v>
+      </c>
+      <c r="D41">
+        <v>150000</v>
+      </c>
+      <c r="E41">
+        <v>150000</v>
+      </c>
+      <c r="F41">
+        <v>150000</v>
+      </c>
+      <c r="G41">
+        <v>375</v>
+      </c>
+      <c r="H41">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>0.02</v>
+      </c>
+      <c r="L41">
+        <v>756</v>
+      </c>
+      <c r="M41" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42">
+        <v>160000</v>
+      </c>
+      <c r="C42">
+        <v>160000</v>
+      </c>
+      <c r="D42">
+        <v>160000</v>
+      </c>
+      <c r="E42">
+        <v>160000</v>
+      </c>
+      <c r="F42">
+        <v>160000</v>
+      </c>
+      <c r="G42">
+        <v>400</v>
+      </c>
+      <c r="H42">
+        <v>95</v>
+      </c>
+      <c r="I42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0.03</v>
+      </c>
+      <c r="L42">
+        <v>860</v>
+      </c>
+      <c r="M42" t="s">
+        <v>144</v>
+      </c>
+      <c r="N42" t="s">
+        <v>145</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43">
+        <v>170000</v>
+      </c>
+      <c r="C43">
+        <v>170000</v>
+      </c>
+      <c r="D43">
+        <v>170000</v>
+      </c>
+      <c r="E43">
+        <v>170000</v>
+      </c>
+      <c r="F43">
+        <v>170000</v>
+      </c>
+      <c r="G43">
+        <v>450</v>
+      </c>
+      <c r="H43">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0.02</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+      <c r="M43" t="s">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <v>180000</v>
+      </c>
+      <c r="C44">
+        <v>180000</v>
+      </c>
+      <c r="D44">
+        <v>180000</v>
+      </c>
+      <c r="E44">
+        <v>180000</v>
+      </c>
+      <c r="F44">
+        <v>180000</v>
+      </c>
+      <c r="G44">
+        <v>475</v>
+      </c>
+      <c r="H44">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>0.03</v>
+      </c>
+      <c r="L44">
+        <v>1200</v>
+      </c>
+      <c r="M44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45">
+        <v>190000</v>
+      </c>
+      <c r="C45">
+        <v>190000</v>
+      </c>
+      <c r="D45">
+        <v>190000</v>
+      </c>
+      <c r="E45">
+        <v>190000</v>
+      </c>
+      <c r="F45">
+        <v>190000</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+      <c r="L45">
+        <v>1300</v>
+      </c>
+      <c r="M45" t="s">
+        <v>153</v>
+      </c>
+      <c r="N45" t="s">
+        <v>154</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46">
+        <v>225000</v>
+      </c>
+      <c r="C46">
+        <v>225000</v>
+      </c>
+      <c r="D46">
+        <v>225000</v>
+      </c>
+      <c r="E46">
+        <v>225000</v>
+      </c>
+      <c r="F46">
+        <v>225000</v>
+      </c>
+      <c r="G46">
+        <v>560</v>
+      </c>
+      <c r="H46">
+        <v>253</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>0.03</v>
+      </c>
+      <c r="L46">
+        <v>1600</v>
+      </c>
+      <c r="M46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N46" t="s">
+        <v>157</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47">
+        <v>235000</v>
+      </c>
+      <c r="C47">
+        <v>235000</v>
+      </c>
+      <c r="D47">
+        <v>235000</v>
+      </c>
+      <c r="E47">
+        <v>235000</v>
+      </c>
+      <c r="F47">
+        <v>235000</v>
+      </c>
+      <c r="G47">
+        <v>620</v>
+      </c>
+      <c r="H47">
+        <v>275</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0.04</v>
+      </c>
+      <c r="L47">
+        <v>1800</v>
+      </c>
+      <c r="M47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s">
+        <v>160</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="R47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48">
+        <v>260000</v>
+      </c>
+      <c r="C48">
+        <v>260000</v>
+      </c>
+      <c r="D48">
+        <v>260000</v>
+      </c>
+      <c r="E48">
+        <v>260000</v>
+      </c>
+      <c r="F48">
+        <v>260000</v>
+      </c>
+      <c r="G48">
+        <v>660</v>
+      </c>
+      <c r="H48">
+        <v>325</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
         <v>0.01</v>
       </c>
-      <c r="Q30">
+      <c r="L48">
+        <v>2000</v>
+      </c>
+      <c r="M48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49">
+        <v>275000</v>
+      </c>
+      <c r="C49">
+        <v>275000</v>
+      </c>
+      <c r="D49">
+        <v>275000</v>
+      </c>
+      <c r="E49">
+        <v>275000</v>
+      </c>
+      <c r="F49">
+        <v>275000</v>
+      </c>
+      <c r="G49">
+        <v>690</v>
+      </c>
+      <c r="H49">
+        <v>375</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>0.04</v>
+      </c>
+      <c r="L49">
+        <v>2200</v>
+      </c>
+      <c r="M49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" t="s">
+        <v>166</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50">
+        <v>283000</v>
+      </c>
+      <c r="C50">
+        <v>283000</v>
+      </c>
+      <c r="D50">
+        <v>283000</v>
+      </c>
+      <c r="E50">
+        <v>283000</v>
+      </c>
+      <c r="F50">
+        <v>283000</v>
+      </c>
+      <c r="G50">
+        <v>715</v>
+      </c>
+      <c r="H50">
+        <v>400</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>0.03</v>
+      </c>
+      <c r="L50">
+        <v>2400</v>
+      </c>
+      <c r="M50" t="s">
+        <v>168</v>
+      </c>
+      <c r="N50" t="s">
+        <v>169</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51">
+        <v>285000</v>
+      </c>
+      <c r="C51">
+        <v>285000</v>
+      </c>
+      <c r="D51">
+        <v>285000</v>
+      </c>
+      <c r="E51">
+        <v>285000</v>
+      </c>
+      <c r="F51">
+        <v>285000</v>
+      </c>
+      <c r="G51">
+        <v>745</v>
+      </c>
+      <c r="H51">
+        <v>440</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0.01</v>
+      </c>
+      <c r="L51">
+        <v>2600</v>
+      </c>
+      <c r="M51" t="s">
+        <v>171</v>
+      </c>
+      <c r="N51" t="s">
+        <v>172</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52">
+        <v>290000</v>
+      </c>
+      <c r="C52">
+        <v>290000</v>
+      </c>
+      <c r="D52">
+        <v>290000</v>
+      </c>
+      <c r="E52">
+        <v>290000</v>
+      </c>
+      <c r="F52">
+        <v>290000</v>
+      </c>
+      <c r="G52">
+        <v>800</v>
+      </c>
+      <c r="H52">
+        <v>490</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0.04</v>
+      </c>
+      <c r="L52">
+        <v>2800</v>
+      </c>
+      <c r="M52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N52" t="s">
+        <v>175</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53">
+        <v>295000</v>
+      </c>
+      <c r="C53">
+        <v>295000</v>
+      </c>
+      <c r="D53">
+        <v>295000</v>
+      </c>
+      <c r="E53">
+        <v>295000</v>
+      </c>
+      <c r="F53">
+        <v>295000</v>
+      </c>
+      <c r="G53">
+        <v>850</v>
+      </c>
+      <c r="H53">
+        <v>525</v>
+      </c>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>15</v>
+      </c>
+      <c r="K53">
+        <v>0.01</v>
+      </c>
+      <c r="L53">
+        <v>3000</v>
+      </c>
+      <c r="M53" t="s">
+        <v>177</v>
+      </c>
+      <c r="N53" t="s">
+        <v>178</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53">
+        <v>0.15</v>
+      </c>
+      <c r="R53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54">
+        <v>300000</v>
+      </c>
+      <c r="C54">
+        <v>300000</v>
+      </c>
+      <c r="D54">
+        <v>300000</v>
+      </c>
+      <c r="E54">
+        <v>300000</v>
+      </c>
+      <c r="F54">
+        <v>300000</v>
+      </c>
+      <c r="G54">
+        <v>900</v>
+      </c>
+      <c r="H54">
+        <v>550</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>0.04</v>
+      </c>
+      <c r="L54">
+        <v>3400</v>
+      </c>
+      <c r="M54" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" t="s">
+        <v>181</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55">
+        <v>310000</v>
+      </c>
+      <c r="C55">
+        <v>310000</v>
+      </c>
+      <c r="D55">
+        <v>310000</v>
+      </c>
+      <c r="E55">
+        <v>310000</v>
+      </c>
+      <c r="F55">
+        <v>310000</v>
+      </c>
+      <c r="G55">
+        <v>930</v>
+      </c>
+      <c r="H55">
+        <v>625</v>
+      </c>
+      <c r="I55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>0.03</v>
+      </c>
+      <c r="L55">
+        <v>3500</v>
+      </c>
+      <c r="M55" t="s">
+        <v>183</v>
+      </c>
+      <c r="N55" t="s">
+        <v>184</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56">
+        <v>320000</v>
+      </c>
+      <c r="C56">
+        <v>320000</v>
+      </c>
+      <c r="D56">
+        <v>320000</v>
+      </c>
+      <c r="E56">
+        <v>320000</v>
+      </c>
+      <c r="F56">
+        <v>320000</v>
+      </c>
+      <c r="G56">
+        <v>950</v>
+      </c>
+      <c r="H56">
+        <v>660</v>
+      </c>
+      <c r="I56" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>0.03</v>
+      </c>
+      <c r="L56">
+        <v>3800</v>
+      </c>
+      <c r="M56" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56">
+        <v>0.15</v>
+      </c>
+      <c r="R56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57">
+        <v>330000</v>
+      </c>
+      <c r="C57">
+        <v>330000</v>
+      </c>
+      <c r="D57">
+        <v>330000</v>
+      </c>
+      <c r="E57">
+        <v>330000</v>
+      </c>
+      <c r="F57">
+        <v>330000</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>750</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>0.04</v>
+      </c>
+      <c r="L57">
+        <v>4000</v>
+      </c>
+      <c r="M57" t="s">
+        <v>189</v>
+      </c>
+      <c r="N57" t="s">
+        <v>190</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58">
+        <v>345000</v>
+      </c>
+      <c r="C58">
+        <v>345000</v>
+      </c>
+      <c r="D58">
+        <v>345000</v>
+      </c>
+      <c r="E58">
+        <v>345000</v>
+      </c>
+      <c r="F58">
+        <v>345000</v>
+      </c>
+      <c r="G58">
+        <v>1050</v>
+      </c>
+      <c r="H58">
+        <v>775</v>
+      </c>
+      <c r="I58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>0.03</v>
+      </c>
+      <c r="L58">
+        <v>4200</v>
+      </c>
+      <c r="M58" t="s">
+        <v>192</v>
+      </c>
+      <c r="N58" t="s">
+        <v>193</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59">
+        <v>350000</v>
+      </c>
+      <c r="C59">
+        <v>350000</v>
+      </c>
+      <c r="D59">
+        <v>350000</v>
+      </c>
+      <c r="E59">
+        <v>350000</v>
+      </c>
+      <c r="F59">
+        <v>350000</v>
+      </c>
+      <c r="G59">
+        <v>1120</v>
+      </c>
+      <c r="H59">
+        <v>820</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>0.4</v>
+      </c>
+      <c r="L59">
+        <v>4400</v>
+      </c>
+      <c r="M59" t="s">
+        <v>195</v>
+      </c>
+      <c r="N59" t="s">
+        <v>196</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60">
+        <v>360000</v>
+      </c>
+      <c r="C60">
+        <v>360000</v>
+      </c>
+      <c r="D60">
+        <v>360000</v>
+      </c>
+      <c r="E60">
+        <v>360000</v>
+      </c>
+      <c r="F60">
+        <v>360000</v>
+      </c>
+      <c r="G60">
+        <v>1150</v>
+      </c>
+      <c r="H60">
+        <v>850</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>0.04</v>
+      </c>
+      <c r="L60">
+        <v>4500</v>
+      </c>
+      <c r="M60" t="s">
+        <v>198</v>
+      </c>
+      <c r="N60" t="s">
+        <v>199</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61">
+        <v>370000</v>
+      </c>
+      <c r="C61">
+        <v>370000</v>
+      </c>
+      <c r="D61">
+        <v>370000</v>
+      </c>
+      <c r="E61">
+        <v>370000</v>
+      </c>
+      <c r="F61">
+        <v>370000</v>
+      </c>
+      <c r="G61">
+        <v>1200</v>
+      </c>
+      <c r="H61">
+        <v>890</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>0.03</v>
+      </c>
+      <c r="L61">
+        <v>4700</v>
+      </c>
+      <c r="M61" t="s">
+        <v>201</v>
+      </c>
+      <c r="N61" t="s">
+        <v>202</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62">
+        <v>380000</v>
+      </c>
+      <c r="C62">
+        <v>380000</v>
+      </c>
+      <c r="D62">
+        <v>380000</v>
+      </c>
+      <c r="E62">
+        <v>380000</v>
+      </c>
+      <c r="F62">
+        <v>380000</v>
+      </c>
+      <c r="G62">
+        <v>1260</v>
+      </c>
+      <c r="H62">
+        <v>910</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>0.03</v>
+      </c>
+      <c r="L62">
         <v>5000</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>118</v>
-      </c>
-      <c r="T30" t="s">
-        <v>119</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0.0</v>
-      </c>
-      <c r="X30">
-        <v>0.0</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31">
-        <v>375</v>
-      </c>
-      <c r="D31">
-        <v>350</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-      <c r="F31">
-        <v>300</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>25000</v>
-      </c>
-      <c r="J31">
+      <c r="M62" t="s">
+        <v>204</v>
+      </c>
+      <c r="N62" t="s">
+        <v>205</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63">
+        <v>390000</v>
+      </c>
+      <c r="C63">
+        <v>390000</v>
+      </c>
+      <c r="D63">
+        <v>390000</v>
+      </c>
+      <c r="E63">
+        <v>390000</v>
+      </c>
+      <c r="F63">
+        <v>390000</v>
+      </c>
+      <c r="G63">
+        <v>1300</v>
+      </c>
+      <c r="H63">
+        <v>960</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0.05</v>
+      </c>
+      <c r="L63">
+        <v>5250</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" t="s">
+        <v>208</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64">
+        <v>400000</v>
+      </c>
+      <c r="C64">
+        <v>400000</v>
+      </c>
+      <c r="D64">
+        <v>400000</v>
+      </c>
+      <c r="E64">
+        <v>400000</v>
+      </c>
+      <c r="F64">
+        <v>400000</v>
+      </c>
+      <c r="G64">
         <v>1500</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>9999</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>25</v>
-      </c>
-      <c r="P31">
-        <v>0.01</v>
-      </c>
-      <c r="Q31">
-        <v>2500</v>
-      </c>
-      <c r="R31">
-        <v>3</v>
-      </c>
-      <c r="S31" t="s">
-        <v>121</v>
-      </c>
-      <c r="T31" t="s">
-        <v>122</v>
-      </c>
-      <c r="U31">
-        <v>175</v>
-      </c>
-      <c r="V31">
-        <v>175</v>
-      </c>
-      <c r="W31">
-        <v>0.25</v>
-      </c>
-      <c r="X31">
-        <v>0.25</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA31">
-        <v>0.01</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>32</v>
+      <c r="H64">
+        <v>100000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>40</v>
+      </c>
+      <c r="K64">
+        <v>0.06</v>
+      </c>
+      <c r="L64">
+        <v>6000</v>
+      </c>
+      <c r="M64" t="s">
+        <v>210</v>
+      </c>
+      <c r="N64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +4332,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2928,7 +4340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
@@ -2939,30 +4351,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2971,12 +4383,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2985,12 +4397,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2999,12 +4411,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3013,12 +4425,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3027,12 +4439,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3041,12 +4453,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3055,12 +4467,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3069,12 +4481,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3083,12 +4495,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3097,12 +4509,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3111,12 +4523,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3125,12 +4537,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3139,12 +4551,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3153,12 +4565,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3167,12 +4579,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -3181,12 +4593,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -3195,12 +4607,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -3209,12 +4621,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3223,12 +4635,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3237,12 +4649,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -3251,12 +4663,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -3265,12 +4677,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -3279,12 +4691,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -3293,12 +4705,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -3307,12 +4719,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -3321,12 +4733,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3335,12 +4747,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -3349,12 +4761,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -3363,12 +4775,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -3377,12 +4789,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -3391,12 +4803,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -3405,12 +4817,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -3419,12 +4831,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -3433,12 +4845,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -3447,12 +4859,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -3461,12 +4873,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -3475,12 +4887,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -3489,12 +4901,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -3503,12 +4915,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>36</v>
@@ -3517,12 +4929,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -3531,12 +4943,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -3545,12 +4957,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -3559,12 +4971,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3573,12 +4985,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -3587,12 +4999,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -3601,12 +5013,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -3615,12 +5027,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -3629,12 +5041,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -3643,12 +5055,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>45</v>
@@ -3657,12 +5069,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -3671,12 +5083,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -3685,12 +5097,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -3699,12 +5111,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -3713,12 +5125,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -3727,12 +5139,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>45</v>
@@ -3741,12 +5153,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>45</v>
@@ -3755,12 +5167,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>45</v>
@@ -3769,35 +5181,959 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C60">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
         <v>131</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93">
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99">
+        <v>23</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100">
+        <v>21</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113">
+        <v>24</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115">
+        <v>26</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118">
+        <v>31</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122">
+        <v>36</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126">
+        <v>46</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127">
+        <v>46</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>120-150</t>
+  </si>
+  <si>
+    <t>Blacksmiths Book</t>
   </si>
   <si>
     <t>Dark Shadow</t>
@@ -1459,13 +1462,19 @@
       <c r="O8">
         <v>1</v>
       </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>0.18</v>
+      </c>
       <c r="R8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1501,10 +1510,10 @@
         <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1515,7 +1524,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -1551,16 +1560,16 @@
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -1571,7 +1580,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -1607,10 +1616,10 @@
         <v>250</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1627,7 +1636,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -1663,16 +1672,16 @@
         <v>350</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12">
         <v>0.15</v>
@@ -1683,7 +1692,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -1719,10 +1728,10 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1733,7 +1742,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -1769,10 +1778,10 @@
         <v>750</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1783,7 +1792,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -1819,10 +1828,10 @@
         <v>825</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1839,7 +1848,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>8000</v>
@@ -1875,16 +1884,16 @@
         <v>1000</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>0.2</v>
@@ -1895,7 +1904,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>16000</v>
@@ -1931,10 +1940,10 @@
         <v>1100</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>32000</v>
@@ -1981,10 +1990,10 @@
         <v>1200</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>35000</v>
@@ -2031,10 +2040,10 @@
         <v>1300</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2045,7 +2054,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>37000</v>
@@ -2081,10 +2090,10 @@
         <v>1500</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2095,7 +2104,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <v>55000</v>
@@ -2131,10 +2140,10 @@
         <v>1700</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2145,7 +2154,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>59000</v>
@@ -2181,10 +2190,10 @@
         <v>1700</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2195,7 +2204,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>68000</v>
@@ -2231,16 +2240,16 @@
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q23">
         <v>0.01</v>
@@ -2251,7 +2260,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>72000</v>
@@ -2287,10 +2296,10 @@
         <v>2300</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2301,7 +2310,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>75000</v>
@@ -2337,10 +2346,10 @@
         <v>2450</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2351,7 +2360,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>120000</v>
@@ -2387,10 +2396,10 @@
         <v>2600</v>
       </c>
       <c r="M26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -2401,7 +2410,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>130000</v>
@@ -2437,10 +2446,10 @@
         <v>3000</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2451,7 +2460,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>150000</v>
@@ -2487,10 +2496,10 @@
         <v>3300</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -2501,7 +2510,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>180000</v>
@@ -2537,10 +2546,10 @@
         <v>3400</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2551,7 +2560,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>250000</v>
@@ -2587,10 +2596,10 @@
         <v>5000</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2601,7 +2610,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <v>5000</v>
@@ -2640,18 +2649,18 @@
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32">
         <v>15000</v>
@@ -2687,21 +2696,21 @@
         <v>150</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33">
         <v>45000</v>
@@ -2737,21 +2746,21 @@
         <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>49000</v>
@@ -2787,21 +2796,21 @@
         <v>280</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35">
         <v>60000</v>
@@ -2837,21 +2846,21 @@
         <v>360</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36">
         <v>63000</v>
@@ -2887,21 +2896,21 @@
         <v>450</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37">
         <v>75000</v>
@@ -2937,21 +2946,21 @@
         <v>500</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38">
         <v>85000</v>
@@ -2987,21 +2996,21 @@
         <v>576</v>
       </c>
       <c r="M38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39">
         <v>93000</v>
@@ -3037,21 +3046,21 @@
         <v>625</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40">
         <v>125000</v>
@@ -3087,21 +3096,21 @@
         <v>700</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41">
         <v>150000</v>
@@ -3137,21 +3146,21 @@
         <v>756</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>160000</v>
@@ -3187,21 +3196,21 @@
         <v>860</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>170000</v>
@@ -3237,21 +3246,21 @@
         <v>1000</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44">
         <v>180000</v>
@@ -3287,21 +3296,21 @@
         <v>1200</v>
       </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45">
         <v>190000</v>
@@ -3337,21 +3346,21 @@
         <v>1300</v>
       </c>
       <c r="M45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46">
         <v>225000</v>
@@ -3387,21 +3396,21 @@
         <v>1600</v>
       </c>
       <c r="M46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>235000</v>
@@ -3437,21 +3446,21 @@
         <v>1800</v>
       </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48">
         <v>260000</v>
@@ -3487,21 +3496,21 @@
         <v>2000</v>
       </c>
       <c r="M48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49">
         <v>275000</v>
@@ -3537,21 +3546,21 @@
         <v>2200</v>
       </c>
       <c r="M49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50">
         <v>283000</v>
@@ -3587,21 +3596,21 @@
         <v>2400</v>
       </c>
       <c r="M50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51">
         <v>285000</v>
@@ -3637,21 +3646,21 @@
         <v>2600</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52">
         <v>290000</v>
@@ -3687,21 +3696,21 @@
         <v>2800</v>
       </c>
       <c r="M52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="R52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53">
         <v>295000</v>
@@ -3737,10 +3746,10 @@
         <v>3000</v>
       </c>
       <c r="M53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3752,12 +3761,12 @@
         <v>0.15</v>
       </c>
       <c r="R53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>300000</v>
@@ -3793,21 +3802,21 @@
         <v>3400</v>
       </c>
       <c r="M54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B55">
         <v>310000</v>
@@ -3843,21 +3852,21 @@
         <v>3500</v>
       </c>
       <c r="M55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56">
         <v>320000</v>
@@ -3893,10 +3902,10 @@
         <v>3800</v>
       </c>
       <c r="M56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3908,12 +3917,12 @@
         <v>0.15</v>
       </c>
       <c r="R56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B57">
         <v>330000</v>
@@ -3949,21 +3958,21 @@
         <v>4000</v>
       </c>
       <c r="M57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="R57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B58">
         <v>345000</v>
@@ -3999,21 +4008,21 @@
         <v>4200</v>
       </c>
       <c r="M58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B59">
         <v>350000</v>
@@ -4049,21 +4058,21 @@
         <v>4400</v>
       </c>
       <c r="M59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="R59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>360000</v>
@@ -4099,21 +4108,21 @@
         <v>4500</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61">
         <v>370000</v>
@@ -4149,21 +4158,21 @@
         <v>4700</v>
       </c>
       <c r="M61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62">
         <v>380000</v>
@@ -4199,21 +4208,21 @@
         <v>5000</v>
       </c>
       <c r="M62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>390000</v>
@@ -4249,21 +4258,21 @@
         <v>5250</v>
       </c>
       <c r="M63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>400000</v>
@@ -4299,16 +4308,16 @@
         <v>6000</v>
       </c>
       <c r="M64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4351,25 +4360,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4383,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4397,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4411,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4425,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4439,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4453,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4467,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4481,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4495,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4509,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4523,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4537,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4551,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4565,12 +4574,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -4579,12 +4588,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4593,12 +4602,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -4607,12 +4616,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4621,12 +4630,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4635,12 +4644,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4649,12 +4658,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -4663,12 +4672,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -4677,12 +4686,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -4691,12 +4700,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -4705,12 +4714,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -4719,12 +4728,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -4733,12 +4742,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -4747,12 +4756,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -4761,12 +4770,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -4775,12 +4784,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -4789,12 +4798,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -4803,12 +4812,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -4817,12 +4826,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -4831,12 +4840,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -4845,12 +4854,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -4859,12 +4868,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -4873,12 +4882,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -4887,12 +4896,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -4901,12 +4910,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -4915,12 +4924,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>36</v>
@@ -4929,12 +4938,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -4943,12 +4952,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -4957,12 +4966,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -4971,12 +4980,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4985,12 +4994,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -4999,12 +5008,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -5013,12 +5022,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -5027,12 +5036,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -5041,12 +5050,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -5055,12 +5064,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>45</v>
@@ -5069,12 +5078,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -5083,12 +5092,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -5097,12 +5106,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -5111,12 +5120,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -5125,12 +5134,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -5139,12 +5148,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57">
         <v>45</v>
@@ -5153,12 +5162,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>45</v>
@@ -5167,12 +5176,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>45</v>
@@ -5181,12 +5190,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -5195,12 +5204,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -5209,12 +5218,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -5223,12 +5232,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5237,12 +5246,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -5251,12 +5260,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -5265,12 +5274,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -5279,12 +5288,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -5293,12 +5302,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -5307,12 +5316,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -5321,12 +5330,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -5335,12 +5344,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -5349,12 +5358,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -5363,12 +5372,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -5377,12 +5386,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -5391,12 +5400,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -5405,12 +5414,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -5419,12 +5428,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -5433,12 +5442,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5447,12 +5456,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -5461,12 +5470,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -5475,12 +5484,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -5489,12 +5498,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -5503,12 +5512,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -5517,12 +5526,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -5531,12 +5540,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -5545,12 +5554,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -5559,12 +5568,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -5573,12 +5582,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -5587,12 +5596,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -5601,12 +5610,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -5615,12 +5624,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -5629,12 +5638,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C92">
         <v>21</v>
@@ -5643,12 +5652,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -5657,12 +5666,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -5671,12 +5680,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -5685,12 +5694,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96">
         <v>17</v>
@@ -5699,12 +5708,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -5713,12 +5722,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -5727,12 +5736,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99">
         <v>23</v>
@@ -5741,12 +5750,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>21</v>
@@ -5755,12 +5764,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C101">
         <v>23</v>
@@ -5769,12 +5778,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C102">
         <v>23</v>
@@ -5783,12 +5792,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>22</v>
@@ -5797,12 +5806,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C104">
         <v>26</v>
@@ -5811,12 +5820,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -5825,12 +5834,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C106">
         <v>24</v>
@@ -5839,12 +5848,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -5853,12 +5862,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -5867,12 +5876,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C109">
         <v>25</v>
@@ -5881,12 +5890,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C110">
         <v>28</v>
@@ -5895,12 +5904,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C111">
         <v>25</v>
@@ -5909,12 +5918,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C112">
         <v>25</v>
@@ -5923,12 +5932,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -5937,12 +5946,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C114">
         <v>27</v>
@@ -5951,12 +5960,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C115">
         <v>26</v>
@@ -5965,12 +5974,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -5979,12 +5988,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C117">
         <v>29</v>
@@ -5993,12 +6002,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -6007,12 +6016,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -6021,12 +6030,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C120">
         <v>33</v>
@@ -6035,12 +6044,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C121">
         <v>34</v>
@@ -6049,12 +6058,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122">
         <v>36</v>
@@ -6063,12 +6072,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C123">
         <v>28</v>
@@ -6077,12 +6086,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C124">
         <v>40</v>
@@ -6091,12 +6100,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C125">
         <v>42</v>
@@ -6105,12 +6114,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C126">
         <v>46</v>
@@ -6119,12 +6128,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -6133,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BFA7A-50BA-4346-9A4E-E6C9900E9885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
-    <sheet name="Monsters Skills" sheetId="2" r:id="rId5"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
+    <sheet name="Monsters Skills" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="220">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +155,9 @@
   </si>
   <si>
     <t>120-150</t>
+  </si>
+  <si>
+    <t>Blacksmiths Book</t>
   </si>
   <si>
     <t>Dark Shadow</t>
@@ -678,14 +697,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -696,28 +710,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1007,39 +1030,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1144,7 @@
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1151,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1200,7 @@
         <v>0.02</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1201,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>0.03</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -1301,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1350,7 @@
         <v>0.03</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
@@ -1357,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>0.05</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
@@ -1413,7 +1427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>0.1</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -1459,13 +1473,19 @@
       <c r="O8">
         <v>1</v>
       </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>0.18</v>
+      </c>
       <c r="R8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1498,13 +1518,13 @@
         <v>0.05</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>750</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1513,9 +1533,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -1548,19 +1568,19 @@
         <v>0.09</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -1569,9 +1589,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -1604,13 +1624,13 @@
         <v>0.05</v>
       </c>
       <c r="L11">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1625,9 +1645,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -1660,19 +1680,19 @@
         <v>0.05</v>
       </c>
       <c r="L12">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12">
         <v>0.15</v>
@@ -1681,9 +1701,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -1716,13 +1736,13 @@
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1731,9 +1751,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -1766,13 +1786,13 @@
         <v>0.01</v>
       </c>
       <c r="L14">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1781,9 +1801,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -1816,13 +1836,13 @@
         <v>0.01</v>
       </c>
       <c r="L15">
-        <v>825</v>
+        <v>4000</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1837,9 +1857,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>8000</v>
@@ -1872,19 +1892,19 @@
         <v>0.05</v>
       </c>
       <c r="L16">
-        <v>1000</v>
+        <v>4800</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>0.2</v>
@@ -1893,9 +1913,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>16000</v>
@@ -1928,13 +1948,13 @@
         <v>0.04</v>
       </c>
       <c r="L17">
-        <v>1100</v>
+        <v>5200</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1943,9 +1963,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>32000</v>
@@ -1978,13 +1998,13 @@
         <v>0.05</v>
       </c>
       <c r="L18">
-        <v>1200</v>
+        <v>5800</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1993,9 +2013,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>35000</v>
@@ -2028,13 +2048,13 @@
         <v>0.05</v>
       </c>
       <c r="L19">
-        <v>1300</v>
+        <v>6400</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2043,9 +2063,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>37000</v>
@@ -2078,13 +2098,13 @@
         <v>0.02</v>
       </c>
       <c r="L20">
-        <v>1500</v>
+        <v>6600</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2093,9 +2113,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <v>55000</v>
@@ -2128,13 +2148,13 @@
         <v>0.04</v>
       </c>
       <c r="L21">
-        <v>1700</v>
+        <v>7200</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2143,9 +2163,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>59000</v>
@@ -2178,13 +2198,13 @@
         <v>0.08</v>
       </c>
       <c r="L22">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2193,9 +2213,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>68000</v>
@@ -2228,19 +2248,19 @@
         <v>0.01</v>
       </c>
       <c r="L23">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q23">
         <v>0.01</v>
@@ -2249,9 +2269,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>72000</v>
@@ -2284,13 +2304,13 @@
         <v>0.04</v>
       </c>
       <c r="L24">
-        <v>2300</v>
+        <v>8400</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2299,9 +2319,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>75000</v>
@@ -2334,13 +2354,13 @@
         <v>0.02</v>
       </c>
       <c r="L25">
-        <v>2450</v>
+        <v>8800</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2349,9 +2369,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>120000</v>
@@ -2384,13 +2404,13 @@
         <v>0.05</v>
       </c>
       <c r="L26">
-        <v>2600</v>
+        <v>9200</v>
       </c>
       <c r="M26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -2399,9 +2419,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>130000</v>
@@ -2434,13 +2454,13 @@
         <v>0.01</v>
       </c>
       <c r="L27">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2449,9 +2469,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>150000</v>
@@ -2484,13 +2504,13 @@
         <v>0.02</v>
       </c>
       <c r="L28">
-        <v>3300</v>
+        <v>9800</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -2499,9 +2519,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>180000</v>
@@ -2534,13 +2554,13 @@
         <v>0.04</v>
       </c>
       <c r="L29">
-        <v>3400</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2549,9 +2569,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>250000</v>
@@ -2584,13 +2604,13 @@
         <v>0.01</v>
       </c>
       <c r="L30">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2599,24 +2619,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="C31">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="D31">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="E31">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="F31">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="G31">
         <v>75</v>
@@ -2634,39 +2654,39 @@
         <v>0.01</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s">
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="C32">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="D32">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E32">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="F32">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="G32">
         <v>85</v>
@@ -2684,39 +2704,39 @@
         <v>0.02</v>
       </c>
       <c r="L32">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="C33">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="D33">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="E33">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="F33">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="G33">
         <v>95</v>
@@ -2734,39 +2754,39 @@
         <v>0.02</v>
       </c>
       <c r="L33">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34">
-        <v>49000</v>
+        <v>10000</v>
       </c>
       <c r="C34">
-        <v>49000</v>
+        <v>10000</v>
       </c>
       <c r="D34">
-        <v>49000</v>
+        <v>10000</v>
       </c>
       <c r="E34">
-        <v>49000</v>
+        <v>10000</v>
       </c>
       <c r="F34">
-        <v>49000</v>
+        <v>10000</v>
       </c>
       <c r="G34">
         <v>125</v>
@@ -2784,39 +2804,39 @@
         <v>0.03</v>
       </c>
       <c r="L34">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="C35">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="D35">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="E35">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="F35">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G35">
         <v>150</v>
@@ -2834,39 +2854,39 @@
         <v>0.02</v>
       </c>
       <c r="L35">
-        <v>360</v>
+        <v>1500</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36">
-        <v>63000</v>
+        <v>20000</v>
       </c>
       <c r="C36">
-        <v>63000</v>
+        <v>20000</v>
       </c>
       <c r="D36">
-        <v>63000</v>
+        <v>20000</v>
       </c>
       <c r="E36">
-        <v>63000</v>
+        <v>20000</v>
       </c>
       <c r="F36">
-        <v>63000</v>
+        <v>20000</v>
       </c>
       <c r="G36">
         <v>175</v>
@@ -2884,39 +2904,39 @@
         <v>0.05</v>
       </c>
       <c r="L36">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="C37">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="D37">
         <v>75000</v>
       </c>
       <c r="E37">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="F37">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="G37">
         <v>200</v>
@@ -2934,39 +2954,39 @@
         <v>0.04</v>
       </c>
       <c r="L37">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="C38">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="D38">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="E38">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="F38">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="G38">
         <v>260</v>
@@ -2984,39 +3004,39 @@
         <v>0.02</v>
       </c>
       <c r="L38">
-        <v>576</v>
+        <v>3800</v>
       </c>
       <c r="M38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39">
-        <v>93000</v>
+        <v>75000</v>
       </c>
       <c r="C39">
-        <v>93000</v>
+        <v>75000</v>
       </c>
       <c r="D39">
-        <v>93000</v>
+        <v>75000</v>
       </c>
       <c r="E39">
-        <v>93000</v>
+        <v>75000</v>
       </c>
       <c r="F39">
-        <v>93000</v>
+        <v>75000</v>
       </c>
       <c r="G39">
         <v>320</v>
@@ -3034,24 +3054,24 @@
         <v>0.03</v>
       </c>
       <c r="L39">
-        <v>625</v>
+        <v>4200</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40">
         <v>125000</v>
@@ -3084,24 +3104,24 @@
         <v>0.03</v>
       </c>
       <c r="L40">
-        <v>700</v>
+        <v>4800</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41">
         <v>150000</v>
@@ -3134,24 +3154,24 @@
         <v>0.02</v>
       </c>
       <c r="L41">
-        <v>756</v>
+        <v>5000</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>160000</v>
@@ -3184,24 +3204,24 @@
         <v>0.03</v>
       </c>
       <c r="L42">
-        <v>860</v>
+        <v>6000</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>170000</v>
@@ -3234,24 +3254,24 @@
         <v>0.02</v>
       </c>
       <c r="L43">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44">
         <v>180000</v>
@@ -3284,24 +3304,24 @@
         <v>0.03</v>
       </c>
       <c r="L44">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45">
         <v>190000</v>
@@ -3334,24 +3354,24 @@
         <v>0.05</v>
       </c>
       <c r="L45">
-        <v>1300</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46">
         <v>225000</v>
@@ -3384,24 +3404,24 @@
         <v>0.03</v>
       </c>
       <c r="L46">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>235000</v>
@@ -3434,24 +3454,24 @@
         <v>0.04</v>
       </c>
       <c r="L47">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48">
         <v>260000</v>
@@ -3484,24 +3504,24 @@
         <v>0.01</v>
       </c>
       <c r="L48">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49">
         <v>275000</v>
@@ -3534,24 +3554,24 @@
         <v>0.04</v>
       </c>
       <c r="L49">
-        <v>2200</v>
+        <v>13000</v>
       </c>
       <c r="M49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50">
         <v>283000</v>
@@ -3584,24 +3604,24 @@
         <v>0.03</v>
       </c>
       <c r="L50">
-        <v>2400</v>
+        <v>14000</v>
       </c>
       <c r="M50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51">
         <v>285000</v>
@@ -3634,24 +3654,24 @@
         <v>0.01</v>
       </c>
       <c r="L51">
-        <v>2600</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52">
         <v>290000</v>
@@ -3684,24 +3704,24 @@
         <v>0.04</v>
       </c>
       <c r="L52">
-        <v>2800</v>
+        <v>16000</v>
       </c>
       <c r="M52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="R52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53">
         <v>295000</v>
@@ -3734,13 +3754,13 @@
         <v>0.01</v>
       </c>
       <c r="L53">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="M53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3752,12 +3772,12 @@
         <v>0.15</v>
       </c>
       <c r="R53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>300000</v>
@@ -3790,24 +3810,24 @@
         <v>0.04</v>
       </c>
       <c r="L54">
-        <v>3400</v>
+        <v>18000</v>
       </c>
       <c r="M54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B55">
         <v>310000</v>
@@ -3840,24 +3860,24 @@
         <v>0.03</v>
       </c>
       <c r="L55">
-        <v>3500</v>
+        <v>19000</v>
       </c>
       <c r="M55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56">
         <v>320000</v>
@@ -3890,13 +3910,13 @@
         <v>0.03</v>
       </c>
       <c r="L56">
-        <v>3800</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3908,12 +3928,12 @@
         <v>0.15</v>
       </c>
       <c r="R56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B57">
         <v>330000</v>
@@ -3946,24 +3966,24 @@
         <v>0.04</v>
       </c>
       <c r="L57">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="M57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="R57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B58">
         <v>345000</v>
@@ -3996,24 +4016,24 @@
         <v>0.03</v>
       </c>
       <c r="L58">
-        <v>4200</v>
+        <v>22000</v>
       </c>
       <c r="M58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B59">
         <v>350000</v>
@@ -4046,24 +4066,24 @@
         <v>0.4</v>
       </c>
       <c r="L59">
-        <v>4400</v>
+        <v>23000</v>
       </c>
       <c r="M59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="R59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>360000</v>
@@ -4096,24 +4116,24 @@
         <v>0.04</v>
       </c>
       <c r="L60">
-        <v>4500</v>
+        <v>24000</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61">
         <v>370000</v>
@@ -4146,24 +4166,24 @@
         <v>0.03</v>
       </c>
       <c r="L61">
-        <v>4700</v>
+        <v>25000</v>
       </c>
       <c r="M61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62">
         <v>380000</v>
@@ -4196,24 +4216,24 @@
         <v>0.03</v>
       </c>
       <c r="L62">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="M62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>390000</v>
@@ -4246,24 +4266,24 @@
         <v>0.05</v>
       </c>
       <c r="L63">
-        <v>5250</v>
+        <v>27000</v>
       </c>
       <c r="M63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>400000</v>
@@ -4296,83 +4316,69 @@
         <v>0.06</v>
       </c>
       <c r="L64">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="M64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4383,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4397,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4411,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4425,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4439,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4453,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4467,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4481,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4495,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4509,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4523,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4537,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -4551,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -4565,12 +4571,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -4579,12 +4585,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4593,12 +4599,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -4607,12 +4613,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4621,12 +4627,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4635,12 +4641,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4649,12 +4655,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -4663,12 +4669,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -4677,12 +4683,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -4691,12 +4697,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -4705,12 +4711,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -4719,12 +4725,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -4733,12 +4739,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -4747,12 +4753,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -4761,12 +4767,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -4775,12 +4781,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -4789,12 +4795,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -4803,12 +4809,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -4817,12 +4823,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -4831,12 +4837,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -4845,12 +4851,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -4859,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -4873,12 +4879,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -4887,12 +4893,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -4901,12 +4907,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -4915,12 +4921,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>36</v>
@@ -4929,12 +4935,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -4943,12 +4949,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -4957,12 +4963,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -4971,12 +4977,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4985,12 +4991,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -4999,12 +5005,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -5013,12 +5019,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -5027,12 +5033,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -5041,12 +5047,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -5055,12 +5061,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>45</v>
@@ -5069,12 +5075,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -5083,12 +5089,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -5097,12 +5103,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -5111,12 +5117,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -5125,12 +5131,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -5139,12 +5145,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57">
         <v>45</v>
@@ -5153,12 +5159,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>45</v>
@@ -5167,12 +5173,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>45</v>
@@ -5181,12 +5187,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -5195,12 +5201,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -5209,12 +5215,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -5223,12 +5229,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5237,12 +5243,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -5251,12 +5257,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -5265,12 +5271,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -5279,12 +5285,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -5293,12 +5299,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -5307,12 +5313,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -5321,12 +5327,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -5335,12 +5341,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -5349,12 +5355,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -5363,12 +5369,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -5377,12 +5383,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -5391,12 +5397,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -5405,12 +5411,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -5419,12 +5425,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -5433,12 +5439,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5447,12 +5453,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -5461,12 +5467,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -5475,12 +5481,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -5489,12 +5495,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -5503,12 +5509,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -5517,12 +5523,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -5531,12 +5537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -5545,12 +5551,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -5559,12 +5565,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -5573,12 +5579,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -5587,12 +5593,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -5601,12 +5607,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -5615,12 +5621,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -5629,12 +5635,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C92">
         <v>21</v>
@@ -5643,12 +5649,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -5657,12 +5663,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -5671,12 +5677,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -5685,12 +5691,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96">
         <v>17</v>
@@ -5699,12 +5705,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -5713,12 +5719,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -5727,12 +5733,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99">
         <v>23</v>
@@ -5741,12 +5747,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>21</v>
@@ -5755,12 +5761,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C101">
         <v>23</v>
@@ -5769,12 +5775,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C102">
         <v>23</v>
@@ -5783,12 +5789,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>22</v>
@@ -5797,12 +5803,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C104">
         <v>26</v>
@@ -5811,12 +5817,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -5825,12 +5831,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C106">
         <v>24</v>
@@ -5839,12 +5845,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -5853,12 +5859,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -5867,12 +5873,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C109">
         <v>25</v>
@@ -5881,12 +5887,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C110">
         <v>28</v>
@@ -5895,12 +5901,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C111">
         <v>25</v>
@@ -5909,12 +5915,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C112">
         <v>25</v>
@@ -5923,12 +5929,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -5937,12 +5943,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C114">
         <v>27</v>
@@ -5951,12 +5957,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C115">
         <v>26</v>
@@ -5965,12 +5971,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -5979,12 +5985,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C117">
         <v>29</v>
@@ -5993,12 +5999,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -6007,12 +6013,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -6021,12 +6027,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C120">
         <v>33</v>
@@ -6035,12 +6041,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C121">
         <v>34</v>
@@ -6049,12 +6055,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122">
         <v>36</v>
@@ -6063,12 +6069,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C123">
         <v>28</v>
@@ -6077,12 +6083,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C124">
         <v>40</v>
@@ -6091,12 +6097,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C125">
         <v>42</v>
@@ -6105,12 +6111,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C126">
         <v>46</v>
@@ -6119,12 +6125,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -6133,21 +6139,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BFA7A-50BA-4346-9A4E-E6C9900E9885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF4E788-0792-6A47-96CA-6DE41D45A62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1046,7 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="26" bestFit="1" customWidth="1"/>
@@ -1144,7 +1144,7 @@
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1200,7 +1200,7 @@
         <v>0.02</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1300,7 +1300,7 @@
         <v>0.03</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -1350,7 +1350,7 @@
         <v>0.03</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
@@ -1406,7 +1406,7 @@
         <v>0.05</v>
       </c>
       <c r="L7">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
@@ -1462,7 +1462,7 @@
         <v>0.1</v>
       </c>
       <c r="L8">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -1518,7 +1518,7 @@
         <v>0.05</v>
       </c>
       <c r="L9">
-        <v>750</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
         <v>43</v>
@@ -1568,7 +1568,7 @@
         <v>0.09</v>
       </c>
       <c r="L10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
@@ -1624,7 +1624,7 @@
         <v>0.05</v>
       </c>
       <c r="L11">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -1680,7 +1680,7 @@
         <v>0.05</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="M12" t="s">
         <v>53</v>
@@ -1736,7 +1736,7 @@
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="M13" t="s">
         <v>57</v>
@@ -1786,7 +1786,7 @@
         <v>0.01</v>
       </c>
       <c r="L14">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="M14" t="s">
         <v>60</v>
@@ -1836,7 +1836,7 @@
         <v>0.01</v>
       </c>
       <c r="L15">
-        <v>4000</v>
+        <v>825</v>
       </c>
       <c r="M15" t="s">
         <v>63</v>
@@ -1892,7 +1892,7 @@
         <v>0.05</v>
       </c>
       <c r="L16">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="s">
         <v>66</v>
@@ -1948,7 +1948,7 @@
         <v>0.04</v>
       </c>
       <c r="L17">
-        <v>5200</v>
+        <v>1100</v>
       </c>
       <c r="M17" t="s">
         <v>69</v>
@@ -1998,7 +1998,7 @@
         <v>0.05</v>
       </c>
       <c r="L18">
-        <v>5800</v>
+        <v>1200</v>
       </c>
       <c r="M18" t="s">
         <v>72</v>
@@ -2048,7 +2048,7 @@
         <v>0.05</v>
       </c>
       <c r="L19">
-        <v>6400</v>
+        <v>1300</v>
       </c>
       <c r="M19" t="s">
         <v>75</v>
@@ -2098,7 +2098,7 @@
         <v>0.02</v>
       </c>
       <c r="L20">
-        <v>6600</v>
+        <v>1500</v>
       </c>
       <c r="M20" t="s">
         <v>78</v>
@@ -2148,7 +2148,7 @@
         <v>0.04</v>
       </c>
       <c r="L21">
-        <v>7200</v>
+        <v>1700</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -2198,7 +2198,7 @@
         <v>0.08</v>
       </c>
       <c r="L22">
-        <v>7500</v>
+        <v>1700</v>
       </c>
       <c r="M22" t="s">
         <v>84</v>
@@ -2248,7 +2248,7 @@
         <v>0.01</v>
       </c>
       <c r="L23">
-        <v>8300</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="s">
         <v>87</v>
@@ -2304,7 +2304,7 @@
         <v>0.04</v>
       </c>
       <c r="L24">
-        <v>8400</v>
+        <v>2300</v>
       </c>
       <c r="M24" t="s">
         <v>91</v>
@@ -2354,7 +2354,7 @@
         <v>0.02</v>
       </c>
       <c r="L25">
-        <v>8800</v>
+        <v>2450</v>
       </c>
       <c r="M25" t="s">
         <v>94</v>
@@ -2404,7 +2404,7 @@
         <v>0.05</v>
       </c>
       <c r="L26">
-        <v>9200</v>
+        <v>2600</v>
       </c>
       <c r="M26" t="s">
         <v>97</v>
@@ -2454,7 +2454,7 @@
         <v>0.01</v>
       </c>
       <c r="L27">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="M27" t="s">
         <v>100</v>
@@ -2504,7 +2504,7 @@
         <v>0.02</v>
       </c>
       <c r="L28">
-        <v>9800</v>
+        <v>3300</v>
       </c>
       <c r="M28" t="s">
         <v>103</v>
@@ -2554,7 +2554,7 @@
         <v>0.04</v>
       </c>
       <c r="L29">
-        <v>10000</v>
+        <v>3400</v>
       </c>
       <c r="M29" t="s">
         <v>106</v>
@@ -2604,7 +2604,7 @@
         <v>0.01</v>
       </c>
       <c r="L30">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M30" t="s">
         <v>109</v>
@@ -2624,19 +2624,19 @@
         <v>111</v>
       </c>
       <c r="B31">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="C31">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="D31">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="E31">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="F31">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="G31">
         <v>75</v>
@@ -2654,7 +2654,7 @@
         <v>0.01</v>
       </c>
       <c r="L31">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
         <v>39</v>
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B32">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="C32">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="F32">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="G32">
         <v>85</v>
@@ -2704,7 +2704,7 @@
         <v>0.02</v>
       </c>
       <c r="L32">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M32" t="s">
         <v>115</v>
@@ -2724,19 +2724,19 @@
         <v>117</v>
       </c>
       <c r="B33">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="C33">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="D33">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="F33">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="G33">
         <v>95</v>
@@ -2754,7 +2754,7 @@
         <v>0.02</v>
       </c>
       <c r="L33">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s">
         <v>118</v>
@@ -2774,19 +2774,19 @@
         <v>120</v>
       </c>
       <c r="B34">
-        <v>10000</v>
+        <v>49000</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <v>49000</v>
       </c>
       <c r="D34">
-        <v>10000</v>
+        <v>49000</v>
       </c>
       <c r="E34">
-        <v>10000</v>
+        <v>49000</v>
       </c>
       <c r="F34">
-        <v>10000</v>
+        <v>49000</v>
       </c>
       <c r="G34">
         <v>125</v>
@@ -2804,7 +2804,7 @@
         <v>0.03</v>
       </c>
       <c r="L34">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s">
         <v>121</v>
@@ -2824,19 +2824,19 @@
         <v>123</v>
       </c>
       <c r="B35">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="C35">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="D35">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="E35">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="F35">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G35">
         <v>150</v>
@@ -2854,7 +2854,7 @@
         <v>0.02</v>
       </c>
       <c r="L35">
-        <v>1500</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s">
         <v>124</v>
@@ -2874,19 +2874,19 @@
         <v>126</v>
       </c>
       <c r="B36">
-        <v>20000</v>
+        <v>63000</v>
       </c>
       <c r="C36">
-        <v>20000</v>
+        <v>63000</v>
       </c>
       <c r="D36">
-        <v>20000</v>
+        <v>63000</v>
       </c>
       <c r="E36">
-        <v>20000</v>
+        <v>63000</v>
       </c>
       <c r="F36">
-        <v>20000</v>
+        <v>63000</v>
       </c>
       <c r="G36">
         <v>175</v>
@@ -2904,7 +2904,7 @@
         <v>0.05</v>
       </c>
       <c r="L36">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="M36" t="s">
         <v>127</v>
@@ -2924,19 +2924,19 @@
         <v>129</v>
       </c>
       <c r="B37">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="C37">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="D37">
         <v>75000</v>
       </c>
       <c r="E37">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="F37">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="G37">
         <v>200</v>
@@ -2954,7 +2954,7 @@
         <v>0.04</v>
       </c>
       <c r="L37">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="M37" t="s">
         <v>130</v>
@@ -2974,19 +2974,19 @@
         <v>132</v>
       </c>
       <c r="B38">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="C38">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="D38">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="E38">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="F38">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="G38">
         <v>260</v>
@@ -3004,7 +3004,7 @@
         <v>0.02</v>
       </c>
       <c r="L38">
-        <v>3800</v>
+        <v>576</v>
       </c>
       <c r="M38" t="s">
         <v>133</v>
@@ -3024,19 +3024,19 @@
         <v>135</v>
       </c>
       <c r="B39">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="C39">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="D39">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="E39">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="F39">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="G39">
         <v>320</v>
@@ -3054,7 +3054,7 @@
         <v>0.03</v>
       </c>
       <c r="L39">
-        <v>4200</v>
+        <v>625</v>
       </c>
       <c r="M39" t="s">
         <v>136</v>
@@ -3104,7 +3104,7 @@
         <v>0.03</v>
       </c>
       <c r="L40">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="M40" t="s">
         <v>139</v>
@@ -3154,7 +3154,7 @@
         <v>0.02</v>
       </c>
       <c r="L41">
-        <v>5000</v>
+        <v>756</v>
       </c>
       <c r="M41" t="s">
         <v>142</v>
@@ -3204,7 +3204,7 @@
         <v>0.03</v>
       </c>
       <c r="L42">
-        <v>6000</v>
+        <v>860</v>
       </c>
       <c r="M42" t="s">
         <v>145</v>
@@ -3254,7 +3254,7 @@
         <v>0.02</v>
       </c>
       <c r="L43">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="M43" t="s">
         <v>148</v>
@@ -3304,7 +3304,7 @@
         <v>0.03</v>
       </c>
       <c r="L44">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="M44" t="s">
         <v>151</v>
@@ -3354,7 +3354,7 @@
         <v>0.05</v>
       </c>
       <c r="L45">
-        <v>9000</v>
+        <v>1300</v>
       </c>
       <c r="M45" t="s">
         <v>154</v>
@@ -3404,7 +3404,7 @@
         <v>0.03</v>
       </c>
       <c r="L46">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="M46" t="s">
         <v>157</v>
@@ -3454,7 +3454,7 @@
         <v>0.04</v>
       </c>
       <c r="L47">
-        <v>11000</v>
+        <v>1800</v>
       </c>
       <c r="M47" t="s">
         <v>160</v>
@@ -3504,7 +3504,7 @@
         <v>0.01</v>
       </c>
       <c r="L48">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M48" t="s">
         <v>163</v>
@@ -3554,7 +3554,7 @@
         <v>0.04</v>
       </c>
       <c r="L49">
-        <v>13000</v>
+        <v>2200</v>
       </c>
       <c r="M49" t="s">
         <v>166</v>
@@ -3604,7 +3604,7 @@
         <v>0.03</v>
       </c>
       <c r="L50">
-        <v>14000</v>
+        <v>2400</v>
       </c>
       <c r="M50" t="s">
         <v>169</v>
@@ -3654,7 +3654,7 @@
         <v>0.01</v>
       </c>
       <c r="L51">
-        <v>15000</v>
+        <v>2600</v>
       </c>
       <c r="M51" t="s">
         <v>172</v>
@@ -3704,7 +3704,7 @@
         <v>0.04</v>
       </c>
       <c r="L52">
-        <v>16000</v>
+        <v>2800</v>
       </c>
       <c r="M52" t="s">
         <v>175</v>
@@ -3754,7 +3754,7 @@
         <v>0.01</v>
       </c>
       <c r="L53">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="M53" t="s">
         <v>178</v>
@@ -3810,7 +3810,7 @@
         <v>0.04</v>
       </c>
       <c r="L54">
-        <v>18000</v>
+        <v>3400</v>
       </c>
       <c r="M54" t="s">
         <v>181</v>
@@ -3860,7 +3860,7 @@
         <v>0.03</v>
       </c>
       <c r="L55">
-        <v>19000</v>
+        <v>3500</v>
       </c>
       <c r="M55" t="s">
         <v>184</v>
@@ -3910,7 +3910,7 @@
         <v>0.03</v>
       </c>
       <c r="L56">
-        <v>20000</v>
+        <v>3800</v>
       </c>
       <c r="M56" t="s">
         <v>187</v>
@@ -3966,7 +3966,7 @@
         <v>0.04</v>
       </c>
       <c r="L57">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="M57" t="s">
         <v>190</v>
@@ -4016,7 +4016,7 @@
         <v>0.03</v>
       </c>
       <c r="L58">
-        <v>22000</v>
+        <v>4200</v>
       </c>
       <c r="M58" t="s">
         <v>193</v>
@@ -4066,7 +4066,7 @@
         <v>0.4</v>
       </c>
       <c r="L59">
-        <v>23000</v>
+        <v>4400</v>
       </c>
       <c r="M59" t="s">
         <v>196</v>
@@ -4116,7 +4116,7 @@
         <v>0.04</v>
       </c>
       <c r="L60">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="M60" t="s">
         <v>199</v>
@@ -4166,7 +4166,7 @@
         <v>0.03</v>
       </c>
       <c r="L61">
-        <v>25000</v>
+        <v>4700</v>
       </c>
       <c r="M61" t="s">
         <v>202</v>
@@ -4216,7 +4216,7 @@
         <v>0.03</v>
       </c>
       <c r="L62">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="M62" t="s">
         <v>205</v>
@@ -4266,7 +4266,7 @@
         <v>0.05</v>
       </c>
       <c r="L63">
-        <v>27000</v>
+        <v>5250</v>
       </c>
       <c r="M63" t="s">
         <v>208</v>
@@ -4316,7 +4316,7 @@
         <v>0.06</v>
       </c>
       <c r="L64">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="M64" t="s">
         <v>211</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403494B4-BAA8-564F-B4D1-319AFB634F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
-    <sheet name="Monsters Skills" sheetId="2" r:id="rId5"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
+    <sheet name="Monsters Skills" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="234">
   <si>
     <t>name</t>
   </si>
@@ -379,6 +395,321 @@
   </si>
   <si>
     <t>150000-200000</t>
+  </si>
+  <si>
+    <t>Celestial Treasure Goblin</t>
+  </si>
+  <si>
+    <t>500-1000</t>
+  </si>
+  <si>
+    <t>300-500</t>
+  </si>
+  <si>
+    <t>Alchemist Tools</t>
+  </si>
+  <si>
+    <t>Labyrinth Imp</t>
+  </si>
+  <si>
+    <t>150-300</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Three Sister Hag</t>
+  </si>
+  <si>
+    <t>500-750</t>
+  </si>
+  <si>
+    <t>350-425</t>
+  </si>
+  <si>
+    <t>Tendrils of Nature</t>
+  </si>
+  <si>
+    <t>800-925</t>
+  </si>
+  <si>
+    <t>450-525</t>
+  </si>
+  <si>
+    <t>Labyrinth Golem</t>
+  </si>
+  <si>
+    <t>1000-1350</t>
+  </si>
+  <si>
+    <t>575-650</t>
+  </si>
+  <si>
+    <t>Lost Soul</t>
+  </si>
+  <si>
+    <t>1475-1600</t>
+  </si>
+  <si>
+    <t>700-900</t>
+  </si>
+  <si>
+    <t>Oozing Mess Of Bones</t>
+  </si>
+  <si>
+    <t>1650-1876</t>
+  </si>
+  <si>
+    <t>925-1340</t>
+  </si>
+  <si>
+    <t>Minotar</t>
+  </si>
+  <si>
+    <t>2400-3500</t>
+  </si>
+  <si>
+    <t>1360-1500</t>
+  </si>
+  <si>
+    <t>Hell Screamer</t>
+  </si>
+  <si>
+    <t>4800-5900</t>
+  </si>
+  <si>
+    <t>1600-1850</t>
+  </si>
+  <si>
+    <t>Labyrinth Clockwork Mage</t>
+  </si>
+  <si>
+    <t>5975-6400</t>
+  </si>
+  <si>
+    <t>1975-2500</t>
+  </si>
+  <si>
+    <t>Lumbering Giant</t>
+  </si>
+  <si>
+    <t>6400-7000</t>
+  </si>
+  <si>
+    <t>2600-3200</t>
+  </si>
+  <si>
+    <t>Monstrous Book</t>
+  </si>
+  <si>
+    <t>7200-7500</t>
+  </si>
+  <si>
+    <t>3400-4000</t>
+  </si>
+  <si>
+    <t>Treasure Hunter</t>
+  </si>
+  <si>
+    <t>7600-8000</t>
+  </si>
+  <si>
+    <t>4200-4500</t>
+  </si>
+  <si>
+    <t>Adult Red Dragon</t>
+  </si>
+  <si>
+    <t>9000-14000</t>
+  </si>
+  <si>
+    <t>4500-6000</t>
+  </si>
+  <si>
+    <t>Litch Lord of the Labyrinth</t>
+  </si>
+  <si>
+    <t>14000-17000</t>
+  </si>
+  <si>
+    <t>6200-8000</t>
+  </si>
+  <si>
+    <t>Whisper of Fate</t>
+  </si>
+  <si>
+    <t>19000-25000</t>
+  </si>
+  <si>
+    <t>9000-12000</t>
+  </si>
+  <si>
+    <t>Demonic Angel</t>
+  </si>
+  <si>
+    <t>25000-30000</t>
+  </si>
+  <si>
+    <t>12300-14500</t>
+  </si>
+  <si>
+    <t>Virgin Priestess Zombie</t>
+  </si>
+  <si>
+    <t>32000-35000</t>
+  </si>
+  <si>
+    <t>15300-18900</t>
+  </si>
+  <si>
+    <t>Hells Paladin</t>
+  </si>
+  <si>
+    <t>35000-41000</t>
+  </si>
+  <si>
+    <t>19000-22500</t>
+  </si>
+  <si>
+    <t>Ancient Gold Dragon</t>
+  </si>
+  <si>
+    <t>41500-4700</t>
+  </si>
+  <si>
+    <t>23000-25000</t>
+  </si>
+  <si>
+    <t>Broken Hearted Banshee</t>
+  </si>
+  <si>
+    <t>47000-50000</t>
+  </si>
+  <si>
+    <t>25500-27000</t>
+  </si>
+  <si>
+    <t>Red Wizard of Krull</t>
+  </si>
+  <si>
+    <t>50000-54000</t>
+  </si>
+  <si>
+    <t>28000-31500</t>
+  </si>
+  <si>
+    <t>Devils Lover</t>
+  </si>
+  <si>
+    <t>55000-59500</t>
+  </si>
+  <si>
+    <t>34000-40000</t>
+  </si>
+  <si>
+    <t>Fabled Princess</t>
+  </si>
+  <si>
+    <t>60400-65700</t>
+  </si>
+  <si>
+    <t>43000-50000</t>
+  </si>
+  <si>
+    <t>Demon Hunter</t>
+  </si>
+  <si>
+    <t>66700-69800</t>
+  </si>
+  <si>
+    <t>66000-70000</t>
+  </si>
+  <si>
+    <t>Cyclops Bat</t>
+  </si>
+  <si>
+    <t>70000-76000</t>
+  </si>
+  <si>
+    <t>75000-83000</t>
+  </si>
+  <si>
+    <t>Water Fiend</t>
+  </si>
+  <si>
+    <t>79500-86700</t>
+  </si>
+  <si>
+    <t>84500-87000</t>
+  </si>
+  <si>
+    <t>Labyrinth Hound</t>
+  </si>
+  <si>
+    <t>89000-94000</t>
+  </si>
+  <si>
+    <t>90000-120000</t>
+  </si>
+  <si>
+    <t>Hob Goblin Leader</t>
+  </si>
+  <si>
+    <t>95600-120780</t>
+  </si>
+  <si>
+    <t>125000-130000</t>
+  </si>
+  <si>
+    <t>Shadow Mephit</t>
+  </si>
+  <si>
+    <t>156000-180000</t>
+  </si>
+  <si>
+    <t>135000-145000</t>
+  </si>
+  <si>
+    <t>Clock Work Pegasus</t>
+  </si>
+  <si>
+    <t>185000-220000</t>
+  </si>
+  <si>
+    <t>152000-160000</t>
+  </si>
+  <si>
+    <t>Labyrinth Specter</t>
+  </si>
+  <si>
+    <t>230000-250000</t>
+  </si>
+  <si>
+    <t>160000-176000</t>
+  </si>
+  <si>
+    <t>Tarrasque</t>
+  </si>
+  <si>
+    <t>265000-270000</t>
+  </si>
+  <si>
+    <t>180000-230000</t>
+  </si>
+  <si>
+    <t>Treant</t>
+  </si>
+  <si>
+    <t>270000-290000</t>
+  </si>
+  <si>
+    <t>240000-260000</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>270000-300000</t>
   </si>
   <si>
     <t>monster_id</t>
@@ -408,14 +739,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -426,28 +752,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -737,49 +1072,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AB30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -918,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -936,7 +1262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -989,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1001,7 +1327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1054,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1066,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1119,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1131,7 +1457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1184,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1202,7 +1528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1255,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1273,7 +1599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1326,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1344,7 +1670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1397,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1409,7 +1735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1462,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1480,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1533,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1551,7 +1877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1604,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1622,7 +1948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1675,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1687,7 +2013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1740,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1752,7 +2078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1805,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1823,7 +2149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1876,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -1894,7 +2220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1947,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1959,7 +2285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2012,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -2024,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -2077,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2089,7 +2415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -2142,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2154,7 +2480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2207,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -2219,7 +2545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2272,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2284,7 +2610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2337,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2355,7 +2681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2408,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -2420,7 +2746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2473,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -2485,7 +2811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2538,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2550,7 +2876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2603,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2615,7 +2941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -2668,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -2680,7 +3006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -2733,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2745,7 +3071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -2780,7 +3106,7 @@
         <v>0.01</v>
       </c>
       <c r="Q30">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2798,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2810,68 +3136,2362 @@
         <v>32</v>
       </c>
     </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31">
+        <v>670</v>
+      </c>
+      <c r="C31">
+        <v>650</v>
+      </c>
+      <c r="D31">
+        <v>660</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>250</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>99999</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>0.01</v>
+      </c>
+      <c r="Q31">
+        <v>1000</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>122</v>
+      </c>
+      <c r="T31" t="s">
+        <v>123</v>
+      </c>
+      <c r="U31">
+        <v>150</v>
+      </c>
+      <c r="V31">
+        <v>250</v>
+      </c>
+      <c r="W31">
+        <v>0.22</v>
+      </c>
+      <c r="X31">
+        <v>0.22</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA31">
+        <v>0.25</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32">
+        <v>5000</v>
+      </c>
+      <c r="E32">
+        <v>5000</v>
+      </c>
+      <c r="F32">
+        <v>5000</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>0.01</v>
+      </c>
+      <c r="Q32">
+        <v>75</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" t="s">
+        <v>126</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <v>15000</v>
+      </c>
+      <c r="C33">
+        <v>15000</v>
+      </c>
+      <c r="D33">
+        <v>15000</v>
+      </c>
+      <c r="E33">
+        <v>15000</v>
+      </c>
+      <c r="F33">
+        <v>15000</v>
+      </c>
+      <c r="G33">
+        <v>85</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>0.02</v>
+      </c>
+      <c r="Q33">
+        <v>150</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>129</v>
+      </c>
+      <c r="T33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>45000</v>
+      </c>
+      <c r="C34">
+        <v>45000</v>
+      </c>
+      <c r="D34">
+        <v>45000</v>
+      </c>
+      <c r="E34">
+        <v>45000</v>
+      </c>
+      <c r="F34">
+        <v>45000</v>
+      </c>
+      <c r="G34">
+        <v>95</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>0.02</v>
+      </c>
+      <c r="Q34">
+        <v>200</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>132</v>
+      </c>
+      <c r="T34" t="s">
+        <v>133</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>49000</v>
+      </c>
+      <c r="C35">
+        <v>49000</v>
+      </c>
+      <c r="D35">
+        <v>49000</v>
+      </c>
+      <c r="E35">
+        <v>49000</v>
+      </c>
+      <c r="F35">
+        <v>49000</v>
+      </c>
+      <c r="G35">
+        <v>125</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>0.03</v>
+      </c>
+      <c r="Q35">
+        <v>280</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35" t="s">
+        <v>136</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36">
+        <v>60000</v>
+      </c>
+      <c r="C36">
+        <v>60000</v>
+      </c>
+      <c r="D36">
+        <v>60000</v>
+      </c>
+      <c r="E36">
+        <v>60000</v>
+      </c>
+      <c r="F36">
+        <v>60000</v>
+      </c>
+      <c r="G36">
+        <v>150</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>0.02</v>
+      </c>
+      <c r="Q36">
+        <v>360</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37">
+        <v>63000</v>
+      </c>
+      <c r="C37">
+        <v>63000</v>
+      </c>
+      <c r="D37">
+        <v>63000</v>
+      </c>
+      <c r="E37">
+        <v>63000</v>
+      </c>
+      <c r="F37">
+        <v>63000</v>
+      </c>
+      <c r="G37">
+        <v>175</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>0.05</v>
+      </c>
+      <c r="Q37">
+        <v>450</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" t="s">
+        <v>142</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38">
+        <v>75000</v>
+      </c>
+      <c r="C38">
+        <v>75000</v>
+      </c>
+      <c r="D38">
+        <v>75000</v>
+      </c>
+      <c r="E38">
+        <v>75000</v>
+      </c>
+      <c r="F38">
+        <v>75000</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+      <c r="M38">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>0.04</v>
+      </c>
+      <c r="Q38">
+        <v>500</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>144</v>
+      </c>
+      <c r="T38" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39">
+        <v>85000</v>
+      </c>
+      <c r="C39">
+        <v>85000</v>
+      </c>
+      <c r="D39">
+        <v>85000</v>
+      </c>
+      <c r="E39">
+        <v>85000</v>
+      </c>
+      <c r="F39">
+        <v>85000</v>
+      </c>
+      <c r="G39">
+        <v>260</v>
+      </c>
+      <c r="M39">
+        <v>63</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>0.02</v>
+      </c>
+      <c r="Q39">
+        <v>576</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>147</v>
+      </c>
+      <c r="T39" t="s">
+        <v>148</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <v>93000</v>
+      </c>
+      <c r="C40">
+        <v>93000</v>
+      </c>
+      <c r="D40">
+        <v>93000</v>
+      </c>
+      <c r="E40">
+        <v>93000</v>
+      </c>
+      <c r="F40">
+        <v>93000</v>
+      </c>
+      <c r="G40">
+        <v>320</v>
+      </c>
+      <c r="M40">
+        <v>70</v>
+      </c>
+      <c r="N40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>0.03</v>
+      </c>
+      <c r="Q40">
+        <v>625</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>150</v>
+      </c>
+      <c r="T40" t="s">
+        <v>151</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41">
+        <v>125000</v>
+      </c>
+      <c r="C41">
+        <v>125000</v>
+      </c>
+      <c r="D41">
+        <v>125000</v>
+      </c>
+      <c r="E41">
+        <v>125000</v>
+      </c>
+      <c r="F41">
+        <v>125000</v>
+      </c>
+      <c r="G41">
+        <v>350</v>
+      </c>
+      <c r="M41">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>0.03</v>
+      </c>
+      <c r="Q41">
+        <v>700</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>153</v>
+      </c>
+      <c r="T41" t="s">
+        <v>154</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42">
+        <v>150000</v>
+      </c>
+      <c r="C42">
+        <v>150000</v>
+      </c>
+      <c r="D42">
+        <v>150000</v>
+      </c>
+      <c r="E42">
+        <v>150000</v>
+      </c>
+      <c r="F42">
+        <v>150000</v>
+      </c>
+      <c r="G42">
+        <v>375</v>
+      </c>
+      <c r="M42">
+        <v>88</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>0.02</v>
+      </c>
+      <c r="Q42">
+        <v>756</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>156</v>
+      </c>
+      <c r="T42" t="s">
+        <v>157</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43">
+        <v>160000</v>
+      </c>
+      <c r="C43">
+        <v>160000</v>
+      </c>
+      <c r="D43">
+        <v>160000</v>
+      </c>
+      <c r="E43">
+        <v>160000</v>
+      </c>
+      <c r="F43">
+        <v>160000</v>
+      </c>
+      <c r="G43">
+        <v>400</v>
+      </c>
+      <c r="M43">
+        <v>95</v>
+      </c>
+      <c r="N43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>0.03</v>
+      </c>
+      <c r="Q43">
+        <v>860</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>159</v>
+      </c>
+      <c r="T43" t="s">
+        <v>160</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44">
+        <v>170000</v>
+      </c>
+      <c r="C44">
+        <v>170000</v>
+      </c>
+      <c r="D44">
+        <v>170000</v>
+      </c>
+      <c r="E44">
+        <v>170000</v>
+      </c>
+      <c r="F44">
+        <v>170000</v>
+      </c>
+      <c r="G44">
+        <v>450</v>
+      </c>
+      <c r="M44">
+        <v>110</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>0.02</v>
+      </c>
+      <c r="Q44">
+        <v>1000</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>162</v>
+      </c>
+      <c r="T44" t="s">
+        <v>163</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45">
+        <v>180000</v>
+      </c>
+      <c r="C45">
+        <v>180000</v>
+      </c>
+      <c r="D45">
+        <v>180000</v>
+      </c>
+      <c r="E45">
+        <v>180000</v>
+      </c>
+      <c r="F45">
+        <v>180000</v>
+      </c>
+      <c r="G45">
+        <v>475</v>
+      </c>
+      <c r="M45">
+        <v>160</v>
+      </c>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>0.03</v>
+      </c>
+      <c r="Q45">
+        <v>1200</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>165</v>
+      </c>
+      <c r="T45" t="s">
+        <v>166</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46">
+        <v>190000</v>
+      </c>
+      <c r="C46">
+        <v>190000</v>
+      </c>
+      <c r="D46">
+        <v>190000</v>
+      </c>
+      <c r="E46">
+        <v>190000</v>
+      </c>
+      <c r="F46">
+        <v>190000</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="M46">
+        <v>200</v>
+      </c>
+      <c r="N46" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <v>0.05</v>
+      </c>
+      <c r="Q46">
+        <v>1300</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>168</v>
+      </c>
+      <c r="T46" t="s">
+        <v>169</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47">
+        <v>225000</v>
+      </c>
+      <c r="C47">
+        <v>225000</v>
+      </c>
+      <c r="D47">
+        <v>225000</v>
+      </c>
+      <c r="E47">
+        <v>225000</v>
+      </c>
+      <c r="F47">
+        <v>225000</v>
+      </c>
+      <c r="G47">
+        <v>560</v>
+      </c>
+      <c r="M47">
+        <v>253</v>
+      </c>
+      <c r="N47" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>0.03</v>
+      </c>
+      <c r="Q47">
+        <v>1600</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>171</v>
+      </c>
+      <c r="T47" t="s">
+        <v>172</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>235000</v>
+      </c>
+      <c r="C48">
+        <v>235000</v>
+      </c>
+      <c r="D48">
+        <v>235000</v>
+      </c>
+      <c r="E48">
+        <v>235000</v>
+      </c>
+      <c r="F48">
+        <v>235000</v>
+      </c>
+      <c r="G48">
+        <v>620</v>
+      </c>
+      <c r="M48">
+        <v>275</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>0.04</v>
+      </c>
+      <c r="Q48">
+        <v>1800</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>174</v>
+      </c>
+      <c r="T48" t="s">
+        <v>175</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49">
+        <v>260000</v>
+      </c>
+      <c r="C49">
+        <v>260000</v>
+      </c>
+      <c r="D49">
+        <v>260000</v>
+      </c>
+      <c r="E49">
+        <v>260000</v>
+      </c>
+      <c r="F49">
+        <v>260000</v>
+      </c>
+      <c r="G49">
+        <v>660</v>
+      </c>
+      <c r="M49">
+        <v>325</v>
+      </c>
+      <c r="N49" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49">
+        <v>0.01</v>
+      </c>
+      <c r="Q49">
+        <v>2000</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>177</v>
+      </c>
+      <c r="T49" t="s">
+        <v>178</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50">
+        <v>275000</v>
+      </c>
+      <c r="C50">
+        <v>275000</v>
+      </c>
+      <c r="D50">
+        <v>275000</v>
+      </c>
+      <c r="E50">
+        <v>275000</v>
+      </c>
+      <c r="F50">
+        <v>275000</v>
+      </c>
+      <c r="G50">
+        <v>690</v>
+      </c>
+      <c r="M50">
+        <v>375</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>0.04</v>
+      </c>
+      <c r="Q50">
+        <v>2200</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>180</v>
+      </c>
+      <c r="T50" t="s">
+        <v>181</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51">
+        <v>283000</v>
+      </c>
+      <c r="C51">
+        <v>283000</v>
+      </c>
+      <c r="D51">
+        <v>283000</v>
+      </c>
+      <c r="E51">
+        <v>283000</v>
+      </c>
+      <c r="F51">
+        <v>283000</v>
+      </c>
+      <c r="G51">
+        <v>715</v>
+      </c>
+      <c r="M51">
+        <v>400</v>
+      </c>
+      <c r="N51" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>0.03</v>
+      </c>
+      <c r="Q51">
+        <v>2400</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>183</v>
+      </c>
+      <c r="T51" t="s">
+        <v>184</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>285000</v>
+      </c>
+      <c r="C52">
+        <v>285000</v>
+      </c>
+      <c r="D52">
+        <v>285000</v>
+      </c>
+      <c r="E52">
+        <v>285000</v>
+      </c>
+      <c r="F52">
+        <v>285000</v>
+      </c>
+      <c r="G52">
+        <v>745</v>
+      </c>
+      <c r="M52">
+        <v>440</v>
+      </c>
+      <c r="N52" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>0.01</v>
+      </c>
+      <c r="Q52">
+        <v>2600</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>186</v>
+      </c>
+      <c r="T52" t="s">
+        <v>187</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53">
+        <v>290000</v>
+      </c>
+      <c r="C53">
+        <v>290000</v>
+      </c>
+      <c r="D53">
+        <v>290000</v>
+      </c>
+      <c r="E53">
+        <v>290000</v>
+      </c>
+      <c r="F53">
+        <v>290000</v>
+      </c>
+      <c r="G53">
+        <v>800</v>
+      </c>
+      <c r="M53">
+        <v>490</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>0.04</v>
+      </c>
+      <c r="Q53">
+        <v>2800</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>189</v>
+      </c>
+      <c r="T53" t="s">
+        <v>190</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54">
+        <v>295000</v>
+      </c>
+      <c r="C54">
+        <v>295000</v>
+      </c>
+      <c r="D54">
+        <v>295000</v>
+      </c>
+      <c r="E54">
+        <v>295000</v>
+      </c>
+      <c r="F54">
+        <v>295000</v>
+      </c>
+      <c r="G54">
+        <v>850</v>
+      </c>
+      <c r="M54">
+        <v>525</v>
+      </c>
+      <c r="N54" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
+        <v>0.01</v>
+      </c>
+      <c r="Q54">
+        <v>3000</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>192</v>
+      </c>
+      <c r="T54" t="s">
+        <v>193</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA54">
+        <v>0.15</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55">
+        <v>300000</v>
+      </c>
+      <c r="C55">
+        <v>300000</v>
+      </c>
+      <c r="D55">
+        <v>300000</v>
+      </c>
+      <c r="E55">
+        <v>300000</v>
+      </c>
+      <c r="F55">
+        <v>300000</v>
+      </c>
+      <c r="G55">
+        <v>900</v>
+      </c>
+      <c r="M55">
+        <v>550</v>
+      </c>
+      <c r="N55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>15</v>
+      </c>
+      <c r="P55">
+        <v>0.04</v>
+      </c>
+      <c r="Q55">
+        <v>3400</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>195</v>
+      </c>
+      <c r="T55" t="s">
+        <v>196</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56">
+        <v>310000</v>
+      </c>
+      <c r="C56">
+        <v>310000</v>
+      </c>
+      <c r="D56">
+        <v>310000</v>
+      </c>
+      <c r="E56">
+        <v>310000</v>
+      </c>
+      <c r="F56">
+        <v>310000</v>
+      </c>
+      <c r="G56">
+        <v>930</v>
+      </c>
+      <c r="M56">
+        <v>625</v>
+      </c>
+      <c r="N56" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+      <c r="P56">
+        <v>0.03</v>
+      </c>
+      <c r="Q56">
+        <v>3500</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>198</v>
+      </c>
+      <c r="T56" t="s">
+        <v>199</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57">
+        <v>320000</v>
+      </c>
+      <c r="C57">
+        <v>320000</v>
+      </c>
+      <c r="D57">
+        <v>320000</v>
+      </c>
+      <c r="E57">
+        <v>320000</v>
+      </c>
+      <c r="F57">
+        <v>320000</v>
+      </c>
+      <c r="G57">
+        <v>950</v>
+      </c>
+      <c r="M57">
+        <v>660</v>
+      </c>
+      <c r="N57" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>15</v>
+      </c>
+      <c r="P57">
+        <v>0.03</v>
+      </c>
+      <c r="Q57">
+        <v>3800</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>201</v>
+      </c>
+      <c r="T57" t="s">
+        <v>202</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA57">
+        <v>0.15</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58">
+        <v>330000</v>
+      </c>
+      <c r="C58">
+        <v>330000</v>
+      </c>
+      <c r="D58">
+        <v>330000</v>
+      </c>
+      <c r="E58">
+        <v>330000</v>
+      </c>
+      <c r="F58">
+        <v>330000</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="M58">
+        <v>750</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58">
+        <v>20</v>
+      </c>
+      <c r="P58">
+        <v>0.04</v>
+      </c>
+      <c r="Q58">
+        <v>4000</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>204</v>
+      </c>
+      <c r="T58" t="s">
+        <v>205</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59">
+        <v>345000</v>
+      </c>
+      <c r="C59">
+        <v>345000</v>
+      </c>
+      <c r="D59">
+        <v>345000</v>
+      </c>
+      <c r="E59">
+        <v>345000</v>
+      </c>
+      <c r="F59">
+        <v>345000</v>
+      </c>
+      <c r="G59">
+        <v>1050</v>
+      </c>
+      <c r="M59">
+        <v>775</v>
+      </c>
+      <c r="N59" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>20</v>
+      </c>
+      <c r="P59">
+        <v>0.03</v>
+      </c>
+      <c r="Q59">
+        <v>4200</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>207</v>
+      </c>
+      <c r="T59" t="s">
+        <v>208</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60">
+        <v>350000</v>
+      </c>
+      <c r="C60">
+        <v>350000</v>
+      </c>
+      <c r="D60">
+        <v>350000</v>
+      </c>
+      <c r="E60">
+        <v>350000</v>
+      </c>
+      <c r="F60">
+        <v>350000</v>
+      </c>
+      <c r="G60">
+        <v>1120</v>
+      </c>
+      <c r="M60">
+        <v>820</v>
+      </c>
+      <c r="N60" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>20</v>
+      </c>
+      <c r="P60">
+        <v>0.4</v>
+      </c>
+      <c r="Q60">
+        <v>4400</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>210</v>
+      </c>
+      <c r="T60" t="s">
+        <v>211</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61">
+        <v>360000</v>
+      </c>
+      <c r="C61">
+        <v>360000</v>
+      </c>
+      <c r="D61">
+        <v>360000</v>
+      </c>
+      <c r="E61">
+        <v>360000</v>
+      </c>
+      <c r="F61">
+        <v>360000</v>
+      </c>
+      <c r="G61">
+        <v>1150</v>
+      </c>
+      <c r="M61">
+        <v>850</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>0.04</v>
+      </c>
+      <c r="Q61">
+        <v>4500</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>213</v>
+      </c>
+      <c r="T61" t="s">
+        <v>214</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62">
+        <v>370000</v>
+      </c>
+      <c r="C62">
+        <v>370000</v>
+      </c>
+      <c r="D62">
+        <v>370000</v>
+      </c>
+      <c r="E62">
+        <v>370000</v>
+      </c>
+      <c r="F62">
+        <v>370000</v>
+      </c>
+      <c r="G62">
+        <v>1200</v>
+      </c>
+      <c r="M62">
+        <v>890</v>
+      </c>
+      <c r="N62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <v>20</v>
+      </c>
+      <c r="P62">
+        <v>0.03</v>
+      </c>
+      <c r="Q62">
+        <v>4700</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T62" t="s">
+        <v>217</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63">
+        <v>380000</v>
+      </c>
+      <c r="C63">
+        <v>380000</v>
+      </c>
+      <c r="D63">
+        <v>380000</v>
+      </c>
+      <c r="E63">
+        <v>380000</v>
+      </c>
+      <c r="F63">
+        <v>380000</v>
+      </c>
+      <c r="G63">
+        <v>1260</v>
+      </c>
+      <c r="M63">
+        <v>910</v>
+      </c>
+      <c r="N63" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>30</v>
+      </c>
+      <c r="P63">
+        <v>0.03</v>
+      </c>
+      <c r="Q63">
+        <v>5000</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>219</v>
+      </c>
+      <c r="T63" t="s">
+        <v>220</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64">
+        <v>390000</v>
+      </c>
+      <c r="C64">
+        <v>390000</v>
+      </c>
+      <c r="D64">
+        <v>390000</v>
+      </c>
+      <c r="E64">
+        <v>390000</v>
+      </c>
+      <c r="F64">
+        <v>390000</v>
+      </c>
+      <c r="G64">
+        <v>1300</v>
+      </c>
+      <c r="M64">
+        <v>960</v>
+      </c>
+      <c r="N64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>30</v>
+      </c>
+      <c r="P64">
+        <v>0.05</v>
+      </c>
+      <c r="Q64">
+        <v>5250</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>222</v>
+      </c>
+      <c r="T64" t="s">
+        <v>223</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65">
+        <v>400000</v>
+      </c>
+      <c r="C65">
+        <v>400000</v>
+      </c>
+      <c r="D65">
+        <v>400000</v>
+      </c>
+      <c r="E65">
+        <v>400000</v>
+      </c>
+      <c r="F65">
+        <v>400000</v>
+      </c>
+      <c r="G65">
+        <v>1500</v>
+      </c>
+      <c r="M65">
+        <v>100000</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>40</v>
+      </c>
+      <c r="P65">
+        <v>0.06</v>
+      </c>
+      <c r="Q65">
+        <v>6000</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>225</v>
+      </c>
+      <c r="T65" t="s">
+        <v>225</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2882,10 +5502,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2896,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2910,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2924,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2938,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2952,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2966,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2980,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2994,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3008,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3022,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3036,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3050,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3064,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3078,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3092,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3106,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3120,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3134,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3148,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3162,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -3176,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3190,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -3204,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3218,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3232,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -3246,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -3260,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3274,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -3288,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -3302,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3316,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3330,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3344,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -3358,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3372,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -3386,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -3400,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3414,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -3428,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -3442,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3456,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3470,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -3484,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -3498,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -3512,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -3526,10 +6146,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -3540,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -3554,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -3568,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3582,10 +6202,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3596,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3610,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -3624,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -3638,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -3652,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3666,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -3680,21 +6300,992 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>128</v>
       </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94">
+        <v>21</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100">
+        <v>24</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106">
+        <v>26</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107">
+        <v>26</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115">
+        <v>24</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116">
+        <v>27</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117">
+        <v>26</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119">
+        <v>29</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>212</v>
+      </c>
+      <c r="C120">
+        <v>31</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121">
+        <v>33</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122">
+        <v>33</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123">
+        <v>34</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127">
+        <v>42</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128">
+        <v>46</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129">
+        <v>46</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>name</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>10000-20000</t>
+  </si>
+  <si>
+    <t>River Stix Sandals</t>
   </si>
   <si>
     <t>Minotar God</t>
@@ -5957,13 +5960,19 @@
       <c r="Y71">
         <v>1</v>
       </c>
+      <c r="Z71" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA71">
+        <v>0.2</v>
+      </c>
       <c r="AB71" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B72">
         <v>72000</v>
@@ -6020,7 +6029,7 @@
         <v>135</v>
       </c>
       <c r="T72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U72">
         <v>1600</v>
@@ -6043,7 +6052,7 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B73">
         <v>78000</v>
@@ -6097,10 +6106,10 @@
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U73">
         <v>2400</v>
@@ -6123,7 +6132,7 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -6188,7 +6197,7 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -6253,7 +6262,7 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -6318,7 +6327,7 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -6383,7 +6392,7 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B78">
         <v>24</v>
@@ -6448,7 +6457,7 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B79">
         <v>30</v>
@@ -6513,7 +6522,7 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B80">
         <v>48</v>
@@ -6578,7 +6587,7 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B81">
         <v>50</v>
@@ -6643,7 +6652,7 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B82">
         <v>96</v>
@@ -6708,7 +6717,7 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B83">
         <v>145</v>
@@ -6773,7 +6782,7 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B84">
         <v>208</v>
@@ -6838,7 +6847,7 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B85">
         <v>600</v>
@@ -6903,7 +6912,7 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86">
         <v>1000</v>
@@ -6968,7 +6977,7 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B87">
         <v>2300</v>
@@ -7033,7 +7042,7 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B88">
         <v>2500</v>
@@ -7098,7 +7107,7 @@
     </row>
     <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B89">
         <v>5000</v>
@@ -7163,7 +7172,7 @@
     </row>
     <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B90">
         <v>8000</v>
@@ -7228,7 +7237,7 @@
     </row>
     <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B91">
         <v>14000</v>
@@ -7293,7 +7302,7 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B92">
         <v>18000</v>
@@ -7358,7 +7367,7 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B93">
         <v>24000</v>
@@ -7423,7 +7432,7 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B94">
         <v>28000</v>
@@ -7488,7 +7497,7 @@
     </row>
     <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95">
         <v>32000</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96">
         <v>38000</v>
@@ -7618,7 +7627,7 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -7683,7 +7692,7 @@
     </row>
     <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98">
         <v>44000</v>
@@ -7748,7 +7757,7 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B99">
         <v>45000</v>
@@ -7813,7 +7822,7 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B100">
         <v>50000</v>
@@ -7878,7 +7887,7 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B101">
         <v>65000</v>
@@ -7943,7 +7952,7 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102">
         <v>68000</v>
@@ -8008,7 +8017,7 @@
     </row>
     <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B103">
         <v>70000</v>
@@ -8073,7 +8082,7 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B104">
         <v>80000</v>
@@ -8138,7 +8147,7 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B105">
         <v>90000</v>
@@ -8203,7 +8212,7 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B106">
         <v>100000</v>
@@ -8268,7 +8277,7 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B107">
         <v>90000</v>
@@ -8322,7 +8331,7 @@
         <v>40</v>
       </c>
       <c r="S107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T107" t="s">
         <v>185</v>
@@ -8348,7 +8357,7 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B108">
         <v>93000</v>
@@ -8402,7 +8411,7 @@
         <v>45</v>
       </c>
       <c r="S108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T108" t="s">
         <v>188</v>
@@ -8428,7 +8437,7 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B109">
         <v>98000</v>
@@ -8482,10 +8491,10 @@
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U109">
         <v>1600</v>
@@ -8503,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="Z109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA109">
         <v>0.01</v>
@@ -8514,7 +8523,7 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B110">
         <v>99999</v>
@@ -8568,10 +8577,10 @@
         <v>75</v>
       </c>
       <c r="S110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T110" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U110">
         <v>2400</v>
@@ -8594,7 +8603,7 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B111">
         <v>105000</v>
@@ -8648,7 +8657,7 @@
         <v>100</v>
       </c>
       <c r="S111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T111" t="s">
         <v>135</v>
@@ -8712,25 +8721,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8744,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8758,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8772,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8786,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8800,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8814,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8828,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8842,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8856,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8870,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8884,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8898,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8912,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8926,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8940,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8954,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8968,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8982,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8996,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9010,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -9024,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9038,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9052,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9066,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9080,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9094,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9108,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9122,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9136,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9150,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9164,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9178,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9192,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9206,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9220,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9234,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9248,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9262,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9276,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9290,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9304,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9318,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9332,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -9346,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9360,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9374,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9388,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9402,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9416,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9430,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9444,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9458,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9472,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9486,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9500,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9514,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9528,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9542,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9556,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9570,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9584,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -9598,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9612,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9626,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -9640,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -9654,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -9668,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -9682,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -9696,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -9710,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -9724,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -9738,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -9752,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -9766,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -9780,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9794,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9808,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9822,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9836,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -9850,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -9864,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -9878,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -9892,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -9906,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -9920,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -9934,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -9948,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -9962,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -9976,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -9990,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -10004,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -10018,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -10032,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -10046,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -10060,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -10074,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -10088,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -10102,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -10116,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -10130,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -10144,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -10158,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -10172,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -10186,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -10200,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -10214,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -10228,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -10242,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -10256,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -10270,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -10284,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -10298,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -10312,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -10326,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -10340,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -10354,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -10368,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -10382,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -10396,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -10410,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -10424,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -10438,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -10452,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -10466,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -10480,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -10494,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -10508,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -10522,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -10536,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -10550,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -10564,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -10578,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -10592,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -10606,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -10620,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -10634,12 +10643,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -10648,12 +10657,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -10662,12 +10671,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -10676,12 +10685,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10690,12 +10699,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -10704,12 +10713,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -10718,12 +10727,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C144">
         <v>8</v>
@@ -10732,12 +10741,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C145">
         <v>10</v>
@@ -10746,12 +10755,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C146">
         <v>15</v>
@@ -10760,12 +10769,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C147">
         <v>18</v>
@@ -10774,12 +10783,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C148">
         <v>24</v>
@@ -10788,12 +10797,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C149">
         <v>28</v>
@@ -10802,12 +10811,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C150">
         <v>32</v>
@@ -10816,12 +10825,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C151">
         <v>35</v>
@@ -10830,12 +10839,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C152">
         <v>38</v>
@@ -10844,12 +10853,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C153">
         <v>44</v>
@@ -10858,12 +10867,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C154">
         <v>47</v>
@@ -10872,12 +10881,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C155">
         <v>50</v>
@@ -10886,12 +10895,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C156">
         <v>54</v>
@@ -10900,12 +10909,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -10914,12 +10923,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C158">
         <v>63</v>
@@ -10928,12 +10937,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C159">
         <v>65</v>
@@ -10942,12 +10951,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C160">
         <v>68</v>
@@ -10956,12 +10965,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C161">
         <v>75</v>
@@ -10970,12 +10979,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C162">
         <v>80</v>
@@ -10984,12 +10993,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C163">
         <v>100</v>
@@ -10998,12 +11007,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C164">
         <v>130</v>
@@ -11012,12 +11021,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C165">
         <v>140</v>
@@ -11026,12 +11035,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C166">
         <v>148</v>
@@ -11040,12 +11049,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C167">
         <v>150</v>
@@ -11054,12 +11063,12 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -11068,12 +11077,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C169">
         <v>158</v>
@@ -11082,12 +11091,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C170">
         <v>160</v>
@@ -11096,12 +11105,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C171">
         <v>175</v>
@@ -11110,12 +11119,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C172">
         <v>180</v>
@@ -11124,12 +11133,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -11138,12 +11147,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11152,12 +11161,12 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C175">
         <v>3</v>
@@ -11166,12 +11175,12 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -11180,12 +11189,12 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -11194,12 +11203,12 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C178">
         <v>10</v>
@@ -11208,12 +11217,12 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C179">
         <v>15</v>
@@ -11222,12 +11231,12 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C180">
         <v>18</v>
@@ -11236,12 +11245,12 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C181">
         <v>24</v>
@@ -11250,12 +11259,12 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C182">
         <v>28</v>
@@ -11264,12 +11273,12 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C183">
         <v>32</v>
@@ -11278,12 +11287,12 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C184">
         <v>35</v>
@@ -11292,12 +11301,12 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C185">
         <v>38</v>
@@ -11306,12 +11315,12 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C186">
         <v>44</v>
@@ -11320,12 +11329,12 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C187">
         <v>47</v>
@@ -11334,12 +11343,12 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C188">
         <v>50</v>
@@ -11348,12 +11357,12 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C189">
         <v>54</v>
@@ -11362,12 +11371,12 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C190">
         <v>60</v>
@@ -11376,12 +11385,12 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C191">
         <v>63</v>
@@ -11390,12 +11399,12 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C192">
         <v>65</v>
@@ -11404,12 +11413,12 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C193">
         <v>68</v>
@@ -11418,12 +11427,12 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C194">
         <v>75</v>
@@ -11432,12 +11441,12 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C195">
         <v>80</v>
@@ -11446,12 +11455,12 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C196">
         <v>100</v>
@@ -11460,12 +11469,12 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C197">
         <v>130</v>
@@ -11474,12 +11483,12 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C198">
         <v>140</v>
@@ -11488,12 +11497,12 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C199">
         <v>148</v>
@@ -11502,12 +11511,12 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C200">
         <v>150</v>
@@ -11516,12 +11525,12 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C201">
         <v>153</v>
@@ -11530,12 +11539,12 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C202">
         <v>158</v>
@@ -11544,12 +11553,12 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C203">
         <v>160</v>
@@ -11558,12 +11567,12 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C204">
         <v>175</v>
@@ -11572,12 +11581,12 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C205">
         <v>180</v>
@@ -11586,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -11600,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -11614,12 +11623,12 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C208">
         <v>450</v>
@@ -11628,12 +11637,12 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C209">
         <v>475</v>
@@ -11642,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -11656,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -11670,12 +11679,12 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C212">
         <v>450</v>
@@ -11684,12 +11693,12 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C213">
         <v>475</v>
@@ -11698,12 +11707,12 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C214">
         <v>300</v>
@@ -11712,12 +11721,12 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C215">
         <v>400</v>
@@ -11726,12 +11735,12 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C216">
         <v>475</v>
@@ -11740,12 +11749,12 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C217">
         <v>525</v>
@@ -11754,12 +11763,12 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C218">
         <v>300</v>
@@ -11768,12 +11777,12 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C219">
         <v>400</v>
@@ -11782,12 +11791,12 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C220">
         <v>475</v>
@@ -11796,12 +11805,12 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C221">
         <v>525</v>
@@ -11810,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD8F27-12FC-7149-A8B3-DAD3632351C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
-    <sheet name="Monsters Skills" sheetId="2" r:id="rId2"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
+    <sheet name="Monsters Skills" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -787,9 +771,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -800,37 +789,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1120,40 +1100,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P66" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z111"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1307,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="Z2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AA2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -1328,7 +1320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1387,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="Z3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AA3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -1402,7 +1394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1461,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="Z4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AA4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -1476,7 +1468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1535,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Z5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AA5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -1550,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1630,7 +1622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1790,7 +1782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1944,7 +1936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2024,7 +2016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2083,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="Z12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AA12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -2104,7 +2096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2178,7 +2170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2252,7 +2244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2332,36 +2324,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="C16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="D16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="E16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="F16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="G16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="H16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O16">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="P16" t="s">
         <v>5</v>
@@ -2370,19 +2362,19 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2391,72 +2383,78 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="Z16">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AA16">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
+      <c r="AC16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16">
+        <v>0.2</v>
+      </c>
       <c r="AE16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="C17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="I17">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O17">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="P17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>10</v>
       </c>
       <c r="R17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S17">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2465,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AA17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2480,39 +2478,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="E18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="G18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I18">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O18">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="P18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -2521,16 +2519,16 @@
         <v>0.05</v>
       </c>
       <c r="S18">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2539,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Z18">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AA18">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -2554,57 +2552,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="C19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="D19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="G19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="H19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="I19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O19">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="P19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>10</v>
       </c>
       <c r="R19">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S19">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2613,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z19">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AA19">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -2628,57 +2626,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="C20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="D20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="E20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="F20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="G20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="H20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="I20">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O20">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="P20" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>10</v>
       </c>
       <c r="R20">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S20">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2687,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Z20">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AA20">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AB20">
         <v>1</v>
@@ -2702,45 +2700,45 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="C21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="D21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="G21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="H21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="I21">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O21">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="P21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>10</v>
       </c>
       <c r="R21">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S21">
         <v>1700</v>
@@ -2749,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2761,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Z21">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AA21">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -2776,57 +2774,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="C22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="D22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="E22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="F22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="G22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="H22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="I22">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O22">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="P22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>10</v>
       </c>
       <c r="R22">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S22">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2835,78 +2833,72 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Z22">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AA22">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AB22">
         <v>1</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD22">
-        <v>0.01</v>
       </c>
       <c r="AE22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="C23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="D23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="E23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="F23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="G23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="H23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="I23">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O23">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="P23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q23">
         <v>10</v>
       </c>
       <c r="R23">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S23">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2915,72 +2907,78 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="Z23">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AA23">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AB23">
         <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD23">
+        <v>0.01</v>
       </c>
       <c r="AE23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="C24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="D24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="E24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="G24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="H24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="I24">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O24">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="P24" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R24">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="S24">
-        <v>2450</v>
+        <v>2300</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2989,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Z24">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AA24">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -3004,57 +3002,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="C25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="D25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="E25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="F25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="G25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="H25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="I25">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="O25">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="P25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>12</v>
       </c>
       <c r="R25">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S25">
-        <v>2600</v>
+        <v>2450</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3063,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Z25">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AA25">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AB25">
         <v>1</v>
@@ -3078,57 +3076,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="C26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="D26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="E26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="F26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="H26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="I26">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="O26">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="P26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <v>12</v>
       </c>
       <c r="R26">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S26">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3137,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="Z26">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AA26">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -3152,57 +3150,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="C27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="D27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="E27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="F27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="H27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="I27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="O27">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="P27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S27">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3211,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Z27">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AA27">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -3226,57 +3224,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="C28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I28">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="O28">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="P28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q28">
         <v>15</v>
       </c>
       <c r="R28">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S28">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3285,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z28">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AA28">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AB28">
         <v>1</v>
@@ -3300,57 +3298,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="C29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="D29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="E29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="F29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="G29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="H29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I29">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="O29">
-        <v>99999</v>
+        <v>970</v>
       </c>
       <c r="P29" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R29">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="S29">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3359,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="Z29">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AA29">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AB29">
         <v>1</v>
@@ -3374,132 +3372,132 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>65000</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>99999</v>
       </c>
       <c r="P30" t="s">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R30">
         <v>0.01</v>
       </c>
       <c r="S30">
+        <v>5000</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>122</v>
+      </c>
+      <c r="V30" t="s">
+        <v>123</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0.24</v>
+      </c>
+      <c r="Z30">
+        <v>0.24</v>
+      </c>
+      <c r="AA30">
+        <v>0.24</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>0.01</v>
+      </c>
+      <c r="S31">
         <v>10</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>32</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V31" t="s">
         <v>33</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>1E-3</v>
-      </c>
-      <c r="Z30">
-        <v>1E-3</v>
-      </c>
-      <c r="AA30">
-        <v>1E-3</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>0.02</v>
-      </c>
-      <c r="S31">
-        <v>25</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>37</v>
-      </c>
-      <c r="V31" t="s">
-        <v>38</v>
-      </c>
       <c r="W31">
         <v>0</v>
       </c>
@@ -3507,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="Z31">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AA31">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AB31">
         <v>1</v>
@@ -3522,57 +3520,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>3</v>
       </c>
       <c r="R32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S32">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3581,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="Z32">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AA32">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AB32">
         <v>1</v>
@@ -3596,39 +3594,39 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -3637,16 +3635,16 @@
         <v>0.03</v>
       </c>
       <c r="S33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3655,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="Z33">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AA33">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -3670,39 +3668,39 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P34" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -3711,16 +3709,16 @@
         <v>0.03</v>
       </c>
       <c r="S34">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3729,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="Z34">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AA34">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AB34">
         <v>1</v>
@@ -3744,57 +3742,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O35">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="P35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="S35">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3803,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -3818,57 +3816,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I36">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O36">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P36" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>4</v>
       </c>
       <c r="R36">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S36">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3877,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Z36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AA36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -3892,57 +3890,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O37">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>4</v>
       </c>
       <c r="R37">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="S37">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3951,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z37">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA37">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -3966,57 +3964,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="S38">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4025,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z38">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AA38">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -4040,72 +4038,72 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="G39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="H39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="I39">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O39">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q39">
         <v>5</v>
       </c>
       <c r="R39">
+        <v>0.09</v>
+      </c>
+      <c r="S39">
+        <v>100</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" t="s">
+        <v>61</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <v>0.05</v>
       </c>
-      <c r="S39">
-        <v>250</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>64</v>
-      </c>
-      <c r="V39" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0.06</v>
-      </c>
       <c r="Z39">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AA39">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -4114,39 +4112,39 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="C40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="D40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="E40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="F40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="G40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="H40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="I40">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="O40">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -4155,16 +4153,16 @@
         <v>0.05</v>
       </c>
       <c r="S40">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4173,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Z40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AA40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -4188,57 +4186,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="C41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="D41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="E41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="F41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="G41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="H41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="I41">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="O41">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="P41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q41">
         <v>5</v>
       </c>
       <c r="R41">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S41">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4247,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="Z41">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AA41">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -4262,57 +4260,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="O42">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R42">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S42">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4321,13 +4319,13 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Z42">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AA42">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -4336,57 +4334,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="C43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="D43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="E43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="F43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="G43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="H43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="I43">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="O43">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="P43" t="s">
         <v>4</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R43">
         <v>0.01</v>
       </c>
       <c r="S43">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4395,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Z43">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AA43">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AB43">
         <v>1</v>
@@ -4410,57 +4408,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="D44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I44">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O44">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="P44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R44">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S44">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4469,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Z44">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AA44">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB44">
         <v>1</v>
@@ -4484,36 +4482,36 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="C45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="I45">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O45">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="P45" t="s">
         <v>5</v>
@@ -4522,19 +4520,19 @@
         <v>10</v>
       </c>
       <c r="R45">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S45">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4543,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z45">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AA45">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AB45">
         <v>1</v>
@@ -4558,57 +4556,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="C46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="I46">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O46">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="P46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>10</v>
       </c>
       <c r="R46">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S46">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4617,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Z46">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AA46">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AB46">
         <v>1</v>
@@ -4632,39 +4630,39 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="E47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="G47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I47">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O47">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="P47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -4673,16 +4671,16 @@
         <v>0.05</v>
       </c>
       <c r="S47">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="V47" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4691,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z47">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AA47">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AB47">
         <v>1</v>
@@ -4706,57 +4704,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="C48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="D48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="G48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="H48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="I48">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O48">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="P48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48">
         <v>10</v>
       </c>
       <c r="R48">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S48">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4765,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Z48">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AA48">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AB48">
         <v>1</v>
@@ -4780,57 +4778,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="C49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="D49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="E49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="F49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="G49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="H49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="I49">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O49">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="P49" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49">
         <v>10</v>
       </c>
       <c r="R49">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S49">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4839,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Z49">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AA49">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AB49">
         <v>1</v>
@@ -4854,45 +4852,45 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="C50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="D50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="G50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="H50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="I50">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O50">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="P50" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>10</v>
       </c>
       <c r="R50">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S50">
         <v>1700</v>
@@ -4901,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -4913,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Z50">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AA50">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AB50">
         <v>1</v>
@@ -4928,57 +4926,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="C51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="D51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="E51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="F51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="G51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="H51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="I51">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O51">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="P51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51">
         <v>10</v>
       </c>
       <c r="R51">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S51">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4987,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="Z51">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AA51">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AB51">
         <v>1</v>
@@ -5002,57 +5000,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="C52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="D52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="E52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="F52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="G52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="H52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="I52">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O52">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="P52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q52">
         <v>10</v>
       </c>
       <c r="R52">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S52">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -5061,78 +5059,72 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Z52">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AA52">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AB52">
         <v>1</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD52">
-        <v>0.15</v>
       </c>
       <c r="AE52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="C53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="D53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="E53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="G53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="H53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="I53">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O53">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="P53" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R53">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="S53">
-        <v>2450</v>
+        <v>2300</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -5141,72 +5133,78 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Z53">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AA53">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AB53">
         <v>1</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD53">
+        <v>0.15</v>
       </c>
       <c r="AE53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="C54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="D54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="E54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="F54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="G54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="H54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="I54">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="O54">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="P54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q54">
         <v>12</v>
       </c>
       <c r="R54">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S54">
-        <v>2600</v>
+        <v>2450</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -5215,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="Z54">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AA54">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AB54">
         <v>1</v>
@@ -5230,57 +5228,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="C55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="D55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="E55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="F55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="H55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="I55">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="O55">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="P55" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>12</v>
       </c>
       <c r="R55">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S55">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5289,78 +5287,72 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Z55">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AA55">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AB55">
         <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD55">
-        <v>0.15</v>
       </c>
       <c r="AE55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="C56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="D56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="E56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="F56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="H56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="I56">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="O56">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="P56" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R56">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S56">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5369,72 +5361,78 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z56">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AA56">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AB56">
         <v>1</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD56">
+        <v>0.15</v>
       </c>
       <c r="AE56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="C57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I57">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="O57">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="P57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q57">
         <v>15</v>
       </c>
       <c r="R57">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S57">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -5443,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="Z57">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AA57">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -5458,57 +5456,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="C58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="D58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="E58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="F58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="G58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="H58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I58">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="O58">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="P58" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R58">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="S58">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5517,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Z58">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AA58">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AB58">
         <v>1</v>
@@ -5532,57 +5530,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="C59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="D59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="E59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="F59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="G59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="H59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="I59">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="O59">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="P59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>20</v>
       </c>
       <c r="R59">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S59">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="V59" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5591,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Z59">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AA59">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -5606,57 +5604,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="C60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="D60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="E60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="F60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="G60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="H60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="I60">
-        <v>70000</v>
+        <v>68000</v>
       </c>
       <c r="O60">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="P60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q60">
         <v>20</v>
       </c>
       <c r="R60">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S60">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5665,13 +5663,13 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z60">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AA60">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AB60">
         <v>1</v>
@@ -5680,57 +5678,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="C61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="D61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="E61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="F61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="G61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="H61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I61">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="O61">
         <v>99999</v>
       </c>
       <c r="P61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>0.03</v>
       </c>
       <c r="S61">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5739,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="Z61">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="AA61">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="AB61">
         <v>1</v>
@@ -5754,57 +5752,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="C62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="D62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="E62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="F62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="G62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="H62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="I62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="O62">
         <v>99999</v>
       </c>
       <c r="P62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q62">
         <v>30</v>
       </c>
       <c r="R62">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="S62">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -5813,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.28999999999999998</v>
+        <v>0.28</v>
       </c>
       <c r="Z62">
-        <v>0.28999999999999998</v>
+        <v>0.28</v>
       </c>
       <c r="AA62">
-        <v>0.28999999999999998</v>
+        <v>0.28</v>
       </c>
       <c r="AB62">
         <v>1</v>
@@ -5828,57 +5826,57 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="C63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="D63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="G63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="H63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="I63">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="O63">
         <v>99999</v>
       </c>
       <c r="P63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R63">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="S63">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -5887,13 +5885,13 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="Z63">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AA63">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AB63">
         <v>1</v>
@@ -5902,134 +5900,113 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="C64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="D64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="E64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="F64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="G64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="H64">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="I64">
-        <v>15000</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>25000</v>
-      </c>
-      <c r="L64">
-        <v>5000</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="O64">
         <v>99999</v>
       </c>
       <c r="P64" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q64">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R64">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S64">
-        <v>10000000</v>
+        <v>6000</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W64">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Z64">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AA64">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
-      <c r="AC64" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD64">
-        <v>0.25</v>
-      </c>
       <c r="AE64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="H65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="I65">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L65">
         <v>5000</v>
@@ -6044,90 +6021,90 @@
         <v>99999</v>
       </c>
       <c r="P65" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q65">
         <v>100</v>
       </c>
       <c r="R65">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S65">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="T65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U65" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="V65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W65">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="X65">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Y65">
+        <v>0.2</v>
+      </c>
+      <c r="Z65">
+        <v>0.2</v>
+      </c>
+      <c r="AA65">
+        <v>0.2</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD65">
         <v>0.25</v>
-      </c>
-      <c r="Z65">
-        <v>0.25</v>
-      </c>
-      <c r="AA65">
-        <v>0.25</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD65">
-        <v>0.01</v>
       </c>
       <c r="AE65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="C66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="E66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I66">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L66">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6139,40 +6116,40 @@
         <v>99999</v>
       </c>
       <c r="P66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>100</v>
       </c>
       <c r="R66">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S66">
-        <v>30000000</v>
+        <v>15000000</v>
       </c>
       <c r="T66">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U66" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="V66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="W66">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="X66">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y66">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="Z66">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="AA66">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -6187,39 +6164,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="C67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="D67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="E67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="F67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="H67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="I67">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="L67">
         <v>10000</v>
@@ -6234,84 +6211,90 @@
         <v>99999</v>
       </c>
       <c r="P67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q67">
         <v>100</v>
       </c>
       <c r="R67">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S67">
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
       <c r="T67">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W67">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="X67">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Y67">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="Z67">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AA67">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AB67">
         <v>1</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD67">
+        <v>0.01</v>
       </c>
       <c r="AE67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="C68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="D68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="E68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="F68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="G68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="H68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="I68">
-        <v>83000</v>
+        <v>44000</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="L68">
-        <v>55000</v>
+        <v>10000</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -6323,84 +6306,84 @@
         <v>99999</v>
       </c>
       <c r="P68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q68">
         <v>100</v>
       </c>
       <c r="R68">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="S68">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="T68">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="V68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W68">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="X68">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Y68">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="Z68">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AA68">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AE68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="C69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="D69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="E69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="F69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="G69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="H69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="I69">
-        <v>60000</v>
+        <v>83000</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="L69">
-        <v>10000</v>
+        <v>55000</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -6412,40 +6395,40 @@
         <v>99999</v>
       </c>
       <c r="P69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q69">
         <v>100</v>
       </c>
       <c r="R69">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="S69">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="T69">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W69">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="X69">
-        <v>275</v>
+        <v>2500</v>
       </c>
       <c r="Y69">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="Z69">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AA69">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AB69">
         <v>1</v>
@@ -6454,42 +6437,42 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="C70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="D70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="E70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="F70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="H70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="I70">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L70">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -6501,90 +6484,84 @@
         <v>99999</v>
       </c>
       <c r="P70" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>100</v>
       </c>
       <c r="R70">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S70">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="T70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W70">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="X70">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Y70">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Z70">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AA70">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AB70">
         <v>1</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD70">
-        <v>0.2</v>
       </c>
       <c r="AE70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="C71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="D71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="E71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="F71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="G71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="H71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="I71">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L71">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -6596,84 +6573,90 @@
         <v>99999</v>
       </c>
       <c r="P71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q71">
         <v>100</v>
       </c>
       <c r="R71">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S71">
-        <v>30000000</v>
+        <v>15000000</v>
       </c>
       <c r="T71">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U71" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="V71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W71">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="X71">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y71">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AA71">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AB71">
         <v>1</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD71">
+        <v>0.2</v>
       </c>
       <c r="AE71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="C72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="D72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="E72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="F72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="G72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="H72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="I72">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="L72">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -6685,40 +6668,40 @@
         <v>99999</v>
       </c>
       <c r="P72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q72">
         <v>100</v>
       </c>
       <c r="R72">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S72">
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
       <c r="T72">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U72" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="W72">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="X72">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Y72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AA72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB72">
         <v>1</v>
@@ -6727,132 +6710,147 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73">
+        <v>78000</v>
+      </c>
+      <c r="C73">
+        <v>78000</v>
+      </c>
+      <c r="D73">
+        <v>78000</v>
+      </c>
+      <c r="E73">
+        <v>78000</v>
+      </c>
+      <c r="F73">
+        <v>78000</v>
+      </c>
+      <c r="G73">
+        <v>78000</v>
+      </c>
+      <c r="H73">
+        <v>78000</v>
+      </c>
+      <c r="I73">
+        <v>78000</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>150000</v>
+      </c>
+      <c r="L73">
+        <v>50000</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>99999</v>
+      </c>
+      <c r="P73" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q73">
+        <v>100</v>
+      </c>
+      <c r="R73">
+        <v>0.1</v>
+      </c>
+      <c r="S73">
+        <v>60000000</v>
+      </c>
+      <c r="T73">
+        <v>32</v>
+      </c>
+      <c r="U73" t="s">
+        <v>197</v>
+      </c>
+      <c r="V73" t="s">
+        <v>198</v>
+      </c>
+      <c r="W73">
+        <v>2400</v>
+      </c>
+      <c r="X73">
+        <v>1500</v>
+      </c>
+      <c r="Y73">
+        <v>0.5</v>
+      </c>
+      <c r="Z73">
+        <v>0.5</v>
+      </c>
+      <c r="AA73">
+        <v>0.5</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="A74" t="s">
         <v>199</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>8</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>8</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>8</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>8</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>8</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>8</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>8</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>8</v>
       </c>
-      <c r="O73">
+      <c r="O74">
         <v>3</v>
       </c>
-      <c r="P73" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q73">
+      <c r="P74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74">
         <v>2</v>
       </c>
-      <c r="R73">
+      <c r="R74">
         <v>0.01</v>
       </c>
-      <c r="S73">
+      <c r="S74">
         <v>10</v>
       </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73" t="s">
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
         <v>32</v>
       </c>
-      <c r="V73" t="s">
+      <c r="V74" t="s">
         <v>33</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>1E-3</v>
-      </c>
-      <c r="Z73">
-        <v>1E-3</v>
-      </c>
-      <c r="AA73">
-        <v>1E-3</v>
-      </c>
-      <c r="AB73">
-        <v>1</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>9</v>
-      </c>
-      <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="E74">
-        <v>9</v>
-      </c>
-      <c r="F74">
-        <v>9</v>
-      </c>
-      <c r="G74">
-        <v>9</v>
-      </c>
-      <c r="H74">
-        <v>9</v>
-      </c>
-      <c r="I74">
-        <v>9</v>
-      </c>
-      <c r="O74">
-        <v>5</v>
-      </c>
-      <c r="P74" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>3</v>
-      </c>
-      <c r="R74">
-        <v>0.02</v>
-      </c>
-      <c r="S74">
-        <v>25</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>37</v>
-      </c>
-      <c r="V74" t="s">
-        <v>38</v>
-      </c>
       <c r="W74">
         <v>0</v>
       </c>
@@ -6860,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="Z74">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AA74">
-        <v>2E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -6875,57 +6873,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P75" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>3</v>
       </c>
       <c r="R75">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S75">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6934,13 +6932,13 @@
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="Z75">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AA75">
-        <v>5.0000000000000001E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AB75">
         <v>1</v>
@@ -6949,39 +6947,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -6990,16 +6988,16 @@
         <v>0.03</v>
       </c>
       <c r="S76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -7008,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="Z76">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AA76">
-        <v>8.0000000000000002E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -7023,39 +7021,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O77">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P77" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -7064,16 +7062,16 @@
         <v>0.03</v>
       </c>
       <c r="S77">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -7082,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="Z77">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AA77">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AB77">
         <v>1</v>
@@ -7097,57 +7095,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O78">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="P78" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R78">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="S78">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -7156,13 +7154,13 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AB78">
         <v>1</v>
@@ -7171,57 +7169,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I79">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O79">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S79">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V79" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -7230,13 +7228,13 @@
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Z79">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AA79">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB79">
         <v>1</v>
@@ -7245,57 +7243,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O80">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>4</v>
       </c>
       <c r="R80">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="S80">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -7304,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z80">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA80">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB80">
         <v>1</v>
@@ -7319,57 +7317,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I81">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="O81">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P81" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R81">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="S81">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -7378,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z81">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AA81">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -7393,72 +7391,72 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="G82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="H82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="I82">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O82">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q82">
         <v>5</v>
       </c>
       <c r="R82">
+        <v>0.09</v>
+      </c>
+      <c r="S82">
+        <v>100</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>60</v>
+      </c>
+      <c r="V82" t="s">
+        <v>61</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <v>0.05</v>
       </c>
-      <c r="S82">
-        <v>250</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82" t="s">
-        <v>64</v>
-      </c>
-      <c r="V82" t="s">
-        <v>65</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0.06</v>
-      </c>
       <c r="Z82">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AA82">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB82">
         <v>1</v>
@@ -7467,39 +7465,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="C83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="D83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="E83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="F83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="G83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="H83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="I83">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="O83">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -7508,16 +7506,16 @@
         <v>0.05</v>
       </c>
       <c r="S83">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -7526,78 +7524,72 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Z83">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AA83">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AB83">
         <v>1</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD83">
-        <v>0.01</v>
       </c>
       <c r="AE83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="C84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="D84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="E84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="F84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="G84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="H84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="I84">
-        <v>600</v>
+        <v>208</v>
       </c>
       <c r="O84">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="P84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q84">
         <v>5</v>
       </c>
       <c r="R84">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S84">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -7606,72 +7598,78 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="Z84">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AA84">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AB84">
         <v>1</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD84">
+        <v>0.01</v>
       </c>
       <c r="AE84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="O85">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P85" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R85">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S85">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V85" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -7680,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Z85">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AA85">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB85">
         <v>1</v>
@@ -7695,57 +7693,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="C86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="D86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="E86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="F86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="G86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="H86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="I86">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="O86">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="P86" t="s">
         <v>4</v>
       </c>
       <c r="Q86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R86">
         <v>0.01</v>
       </c>
       <c r="S86">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7754,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Z86">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AA86">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AB86">
         <v>1</v>
@@ -7769,57 +7767,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="D87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I87">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O87">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="P87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R87">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S87">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="V87" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -7828,13 +7826,13 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Z87">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AA87">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB87">
         <v>1</v>
@@ -7843,36 +7841,36 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="C88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="I88">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O88">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="P88" t="s">
         <v>5</v>
@@ -7881,19 +7879,19 @@
         <v>10</v>
       </c>
       <c r="R88">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S88">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="V88" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -7902,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z88">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AA88">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -7917,57 +7915,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="C89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="I89">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O89">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="P89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q89">
         <v>10</v>
       </c>
       <c r="R89">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S89">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7976,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Z89">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AA89">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AB89">
         <v>1</v>
@@ -7991,39 +7989,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="B90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="E90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="G90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I90">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O90">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="P90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -8032,16 +8030,16 @@
         <v>0.05</v>
       </c>
       <c r="S90">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="V90" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -8050,28 +8048,22 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z90">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AA90">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AB90">
         <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD90">
-        <v>0.2</v>
       </c>
       <c r="AE90" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -8145,7 +8137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
         <v>217</v>
       </c>
@@ -8219,7 +8211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -8293,7 +8285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -8367,7 +8359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -8441,7 +8433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
         <v>221</v>
       </c>
@@ -8515,7 +8507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -8589,7 +8581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -8663,7 +8655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -8737,7 +8729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
         <v>225</v>
       </c>
@@ -8811,7 +8803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -8885,7 +8877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -8959,7 +8951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
         <v>228</v>
       </c>
@@ -9033,7 +9025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
         <v>229</v>
       </c>
@@ -9092,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Z104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AA104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AB104">
         <v>1</v>
@@ -9107,7 +9099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
         <v>230</v>
       </c>
@@ -9166,13 +9158,13 @@
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Z105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AA105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AB105">
         <v>1</v>
@@ -9181,7 +9173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
         <v>231</v>
       </c>
@@ -9255,7 +9247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -9344,7 +9336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
         <v>236</v>
       </c>
@@ -9522,7 +9514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
         <v>238</v>
       </c>
@@ -9611,7 +9603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
         <v>240</v>
       </c>
@@ -9701,30 +9693,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -9747,7 +9753,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -9761,7 +9767,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -9775,7 +9781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9803,7 +9809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -9817,7 +9823,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9831,7 +9837,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -9845,7 +9851,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -9859,7 +9865,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -9915,7 +9921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -9929,7 +9935,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -9943,7 +9949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -9957,7 +9963,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -9971,7 +9977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -9985,7 +9991,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -9999,7 +10005,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10013,7 +10019,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -10069,7 +10075,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -10111,7 +10117,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -10139,7 +10145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -10153,7 +10159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -10167,7 +10173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -10209,7 +10215,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -10223,7 +10229,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -10237,7 +10243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -10251,7 +10257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -10279,7 +10285,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -10307,7 +10313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -10321,7 +10327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -10349,7 +10355,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -10363,7 +10369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -10405,7 +10411,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -10419,7 +10425,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -10433,7 +10439,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -10447,7 +10453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -10461,7 +10467,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -10517,7 +10523,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -10531,7 +10537,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -10559,7 +10565,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -10573,7 +10579,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -10657,7 +10663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -10671,7 +10677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -10713,7 +10719,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -10741,7 +10747,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -10755,7 +10761,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -10783,7 +10789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -10797,7 +10803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -10811,7 +10817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -10825,7 +10831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -10839,7 +10845,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -10895,7 +10901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -10909,7 +10915,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>137</v>
       </c>
@@ -10923,7 +10929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -10937,7 +10943,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -10965,7 +10971,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>139</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -10993,7 +10999,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -11021,7 +11027,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>143</v>
       </c>
@@ -11035,7 +11041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>144</v>
       </c>
@@ -11049,7 +11055,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -11063,7 +11069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -11077,7 +11083,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -11105,7 +11111,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -11119,7 +11125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -11147,7 +11153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -11175,7 +11181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -11189,7 +11195,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -11203,7 +11209,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -11217,7 +11223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>151</v>
       </c>
@@ -11259,7 +11265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11273,7 +11279,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -11301,7 +11307,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>153</v>
       </c>
@@ -11315,7 +11321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>154</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -11343,7 +11349,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -11357,7 +11363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -11371,7 +11377,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>156</v>
       </c>
@@ -11385,7 +11391,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>156</v>
       </c>
@@ -11399,7 +11405,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -11413,7 +11419,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>159</v>
       </c>
@@ -11427,7 +11433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -11441,7 +11447,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -11455,7 +11461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -11469,7 +11475,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -11497,7 +11503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -11511,7 +11517,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>171</v>
       </c>
@@ -11525,7 +11531,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>171</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -11553,7 +11559,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>175</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>178</v>
       </c>
@@ -11581,7 +11587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -11595,7 +11601,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -11623,7 +11629,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -11637,7 +11643,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -11651,7 +11657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -11665,7 +11671,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -11679,7 +11685,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>190</v>
       </c>
@@ -11693,7 +11699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>190</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -11721,7 +11727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>194</v>
       </c>
@@ -11735,7 +11741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -11749,7 +11755,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>196</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -11777,7 +11783,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>199</v>
       </c>
@@ -11791,7 +11797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>200</v>
       </c>
@@ -11805,7 +11811,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -11819,7 +11825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>201</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>201</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>202</v>
       </c>
@@ -11861,7 +11867,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -11875,7 +11881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>203</v>
       </c>
@@ -11889,7 +11895,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>203</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>204</v>
       </c>
@@ -11917,7 +11923,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -11931,7 +11937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -11945,7 +11951,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>205</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>206</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -11987,7 +11993,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -12001,7 +12007,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>207</v>
       </c>
@@ -12015,7 +12021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>208</v>
       </c>
@@ -12029,7 +12035,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>208</v>
       </c>
@@ -12043,7 +12049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>210</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>211</v>
       </c>
@@ -12113,7 +12119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>211</v>
       </c>
@@ -12127,7 +12133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>212</v>
       </c>
@@ -12141,7 +12147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -12155,7 +12161,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -12169,7 +12175,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>213</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>214</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>214</v>
       </c>
@@ -12211,7 +12217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>215</v>
       </c>
@@ -12225,7 +12231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>215</v>
       </c>
@@ -12239,7 +12245,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>216</v>
       </c>
@@ -12253,7 +12259,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -12267,7 +12273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>217</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>217</v>
       </c>
@@ -12295,7 +12301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>218</v>
       </c>
@@ -12309,7 +12315,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>218</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>219</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>219</v>
       </c>
@@ -12351,7 +12357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>220</v>
       </c>
@@ -12365,7 +12371,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -12379,7 +12385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -12407,7 +12413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -12421,7 +12427,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -12477,7 +12483,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>224</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -12505,7 +12511,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -12533,7 +12539,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>227</v>
       </c>
@@ -12561,7 +12567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>228</v>
       </c>
@@ -12589,7 +12595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -12603,7 +12609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -12617,7 +12623,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>229</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -12659,7 +12665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -12673,7 +12679,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -12687,7 +12693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>232</v>
       </c>
@@ -12715,7 +12721,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -12729,7 +12735,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>234</v>
       </c>
@@ -12743,7 +12749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -12757,7 +12763,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>236</v>
       </c>
@@ -12771,7 +12777,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>238</v>
       </c>
@@ -12785,7 +12791,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>238</v>
       </c>
@@ -12799,7 +12805,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -12813,7 +12819,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>240</v>
       </c>
@@ -12828,8 +12834,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163E2A38-6BBC-3F43-8B7F-F8EC04AAC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9E933-9282-1F4B-874F-0C4F12648F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N70" workbookViewId="0">
-      <selection activeCell="Z103" sqref="Z103"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1276,6 +1276,12 @@
       <c r="I2">
         <v>8</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
       <c r="O2">
         <v>3</v>
       </c>
@@ -1356,6 +1362,12 @@
       <c r="I3">
         <v>9</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
       <c r="O3">
         <v>5</v>
       </c>
@@ -1430,6 +1442,12 @@
       <c r="I4">
         <v>11</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
       <c r="O4">
         <v>9</v>
       </c>
@@ -1504,6 +1522,12 @@
       <c r="I5">
         <v>16</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
       <c r="O5">
         <v>8</v>
       </c>
@@ -1578,6 +1602,12 @@
       <c r="I6">
         <v>24</v>
       </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
       <c r="O6">
         <v>14</v>
       </c>
@@ -1658,6 +1688,12 @@
       <c r="I7">
         <v>30</v>
       </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="O7">
         <v>25</v>
       </c>
@@ -1738,6 +1774,12 @@
       <c r="I8">
         <v>48</v>
       </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
       <c r="O8">
         <v>40</v>
       </c>
@@ -1818,6 +1860,12 @@
       <c r="I9">
         <v>50</v>
       </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
       <c r="O9">
         <v>60</v>
       </c>
@@ -1892,6 +1940,12 @@
       <c r="I10">
         <v>96</v>
       </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
       <c r="O10">
         <v>100</v>
       </c>
@@ -1972,6 +2026,12 @@
       <c r="I11">
         <v>145</v>
       </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
       <c r="O11">
         <v>140</v>
       </c>
@@ -2052,6 +2112,12 @@
       <c r="I12">
         <v>208</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
       <c r="O12">
         <v>200</v>
       </c>
@@ -2132,6 +2198,12 @@
       <c r="I13">
         <v>600</v>
       </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
       <c r="O13">
         <v>260</v>
       </c>
@@ -2206,6 +2278,12 @@
       <c r="I14">
         <v>1000</v>
       </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
       <c r="O14">
         <v>300</v>
       </c>
@@ -2280,6 +2358,12 @@
       <c r="I15">
         <v>2300</v>
       </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
       <c r="O15">
         <v>425</v>
       </c>
@@ -2360,6 +2444,12 @@
       <c r="I16">
         <v>5000</v>
       </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
       <c r="O16">
         <v>490</v>
       </c>
@@ -2434,6 +2524,12 @@
       <c r="I17">
         <v>8000</v>
       </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
       <c r="O17">
         <v>545</v>
       </c>
@@ -2508,6 +2604,12 @@
       <c r="I18">
         <v>12000</v>
       </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
       <c r="O18">
         <v>570</v>
       </c>
@@ -2582,6 +2684,12 @@
       <c r="I19">
         <v>14000</v>
       </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="O19">
         <v>610</v>
       </c>
@@ -2656,6 +2764,12 @@
       <c r="I20">
         <v>18000</v>
       </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
       <c r="O20">
         <v>650</v>
       </c>
@@ -2730,6 +2844,12 @@
       <c r="I21">
         <v>24000</v>
       </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
       <c r="O21">
         <v>710</v>
       </c>
@@ -2804,6 +2924,12 @@
       <c r="I22">
         <v>28000</v>
       </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
       <c r="O22">
         <v>750</v>
       </c>
@@ -2884,6 +3010,12 @@
       <c r="I23">
         <v>32000</v>
       </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
       <c r="O23">
         <v>790</v>
       </c>
@@ -2958,6 +3090,12 @@
       <c r="I24">
         <v>38000</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
       <c r="O24">
         <v>840</v>
       </c>
@@ -3032,6 +3170,12 @@
       <c r="I25">
         <v>40000</v>
       </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
       <c r="O25">
         <v>870</v>
       </c>
@@ -3106,6 +3250,12 @@
       <c r="I26">
         <v>44000</v>
       </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
       <c r="O26">
         <v>920</v>
       </c>
@@ -3180,6 +3330,12 @@
       <c r="I27">
         <v>45000</v>
       </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
       <c r="O27">
         <v>950</v>
       </c>
@@ -3254,6 +3410,12 @@
       <c r="I28">
         <v>50000</v>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
       <c r="O28">
         <v>970</v>
       </c>
@@ -3328,6 +3490,12 @@
       <c r="I29">
         <v>65000</v>
       </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
       <c r="O29">
         <v>99999</v>
       </c>
@@ -3402,6 +3570,12 @@
       <c r="I30">
         <v>8</v>
       </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
       <c r="O30">
         <v>3</v>
       </c>
@@ -3476,6 +3650,12 @@
       <c r="I31">
         <v>9</v>
       </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
       <c r="O31">
         <v>5</v>
       </c>
@@ -3550,6 +3730,12 @@
       <c r="I32">
         <v>11</v>
       </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
       <c r="O32">
         <v>9</v>
       </c>
@@ -3624,6 +3810,12 @@
       <c r="I33">
         <v>16</v>
       </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
       <c r="O33">
         <v>8</v>
       </c>
@@ -3698,6 +3890,12 @@
       <c r="I34">
         <v>24</v>
       </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
       <c r="O34">
         <v>14</v>
       </c>
@@ -3772,6 +3970,12 @@
       <c r="I35">
         <v>30</v>
       </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
       <c r="O35">
         <v>25</v>
       </c>
@@ -3846,6 +4050,12 @@
       <c r="I36">
         <v>48</v>
       </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
       <c r="O36">
         <v>40</v>
       </c>
@@ -3920,6 +4130,12 @@
       <c r="I37">
         <v>50</v>
       </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
       <c r="O37">
         <v>60</v>
       </c>
@@ -3994,6 +4210,12 @@
       <c r="I38">
         <v>96</v>
       </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
       <c r="O38">
         <v>100</v>
       </c>
@@ -4068,6 +4290,12 @@
       <c r="I39">
         <v>145</v>
       </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
       <c r="O39">
         <v>140</v>
       </c>
@@ -4142,6 +4370,12 @@
       <c r="I40">
         <v>208</v>
       </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
       <c r="O40">
         <v>200</v>
       </c>
@@ -4216,6 +4450,12 @@
       <c r="I41">
         <v>600</v>
       </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
       <c r="O41">
         <v>260</v>
       </c>
@@ -4290,6 +4530,12 @@
       <c r="I42">
         <v>1000</v>
       </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
       <c r="O42">
         <v>300</v>
       </c>
@@ -4364,6 +4610,12 @@
       <c r="I43">
         <v>2300</v>
       </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
       <c r="O43">
         <v>425</v>
       </c>
@@ -4438,6 +4690,12 @@
       <c r="I44">
         <v>2500</v>
       </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
       <c r="O44">
         <v>470</v>
       </c>
@@ -4512,6 +4770,12 @@
       <c r="I45">
         <v>5000</v>
       </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
       <c r="O45">
         <v>490</v>
       </c>
@@ -4586,6 +4850,12 @@
       <c r="I46">
         <v>8000</v>
       </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
       <c r="O46">
         <v>545</v>
       </c>
@@ -4660,6 +4930,12 @@
       <c r="I47">
         <v>12000</v>
       </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
       <c r="O47">
         <v>570</v>
       </c>
@@ -4734,6 +5010,12 @@
       <c r="I48">
         <v>14000</v>
       </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
       <c r="O48">
         <v>610</v>
       </c>
@@ -4808,6 +5090,12 @@
       <c r="I49">
         <v>18000</v>
       </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
       <c r="O49">
         <v>650</v>
       </c>
@@ -4882,6 +5170,12 @@
       <c r="I50">
         <v>24000</v>
       </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
       <c r="O50">
         <v>710</v>
       </c>
@@ -4956,6 +5250,12 @@
       <c r="I51">
         <v>28000</v>
       </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
       <c r="O51">
         <v>750</v>
       </c>
@@ -5030,6 +5330,12 @@
       <c r="I52">
         <v>32000</v>
       </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
       <c r="O52">
         <v>790</v>
       </c>
@@ -5110,6 +5416,12 @@
       <c r="I53">
         <v>38000</v>
       </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
       <c r="O53">
         <v>840</v>
       </c>
@@ -5184,6 +5496,12 @@
       <c r="I54">
         <v>40000</v>
       </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
       <c r="O54">
         <v>870</v>
       </c>
@@ -5258,6 +5576,12 @@
       <c r="I55">
         <v>44000</v>
       </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
       <c r="O55">
         <v>920</v>
       </c>
@@ -5338,6 +5662,12 @@
       <c r="I56">
         <v>45000</v>
       </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
       <c r="O56">
         <v>950</v>
       </c>
@@ -5412,6 +5742,12 @@
       <c r="I57">
         <v>50000</v>
       </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
       <c r="O57">
         <v>970</v>
       </c>
@@ -5486,6 +5822,12 @@
       <c r="I58">
         <v>65000</v>
       </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
       <c r="O58">
         <v>990</v>
       </c>
@@ -5560,6 +5902,12 @@
       <c r="I59">
         <v>68000</v>
       </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
       <c r="O59">
         <v>999</v>
       </c>
@@ -5634,6 +5982,12 @@
       <c r="I60">
         <v>70000</v>
       </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
       <c r="O60">
         <v>99999</v>
       </c>
@@ -5708,6 +6062,12 @@
       <c r="I61">
         <v>80000</v>
       </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
       <c r="O61">
         <v>99999</v>
       </c>
@@ -5782,6 +6142,12 @@
       <c r="I62">
         <v>90000</v>
       </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
       <c r="O62">
         <v>99999</v>
       </c>
@@ -5856,6 +6222,12 @@
       <c r="I63">
         <v>100000</v>
       </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
       <c r="O63">
         <v>99999</v>
       </c>
@@ -6755,6 +7127,12 @@
       <c r="I73">
         <v>8</v>
       </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
       <c r="O73">
         <v>3</v>
       </c>
@@ -6829,6 +7207,12 @@
       <c r="I74">
         <v>9</v>
       </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
       <c r="O74">
         <v>5</v>
       </c>
@@ -6903,6 +7287,12 @@
       <c r="I75">
         <v>11</v>
       </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
       <c r="O75">
         <v>9</v>
       </c>
@@ -6977,6 +7367,12 @@
       <c r="I76">
         <v>16</v>
       </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
       <c r="O76">
         <v>8</v>
       </c>
@@ -7051,6 +7447,12 @@
       <c r="I77">
         <v>24</v>
       </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
       <c r="O77">
         <v>14</v>
       </c>
@@ -7125,6 +7527,12 @@
       <c r="I78">
         <v>30</v>
       </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
       <c r="O78">
         <v>25</v>
       </c>
@@ -7199,6 +7607,12 @@
       <c r="I79">
         <v>48</v>
       </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
       <c r="O79">
         <v>40</v>
       </c>
@@ -7273,6 +7687,12 @@
       <c r="I80">
         <v>50</v>
       </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
       <c r="O80">
         <v>60</v>
       </c>
@@ -7347,6 +7767,12 @@
       <c r="I81">
         <v>96</v>
       </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
       <c r="O81">
         <v>100</v>
       </c>
@@ -7421,6 +7847,12 @@
       <c r="I82">
         <v>145</v>
       </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
       <c r="O82">
         <v>140</v>
       </c>
@@ -7495,6 +7927,12 @@
       <c r="I83">
         <v>208</v>
       </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
       <c r="O83">
         <v>200</v>
       </c>
@@ -7575,6 +8013,12 @@
       <c r="I84">
         <v>600</v>
       </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
       <c r="O84">
         <v>260</v>
       </c>
@@ -7649,6 +8093,12 @@
       <c r="I85">
         <v>1000</v>
       </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
       <c r="O85">
         <v>300</v>
       </c>
@@ -7723,6 +8173,12 @@
       <c r="I86">
         <v>2300</v>
       </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
       <c r="O86">
         <v>425</v>
       </c>
@@ -7797,6 +8253,12 @@
       <c r="I87">
         <v>2500</v>
       </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
       <c r="O87">
         <v>470</v>
       </c>
@@ -7871,6 +8333,12 @@
       <c r="I88">
         <v>5000</v>
       </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
       <c r="O88">
         <v>490</v>
       </c>
@@ -7945,6 +8413,12 @@
       <c r="I89">
         <v>8000</v>
       </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
       <c r="O89">
         <v>545</v>
       </c>
@@ -8019,6 +8493,12 @@
       <c r="I90">
         <v>12000</v>
       </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
       <c r="O90">
         <v>570</v>
       </c>
@@ -8099,6 +8579,12 @@
       <c r="I91">
         <v>14000</v>
       </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
       <c r="O91">
         <v>610</v>
       </c>
@@ -8173,6 +8659,12 @@
       <c r="I92">
         <v>18000</v>
       </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
       <c r="O92">
         <v>650</v>
       </c>
@@ -8247,6 +8739,12 @@
       <c r="I93">
         <v>24000</v>
       </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
       <c r="O93">
         <v>710</v>
       </c>
@@ -8321,6 +8819,12 @@
       <c r="I94">
         <v>28000</v>
       </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
       <c r="O94">
         <v>750</v>
       </c>
@@ -8395,6 +8899,12 @@
       <c r="I95">
         <v>32000</v>
       </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
       <c r="O95">
         <v>790</v>
       </c>
@@ -8469,6 +8979,12 @@
       <c r="I96">
         <v>38000</v>
       </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
       <c r="O96">
         <v>840</v>
       </c>
@@ -8543,6 +9059,12 @@
       <c r="I97">
         <v>40000</v>
       </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
       <c r="O97">
         <v>870</v>
       </c>
@@ -8617,6 +9139,12 @@
       <c r="I98">
         <v>44000</v>
       </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
       <c r="O98">
         <v>920</v>
       </c>
@@ -8691,6 +9219,12 @@
       <c r="I99">
         <v>45000</v>
       </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
       <c r="O99">
         <v>950</v>
       </c>
@@ -8765,6 +9299,12 @@
       <c r="I100">
         <v>50000</v>
       </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
       <c r="O100">
         <v>970</v>
       </c>
@@ -8839,6 +9379,12 @@
       <c r="I101">
         <v>65000</v>
       </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
       <c r="O101">
         <v>990</v>
       </c>
@@ -8913,6 +9459,12 @@
       <c r="I102">
         <v>68000</v>
       </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
       <c r="O102">
         <v>999</v>
       </c>
@@ -8987,6 +9539,12 @@
       <c r="I103">
         <v>70000</v>
       </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
       <c r="O103">
         <v>99999</v>
       </c>
@@ -9061,6 +9619,12 @@
       <c r="I104">
         <v>80000</v>
       </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
       <c r="O104">
         <v>99999</v>
       </c>
@@ -9135,6 +9699,12 @@
       <c r="I105">
         <v>90000</v>
       </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
       <c r="O105">
         <v>99999</v>
       </c>
@@ -9208,6 +9778,12 @@
       </c>
       <c r="I106">
         <v>100000</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
       </c>
       <c r="O106">
         <v>99999</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9E933-9282-1F4B-874F-0C4F12648F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A115972-2100-2041-B990-7DFCC73917C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monsters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="252">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>max_artifact_damage</t>
+  </si>
+  <si>
+    <t>max_affix_damage</t>
+  </si>
+  <si>
+    <t>healing_percentage</t>
   </si>
   <si>
     <t>spell_evasion</t>
@@ -1121,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE111"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N111"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1145,15 +1151,17 @@
     <col min="21" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,10 +1255,16 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1301,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1313,30 +1327,36 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>1E-3</v>
       </c>
       <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
+        <v>1E-3</v>
+      </c>
+      <c r="AC2">
+        <v>1E-3</v>
       </c>
       <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2">
         <v>0.18</v>
       </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1387,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -1399,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>2E-3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>2E-3</v>
@@ -1408,15 +1428,21 @@
         <v>2E-3</v>
       </c>
       <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AC3">
+        <v>2E-3</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1467,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -1479,24 +1505,30 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>5.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1532,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1547,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -1559,24 +1591,30 @@
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>8.0000000000000002E-3</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1627,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1639,30 +1677,36 @@
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA6">
         <v>0.01</v>
       </c>
       <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>48</v>
+        <v>0.01</v>
+      </c>
+      <c r="AC6">
+        <v>0.01</v>
       </c>
       <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6">
         <v>0.1</v>
       </c>
-      <c r="AE6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -1713,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W7">
         <v>8</v>
@@ -1725,30 +1769,36 @@
         <v>8</v>
       </c>
       <c r="Y7">
-        <v>0.02</v>
+        <v>8</v>
       </c>
       <c r="Z7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA7">
         <v>0.02</v>
       </c>
       <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>51</v>
+        <v>0.02</v>
+      </c>
+      <c r="AC7">
+        <v>0.02</v>
       </c>
       <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7">
         <v>0.15</v>
       </c>
-      <c r="AE7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -1799,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W8">
         <v>10</v>
@@ -1811,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>0.03</v>
+        <v>10</v>
       </c>
       <c r="Z8">
         <v>0.03</v>
@@ -1820,21 +1870,27 @@
         <v>0.03</v>
       </c>
       <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>55</v>
+        <v>0.03</v>
+      </c>
+      <c r="AC8">
+        <v>0.03</v>
       </c>
       <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF8">
         <v>0.18</v>
       </c>
-      <c r="AE8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1885,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W9">
         <v>12</v>
@@ -1897,24 +1953,30 @@
         <v>12</v>
       </c>
       <c r="Y9">
-        <v>0.04</v>
+        <v>12</v>
       </c>
       <c r="Z9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AA9">
         <v>0.04</v>
       </c>
       <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AC9">
+        <v>0.04</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -1965,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W10">
         <v>14</v>
@@ -1977,30 +2039,36 @@
         <v>14</v>
       </c>
       <c r="Y10">
-        <v>0.05</v>
+        <v>14</v>
       </c>
       <c r="Z10">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA10">
         <v>0.05</v>
       </c>
       <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>62</v>
+        <v>0.05</v>
+      </c>
+      <c r="AC10">
+        <v>0.05</v>
       </c>
       <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10">
         <v>0.01</v>
       </c>
-      <c r="AE10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -2051,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W11">
         <v>18</v>
@@ -2063,30 +2131,36 @@
         <v>18</v>
       </c>
       <c r="Y11">
-        <v>0.06</v>
+        <v>18</v>
       </c>
       <c r="Z11">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AA11">
         <v>0.06</v>
       </c>
       <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>51</v>
+        <v>0.06</v>
+      </c>
+      <c r="AC11">
+        <v>0.06</v>
       </c>
       <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11">
         <v>0.15</v>
       </c>
-      <c r="AE11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -2137,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W12">
         <v>20</v>
@@ -2149,30 +2223,36 @@
         <v>20</v>
       </c>
       <c r="Y12">
-        <v>7.0000000000000007E-2</v>
+        <v>20</v>
       </c>
       <c r="Z12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AA12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>69</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC12">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF12">
         <v>0.15</v>
       </c>
-      <c r="AE12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -2223,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W13">
         <v>25</v>
@@ -2235,24 +2315,30 @@
         <v>25</v>
       </c>
       <c r="Y13">
-        <v>0.08</v>
+        <v>25</v>
       </c>
       <c r="Z13">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AA13">
         <v>0.08</v>
       </c>
       <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AC13">
+        <v>0.08</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -2303,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W14">
         <v>30</v>
@@ -2315,24 +2401,30 @@
         <v>30</v>
       </c>
       <c r="Y14">
-        <v>0.09</v>
+        <v>30</v>
       </c>
       <c r="Z14">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="AA14">
         <v>0.09</v>
       </c>
       <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AC14">
+        <v>0.09</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -2383,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W15">
         <v>50</v>
@@ -2395,30 +2487,36 @@
         <v>50</v>
       </c>
       <c r="Y15">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="Z15">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA15">
         <v>0.1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>51</v>
+        <v>0.1</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
       </c>
       <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15">
         <v>0.16</v>
       </c>
-      <c r="AE15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -2469,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W16">
         <v>60</v>
@@ -2481,24 +2579,30 @@
         <v>60</v>
       </c>
       <c r="Y16">
-        <v>0.11</v>
+        <v>60</v>
       </c>
       <c r="Z16">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="AA16">
         <v>0.11</v>
       </c>
       <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AC16">
+        <v>0.11</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>8000</v>
@@ -2549,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W17">
         <v>100</v>
@@ -2561,24 +2665,30 @@
         <v>100</v>
       </c>
       <c r="Y17">
-        <v>0.12</v>
+        <v>100</v>
       </c>
       <c r="Z17">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="AA17">
         <v>0.12</v>
       </c>
       <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AC17">
+        <v>0.12</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -2629,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W18">
         <v>200</v>
@@ -2641,24 +2751,30 @@
         <v>200</v>
       </c>
       <c r="Y18">
-        <v>0.13</v>
+        <v>200</v>
       </c>
       <c r="Z18">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="AA18">
         <v>0.13</v>
       </c>
       <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AC18">
+        <v>0.13</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>14000</v>
@@ -2709,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W19">
         <v>400</v>
@@ -2721,24 +2837,30 @@
         <v>400</v>
       </c>
       <c r="Y19">
-        <v>0.14000000000000001</v>
+        <v>400</v>
       </c>
       <c r="Z19">
-        <v>0.14000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AA19">
         <v>0.14000000000000001</v>
       </c>
       <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>18000</v>
@@ -2789,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W20">
         <v>500</v>
@@ -2801,24 +2923,30 @@
         <v>500</v>
       </c>
       <c r="Y20">
-        <v>0.15</v>
+        <v>500</v>
       </c>
       <c r="Z20">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="AA20">
         <v>0.15</v>
       </c>
       <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AC20">
+        <v>0.15</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>24000</v>
@@ -2869,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W21">
         <v>1000</v>
@@ -2881,24 +3009,30 @@
         <v>1000</v>
       </c>
       <c r="Y21">
-        <v>0.16</v>
+        <v>1000</v>
       </c>
       <c r="Z21">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="AA21">
         <v>0.16</v>
       </c>
       <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AC21">
+        <v>0.16</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>28000</v>
@@ -2949,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W22">
         <v>1500</v>
@@ -2961,30 +3095,36 @@
         <v>1500</v>
       </c>
       <c r="Y22">
-        <v>0.17</v>
+        <v>1500</v>
       </c>
       <c r="Z22">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="AA22">
         <v>0.17</v>
       </c>
       <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>102</v>
+        <v>0.17</v>
+      </c>
+      <c r="AC22">
+        <v>0.17</v>
       </c>
       <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF22">
         <v>0.01</v>
       </c>
-      <c r="AE22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>32000</v>
@@ -3035,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W23">
         <v>3000</v>
@@ -3047,24 +3187,30 @@
         <v>3000</v>
       </c>
       <c r="Y23">
-        <v>0.18</v>
+        <v>3000</v>
       </c>
       <c r="Z23">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
         <v>0.18</v>
       </c>
       <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AC23">
+        <v>0.18</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>38000</v>
@@ -3115,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W24">
         <v>5000</v>
@@ -3127,24 +3273,30 @@
         <v>5000</v>
       </c>
       <c r="Y24">
-        <v>0.19</v>
+        <v>5000</v>
       </c>
       <c r="Z24">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="AA24">
         <v>0.19</v>
       </c>
       <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+      <c r="AC24">
+        <v>0.19</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>40000</v>
@@ -3195,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W25">
         <v>10000</v>
@@ -3207,24 +3359,30 @@
         <v>10000</v>
       </c>
       <c r="Y25">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="Z25">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA25">
         <v>0.2</v>
       </c>
       <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AC25">
+        <v>0.2</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>44000</v>
@@ -3275,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W26">
         <v>15000</v>
@@ -3287,24 +3445,30 @@
         <v>15000</v>
       </c>
       <c r="Y26">
-        <v>0.21</v>
+        <v>15000</v>
       </c>
       <c r="Z26">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="AA26">
         <v>0.21</v>
       </c>
       <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AC26">
+        <v>0.21</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>45000</v>
@@ -3355,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W27">
         <v>20000</v>
@@ -3367,24 +3531,30 @@
         <v>20000</v>
       </c>
       <c r="Y27">
-        <v>0.22</v>
+        <v>20000</v>
       </c>
       <c r="Z27">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
         <v>0.22</v>
       </c>
       <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+      <c r="AC27">
+        <v>0.22</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>50000</v>
@@ -3435,10 +3605,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W28">
         <v>40000</v>
@@ -3447,24 +3617,30 @@
         <v>40000</v>
       </c>
       <c r="Y28">
-        <v>0.23</v>
+        <v>40000</v>
       </c>
       <c r="Z28">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
         <v>0.23</v>
       </c>
       <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AC28">
+        <v>0.23</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B29">
         <v>65000</v>
@@ -3515,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W29">
         <v>50000</v>
@@ -3527,24 +3703,30 @@
         <v>50000</v>
       </c>
       <c r="Y29">
-        <v>0.24</v>
+        <v>50000</v>
       </c>
       <c r="Z29">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="AA29">
         <v>0.24</v>
       </c>
       <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AC29">
+        <v>0.24</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3595,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3607,24 +3789,30 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1E-3</v>
       </c>
       <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="AC30">
+        <v>1E-3</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -3675,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W31">
         <v>2</v>
@@ -3687,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="Y31">
-        <v>2E-3</v>
+        <v>2</v>
       </c>
       <c r="Z31">
         <v>2E-3</v>
@@ -3696,15 +3884,21 @@
         <v>2E-3</v>
       </c>
       <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AC31">
+        <v>2E-3</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -3755,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W32">
         <v>2</v>
@@ -3767,24 +3961,30 @@
         <v>2</v>
       </c>
       <c r="Y32">
-        <v>5.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB32">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -3835,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W33">
         <v>3</v>
@@ -3847,24 +4047,30 @@
         <v>3</v>
       </c>
       <c r="Y33">
-        <v>8.0000000000000002E-3</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -3915,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W34">
         <v>5</v>
@@ -3927,24 +4133,30 @@
         <v>5</v>
       </c>
       <c r="Y34">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="Z34">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA34">
         <v>0.01</v>
       </c>
       <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+      <c r="AC34">
+        <v>0.01</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -3995,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W35">
         <v>8</v>
@@ -4007,24 +4219,30 @@
         <v>8</v>
       </c>
       <c r="Y35">
-        <v>0.02</v>
+        <v>8</v>
       </c>
       <c r="Z35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA35">
         <v>0.02</v>
       </c>
       <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="AC35">
+        <v>0.02</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -4075,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W36">
         <v>10</v>
@@ -4087,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="Y36">
-        <v>0.03</v>
+        <v>10</v>
       </c>
       <c r="Z36">
         <v>0.03</v>
@@ -4096,15 +4314,21 @@
         <v>0.03</v>
       </c>
       <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="AC36">
+        <v>0.03</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -4155,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W37">
         <v>12</v>
@@ -4167,24 +4391,30 @@
         <v>12</v>
       </c>
       <c r="Y37">
-        <v>0.04</v>
+        <v>12</v>
       </c>
       <c r="Z37">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AA37">
         <v>0.04</v>
       </c>
       <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AC37">
+        <v>0.04</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38">
         <v>96</v>
@@ -4235,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W38">
         <v>14</v>
@@ -4247,24 +4477,30 @@
         <v>14</v>
       </c>
       <c r="Y38">
-        <v>0.05</v>
+        <v>14</v>
       </c>
       <c r="Z38">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA38">
         <v>0.05</v>
       </c>
       <c r="AB38">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="AC38">
+        <v>0.05</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B39">
         <v>145</v>
@@ -4315,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W39">
         <v>18</v>
@@ -4327,24 +4563,30 @@
         <v>18</v>
       </c>
       <c r="Y39">
-        <v>0.06</v>
+        <v>18</v>
       </c>
       <c r="Z39">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AA39">
         <v>0.06</v>
       </c>
       <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+      <c r="AC39">
+        <v>0.06</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B40">
         <v>208</v>
@@ -4395,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W40">
         <v>20</v>
@@ -4407,24 +4649,30 @@
         <v>20</v>
       </c>
       <c r="Y40">
-        <v>7.0000000000000007E-2</v>
+        <v>20</v>
       </c>
       <c r="Z40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AA40">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB40">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41">
         <v>600</v>
@@ -4475,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W41">
         <v>25</v>
@@ -4487,24 +4735,30 @@
         <v>25</v>
       </c>
       <c r="Y41">
-        <v>0.08</v>
+        <v>25</v>
       </c>
       <c r="Z41">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AA41">
         <v>0.08</v>
       </c>
       <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AC41">
+        <v>0.08</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -4555,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W42">
         <v>30</v>
@@ -4567,24 +4821,30 @@
         <v>30</v>
       </c>
       <c r="Y42">
-        <v>0.09</v>
+        <v>30</v>
       </c>
       <c r="Z42">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="AA42">
         <v>0.09</v>
       </c>
       <c r="AB42">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AC42">
+        <v>0.09</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <v>2300</v>
@@ -4635,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W43">
         <v>50</v>
@@ -4647,24 +4907,30 @@
         <v>50</v>
       </c>
       <c r="Y43">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="Z43">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA43">
         <v>0.1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="AC43">
+        <v>0.1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44">
         <v>2500</v>
@@ -4715,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="W44">
         <v>60</v>
@@ -4727,24 +4993,30 @@
         <v>60</v>
       </c>
       <c r="Y44">
-        <v>0.11</v>
+        <v>60</v>
       </c>
       <c r="Z44">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="AA44">
         <v>0.11</v>
       </c>
       <c r="AB44">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AC44">
+        <v>0.11</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>5000</v>
@@ -4795,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W45">
         <v>100</v>
@@ -4807,24 +5079,30 @@
         <v>100</v>
       </c>
       <c r="Y45">
-        <v>0.12</v>
+        <v>100</v>
       </c>
       <c r="Z45">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="AA45">
         <v>0.12</v>
       </c>
       <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AC45">
+        <v>0.12</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>8000</v>
@@ -4875,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W46">
         <v>200</v>
@@ -4887,24 +5165,30 @@
         <v>200</v>
       </c>
       <c r="Y46">
-        <v>0.13</v>
+        <v>200</v>
       </c>
       <c r="Z46">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="AA46">
         <v>0.13</v>
       </c>
       <c r="AB46">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AC46">
+        <v>0.13</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -4955,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W47">
         <v>400</v>
@@ -4967,24 +5251,30 @@
         <v>400</v>
       </c>
       <c r="Y47">
-        <v>0.14000000000000001</v>
+        <v>400</v>
       </c>
       <c r="Z47">
-        <v>0.14000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AA47">
         <v>0.14000000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>14000</v>
@@ -5035,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W48">
         <v>500</v>
@@ -5047,24 +5337,30 @@
         <v>500</v>
       </c>
       <c r="Y48">
-        <v>0.15</v>
+        <v>500</v>
       </c>
       <c r="Z48">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="AA48">
         <v>0.15</v>
       </c>
       <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AC48">
+        <v>0.15</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <v>18000</v>
@@ -5115,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W49">
         <v>1000</v>
@@ -5127,24 +5423,30 @@
         <v>1000</v>
       </c>
       <c r="Y49">
-        <v>0.16</v>
+        <v>1000</v>
       </c>
       <c r="Z49">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="AA49">
         <v>0.16</v>
       </c>
       <c r="AB49">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AC49">
+        <v>0.16</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>24000</v>
@@ -5195,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W50">
         <v>1500</v>
@@ -5207,24 +5509,30 @@
         <v>1500</v>
       </c>
       <c r="Y50">
-        <v>0.17</v>
+        <v>1500</v>
       </c>
       <c r="Z50">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="AA50">
         <v>0.17</v>
       </c>
       <c r="AB50">
-        <v>1</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.17</v>
+      </c>
+      <c r="AC50">
+        <v>0.17</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <v>28000</v>
@@ -5275,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W51">
         <v>3000</v>
@@ -5287,24 +5595,30 @@
         <v>3000</v>
       </c>
       <c r="Y51">
-        <v>0.18</v>
+        <v>3000</v>
       </c>
       <c r="Z51">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="AA51">
         <v>0.18</v>
       </c>
       <c r="AB51">
-        <v>1</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AC51">
+        <v>0.18</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>32000</v>
@@ -5355,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W52">
         <v>5000</v>
@@ -5367,30 +5681,36 @@
         <v>5000</v>
       </c>
       <c r="Y52">
-        <v>0.19</v>
+        <v>5000</v>
       </c>
       <c r="Z52">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="AA52">
         <v>0.19</v>
       </c>
       <c r="AB52">
-        <v>1</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>48</v>
+        <v>0.19</v>
+      </c>
+      <c r="AC52">
+        <v>0.19</v>
       </c>
       <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF52">
         <v>0.15</v>
       </c>
-      <c r="AE52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>38000</v>
@@ -5441,10 +5761,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W53">
         <v>10000</v>
@@ -5453,24 +5773,30 @@
         <v>10000</v>
       </c>
       <c r="Y53">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="Z53">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA53">
         <v>0.2</v>
       </c>
       <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AC53">
+        <v>0.2</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B54">
         <v>40000</v>
@@ -5521,10 +5847,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W54">
         <v>15000</v>
@@ -5533,24 +5859,30 @@
         <v>15000</v>
       </c>
       <c r="Y54">
-        <v>0.21</v>
+        <v>15000</v>
       </c>
       <c r="Z54">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="AA54">
         <v>0.21</v>
       </c>
       <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AC54">
+        <v>0.21</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>44000</v>
@@ -5601,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V55" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W55">
         <v>20000</v>
@@ -5613,30 +5945,36 @@
         <v>20000</v>
       </c>
       <c r="Y55">
-        <v>0.22</v>
+        <v>20000</v>
       </c>
       <c r="Z55">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="AA55">
         <v>0.22</v>
       </c>
       <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>51</v>
+        <v>0.22</v>
+      </c>
+      <c r="AC55">
+        <v>0.22</v>
       </c>
       <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF55">
         <v>0.15</v>
       </c>
-      <c r="AE55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56">
         <v>45000</v>
@@ -5687,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W56">
         <v>40000</v>
@@ -5699,24 +6037,30 @@
         <v>40000</v>
       </c>
       <c r="Y56">
-        <v>0.23</v>
+        <v>40000</v>
       </c>
       <c r="Z56">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>0.23</v>
       </c>
       <c r="AB56">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AC56">
+        <v>0.23</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57">
         <v>50000</v>
@@ -5767,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W57">
         <v>50000</v>
@@ -5779,24 +6123,30 @@
         <v>50000</v>
       </c>
       <c r="Y57">
-        <v>0.24</v>
+        <v>50000</v>
       </c>
       <c r="Z57">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="AA57">
         <v>0.24</v>
       </c>
       <c r="AB57">
-        <v>1</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AC57">
+        <v>0.24</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B58">
         <v>65000</v>
@@ -5847,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W58">
         <v>60000</v>
@@ -5859,24 +6209,30 @@
         <v>60000</v>
       </c>
       <c r="Y58">
-        <v>0.25</v>
+        <v>60000</v>
       </c>
       <c r="Z58">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>0.25</v>
       </c>
       <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="AC58">
+        <v>0.25</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59">
         <v>68000</v>
@@ -5927,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="W59">
         <v>75000</v>
@@ -5939,24 +6295,30 @@
         <v>75000</v>
       </c>
       <c r="Y59">
-        <v>0.26</v>
+        <v>75000</v>
       </c>
       <c r="Z59">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>0.26</v>
       </c>
       <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+      <c r="AC59">
+        <v>0.26</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B60">
         <v>70000</v>
@@ -6007,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W60">
         <v>100000</v>
@@ -6019,24 +6381,30 @@
         <v>100000</v>
       </c>
       <c r="Y60">
-        <v>0.27</v>
+        <v>100000</v>
       </c>
       <c r="Z60">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>0.27</v>
       </c>
       <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="AC60">
+        <v>0.27</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B61">
         <v>80000</v>
@@ -6087,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W61">
         <v>120000</v>
@@ -6099,24 +6467,30 @@
         <v>120000</v>
       </c>
       <c r="Y61">
-        <v>0.28000000000000003</v>
+        <v>120000</v>
       </c>
       <c r="Z61">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>0.28000000000000003</v>
       </c>
       <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62">
         <v>90000</v>
@@ -6167,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W62">
         <v>130000</v>
@@ -6179,24 +6553,30 @@
         <v>130000</v>
       </c>
       <c r="Y62">
-        <v>0.28999999999999998</v>
+        <v>130000</v>
       </c>
       <c r="Z62">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>0.28999999999999998</v>
       </c>
       <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B63">
         <v>100000</v>
@@ -6247,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W63">
         <v>150000</v>
@@ -6259,24 +6639,30 @@
         <v>150000</v>
       </c>
       <c r="Y63">
-        <v>0.3</v>
+        <v>150000</v>
       </c>
       <c r="Z63">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>0.3</v>
       </c>
       <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AC63">
+        <v>0.3</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64">
         <v>15000</v>
@@ -6336,10 +6722,10 @@
         <v>8</v>
       </c>
       <c r="U64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W64">
         <v>1000</v>
@@ -6348,30 +6734,36 @@
         <v>1000</v>
       </c>
       <c r="Y64">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="Z64">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>0.2</v>
       </c>
       <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>174</v>
+        <v>0.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.2</v>
       </c>
       <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF64">
         <v>0.25</v>
       </c>
-      <c r="AE64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B65">
         <v>20000</v>
@@ -6431,10 +6823,10 @@
         <v>10</v>
       </c>
       <c r="U65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W65">
         <v>2500</v>
@@ -6443,30 +6835,36 @@
         <v>2500</v>
       </c>
       <c r="Y65">
-        <v>0.25</v>
+        <v>2500</v>
       </c>
       <c r="Z65">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>0.25</v>
       </c>
       <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>177</v>
+        <v>0.25</v>
+      </c>
+      <c r="AC65">
+        <v>0.25</v>
       </c>
       <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF65">
         <v>0.01</v>
       </c>
-      <c r="AE65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>40000</v>
@@ -6526,10 +6924,10 @@
         <v>16</v>
       </c>
       <c r="U66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W66">
         <v>5000</v>
@@ -6538,30 +6936,36 @@
         <v>5000</v>
       </c>
       <c r="Y66">
-        <v>0.28000000000000003</v>
+        <v>5000</v>
       </c>
       <c r="Z66">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>0.28000000000000003</v>
       </c>
       <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>177</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC66">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF66">
         <v>0.01</v>
       </c>
-      <c r="AE66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B67">
         <v>44000</v>
@@ -6621,10 +7025,10 @@
         <v>24</v>
       </c>
       <c r="U67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="V67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W67">
         <v>10000</v>
@@ -6633,24 +7037,30 @@
         <v>10000</v>
       </c>
       <c r="Y67">
-        <v>0.3</v>
+        <v>10000</v>
       </c>
       <c r="Z67">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AA67">
         <v>0.3</v>
       </c>
       <c r="AB67">
-        <v>1</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AC67">
+        <v>0.3</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B68">
         <v>83000</v>
@@ -6710,10 +7120,10 @@
         <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W68">
         <v>2500</v>
@@ -6722,24 +7132,30 @@
         <v>2500</v>
       </c>
       <c r="Y68">
-        <v>0.33</v>
+        <v>2500</v>
       </c>
       <c r="Z68">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AA68">
         <v>0.33</v>
       </c>
       <c r="AB68">
-        <v>1</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.33</v>
+      </c>
+      <c r="AC68">
+        <v>0.33</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B69">
         <v>60000</v>
@@ -6799,10 +7215,10 @@
         <v>16</v>
       </c>
       <c r="U69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="V69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W69">
         <v>5000</v>
@@ -6811,24 +7227,30 @@
         <v>5000</v>
       </c>
       <c r="Y69">
-        <v>0.35</v>
+        <v>5000</v>
       </c>
       <c r="Z69">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>0.35</v>
       </c>
       <c r="AB69">
-        <v>1</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+      <c r="AC69">
+        <v>0.35</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B70">
         <v>68000</v>
@@ -6888,10 +7310,10 @@
         <v>24</v>
       </c>
       <c r="U70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="W70">
         <v>10000</v>
@@ -6900,30 +7322,36 @@
         <v>10000</v>
       </c>
       <c r="Y70">
-        <v>0.4</v>
+        <v>10000</v>
       </c>
       <c r="Z70">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>0.4</v>
       </c>
       <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>193</v>
+        <v>0.4</v>
+      </c>
+      <c r="AC70">
+        <v>0.4</v>
       </c>
       <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF70">
         <v>0.2</v>
       </c>
-      <c r="AE70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B71">
         <v>72000</v>
@@ -6983,10 +7411,10 @@
         <v>28</v>
       </c>
       <c r="U71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W71">
         <v>15000</v>
@@ -6995,24 +7423,30 @@
         <v>15000</v>
       </c>
       <c r="Y71">
-        <v>0.45</v>
+        <v>15000</v>
       </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA71">
         <v>0.45</v>
       </c>
       <c r="AB71">
-        <v>1</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+      <c r="AC71">
+        <v>0.45</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B72">
         <v>78000</v>
@@ -7072,10 +7506,10 @@
         <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W72">
         <v>30000</v>
@@ -7084,24 +7518,30 @@
         <v>30000</v>
       </c>
       <c r="Y72">
-        <v>0.5</v>
+        <v>30000</v>
       </c>
       <c r="Z72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>0.5</v>
       </c>
       <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="AC72">
+        <v>0.5</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7152,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -7164,24 +7604,30 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>1E-3</v>
       </c>
       <c r="AB73">
-        <v>1</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="AC73">
+        <v>1E-3</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -7232,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W74">
         <v>2</v>
@@ -7244,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="Y74">
-        <v>2E-3</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>2E-3</v>
@@ -7253,15 +7699,21 @@
         <v>2E-3</v>
       </c>
       <c r="AB74">
-        <v>1</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AC74">
+        <v>2E-3</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B75">
         <v>11</v>
@@ -7312,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W75">
         <v>2</v>
@@ -7324,24 +7776,30 @@
         <v>2</v>
       </c>
       <c r="Y75">
-        <v>5.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="Z75">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA75">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -7392,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W76">
         <v>3</v>
@@ -7404,24 +7862,30 @@
         <v>3</v>
       </c>
       <c r="Y76">
-        <v>8.0000000000000002E-3</v>
+        <v>3</v>
       </c>
       <c r="Z76">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA76">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB76">
-        <v>1</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC76">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -7472,10 +7936,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W77">
         <v>5</v>
@@ -7484,24 +7948,30 @@
         <v>5</v>
       </c>
       <c r="Y77">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="Z77">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA77">
         <v>0.01</v>
       </c>
       <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+      <c r="AC77">
+        <v>0.01</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -7552,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W78">
         <v>8</v>
@@ -7564,24 +8034,30 @@
         <v>8</v>
       </c>
       <c r="Y78">
-        <v>0.02</v>
+        <v>8</v>
       </c>
       <c r="Z78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA78">
         <v>0.02</v>
       </c>
       <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="AC78">
+        <v>0.02</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B79">
         <v>48</v>
@@ -7632,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W79">
         <v>10</v>
@@ -7644,7 +8120,7 @@
         <v>10</v>
       </c>
       <c r="Y79">
-        <v>0.03</v>
+        <v>10</v>
       </c>
       <c r="Z79">
         <v>0.03</v>
@@ -7653,15 +8129,21 @@
         <v>0.03</v>
       </c>
       <c r="AB79">
-        <v>1</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="AC79">
+        <v>0.03</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B80">
         <v>50</v>
@@ -7712,10 +8194,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W80">
         <v>12</v>
@@ -7724,24 +8206,30 @@
         <v>12</v>
       </c>
       <c r="Y80">
-        <v>0.04</v>
+        <v>12</v>
       </c>
       <c r="Z80">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AA80">
         <v>0.04</v>
       </c>
       <c r="AB80">
-        <v>1</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AC80">
+        <v>0.04</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B81">
         <v>96</v>
@@ -7792,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W81">
         <v>14</v>
@@ -7804,24 +8292,30 @@
         <v>14</v>
       </c>
       <c r="Y81">
-        <v>0.05</v>
+        <v>14</v>
       </c>
       <c r="Z81">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA81">
         <v>0.05</v>
       </c>
       <c r="AB81">
-        <v>1</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="AC81">
+        <v>0.05</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B82">
         <v>145</v>
@@ -7872,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W82">
         <v>18</v>
@@ -7884,24 +8378,30 @@
         <v>18</v>
       </c>
       <c r="Y82">
-        <v>0.06</v>
+        <v>18</v>
       </c>
       <c r="Z82">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AA82">
         <v>0.06</v>
       </c>
       <c r="AB82">
-        <v>1</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+      <c r="AC82">
+        <v>0.06</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B83">
         <v>208</v>
@@ -7952,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V83" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W83">
         <v>20</v>
@@ -7964,30 +8464,36 @@
         <v>20</v>
       </c>
       <c r="Y83">
-        <v>7.0000000000000007E-2</v>
+        <v>20</v>
       </c>
       <c r="Z83">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AA83">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB83">
-        <v>1</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>193</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC83">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF83">
         <v>0.01</v>
       </c>
-      <c r="AE83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B84">
         <v>600</v>
@@ -8038,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W84">
         <v>25</v>
@@ -8050,24 +8556,30 @@
         <v>25</v>
       </c>
       <c r="Y84">
-        <v>0.08</v>
+        <v>25</v>
       </c>
       <c r="Z84">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AA84">
         <v>0.08</v>
       </c>
       <c r="AB84">
-        <v>1</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AC84">
+        <v>0.08</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B85">
         <v>1000</v>
@@ -8118,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V85" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W85">
         <v>30</v>
@@ -8130,24 +8642,30 @@
         <v>30</v>
       </c>
       <c r="Y85">
-        <v>0.09</v>
+        <v>30</v>
       </c>
       <c r="Z85">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="AA85">
         <v>0.09</v>
       </c>
       <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AC85">
+        <v>0.09</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B86">
         <v>2300</v>
@@ -8198,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W86">
         <v>50</v>
@@ -8210,24 +8728,30 @@
         <v>50</v>
       </c>
       <c r="Y86">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="Z86">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA86">
         <v>0.1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="AC86">
+        <v>0.1</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B87">
         <v>2500</v>
@@ -8278,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V87" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="W87">
         <v>60</v>
@@ -8290,24 +8814,30 @@
         <v>60</v>
       </c>
       <c r="Y87">
-        <v>0.11</v>
+        <v>60</v>
       </c>
       <c r="Z87">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="AA87">
         <v>0.11</v>
       </c>
       <c r="AB87">
-        <v>1</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AC87">
+        <v>0.11</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B88">
         <v>5000</v>
@@ -8358,10 +8888,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W88">
         <v>100</v>
@@ -8370,24 +8900,30 @@
         <v>100</v>
       </c>
       <c r="Y88">
-        <v>0.12</v>
+        <v>100</v>
       </c>
       <c r="Z88">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="AA88">
         <v>0.12</v>
       </c>
       <c r="AB88">
-        <v>1</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AC88">
+        <v>0.12</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B89">
         <v>8000</v>
@@ -8438,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W89">
         <v>200</v>
@@ -8450,24 +8986,30 @@
         <v>200</v>
       </c>
       <c r="Y89">
-        <v>0.13</v>
+        <v>200</v>
       </c>
       <c r="Z89">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="AA89">
         <v>0.13</v>
       </c>
       <c r="AB89">
-        <v>1</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AC89">
+        <v>0.13</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <v>12000</v>
@@ -8518,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W90">
         <v>400</v>
@@ -8530,30 +9072,36 @@
         <v>400</v>
       </c>
       <c r="Y90">
-        <v>0.14000000000000001</v>
+        <v>400</v>
       </c>
       <c r="Z90">
-        <v>0.14000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AA90">
         <v>0.14000000000000001</v>
       </c>
       <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>69</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC90">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF90">
         <v>0.2</v>
       </c>
-      <c r="AE90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B91">
         <v>14000</v>
@@ -8604,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V91" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W91">
         <v>500</v>
@@ -8616,24 +9164,30 @@
         <v>500</v>
       </c>
       <c r="Y91">
-        <v>0.15</v>
+        <v>500</v>
       </c>
       <c r="Z91">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="AA91">
         <v>0.15</v>
       </c>
       <c r="AB91">
-        <v>1</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AC91">
+        <v>0.15</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B92">
         <v>18000</v>
@@ -8684,10 +9238,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W92">
         <v>1000</v>
@@ -8696,24 +9250,30 @@
         <v>1000</v>
       </c>
       <c r="Y92">
-        <v>0.16</v>
+        <v>1000</v>
       </c>
       <c r="Z92">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="AA92">
         <v>0.16</v>
       </c>
       <c r="AB92">
-        <v>1</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AC92">
+        <v>0.16</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B93">
         <v>24000</v>
@@ -8764,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W93">
         <v>1500</v>
@@ -8776,24 +9336,30 @@
         <v>1500</v>
       </c>
       <c r="Y93">
-        <v>0.17</v>
+        <v>1500</v>
       </c>
       <c r="Z93">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="AA93">
         <v>0.17</v>
       </c>
       <c r="AB93">
-        <v>1</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.17</v>
+      </c>
+      <c r="AC93">
+        <v>0.17</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B94">
         <v>28000</v>
@@ -8844,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W94">
         <v>3000</v>
@@ -8856,24 +9422,30 @@
         <v>3000</v>
       </c>
       <c r="Y94">
-        <v>0.18</v>
+        <v>3000</v>
       </c>
       <c r="Z94">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
         <v>0.18</v>
       </c>
       <c r="AB94">
-        <v>1</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AC94">
+        <v>0.18</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B95">
         <v>32000</v>
@@ -8924,10 +9496,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V95" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W95">
         <v>5000</v>
@@ -8936,24 +9508,30 @@
         <v>5000</v>
       </c>
       <c r="Y95">
-        <v>0.19</v>
+        <v>5000</v>
       </c>
       <c r="Z95">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="AA95">
         <v>0.19</v>
       </c>
       <c r="AB95">
-        <v>1</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+      <c r="AC95">
+        <v>0.19</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B96">
         <v>38000</v>
@@ -9004,10 +9582,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W96">
         <v>10000</v>
@@ -9016,24 +9594,30 @@
         <v>10000</v>
       </c>
       <c r="Y96">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="Z96">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA96">
         <v>0.2</v>
       </c>
       <c r="AB96">
-        <v>1</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AC96">
+        <v>0.2</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -9084,10 +9668,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W97">
         <v>15000</v>
@@ -9096,24 +9680,30 @@
         <v>15000</v>
       </c>
       <c r="Y97">
-        <v>0.21</v>
+        <v>15000</v>
       </c>
       <c r="Z97">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="AA97">
         <v>0.21</v>
       </c>
       <c r="AB97">
-        <v>1</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AC97">
+        <v>0.21</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B98">
         <v>44000</v>
@@ -9164,10 +9754,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W98">
         <v>20000</v>
@@ -9176,24 +9766,30 @@
         <v>20000</v>
       </c>
       <c r="Y98">
-        <v>0.22</v>
+        <v>20000</v>
       </c>
       <c r="Z98">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="AA98">
         <v>0.22</v>
       </c>
       <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+      <c r="AC98">
+        <v>0.22</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B99">
         <v>45000</v>
@@ -9244,10 +9840,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W99">
         <v>40000</v>
@@ -9256,24 +9852,30 @@
         <v>40000</v>
       </c>
       <c r="Y99">
-        <v>0.23</v>
+        <v>40000</v>
       </c>
       <c r="Z99">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
         <v>0.23</v>
       </c>
       <c r="AB99">
-        <v>1</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AC99">
+        <v>0.23</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B100">
         <v>50000</v>
@@ -9324,10 +9926,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V100" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W100">
         <v>50000</v>
@@ -9336,24 +9938,30 @@
         <v>50000</v>
       </c>
       <c r="Y100">
-        <v>0.24</v>
+        <v>50000</v>
       </c>
       <c r="Z100">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="AA100">
         <v>0.24</v>
       </c>
       <c r="AB100">
-        <v>1</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AC100">
+        <v>0.24</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B101">
         <v>65000</v>
@@ -9404,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W101">
         <v>60000</v>
@@ -9416,24 +10024,30 @@
         <v>60000</v>
       </c>
       <c r="Y101">
-        <v>0.25</v>
+        <v>60000</v>
       </c>
       <c r="Z101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>0.25</v>
       </c>
       <c r="AB101">
-        <v>1</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="AC101">
+        <v>0.25</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B102">
         <v>68000</v>
@@ -9484,10 +10098,10 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V102" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="W102">
         <v>75000</v>
@@ -9496,24 +10110,30 @@
         <v>75000</v>
       </c>
       <c r="Y102">
-        <v>0.26</v>
+        <v>75000</v>
       </c>
       <c r="Z102">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>0.26</v>
       </c>
       <c r="AB102">
-        <v>1</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+      <c r="AC102">
+        <v>0.26</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B103">
         <v>70000</v>
@@ -9564,10 +10184,10 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V103" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W103">
         <v>100000</v>
@@ -9576,24 +10196,30 @@
         <v>100000</v>
       </c>
       <c r="Y103">
-        <v>0.27</v>
+        <v>100000</v>
       </c>
       <c r="Z103">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>0.27</v>
       </c>
       <c r="AB103">
-        <v>1</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="AC103">
+        <v>0.27</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B104">
         <v>80000</v>
@@ -9644,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="U104" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W104">
         <v>120000</v>
@@ -9656,24 +10282,30 @@
         <v>120000</v>
       </c>
       <c r="Y104">
-        <v>0.28000000000000003</v>
+        <v>120000</v>
       </c>
       <c r="Z104">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AA104">
         <v>0.28000000000000003</v>
       </c>
       <c r="AB104">
-        <v>1</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC104">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD104">
+        <v>1</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B105">
         <v>90000</v>
@@ -9724,10 +10356,10 @@
         <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V105" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W105">
         <v>130000</v>
@@ -9736,24 +10368,30 @@
         <v>130000</v>
       </c>
       <c r="Y105">
-        <v>0.28999999999999998</v>
+        <v>130000</v>
       </c>
       <c r="Z105">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>0.28999999999999998</v>
       </c>
       <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC105">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B106">
         <v>100000</v>
@@ -9804,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V106" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W106">
         <v>150000</v>
@@ -9816,24 +10454,30 @@
         <v>150000</v>
       </c>
       <c r="Y106">
-        <v>0.3</v>
+        <v>150000</v>
       </c>
       <c r="Z106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AA106">
         <v>0.3</v>
       </c>
       <c r="AB106">
-        <v>1</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AC106">
+        <v>0.3</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B107">
         <v>90000</v>
@@ -9893,10 +10537,10 @@
         <v>40</v>
       </c>
       <c r="U107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W107">
         <v>5000</v>
@@ -9905,24 +10549,30 @@
         <v>5000</v>
       </c>
       <c r="Y107">
-        <v>0.6</v>
+        <v>5000</v>
       </c>
       <c r="Z107">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA107">
         <v>0.6</v>
       </c>
       <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+      <c r="AC107">
+        <v>0.6</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B108">
         <v>93000</v>
@@ -9982,10 +10632,10 @@
         <v>45</v>
       </c>
       <c r="U108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="W108">
         <v>10000</v>
@@ -9994,24 +10644,30 @@
         <v>10000</v>
       </c>
       <c r="Y108">
-        <v>0.65</v>
+        <v>10000</v>
       </c>
       <c r="Z108">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AA108">
         <v>0.65</v>
       </c>
       <c r="AB108">
-        <v>1</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.65</v>
+      </c>
+      <c r="AC108">
+        <v>0.65</v>
+      </c>
+      <c r="AD108">
+        <v>1</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B109">
         <v>98000</v>
@@ -10071,10 +10727,10 @@
         <v>50</v>
       </c>
       <c r="U109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W109">
         <v>15000</v>
@@ -10083,24 +10739,30 @@
         <v>15000</v>
       </c>
       <c r="Y109">
-        <v>0.73</v>
+        <v>15000</v>
       </c>
       <c r="Z109">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AA109">
         <v>0.73</v>
       </c>
       <c r="AB109">
-        <v>1</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+      <c r="AC109">
+        <v>0.73</v>
+      </c>
+      <c r="AD109">
+        <v>1</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B110">
         <v>99999</v>
@@ -10160,10 +10822,10 @@
         <v>75</v>
       </c>
       <c r="U110" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W110">
         <v>30000</v>
@@ -10172,24 +10834,30 @@
         <v>30000</v>
       </c>
       <c r="Y110">
-        <v>0.8</v>
+        <v>30000</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA110">
         <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>1</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="AC110">
+        <v>0.8</v>
+      </c>
+      <c r="AD110">
+        <v>1</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B111">
         <v>105000</v>
@@ -10249,10 +10917,10 @@
         <v>100</v>
       </c>
       <c r="U111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V111" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W111">
         <v>60000</v>
@@ -10261,19 +10929,25 @@
         <v>60000</v>
       </c>
       <c r="Y111">
-        <v>0.9</v>
+        <v>60000</v>
       </c>
       <c r="Z111">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>0.9</v>
       </c>
       <c r="AB111">
-        <v>1</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>82</v>
+        <v>0.9</v>
+      </c>
+      <c r="AC111">
+        <v>0.9</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10302,30 +10976,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10334,12 +11008,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10348,12 +11022,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10362,12 +11036,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10376,12 +11050,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10390,12 +11064,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -10404,12 +11078,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10418,12 +11092,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10432,12 +11106,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -10446,12 +11120,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10460,12 +11134,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10474,12 +11148,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -10488,12 +11162,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -10502,12 +11176,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -10516,12 +11190,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -10530,12 +11204,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -10544,12 +11218,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -10558,12 +11232,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -10572,12 +11246,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -10586,12 +11260,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10600,12 +11274,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -10614,12 +11288,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -10628,12 +11302,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -10642,12 +11316,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -10656,12 +11330,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -10670,12 +11344,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -10684,12 +11358,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -10698,12 +11372,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -10712,12 +11386,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -10726,12 +11400,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -10740,12 +11414,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -10754,12 +11428,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -10768,12 +11442,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -10782,12 +11456,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -10796,12 +11470,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -10810,12 +11484,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -10824,12 +11498,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -10838,12 +11512,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -10852,12 +11526,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -10866,12 +11540,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>36</v>
@@ -10880,12 +11554,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -10894,12 +11568,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -10908,12 +11582,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -10922,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -10936,12 +11610,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -10950,12 +11624,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -10964,12 +11638,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -10978,12 +11652,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -10992,12 +11666,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -11006,12 +11680,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51">
         <v>45</v>
@@ -11020,12 +11694,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -11034,12 +11708,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -11048,12 +11722,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -11062,12 +11736,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -11076,12 +11750,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -11090,12 +11764,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57">
         <v>45</v>
@@ -11104,12 +11778,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>45</v>
@@ -11118,12 +11792,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>45</v>
@@ -11132,12 +11806,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -11146,12 +11820,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -11160,12 +11834,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -11174,12 +11848,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -11188,12 +11862,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -11202,12 +11876,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -11216,12 +11890,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -11230,12 +11904,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -11244,12 +11918,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -11258,12 +11932,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -11272,12 +11946,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -11286,12 +11960,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -11300,12 +11974,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -11314,12 +11988,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -11328,12 +12002,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -11342,12 +12016,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -11356,12 +12030,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -11370,12 +12044,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -11384,12 +12058,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -11398,12 +12072,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -11412,12 +12086,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -11426,12 +12100,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -11440,12 +12114,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -11454,12 +12128,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -11468,12 +12142,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -11482,12 +12156,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -11496,12 +12170,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -11510,12 +12184,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -11524,12 +12198,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -11538,12 +12212,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -11552,12 +12226,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -11566,12 +12240,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -11580,12 +12254,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C92">
         <v>21</v>
@@ -11594,12 +12268,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -11608,12 +12282,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -11622,12 +12296,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -11636,12 +12310,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <v>17</v>
@@ -11650,12 +12324,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -11664,12 +12338,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -11678,12 +12352,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C99">
         <v>23</v>
@@ -11692,12 +12366,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C100">
         <v>21</v>
@@ -11706,12 +12380,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C101">
         <v>23</v>
@@ -11720,12 +12394,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C102">
         <v>23</v>
@@ -11734,12 +12408,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C103">
         <v>22</v>
@@ -11748,12 +12422,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C104">
         <v>26</v>
@@ -11762,12 +12436,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -11776,12 +12450,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C106">
         <v>24</v>
@@ -11790,12 +12464,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -11804,12 +12478,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -11818,12 +12492,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C109">
         <v>25</v>
@@ -11832,12 +12506,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C110">
         <v>28</v>
@@ -11846,12 +12520,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C111">
         <v>25</v>
@@ -11860,12 +12534,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C112">
         <v>25</v>
@@ -11874,12 +12548,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -11888,12 +12562,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C114">
         <v>27</v>
@@ -11902,12 +12576,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C115">
         <v>26</v>
@@ -11916,12 +12590,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -11930,12 +12604,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C117">
         <v>29</v>
@@ -11944,12 +12618,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -11958,12 +12632,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -11972,12 +12646,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C120">
         <v>33</v>
@@ -11986,12 +12660,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C121">
         <v>34</v>
@@ -12000,12 +12674,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C122">
         <v>36</v>
@@ -12014,12 +12688,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C123">
         <v>28</v>
@@ -12028,12 +12702,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C124">
         <v>40</v>
@@ -12042,12 +12716,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C125">
         <v>42</v>
@@ -12056,12 +12730,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C126">
         <v>46</v>
@@ -12070,12 +12744,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -12084,12 +12758,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -12098,12 +12772,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C129">
         <v>65</v>
@@ -12112,12 +12786,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C130">
         <v>128</v>
@@ -12126,12 +12800,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>96</v>
@@ -12140,12 +12814,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C132">
         <v>160</v>
@@ -12154,12 +12828,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C133">
         <v>130</v>
@@ -12168,12 +12842,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C134">
         <v>185</v>
@@ -12182,12 +12856,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C135">
         <v>150</v>
@@ -12196,12 +12870,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C136">
         <v>225</v>
@@ -12210,12 +12884,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C137">
         <v>200</v>
@@ -12224,12 +12898,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C138">
         <v>360</v>
@@ -12238,12 +12912,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -12252,12 +12926,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C140">
         <v>320</v>
@@ -12266,12 +12940,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C141">
         <v>400</v>
@@ -12280,12 +12954,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C142">
         <v>450</v>
@@ -12294,12 +12968,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C143">
         <v>450</v>
@@ -12308,12 +12982,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C144">
         <v>475</v>
@@ -12322,12 +12996,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C145">
         <v>475</v>
@@ -12336,12 +13010,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -12350,12 +13024,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C147">
         <v>78</v>
@@ -12364,12 +13038,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -12378,12 +13052,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C149">
         <v>120</v>
@@ -12392,12 +13066,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -12406,12 +13080,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C151">
         <v>84</v>
@@ -12420,12 +13094,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -12434,12 +13108,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C153">
         <v>130</v>
@@ -12448,12 +13122,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -12462,12 +13136,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C155">
         <v>90</v>
@@ -12476,12 +13150,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -12490,12 +13164,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C157">
         <v>140</v>
@@ -12504,12 +13178,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -12518,12 +13192,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C159">
         <v>95</v>
@@ -12532,12 +13206,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -12546,12 +13220,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C161">
         <v>150</v>
@@ -12560,12 +13234,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -12574,12 +13248,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C163">
         <v>100</v>
@@ -12588,12 +13262,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -12602,12 +13276,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C165">
         <v>175</v>
@@ -12616,12 +13290,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -12630,12 +13304,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C167">
         <v>120</v>
@@ -12644,12 +13318,12 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -12658,12 +13332,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C169">
         <v>180</v>
@@ -12672,12 +13346,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -12686,12 +13360,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C171">
         <v>130</v>
@@ -12700,12 +13374,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -12714,12 +13388,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C173">
         <v>200</v>
@@ -12728,12 +13402,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C174">
         <v>25</v>
@@ -12742,12 +13416,12 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C175">
         <v>150</v>
@@ -12756,12 +13430,12 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -12770,12 +13444,12 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C177">
         <v>220</v>
@@ -12784,12 +13458,12 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C178">
         <v>30</v>
@@ -12798,12 +13472,12 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C179">
         <v>170</v>
@@ -12812,12 +13486,12 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C180">
         <v>28</v>
@@ -12826,12 +13500,12 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C181">
         <v>230</v>
@@ -12840,12 +13514,12 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C182">
         <v>45</v>
@@ -12854,12 +13528,12 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C183">
         <v>180</v>
@@ -12868,12 +13542,12 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C184">
         <v>33</v>
@@ -12882,12 +13556,12 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C185">
         <v>240</v>
@@ -12896,12 +13570,12 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C186">
         <v>48</v>
@@ -12910,12 +13584,12 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C187">
         <v>190</v>
@@ -12924,12 +13598,12 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C188">
         <v>36</v>
@@ -12938,12 +13612,12 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C189">
         <v>250</v>
@@ -12952,12 +13626,12 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C190">
         <v>50</v>
@@ -12966,12 +13640,12 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C191">
         <v>200</v>
@@ -12980,12 +13654,12 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C192">
         <v>40</v>
@@ -12994,12 +13668,12 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C193">
         <v>300</v>
@@ -13008,12 +13682,12 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C194">
         <v>60</v>
@@ -13022,12 +13696,12 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C195">
         <v>220</v>
@@ -13036,12 +13710,12 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C196">
         <v>45</v>
@@ -13050,12 +13724,12 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C197">
         <v>320</v>
@@ -13064,12 +13738,12 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C198">
         <v>75</v>
@@ -13078,12 +13752,12 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C199">
         <v>250</v>
@@ -13092,12 +13766,12 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -13106,12 +13780,12 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C201">
         <v>330</v>
@@ -13120,12 +13794,12 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C202">
         <v>85</v>
@@ -13134,12 +13808,12 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C203">
         <v>280</v>
@@ -13148,12 +13822,12 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C204">
         <v>60</v>
@@ -13162,12 +13836,12 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C205">
         <v>340</v>
@@ -13176,12 +13850,12 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C206">
         <v>90</v>
@@ -13190,12 +13864,12 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C207">
         <v>290</v>
@@ -13204,12 +13878,12 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C208">
         <v>70</v>
@@ -13218,12 +13892,12 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C209">
         <v>350</v>
@@ -13232,12 +13906,12 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C210">
         <v>110</v>
@@ -13246,12 +13920,12 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C211">
         <v>300</v>
@@ -13260,12 +13934,12 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C212">
         <v>300</v>
@@ -13274,12 +13948,12 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C213">
         <v>300</v>
@@ -13288,12 +13962,12 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C214">
         <v>400</v>
@@ -13302,12 +13976,12 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C215">
         <v>400</v>
@@ -13316,12 +13990,12 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C216">
         <v>450</v>
@@ -13330,12 +14004,12 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C217">
         <v>400</v>
@@ -13344,12 +14018,12 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C218">
         <v>475</v>
@@ -13358,12 +14032,12 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C219">
         <v>475</v>
@@ -13372,12 +14046,12 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C220">
         <v>525</v>
@@ -13386,12 +14060,12 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C221">
         <v>525</v>
@@ -13400,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A115972-2100-2041-B990-7DFCC73917C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD4A2D-50FB-5745-81DB-9D3330082F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="254">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>affix_resistance</t>
+  </si>
+  <si>
+    <t>entrancing_chance</t>
+  </si>
+  <si>
+    <t>devouring_light_chance</t>
   </si>
   <si>
     <t>published</t>
@@ -1127,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG111"/>
+  <dimension ref="A1:AI111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE112" sqref="AE112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,12 +1162,14 @@
     <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,10 +1269,16 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1315,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1342,21 +1356,27 @@
         <v>1E-3</v>
       </c>
       <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
+        <v>1E-3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2">
         <v>0.18</v>
       </c>
-      <c r="AG2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1407,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -1434,15 +1454,21 @@
         <v>2E-3</v>
       </c>
       <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1493,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -1520,15 +1546,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1564,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1579,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -1606,15 +1638,21 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1665,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1692,21 +1730,27 @@
         <v>0.01</v>
       </c>
       <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>50</v>
+        <v>0.01</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6">
         <v>0.1</v>
       </c>
-      <c r="AG6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -1757,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7">
         <v>8</v>
@@ -1784,21 +1828,27 @@
         <v>0.02</v>
       </c>
       <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>53</v>
+        <v>0.02</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7">
         <v>0.15</v>
       </c>
-      <c r="AG7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -1849,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8">
         <v>10</v>
@@ -1876,21 +1926,27 @@
         <v>0.03</v>
       </c>
       <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>57</v>
+        <v>0.03</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8">
         <v>0.18</v>
       </c>
-      <c r="AG8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -1941,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W9">
         <v>12</v>
@@ -1968,15 +2024,21 @@
         <v>0.04</v>
       </c>
       <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -2027,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W10">
         <v>14</v>
@@ -2054,21 +2116,27 @@
         <v>0.05</v>
       </c>
       <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>64</v>
+        <v>0.05</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10">
         <v>0.01</v>
       </c>
-      <c r="AG10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -2119,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W11">
         <v>18</v>
@@ -2146,21 +2214,27 @@
         <v>0.06</v>
       </c>
       <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>53</v>
+        <v>0.06</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11">
         <v>0.15</v>
       </c>
-      <c r="AG11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -2211,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W12">
         <v>20</v>
@@ -2238,21 +2312,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>71</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12">
         <v>0.15</v>
       </c>
-      <c r="AG12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -2303,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W13">
         <v>25</v>
@@ -2330,15 +2410,21 @@
         <v>0.08</v>
       </c>
       <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -2389,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W14">
         <v>30</v>
@@ -2416,15 +2502,21 @@
         <v>0.09</v>
       </c>
       <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -2475,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W15">
         <v>50</v>
@@ -2502,21 +2594,27 @@
         <v>0.1</v>
       </c>
       <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>53</v>
+        <v>0.1</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH15">
         <v>0.16</v>
       </c>
-      <c r="AG15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -2567,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W16">
         <v>60</v>
@@ -2594,15 +2692,21 @@
         <v>0.11</v>
       </c>
       <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>8000</v>
@@ -2653,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W17">
         <v>100</v>
@@ -2680,15 +2784,21 @@
         <v>0.12</v>
       </c>
       <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -2739,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W18">
         <v>200</v>
@@ -2766,15 +2876,21 @@
         <v>0.13</v>
       </c>
       <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>14000</v>
@@ -2825,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W19">
         <v>400</v>
@@ -2852,15 +2968,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>18000</v>
@@ -2911,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W20">
         <v>500</v>
@@ -2938,15 +3060,21 @@
         <v>0.15</v>
       </c>
       <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>24000</v>
@@ -2997,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W21">
         <v>1000</v>
@@ -3024,15 +3152,21 @@
         <v>0.16</v>
       </c>
       <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>28000</v>
@@ -3083,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="V22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W22">
         <v>1500</v>
@@ -3110,21 +3244,27 @@
         <v>0.17</v>
       </c>
       <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>104</v>
+        <v>0.17</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH22">
         <v>0.01</v>
       </c>
-      <c r="AG22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>32000</v>
@@ -3175,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W23">
         <v>3000</v>
@@ -3202,15 +3342,21 @@
         <v>0.18</v>
       </c>
       <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>38000</v>
@@ -3261,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W24">
         <v>5000</v>
@@ -3288,15 +3434,21 @@
         <v>0.19</v>
       </c>
       <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>40000</v>
@@ -3347,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W25">
         <v>10000</v>
@@ -3374,15 +3526,21 @@
         <v>0.2</v>
       </c>
       <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B26">
         <v>44000</v>
@@ -3433,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W26">
         <v>15000</v>
@@ -3460,15 +3618,21 @@
         <v>0.21</v>
       </c>
       <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B27">
         <v>45000</v>
@@ -3519,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W27">
         <v>20000</v>
@@ -3546,15 +3710,21 @@
         <v>0.22</v>
       </c>
       <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B28">
         <v>50000</v>
@@ -3605,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W28">
         <v>40000</v>
@@ -3632,15 +3802,21 @@
         <v>0.23</v>
       </c>
       <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B29">
         <v>65000</v>
@@ -3691,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W29">
         <v>50000</v>
@@ -3718,15 +3894,21 @@
         <v>0.24</v>
       </c>
       <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3777,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3804,15 +3986,21 @@
         <v>1E-3</v>
       </c>
       <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -3863,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W31">
         <v>2</v>
@@ -3890,15 +4078,21 @@
         <v>2E-3</v>
       </c>
       <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -3949,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W32">
         <v>2</v>
@@ -3976,15 +4170,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -4035,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W33">
         <v>3</v>
@@ -4062,15 +4262,21 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -4121,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W34">
         <v>5</v>
@@ -4148,15 +4354,21 @@
         <v>0.01</v>
       </c>
       <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -4207,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W35">
         <v>8</v>
@@ -4234,15 +4446,21 @@
         <v>0.02</v>
       </c>
       <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -4293,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W36">
         <v>10</v>
@@ -4320,15 +4538,21 @@
         <v>0.03</v>
       </c>
       <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -4379,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W37">
         <v>12</v>
@@ -4406,15 +4630,21 @@
         <v>0.04</v>
       </c>
       <c r="AD37">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <v>96</v>
@@ -4465,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W38">
         <v>14</v>
@@ -4492,15 +4722,21 @@
         <v>0.05</v>
       </c>
       <c r="AD38">
-        <v>1</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39">
         <v>145</v>
@@ -4551,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W39">
         <v>18</v>
@@ -4578,15 +4814,21 @@
         <v>0.06</v>
       </c>
       <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>208</v>
@@ -4637,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W40">
         <v>20</v>
@@ -4664,15 +4906,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>600</v>
@@ -4723,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W41">
         <v>25</v>
@@ -4750,15 +4998,21 @@
         <v>0.08</v>
       </c>
       <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -4809,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W42">
         <v>30</v>
@@ -4836,15 +5090,21 @@
         <v>0.09</v>
       </c>
       <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>2300</v>
@@ -4895,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W43">
         <v>50</v>
@@ -4922,15 +5182,21 @@
         <v>0.1</v>
       </c>
       <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <v>2500</v>
@@ -4981,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="W44">
         <v>60</v>
@@ -5008,15 +5274,21 @@
         <v>0.11</v>
       </c>
       <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B45">
         <v>5000</v>
@@ -5067,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W45">
         <v>100</v>
@@ -5094,15 +5366,21 @@
         <v>0.12</v>
       </c>
       <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>8000</v>
@@ -5153,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W46">
         <v>200</v>
@@ -5180,15 +5458,21 @@
         <v>0.13</v>
       </c>
       <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -5239,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W47">
         <v>400</v>
@@ -5266,15 +5550,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48">
         <v>14000</v>
@@ -5325,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W48">
         <v>500</v>
@@ -5352,15 +5642,21 @@
         <v>0.15</v>
       </c>
       <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B49">
         <v>18000</v>
@@ -5411,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W49">
         <v>1000</v>
@@ -5438,15 +5734,21 @@
         <v>0.16</v>
       </c>
       <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50">
         <v>24000</v>
@@ -5497,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W50">
         <v>1500</v>
@@ -5524,15 +5826,21 @@
         <v>0.17</v>
       </c>
       <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.17</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B51">
         <v>28000</v>
@@ -5583,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="V51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W51">
         <v>3000</v>
@@ -5610,15 +5918,21 @@
         <v>0.18</v>
       </c>
       <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B52">
         <v>32000</v>
@@ -5669,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W52">
         <v>5000</v>
@@ -5696,21 +6010,27 @@
         <v>0.19</v>
       </c>
       <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>50</v>
+        <v>0.19</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH52">
         <v>0.15</v>
       </c>
-      <c r="AG52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B53">
         <v>38000</v>
@@ -5761,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W53">
         <v>10000</v>
@@ -5788,15 +6108,21 @@
         <v>0.2</v>
       </c>
       <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54">
         <v>40000</v>
@@ -5847,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W54">
         <v>15000</v>
@@ -5874,15 +6200,21 @@
         <v>0.21</v>
       </c>
       <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B55">
         <v>44000</v>
@@ -5933,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W55">
         <v>20000</v>
@@ -5960,21 +6292,27 @@
         <v>0.22</v>
       </c>
       <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>53</v>
+        <v>0.22</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH55">
         <v>0.15</v>
       </c>
-      <c r="AG55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56">
         <v>45000</v>
@@ -6025,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W56">
         <v>40000</v>
@@ -6052,15 +6390,21 @@
         <v>0.23</v>
       </c>
       <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B57">
         <v>50000</v>
@@ -6111,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V57" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W57">
         <v>50000</v>
@@ -6138,15 +6482,21 @@
         <v>0.24</v>
       </c>
       <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B58">
         <v>65000</v>
@@ -6197,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W58">
         <v>60000</v>
@@ -6224,15 +6574,21 @@
         <v>0.25</v>
       </c>
       <c r="AD58">
-        <v>1</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B59">
         <v>68000</v>
@@ -6283,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W59">
         <v>75000</v>
@@ -6310,15 +6666,21 @@
         <v>0.26</v>
       </c>
       <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>70000</v>
@@ -6369,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W60">
         <v>100000</v>
@@ -6396,15 +6758,21 @@
         <v>0.27</v>
       </c>
       <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B61">
         <v>80000</v>
@@ -6455,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W61">
         <v>120000</v>
@@ -6482,15 +6850,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B62">
         <v>90000</v>
@@ -6541,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="V62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W62">
         <v>130000</v>
@@ -6568,15 +6942,21 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AD62">
-        <v>1</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B63">
         <v>100000</v>
@@ -6627,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W63">
         <v>150000</v>
@@ -6654,15 +7034,21 @@
         <v>0.3</v>
       </c>
       <c r="AD63">
-        <v>1</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64">
         <v>15000</v>
@@ -6722,10 +7108,10 @@
         <v>8</v>
       </c>
       <c r="U64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="V64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W64">
         <v>1000</v>
@@ -6749,21 +7135,27 @@
         <v>0.2</v>
       </c>
       <c r="AD64">
-        <v>1</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>176</v>
+        <v>0.2</v>
+      </c>
+      <c r="AE64">
+        <v>0.52</v>
       </c>
       <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH64">
         <v>0.25</v>
       </c>
-      <c r="AG64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B65">
         <v>20000</v>
@@ -6823,10 +7215,10 @@
         <v>10</v>
       </c>
       <c r="U65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W65">
         <v>2500</v>
@@ -6850,21 +7242,27 @@
         <v>0.25</v>
       </c>
       <c r="AD65">
-        <v>1</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>179</v>
+        <v>0.25</v>
+      </c>
+      <c r="AE65">
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH65">
         <v>0.01</v>
       </c>
-      <c r="AG65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B66">
         <v>40000</v>
@@ -6924,10 +7322,10 @@
         <v>16</v>
       </c>
       <c r="U66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="V66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="W66">
         <v>5000</v>
@@ -6951,21 +7349,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD66">
-        <v>1</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>179</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE66">
+        <v>0.57999999999999996</v>
       </c>
       <c r="AF66">
-        <v>0.01</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B67">
         <v>44000</v>
@@ -7025,10 +7423,10 @@
         <v>24</v>
       </c>
       <c r="U67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="V67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W67">
         <v>10000</v>
@@ -7052,15 +7450,21 @@
         <v>0.3</v>
       </c>
       <c r="AD67">
-        <v>1</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AE67">
+        <v>0.6</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B68">
         <v>83000</v>
@@ -7120,10 +7524,10 @@
         <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W68">
         <v>2500</v>
@@ -7147,15 +7551,21 @@
         <v>0.33</v>
       </c>
       <c r="AD68">
-        <v>1</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.33</v>
+      </c>
+      <c r="AE68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B69">
         <v>60000</v>
@@ -7215,10 +7625,10 @@
         <v>16</v>
       </c>
       <c r="U69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="V69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="W69">
         <v>5000</v>
@@ -7242,15 +7652,21 @@
         <v>0.35</v>
       </c>
       <c r="AD69">
-        <v>1</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+      <c r="AE69">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B70">
         <v>68000</v>
@@ -7310,10 +7726,10 @@
         <v>24</v>
       </c>
       <c r="U70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="V70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="W70">
         <v>10000</v>
@@ -7337,21 +7753,27 @@
         <v>0.4</v>
       </c>
       <c r="AD70">
-        <v>1</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>195</v>
+        <v>0.4</v>
+      </c>
+      <c r="AE70">
+        <v>0.6</v>
       </c>
       <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH70">
         <v>0.2</v>
       </c>
-      <c r="AG70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B71">
         <v>72000</v>
@@ -7411,10 +7833,10 @@
         <v>28</v>
       </c>
       <c r="U71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="V71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W71">
         <v>15000</v>
@@ -7438,15 +7860,21 @@
         <v>0.45</v>
       </c>
       <c r="AD71">
-        <v>1</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+      <c r="AE71">
+        <v>0.65</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>78000</v>
@@ -7506,10 +7934,10 @@
         <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W72">
         <v>30000</v>
@@ -7533,15 +7961,21 @@
         <v>0.5</v>
       </c>
       <c r="AD72">
-        <v>1</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="AE72">
+        <v>0.7</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7592,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -7619,15 +8053,21 @@
         <v>1E-3</v>
       </c>
       <c r="AD73">
-        <v>1</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -7678,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W74">
         <v>2</v>
@@ -7705,15 +8145,21 @@
         <v>2E-3</v>
       </c>
       <c r="AD74">
-        <v>1</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B75">
         <v>11</v>
@@ -7764,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W75">
         <v>2</v>
@@ -7791,15 +8237,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD75">
-        <v>1</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -7850,10 +8302,10 @@
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W76">
         <v>3</v>
@@ -7877,15 +8329,21 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD76">
-        <v>1</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -7936,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W77">
         <v>5</v>
@@ -7963,15 +8421,21 @@
         <v>0.01</v>
       </c>
       <c r="AD77">
-        <v>1</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -8022,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W78">
         <v>8</v>
@@ -8049,15 +8513,21 @@
         <v>0.02</v>
       </c>
       <c r="AD78">
-        <v>1</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B79">
         <v>48</v>
@@ -8108,10 +8578,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W79">
         <v>10</v>
@@ -8135,15 +8605,21 @@
         <v>0.03</v>
       </c>
       <c r="AD79">
-        <v>1</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B80">
         <v>50</v>
@@ -8194,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W80">
         <v>12</v>
@@ -8221,15 +8697,21 @@
         <v>0.04</v>
       </c>
       <c r="AD80">
-        <v>1</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B81">
         <v>96</v>
@@ -8280,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W81">
         <v>14</v>
@@ -8307,15 +8789,21 @@
         <v>0.05</v>
       </c>
       <c r="AD81">
-        <v>1</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B82">
         <v>145</v>
@@ -8366,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W82">
         <v>18</v>
@@ -8393,15 +8881,21 @@
         <v>0.06</v>
       </c>
       <c r="AD82">
-        <v>1</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B83">
         <v>208</v>
@@ -8452,10 +8946,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W83">
         <v>20</v>
@@ -8479,21 +8973,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD83">
-        <v>1</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>195</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH83">
         <v>0.01</v>
       </c>
-      <c r="AG83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B84">
         <v>600</v>
@@ -8544,10 +9044,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V84" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W84">
         <v>25</v>
@@ -8571,15 +9071,21 @@
         <v>0.08</v>
       </c>
       <c r="AD84">
-        <v>1</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B85">
         <v>1000</v>
@@ -8630,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W85">
         <v>30</v>
@@ -8657,15 +9163,21 @@
         <v>0.09</v>
       </c>
       <c r="AD85">
-        <v>1</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B86">
         <v>2300</v>
@@ -8716,10 +9228,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W86">
         <v>50</v>
@@ -8743,15 +9255,21 @@
         <v>0.1</v>
       </c>
       <c r="AD86">
-        <v>1</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B87">
         <v>2500</v>
@@ -8802,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V87" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="W87">
         <v>60</v>
@@ -8829,15 +9347,21 @@
         <v>0.11</v>
       </c>
       <c r="AD87">
-        <v>1</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B88">
         <v>5000</v>
@@ -8888,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W88">
         <v>100</v>
@@ -8915,15 +9439,21 @@
         <v>0.12</v>
       </c>
       <c r="AD88">
-        <v>1</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B89">
         <v>8000</v>
@@ -8974,10 +9504,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W89">
         <v>200</v>
@@ -9001,15 +9531,21 @@
         <v>0.13</v>
       </c>
       <c r="AD89">
-        <v>1</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>12000</v>
@@ -9060,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W90">
         <v>400</v>
@@ -9087,21 +9623,27 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AD90">
-        <v>1</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>71</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH90">
         <v>0.2</v>
       </c>
-      <c r="AG90" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B91">
         <v>14000</v>
@@ -9152,10 +9694,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W91">
         <v>500</v>
@@ -9179,15 +9721,21 @@
         <v>0.15</v>
       </c>
       <c r="AD91">
-        <v>1</v>
-      </c>
-      <c r="AG91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B92">
         <v>18000</v>
@@ -9238,10 +9786,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W92">
         <v>1000</v>
@@ -9265,15 +9813,21 @@
         <v>0.16</v>
       </c>
       <c r="AD92">
-        <v>1</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B93">
         <v>24000</v>
@@ -9324,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V93" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W93">
         <v>1500</v>
@@ -9351,15 +9905,21 @@
         <v>0.17</v>
       </c>
       <c r="AD93">
-        <v>1</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.17</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B94">
         <v>28000</v>
@@ -9410,10 +9970,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="V94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W94">
         <v>3000</v>
@@ -9437,15 +9997,21 @@
         <v>0.18</v>
       </c>
       <c r="AD94">
-        <v>1</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B95">
         <v>32000</v>
@@ -9496,10 +10062,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V95" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W95">
         <v>5000</v>
@@ -9523,15 +10089,21 @@
         <v>0.19</v>
       </c>
       <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B96">
         <v>38000</v>
@@ -9582,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W96">
         <v>10000</v>
@@ -9609,15 +10181,21 @@
         <v>0.2</v>
       </c>
       <c r="AD96">
-        <v>1</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -9668,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V97" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W97">
         <v>15000</v>
@@ -9695,15 +10273,21 @@
         <v>0.21</v>
       </c>
       <c r="AD97">
-        <v>1</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B98">
         <v>44000</v>
@@ -9754,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V98" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W98">
         <v>20000</v>
@@ -9781,15 +10365,21 @@
         <v>0.22</v>
       </c>
       <c r="AD98">
-        <v>1</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>1</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B99">
         <v>45000</v>
@@ -9840,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V99" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W99">
         <v>40000</v>
@@ -9867,15 +10457,21 @@
         <v>0.23</v>
       </c>
       <c r="AD99">
-        <v>1</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>1</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B100">
         <v>50000</v>
@@ -9926,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V100" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W100">
         <v>50000</v>
@@ -9953,15 +10549,21 @@
         <v>0.24</v>
       </c>
       <c r="AD100">
-        <v>1</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B101">
         <v>65000</v>
@@ -10012,10 +10614,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W101">
         <v>60000</v>
@@ -10039,15 +10641,21 @@
         <v>0.25</v>
       </c>
       <c r="AD101">
-        <v>1</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B102">
         <v>68000</v>
@@ -10098,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V102" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W102">
         <v>75000</v>
@@ -10125,15 +10733,21 @@
         <v>0.26</v>
       </c>
       <c r="AD102">
-        <v>1</v>
-      </c>
-      <c r="AG102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B103">
         <v>70000</v>
@@ -10184,10 +10798,10 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V103" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W103">
         <v>100000</v>
@@ -10211,15 +10825,21 @@
         <v>0.27</v>
       </c>
       <c r="AD103">
-        <v>1</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B104">
         <v>80000</v>
@@ -10270,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="U104" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V104" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W104">
         <v>120000</v>
@@ -10297,15 +10917,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD104">
-        <v>1</v>
-      </c>
-      <c r="AG104" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B105">
         <v>90000</v>
@@ -10356,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="V105" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W105">
         <v>130000</v>
@@ -10383,15 +11009,21 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AD105">
-        <v>1</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>1</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B106">
         <v>100000</v>
@@ -10442,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W106">
         <v>150000</v>
@@ -10469,15 +11101,21 @@
         <v>0.3</v>
       </c>
       <c r="AD106">
-        <v>1</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B107">
         <v>90000</v>
@@ -10537,10 +11175,10 @@
         <v>40</v>
       </c>
       <c r="U107" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="W107">
         <v>5000</v>
@@ -10564,15 +11202,21 @@
         <v>0.6</v>
       </c>
       <c r="AD107">
-        <v>1</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+      <c r="AE107">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF107">
+        <v>1</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B108">
         <v>93000</v>
@@ -10632,10 +11276,10 @@
         <v>45</v>
       </c>
       <c r="U108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V108" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="W108">
         <v>10000</v>
@@ -10659,15 +11303,21 @@
         <v>0.65</v>
       </c>
       <c r="AD108">
-        <v>1</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.65</v>
+      </c>
+      <c r="AE108">
+        <v>0.63</v>
+      </c>
+      <c r="AF108">
+        <v>1</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B109">
         <v>98000</v>
@@ -10727,10 +11377,10 @@
         <v>50</v>
       </c>
       <c r="U109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W109">
         <v>15000</v>
@@ -10754,15 +11404,21 @@
         <v>0.73</v>
       </c>
       <c r="AD109">
-        <v>1</v>
-      </c>
-      <c r="AG109" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+      <c r="AE109">
+        <v>0.68</v>
+      </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B110">
         <v>99999</v>
@@ -10822,10 +11478,10 @@
         <v>75</v>
       </c>
       <c r="U110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V110" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W110">
         <v>30000</v>
@@ -10849,15 +11505,21 @@
         <v>0.8</v>
       </c>
       <c r="AD110">
-        <v>1</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="AE110">
+        <v>0.7</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B111">
         <v>105000</v>
@@ -10917,10 +11579,10 @@
         <v>100</v>
       </c>
       <c r="U111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="V111" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W111">
         <v>60000</v>
@@ -10944,10 +11606,16 @@
         <v>0.9</v>
       </c>
       <c r="AD111">
-        <v>1</v>
-      </c>
-      <c r="AG111" t="s">
-        <v>84</v>
+        <v>0.9</v>
+      </c>
+      <c r="AE111">
+        <v>0.75</v>
+      </c>
+      <c r="AF111">
+        <v>1</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10976,30 +11644,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11008,12 +11676,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11022,12 +11690,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11036,12 +11704,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11050,12 +11718,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11064,12 +11732,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -11078,12 +11746,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -11092,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11106,12 +11774,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -11120,12 +11788,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11134,12 +11802,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11148,12 +11816,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -11162,12 +11830,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -11176,12 +11844,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -11190,12 +11858,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -11204,12 +11872,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -11218,12 +11886,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -11232,12 +11900,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -11246,12 +11914,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -11260,12 +11928,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11274,12 +11942,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -11288,12 +11956,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -11302,12 +11970,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -11316,12 +11984,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -11330,12 +11998,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -11344,12 +12012,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -11358,12 +12026,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -11372,12 +12040,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -11386,12 +12054,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -11400,12 +12068,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -11414,12 +12082,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -11428,12 +12096,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -11442,12 +12110,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -11456,12 +12124,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -11470,12 +12138,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -11484,12 +12152,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -11498,12 +12166,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -11512,12 +12180,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -11526,12 +12194,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -11540,12 +12208,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>36</v>
@@ -11554,12 +12222,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -11568,12 +12236,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -11582,12 +12250,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -11596,12 +12264,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -11610,12 +12278,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -11624,12 +12292,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -11638,12 +12306,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -11652,12 +12320,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -11666,12 +12334,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -11680,12 +12348,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>45</v>
@@ -11694,12 +12362,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -11708,12 +12376,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -11722,12 +12390,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -11736,12 +12404,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -11750,12 +12418,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -11764,12 +12432,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57">
         <v>45</v>
@@ -11778,12 +12446,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C58">
         <v>45</v>
@@ -11792,12 +12460,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59">
         <v>45</v>
@@ -11806,12 +12474,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -11820,12 +12488,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -11834,12 +12502,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -11848,12 +12516,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -11862,12 +12530,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -11876,12 +12544,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -11890,12 +12558,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -11904,12 +12572,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -11918,12 +12586,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -11932,12 +12600,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -11946,12 +12614,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -11960,12 +12628,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -11974,12 +12642,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -11988,12 +12656,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -12002,12 +12670,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -12016,12 +12684,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -12030,12 +12698,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -12044,12 +12712,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -12058,12 +12726,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -12072,12 +12740,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -12086,12 +12754,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -12100,12 +12768,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -12114,12 +12782,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -12128,12 +12796,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -12142,12 +12810,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -12156,12 +12824,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -12170,12 +12838,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -12184,12 +12852,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -12198,12 +12866,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -12212,12 +12880,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -12226,12 +12894,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -12240,12 +12908,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -12254,12 +12922,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C92">
         <v>21</v>
@@ -12268,12 +12936,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -12282,12 +12950,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -12296,12 +12964,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -12310,12 +12978,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C96">
         <v>17</v>
@@ -12324,12 +12992,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -12338,12 +13006,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -12352,12 +13020,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C99">
         <v>23</v>
@@ -12366,12 +13034,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C100">
         <v>21</v>
@@ -12380,12 +13048,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C101">
         <v>23</v>
@@ -12394,12 +13062,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C102">
         <v>23</v>
@@ -12408,12 +13076,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C103">
         <v>22</v>
@@ -12422,12 +13090,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C104">
         <v>26</v>
@@ -12436,12 +13104,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -12450,12 +13118,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C106">
         <v>24</v>
@@ -12464,12 +13132,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -12478,12 +13146,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -12492,12 +13160,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C109">
         <v>25</v>
@@ -12506,12 +13174,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C110">
         <v>28</v>
@@ -12520,12 +13188,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C111">
         <v>25</v>
@@ -12534,12 +13202,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C112">
         <v>25</v>
@@ -12548,12 +13216,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -12562,12 +13230,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C114">
         <v>27</v>
@@ -12576,12 +13244,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C115">
         <v>26</v>
@@ -12590,12 +13258,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -12604,12 +13272,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C117">
         <v>29</v>
@@ -12618,12 +13286,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -12632,12 +13300,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -12646,12 +13314,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C120">
         <v>33</v>
@@ -12660,12 +13328,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C121">
         <v>34</v>
@@ -12674,12 +13342,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C122">
         <v>36</v>
@@ -12688,12 +13356,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C123">
         <v>28</v>
@@ -12702,12 +13370,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C124">
         <v>40</v>
@@ -12716,12 +13384,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C125">
         <v>42</v>
@@ -12730,12 +13398,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C126">
         <v>46</v>
@@ -12744,12 +13412,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C127">
         <v>46</v>
@@ -12758,12 +13426,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -12772,12 +13440,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C129">
         <v>65</v>
@@ -12786,12 +13454,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C130">
         <v>128</v>
@@ -12800,12 +13468,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C131">
         <v>96</v>
@@ -12814,12 +13482,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C132">
         <v>160</v>
@@ -12828,12 +13496,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C133">
         <v>130</v>
@@ -12842,12 +13510,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C134">
         <v>185</v>
@@ -12856,12 +13524,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C135">
         <v>150</v>
@@ -12870,12 +13538,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C136">
         <v>225</v>
@@ -12884,12 +13552,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C137">
         <v>200</v>
@@ -12898,12 +13566,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C138">
         <v>360</v>
@@ -12912,12 +13580,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C139">
         <v>300</v>
@@ -12926,12 +13594,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C140">
         <v>320</v>
@@ -12940,12 +13608,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C141">
         <v>400</v>
@@ -12954,12 +13622,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C142">
         <v>450</v>
@@ -12968,12 +13636,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C143">
         <v>450</v>
@@ -12982,12 +13650,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C144">
         <v>475</v>
@@ -12996,12 +13664,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C145">
         <v>475</v>
@@ -13010,12 +13678,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -13024,12 +13692,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C147">
         <v>78</v>
@@ -13038,12 +13706,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -13052,12 +13720,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C149">
         <v>120</v>
@@ -13066,12 +13734,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -13080,12 +13748,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C151">
         <v>84</v>
@@ -13094,12 +13762,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -13108,12 +13776,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C153">
         <v>130</v>
@@ -13122,12 +13790,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -13136,12 +13804,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C155">
         <v>90</v>
@@ -13150,12 +13818,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -13164,12 +13832,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C157">
         <v>140</v>
@@ -13178,12 +13846,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -13192,12 +13860,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C159">
         <v>95</v>
@@ -13206,12 +13874,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -13220,12 +13888,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C161">
         <v>150</v>
@@ -13234,12 +13902,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -13248,12 +13916,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C163">
         <v>100</v>
@@ -13262,12 +13930,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -13276,12 +13944,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C165">
         <v>175</v>
@@ -13290,12 +13958,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -13304,12 +13972,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C167">
         <v>120</v>
@@ -13318,12 +13986,12 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -13332,12 +14000,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C169">
         <v>180</v>
@@ -13346,12 +14014,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -13360,12 +14028,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C171">
         <v>130</v>
@@ -13374,12 +14042,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -13388,12 +14056,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C173">
         <v>200</v>
@@ -13402,12 +14070,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C174">
         <v>25</v>
@@ -13416,12 +14084,12 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C175">
         <v>150</v>
@@ -13430,12 +14098,12 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -13444,12 +14112,12 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C177">
         <v>220</v>
@@ -13458,12 +14126,12 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C178">
         <v>30</v>
@@ -13472,12 +14140,12 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C179">
         <v>170</v>
@@ -13486,12 +14154,12 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C180">
         <v>28</v>
@@ -13500,12 +14168,12 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C181">
         <v>230</v>
@@ -13514,12 +14182,12 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C182">
         <v>45</v>
@@ -13528,12 +14196,12 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C183">
         <v>180</v>
@@ -13542,12 +14210,12 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C184">
         <v>33</v>
@@ -13556,12 +14224,12 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C185">
         <v>240</v>
@@ -13570,12 +14238,12 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C186">
         <v>48</v>
@@ -13584,12 +14252,12 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C187">
         <v>190</v>
@@ -13598,12 +14266,12 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C188">
         <v>36</v>
@@ -13612,12 +14280,12 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C189">
         <v>250</v>
@@ -13626,12 +14294,12 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C190">
         <v>50</v>
@@ -13640,12 +14308,12 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C191">
         <v>200</v>
@@ -13654,12 +14322,12 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C192">
         <v>40</v>
@@ -13668,12 +14336,12 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C193">
         <v>300</v>
@@ -13682,12 +14350,12 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C194">
         <v>60</v>
@@ -13696,12 +14364,12 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C195">
         <v>220</v>
@@ -13710,12 +14378,12 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C196">
         <v>45</v>
@@ -13724,12 +14392,12 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C197">
         <v>320</v>
@@ -13738,12 +14406,12 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C198">
         <v>75</v>
@@ -13752,12 +14420,12 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C199">
         <v>250</v>
@@ -13766,12 +14434,12 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -13780,12 +14448,12 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C201">
         <v>330</v>
@@ -13794,12 +14462,12 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C202">
         <v>85</v>
@@ -13808,12 +14476,12 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C203">
         <v>280</v>
@@ -13822,12 +14490,12 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C204">
         <v>60</v>
@@ -13836,12 +14504,12 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C205">
         <v>340</v>
@@ -13850,12 +14518,12 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C206">
         <v>90</v>
@@ -13864,12 +14532,12 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C207">
         <v>290</v>
@@ -13878,12 +14546,12 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C208">
         <v>70</v>
@@ -13892,12 +14560,12 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C209">
         <v>350</v>
@@ -13906,12 +14574,12 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C210">
         <v>110</v>
@@ -13920,12 +14588,12 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C211">
         <v>300</v>
@@ -13934,12 +14602,12 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C212">
         <v>300</v>
@@ -13948,12 +14616,12 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C213">
         <v>300</v>
@@ -13962,12 +14630,12 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C214">
         <v>400</v>
@@ -13976,12 +14644,12 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C215">
         <v>400</v>
@@ -13990,12 +14658,12 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C216">
         <v>450</v>
@@ -14004,12 +14672,12 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C217">
         <v>400</v>
@@ -14018,12 +14686,12 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C218">
         <v>475</v>
@@ -14032,12 +14700,12 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C219">
         <v>475</v>
@@ -14046,12 +14714,12 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C220">
         <v>525</v>
@@ -14060,12 +14728,12 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C221">
         <v>525</v>
@@ -14074,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99661DD7-A529-6343-B728-A9B0DD7FC59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A4BB4-F3AD-CB4D-AD22-F0C24511AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="337">
   <si>
     <t>name</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Demon Imp</t>
-  </si>
-  <si>
-    <t>fous</t>
   </si>
   <si>
     <t>10-20</t>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+    <sheetView tabSelected="1" topLeftCell="M25" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -1924,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2028,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" t="s">
         <v>54</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>55</v>
       </c>
       <c r="AA6">
         <v>5</v>
@@ -2064,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL6">
         <v>0.1</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -2138,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA7">
         <v>8</v>
@@ -2174,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL7">
         <v>0.15</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -2248,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s">
         <v>61</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>62</v>
       </c>
       <c r="AA8">
         <v>10</v>
@@ -2284,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL8">
         <v>0.18</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -2358,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
         <v>65</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>66</v>
       </c>
       <c r="AA9">
         <v>12</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>96</v>
@@ -2462,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
         <v>68</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>69</v>
       </c>
       <c r="AA10">
         <v>14</v>
@@ -2498,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL10">
         <v>0.01</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>145</v>
@@ -2572,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s">
         <v>72</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>73</v>
       </c>
       <c r="AA11">
         <v>18</v>
@@ -2608,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL11">
         <v>0.15</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>208</v>
@@ -2682,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s">
         <v>75</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>76</v>
       </c>
       <c r="AA12">
         <v>20</v>
@@ -2718,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL12">
         <v>0.15</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>600</v>
@@ -2792,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s">
         <v>79</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>80</v>
       </c>
       <c r="AA13">
         <v>25</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -2896,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s">
         <v>82</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>83</v>
       </c>
       <c r="AA14">
         <v>30</v>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>2300</v>
@@ -3000,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z15" t="s">
         <v>85</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>86</v>
       </c>
       <c r="AA15">
         <v>50</v>
@@ -3036,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="AK15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL15">
         <v>0.16</v>
@@ -3047,7 +3044,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -3110,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z16" t="s">
         <v>92</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>93</v>
       </c>
       <c r="AA16">
         <v>60</v>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>8000</v>
@@ -3214,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z17" t="s">
         <v>95</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>96</v>
       </c>
       <c r="AA17">
         <v>100</v>
@@ -3255,7 +3252,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -3318,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" t="s">
         <v>88</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>89</v>
       </c>
       <c r="AA18">
         <v>200</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>14000</v>
@@ -3422,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z19" t="s">
         <v>99</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>100</v>
       </c>
       <c r="AA19">
         <v>400</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>18000</v>
@@ -3526,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" t="s">
         <v>102</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>103</v>
       </c>
       <c r="AA20">
         <v>500</v>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>24000</v>
@@ -3630,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" t="s">
         <v>105</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>106</v>
       </c>
       <c r="AA21">
         <v>1000</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>28000</v>
@@ -3734,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z22" t="s">
         <v>108</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>109</v>
       </c>
       <c r="AA22">
         <v>1500</v>
@@ -3770,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="AK22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL22">
         <v>0.01</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>32000</v>
@@ -3844,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z23" t="s">
         <v>112</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>113</v>
       </c>
       <c r="AA23">
         <v>3000</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>38000</v>
@@ -3948,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z24" t="s">
         <v>115</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>116</v>
       </c>
       <c r="AA24">
         <v>5000</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>40000</v>
@@ -4052,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z25" t="s">
         <v>118</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>119</v>
       </c>
       <c r="AA25">
         <v>10000</v>
@@ -4093,7 +4090,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>44000</v>
@@ -4156,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z26" t="s">
         <v>121</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>122</v>
       </c>
       <c r="AA26">
         <v>15000</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27">
         <v>45000</v>
@@ -4260,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z27" t="s">
         <v>124</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>125</v>
       </c>
       <c r="AA27">
         <v>20000</v>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>50000</v>
@@ -4364,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z28" t="s">
         <v>127</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>128</v>
       </c>
       <c r="AA28">
         <v>40000</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>65000</v>
@@ -4468,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z29" t="s">
         <v>130</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>131</v>
       </c>
       <c r="AA29">
         <v>50000</v>
@@ -4504,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="AK29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL29">
         <v>1E-3</v>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4614,12 +4611,12 @@
         <v>1</v>
       </c>
       <c r="AM30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -4718,12 +4715,12 @@
         <v>1</v>
       </c>
       <c r="AM31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -4822,12 +4819,12 @@
         <v>1</v>
       </c>
       <c r="AM32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -4890,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA33">
         <v>3</v>
@@ -4926,12 +4923,12 @@
         <v>1</v>
       </c>
       <c r="AM33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -4994,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z34" t="s">
         <v>54</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>55</v>
       </c>
       <c r="AA34">
         <v>5</v>
@@ -5030,12 +5027,12 @@
         <v>1</v>
       </c>
       <c r="AM34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -5098,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA35">
         <v>8</v>
@@ -5134,12 +5131,12 @@
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -5202,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z36" t="s">
         <v>61</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>62</v>
       </c>
       <c r="AA36">
         <v>10</v>
@@ -5238,12 +5235,12 @@
         <v>1</v>
       </c>
       <c r="AM36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -5306,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="Y37" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z37" t="s">
         <v>65</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>66</v>
       </c>
       <c r="AA37">
         <v>12</v>
@@ -5342,12 +5339,12 @@
         <v>1</v>
       </c>
       <c r="AM37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38">
         <v>96</v>
@@ -5410,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z38" t="s">
         <v>68</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>69</v>
       </c>
       <c r="AA38">
         <v>14</v>
@@ -5446,12 +5443,12 @@
         <v>1</v>
       </c>
       <c r="AM38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>145</v>
@@ -5514,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s">
         <v>72</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>73</v>
       </c>
       <c r="AA39">
         <v>18</v>
@@ -5550,12 +5547,12 @@
         <v>1</v>
       </c>
       <c r="AM39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40">
         <v>208</v>
@@ -5618,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="Y40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s">
         <v>75</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>76</v>
       </c>
       <c r="AA40">
         <v>20</v>
@@ -5654,12 +5651,12 @@
         <v>1</v>
       </c>
       <c r="AM40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41">
         <v>600</v>
@@ -5722,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s">
         <v>79</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>80</v>
       </c>
       <c r="AA41">
         <v>25</v>
@@ -5758,12 +5755,12 @@
         <v>1</v>
       </c>
       <c r="AM41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -5826,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="s">
         <v>82</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>83</v>
       </c>
       <c r="AA42">
         <v>30</v>
@@ -5862,12 +5859,12 @@
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43">
         <v>2300</v>
@@ -5930,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="Y43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z43" t="s">
         <v>85</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>86</v>
       </c>
       <c r="AA43">
         <v>50</v>
@@ -5966,12 +5963,12 @@
         <v>1</v>
       </c>
       <c r="AM43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44">
         <v>2500</v>
@@ -6034,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="Y44" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z44" t="s">
         <v>149</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>150</v>
       </c>
       <c r="AA44">
         <v>60</v>
@@ -6070,12 +6067,12 @@
         <v>1</v>
       </c>
       <c r="AM44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>5000</v>
@@ -6138,10 +6135,10 @@
         <v>0</v>
       </c>
       <c r="Y45" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z45" t="s">
         <v>92</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>93</v>
       </c>
       <c r="AA45">
         <v>100</v>
@@ -6174,12 +6171,12 @@
         <v>1</v>
       </c>
       <c r="AM45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>8000</v>
@@ -6242,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="Y46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z46" t="s">
         <v>95</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>96</v>
       </c>
       <c r="AA46">
         <v>200</v>
@@ -6278,12 +6275,12 @@
         <v>1</v>
       </c>
       <c r="AM46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -6346,10 +6343,10 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z47" t="s">
         <v>88</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>89</v>
       </c>
       <c r="AA47">
         <v>400</v>
@@ -6382,12 +6379,12 @@
         <v>1</v>
       </c>
       <c r="AM47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>14000</v>
@@ -6450,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="Y48" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z48" t="s">
         <v>99</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>100</v>
       </c>
       <c r="AA48">
         <v>500</v>
@@ -6486,12 +6483,12 @@
         <v>1</v>
       </c>
       <c r="AM48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49">
         <v>18000</v>
@@ -6554,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="Y49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z49" t="s">
         <v>102</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>103</v>
       </c>
       <c r="AA49">
         <v>1000</v>
@@ -6590,18 +6587,18 @@
         <v>1</v>
       </c>
       <c r="AK49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL49">
         <v>0.01</v>
       </c>
       <c r="AM49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50">
         <v>24000</v>
@@ -6664,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="Y50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z50" t="s">
         <v>105</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>106</v>
       </c>
       <c r="AA50">
         <v>1500</v>
@@ -6700,12 +6697,12 @@
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>28000</v>
@@ -6768,10 +6765,10 @@
         <v>0</v>
       </c>
       <c r="Y51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z51" t="s">
         <v>108</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>109</v>
       </c>
       <c r="AA51">
         <v>3000</v>
@@ -6804,12 +6801,12 @@
         <v>1</v>
       </c>
       <c r="AM51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>32000</v>
@@ -6872,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="Y52" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z52" t="s">
         <v>112</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>113</v>
       </c>
       <c r="AA52">
         <v>5000</v>
@@ -6908,18 +6905,18 @@
         <v>1</v>
       </c>
       <c r="AK52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL52">
         <v>0.15</v>
       </c>
       <c r="AM52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53">
         <v>38000</v>
@@ -6982,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="Y53" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z53" t="s">
         <v>115</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>116</v>
       </c>
       <c r="AA53">
         <v>10000</v>
@@ -7018,12 +7015,12 @@
         <v>1</v>
       </c>
       <c r="AM53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>40000</v>
@@ -7086,10 +7083,10 @@
         <v>0</v>
       </c>
       <c r="Y54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z54" t="s">
         <v>118</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>119</v>
       </c>
       <c r="AA54">
         <v>15000</v>
@@ -7122,12 +7119,12 @@
         <v>1</v>
       </c>
       <c r="AM54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55">
         <v>44000</v>
@@ -7190,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="Y55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z55" t="s">
         <v>121</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>122</v>
       </c>
       <c r="AA55">
         <v>20000</v>
@@ -7226,18 +7223,18 @@
         <v>1</v>
       </c>
       <c r="AK55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL55">
         <v>0.15</v>
       </c>
       <c r="AM55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56">
         <v>45000</v>
@@ -7300,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="Y56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z56" t="s">
         <v>124</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>125</v>
       </c>
       <c r="AA56">
         <v>40000</v>
@@ -7336,12 +7333,12 @@
         <v>1</v>
       </c>
       <c r="AM56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57">
         <v>50000</v>
@@ -7404,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="Y57" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z57" t="s">
         <v>127</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>128</v>
       </c>
       <c r="AA57">
         <v>50000</v>
@@ -7440,12 +7437,12 @@
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58">
         <v>65000</v>
@@ -7508,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="Y58" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z58" t="s">
         <v>130</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>131</v>
       </c>
       <c r="AA58">
         <v>60000</v>
@@ -7544,12 +7541,12 @@
         <v>1</v>
       </c>
       <c r="AM58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59">
         <v>68000</v>
@@ -7612,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="Y59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z59" t="s">
         <v>167</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>168</v>
       </c>
       <c r="AA59">
         <v>75000</v>
@@ -7648,12 +7645,12 @@
         <v>1</v>
       </c>
       <c r="AM59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60">
         <v>70000</v>
@@ -7716,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="Y60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z60" t="s">
         <v>170</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>171</v>
       </c>
       <c r="AA60">
         <v>100000</v>
@@ -7752,12 +7749,12 @@
         <v>1</v>
       </c>
       <c r="AM60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61">
         <v>80000</v>
@@ -7820,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="Y61" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z61" t="s">
         <v>173</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>174</v>
       </c>
       <c r="AA61">
         <v>120000</v>
@@ -7856,12 +7853,12 @@
         <v>1</v>
       </c>
       <c r="AM61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62">
         <v>90000</v>
@@ -7924,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="Y62" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z62" t="s">
         <v>176</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>177</v>
       </c>
       <c r="AA62">
         <v>130000</v>
@@ -7960,12 +7957,12 @@
         <v>1</v>
       </c>
       <c r="AM62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63">
         <v>100000</v>
@@ -8028,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="Y63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z63" t="s">
         <v>179</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>180</v>
       </c>
       <c r="AA63">
         <v>150000</v>
@@ -8064,18 +8061,18 @@
         <v>1</v>
       </c>
       <c r="AK63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL63">
         <v>0.01</v>
       </c>
       <c r="AM63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64">
         <v>200000</v>
@@ -8147,10 +8144,10 @@
         <v>8</v>
       </c>
       <c r="Y64" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z64" t="s">
         <v>183</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>184</v>
       </c>
       <c r="AA64">
         <v>400000</v>
@@ -8183,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="AK64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL64">
         <v>0.25</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65">
         <v>300000</v>
@@ -8266,10 +8263,10 @@
         <v>10</v>
       </c>
       <c r="Y65" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z65" t="s">
         <v>186</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>187</v>
       </c>
       <c r="AA65">
         <v>450000</v>
@@ -8302,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="AK65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL65">
         <v>0.01</v>
@@ -8313,7 +8310,7 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66">
         <v>500000</v>
@@ -8385,10 +8382,10 @@
         <v>16</v>
       </c>
       <c r="Y66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA66">
         <v>500000</v>
@@ -8421,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AK66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL66">
         <v>0.01</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67">
         <v>600000</v>
@@ -8504,10 +8501,10 @@
         <v>24</v>
       </c>
       <c r="Y67" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z67" t="s">
         <v>191</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>192</v>
       </c>
       <c r="AA67">
         <v>600000</v>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68">
         <v>750000</v>
@@ -8617,10 +8614,10 @@
         <v>36</v>
       </c>
       <c r="Y68" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z68" t="s">
         <v>194</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>195</v>
       </c>
       <c r="AA68">
         <v>1000000</v>
@@ -8653,12 +8650,12 @@
         <v>1</v>
       </c>
       <c r="AM68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69">
         <v>800000</v>
@@ -8730,10 +8727,10 @@
         <v>16</v>
       </c>
       <c r="Y69" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z69" t="s">
         <v>197</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>198</v>
       </c>
       <c r="AA69">
         <v>2000000</v>
@@ -8766,12 +8763,12 @@
         <v>1</v>
       </c>
       <c r="AM69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70">
         <v>950000</v>
@@ -8843,10 +8840,10 @@
         <v>24</v>
       </c>
       <c r="Y70" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z70" t="s">
         <v>200</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>201</v>
       </c>
       <c r="AA70">
         <v>3000000</v>
@@ -8879,18 +8876,18 @@
         <v>1</v>
       </c>
       <c r="AK70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL70">
         <v>0.2</v>
       </c>
       <c r="AM70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71">
         <v>1000000</v>
@@ -8962,10 +8959,10 @@
         <v>28</v>
       </c>
       <c r="Y71" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z71" t="s">
         <v>204</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>205</v>
       </c>
       <c r="AA71">
         <v>4000000</v>
@@ -8998,12 +8995,12 @@
         <v>1</v>
       </c>
       <c r="AM71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72">
         <v>2000000</v>
@@ -9075,10 +9072,10 @@
         <v>32</v>
       </c>
       <c r="Y72" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z72" t="s">
         <v>207</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>208</v>
       </c>
       <c r="AA72">
         <v>5000000</v>
@@ -9111,12 +9108,12 @@
         <v>1</v>
       </c>
       <c r="AM72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -9215,12 +9212,12 @@
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -9319,12 +9316,12 @@
         <v>1</v>
       </c>
       <c r="AM74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75">
         <v>11</v>
@@ -9423,12 +9420,12 @@
         <v>1</v>
       </c>
       <c r="AM75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -9491,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="Y76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA76">
         <v>3</v>
@@ -9527,12 +9524,12 @@
         <v>1</v>
       </c>
       <c r="AM76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -9595,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z77" t="s">
         <v>54</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>55</v>
       </c>
       <c r="AA77">
         <v>5</v>
@@ -9631,12 +9628,12 @@
         <v>1</v>
       </c>
       <c r="AM77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -9699,10 +9696,10 @@
         <v>0</v>
       </c>
       <c r="Y78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA78">
         <v>8</v>
@@ -9735,12 +9732,12 @@
         <v>1</v>
       </c>
       <c r="AM78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79">
         <v>48</v>
@@ -9803,10 +9800,10 @@
         <v>0</v>
       </c>
       <c r="Y79" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z79" t="s">
         <v>61</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>62</v>
       </c>
       <c r="AA79">
         <v>10</v>
@@ -9839,12 +9836,12 @@
         <v>1</v>
       </c>
       <c r="AM79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B80">
         <v>50</v>
@@ -9907,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="Y80" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z80" t="s">
         <v>65</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>66</v>
       </c>
       <c r="AA80">
         <v>12</v>
@@ -9943,12 +9940,12 @@
         <v>1</v>
       </c>
       <c r="AM80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B81">
         <v>96</v>
@@ -10011,10 +10008,10 @@
         <v>0</v>
       </c>
       <c r="Y81" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z81" t="s">
         <v>68</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>69</v>
       </c>
       <c r="AA81">
         <v>14</v>
@@ -10047,12 +10044,12 @@
         <v>1</v>
       </c>
       <c r="AM81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <v>145</v>
@@ -10115,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="Y82" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z82" t="s">
         <v>72</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>73</v>
       </c>
       <c r="AA82">
         <v>18</v>
@@ -10151,12 +10148,12 @@
         <v>1</v>
       </c>
       <c r="AM82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B83">
         <v>208</v>
@@ -10219,10 +10216,10 @@
         <v>0</v>
       </c>
       <c r="Y83" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s">
         <v>75</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>76</v>
       </c>
       <c r="AA83">
         <v>20</v>
@@ -10255,18 +10252,18 @@
         <v>1</v>
       </c>
       <c r="AK83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL83">
         <v>0.01</v>
       </c>
       <c r="AM83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B84">
         <v>600</v>
@@ -10329,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="Y84" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s">
         <v>79</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>80</v>
       </c>
       <c r="AA84">
         <v>25</v>
@@ -10365,12 +10362,12 @@
         <v>1</v>
       </c>
       <c r="AM84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85">
         <v>1000</v>
@@ -10433,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="Y85" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s">
         <v>82</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>83</v>
       </c>
       <c r="AA85">
         <v>30</v>
@@ -10469,12 +10466,12 @@
         <v>1</v>
       </c>
       <c r="AM85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B86">
         <v>2300</v>
@@ -10537,10 +10534,10 @@
         <v>0</v>
       </c>
       <c r="Y86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z86" t="s">
         <v>85</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>86</v>
       </c>
       <c r="AA86">
         <v>50</v>
@@ -10573,12 +10570,12 @@
         <v>1</v>
       </c>
       <c r="AM86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B87">
         <v>2500</v>
@@ -10641,10 +10638,10 @@
         <v>0</v>
       </c>
       <c r="Y87" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z87" t="s">
         <v>149</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>150</v>
       </c>
       <c r="AA87">
         <v>60</v>
@@ -10677,12 +10674,12 @@
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B88">
         <v>5000</v>
@@ -10745,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="Y88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z88" t="s">
         <v>92</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>93</v>
       </c>
       <c r="AA88">
         <v>100</v>
@@ -10781,12 +10778,12 @@
         <v>1</v>
       </c>
       <c r="AM88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89">
         <v>8000</v>
@@ -10849,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="Y89" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z89" t="s">
         <v>95</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>96</v>
       </c>
       <c r="AA89">
         <v>200</v>
@@ -10885,12 +10882,12 @@
         <v>1</v>
       </c>
       <c r="AM89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B90">
         <v>14000</v>
@@ -10953,10 +10950,10 @@
         <v>0</v>
       </c>
       <c r="Y90" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z90" t="s">
         <v>99</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>100</v>
       </c>
       <c r="AA90">
         <v>500</v>
@@ -10989,12 +10986,12 @@
         <v>1</v>
       </c>
       <c r="AM90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>12000</v>
@@ -11057,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="Y91" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z91" t="s">
         <v>88</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>89</v>
       </c>
       <c r="AA91">
         <v>400</v>
@@ -11093,18 +11090,18 @@
         <v>1</v>
       </c>
       <c r="AK91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL91">
         <v>0.2</v>
       </c>
       <c r="AM91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92">
         <v>18000</v>
@@ -11167,10 +11164,10 @@
         <v>0</v>
       </c>
       <c r="Y92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z92" t="s">
         <v>102</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>103</v>
       </c>
       <c r="AA92">
         <v>1000</v>
@@ -11203,12 +11200,12 @@
         <v>1</v>
       </c>
       <c r="AM92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B93">
         <v>24000</v>
@@ -11271,10 +11268,10 @@
         <v>0</v>
       </c>
       <c r="Y93" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z93" t="s">
         <v>105</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>106</v>
       </c>
       <c r="AA93">
         <v>1500</v>
@@ -11307,12 +11304,12 @@
         <v>1</v>
       </c>
       <c r="AM93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B94">
         <v>28000</v>
@@ -11375,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="Y94" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s">
         <v>108</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>109</v>
       </c>
       <c r="AA94">
         <v>3000</v>
@@ -11411,12 +11408,12 @@
         <v>1</v>
       </c>
       <c r="AM94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95">
         <v>32000</v>
@@ -11479,10 +11476,10 @@
         <v>0</v>
       </c>
       <c r="Y95" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z95" t="s">
         <v>112</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>113</v>
       </c>
       <c r="AA95">
         <v>5000</v>
@@ -11515,12 +11512,12 @@
         <v>1</v>
       </c>
       <c r="AM95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B96">
         <v>38000</v>
@@ -11583,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="Y96" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z96" t="s">
         <v>115</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>116</v>
       </c>
       <c r="AA96">
         <v>10000</v>
@@ -11619,12 +11616,12 @@
         <v>1</v>
       </c>
       <c r="AM96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -11687,10 +11684,10 @@
         <v>0</v>
       </c>
       <c r="Y97" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z97" t="s">
         <v>118</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>119</v>
       </c>
       <c r="AA97">
         <v>15000</v>
@@ -11723,12 +11720,12 @@
         <v>1</v>
       </c>
       <c r="AM97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B98">
         <v>44000</v>
@@ -11791,10 +11788,10 @@
         <v>0</v>
       </c>
       <c r="Y98" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z98" t="s">
         <v>121</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>122</v>
       </c>
       <c r="AA98">
         <v>20000</v>
@@ -11827,12 +11824,12 @@
         <v>1</v>
       </c>
       <c r="AM98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99">
         <v>45000</v>
@@ -11895,10 +11892,10 @@
         <v>0</v>
       </c>
       <c r="Y99" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z99" t="s">
         <v>124</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>125</v>
       </c>
       <c r="AA99">
         <v>40000</v>
@@ -11931,12 +11928,12 @@
         <v>1</v>
       </c>
       <c r="AM99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B100">
         <v>50000</v>
@@ -11999,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="Y100" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z100" t="s">
         <v>127</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>128</v>
       </c>
       <c r="AA100">
         <v>50000</v>
@@ -12035,12 +12032,12 @@
         <v>1</v>
       </c>
       <c r="AM100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101">
         <v>65000</v>
@@ -12103,10 +12100,10 @@
         <v>0</v>
       </c>
       <c r="Y101" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z101" t="s">
         <v>130</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>131</v>
       </c>
       <c r="AA101">
         <v>60000</v>
@@ -12139,12 +12136,12 @@
         <v>1</v>
       </c>
       <c r="AM101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102">
         <v>68000</v>
@@ -12207,10 +12204,10 @@
         <v>0</v>
       </c>
       <c r="Y102" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z102" t="s">
         <v>167</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>168</v>
       </c>
       <c r="AA102">
         <v>75000</v>
@@ -12243,12 +12240,12 @@
         <v>1</v>
       </c>
       <c r="AM102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103">
         <v>70000</v>
@@ -12311,10 +12308,10 @@
         <v>0</v>
       </c>
       <c r="Y103" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z103" t="s">
         <v>170</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>171</v>
       </c>
       <c r="AA103">
         <v>100000</v>
@@ -12347,12 +12344,12 @@
         <v>1</v>
       </c>
       <c r="AM103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B104">
         <v>80000</v>
@@ -12415,10 +12412,10 @@
         <v>0</v>
       </c>
       <c r="Y104" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z104" t="s">
         <v>173</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>174</v>
       </c>
       <c r="AA104">
         <v>120000</v>
@@ -12451,12 +12448,12 @@
         <v>1</v>
       </c>
       <c r="AM104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B105">
         <v>90000</v>
@@ -12519,10 +12516,10 @@
         <v>0</v>
       </c>
       <c r="Y105" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z105" t="s">
         <v>176</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>177</v>
       </c>
       <c r="AA105">
         <v>130000</v>
@@ -12555,12 +12552,12 @@
         <v>1</v>
       </c>
       <c r="AM105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106">
         <v>100000</v>
@@ -12623,10 +12620,10 @@
         <v>0</v>
       </c>
       <c r="Y106" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z106" t="s">
         <v>179</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>180</v>
       </c>
       <c r="AA106">
         <v>150000</v>
@@ -12659,12 +12656,12 @@
         <v>1</v>
       </c>
       <c r="AM106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107">
         <v>3000000</v>
@@ -12736,10 +12733,10 @@
         <v>40</v>
       </c>
       <c r="Y107" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z107" t="s">
         <v>243</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>244</v>
       </c>
       <c r="AA107">
         <v>1000000</v>
@@ -12772,12 +12769,12 @@
         <v>1</v>
       </c>
       <c r="AM107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108">
         <v>4000000</v>
@@ -12849,10 +12846,10 @@
         <v>45</v>
       </c>
       <c r="Y108" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z108" t="s">
         <v>246</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>247</v>
       </c>
       <c r="AA108">
         <v>2000000</v>
@@ -12885,12 +12882,12 @@
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B109">
         <v>5000000</v>
@@ -12962,10 +12959,10 @@
         <v>50</v>
       </c>
       <c r="Y109" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z109" t="s">
         <v>249</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>250</v>
       </c>
       <c r="AA109">
         <v>3000000</v>
@@ -12998,12 +12995,12 @@
         <v>1</v>
       </c>
       <c r="AM109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B110">
         <v>10000000</v>
@@ -13075,10 +13072,10 @@
         <v>75</v>
       </c>
       <c r="Y110" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z110" t="s">
         <v>252</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>253</v>
       </c>
       <c r="AA110">
         <v>4000000</v>
@@ -13111,12 +13108,12 @@
         <v>1</v>
       </c>
       <c r="AM110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111">
         <v>20000000</v>
@@ -13188,10 +13185,10 @@
         <v>100</v>
       </c>
       <c r="Y111" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z111" t="s">
         <v>255</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>256</v>
       </c>
       <c r="AA111">
         <v>5000000</v>
@@ -13224,12 +13221,12 @@
         <v>1</v>
       </c>
       <c r="AM111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B112">
         <v>80000</v>
@@ -13292,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="Y112" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z112" t="s">
         <v>258</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>259</v>
       </c>
       <c r="AA112">
         <v>10000</v>
@@ -13333,7 +13330,7 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113">
         <v>120000</v>
@@ -13396,10 +13393,10 @@
         <v>0</v>
       </c>
       <c r="Y113" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z113" t="s">
         <v>261</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>262</v>
       </c>
       <c r="AA113">
         <v>15000</v>
@@ -13437,7 +13434,7 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B114">
         <v>130000</v>
@@ -13500,10 +13497,10 @@
         <v>0</v>
       </c>
       <c r="Y114" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z114" t="s">
         <v>264</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>265</v>
       </c>
       <c r="AA114">
         <v>30000</v>
@@ -13541,7 +13538,7 @@
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B115">
         <v>150000</v>
@@ -13604,10 +13601,10 @@
         <v>0</v>
       </c>
       <c r="Y115" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z115" t="s">
         <v>267</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>268</v>
       </c>
       <c r="AA115">
         <v>50000</v>
@@ -13645,7 +13642,7 @@
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B116">
         <v>180000</v>
@@ -13708,10 +13705,10 @@
         <v>0</v>
       </c>
       <c r="Y116" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z116" t="s">
         <v>270</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>271</v>
       </c>
       <c r="AA116">
         <v>60000</v>
@@ -13749,7 +13746,7 @@
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B117">
         <v>220000</v>
@@ -13812,10 +13809,10 @@
         <v>0</v>
       </c>
       <c r="Y117" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z117" t="s">
         <v>273</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>274</v>
       </c>
       <c r="AA117">
         <v>75000</v>
@@ -13853,7 +13850,7 @@
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B118">
         <v>250000</v>
@@ -13916,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="Y118" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z118" t="s">
         <v>276</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>277</v>
       </c>
       <c r="AA118">
         <v>100000</v>
@@ -13957,7 +13954,7 @@
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119">
         <v>280000</v>
@@ -14020,10 +14017,10 @@
         <v>0</v>
       </c>
       <c r="Y119" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z119" t="s">
         <v>279</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>280</v>
       </c>
       <c r="AA119">
         <v>110000</v>
@@ -14061,7 +14058,7 @@
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120">
         <v>290000</v>
@@ -14124,10 +14121,10 @@
         <v>0</v>
       </c>
       <c r="Y120" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z120" t="s">
         <v>282</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>283</v>
       </c>
       <c r="AA120">
         <v>130000</v>
@@ -14165,7 +14162,7 @@
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121">
         <v>340000</v>
@@ -14228,10 +14225,10 @@
         <v>0</v>
       </c>
       <c r="Y121" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z121" t="s">
         <v>285</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>286</v>
       </c>
       <c r="AA121">
         <v>150000</v>
@@ -14269,7 +14266,7 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B122">
         <v>350000</v>
@@ -14332,10 +14329,10 @@
         <v>0</v>
       </c>
       <c r="Y122" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z122" t="s">
         <v>288</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>289</v>
       </c>
       <c r="AA122">
         <v>180000</v>
@@ -14373,7 +14370,7 @@
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123">
         <v>400000</v>
@@ -14436,10 +14433,10 @@
         <v>0</v>
       </c>
       <c r="Y123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA123">
         <v>250000</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B124">
         <v>420000</v>
@@ -14540,10 +14537,10 @@
         <v>0</v>
       </c>
       <c r="Y124" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z124" t="s">
         <v>293</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>294</v>
       </c>
       <c r="AA124">
         <v>275000</v>
@@ -14581,7 +14578,7 @@
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B125">
         <v>450000</v>
@@ -14644,10 +14641,10 @@
         <v>0</v>
       </c>
       <c r="Y125" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z125" t="s">
         <v>296</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>297</v>
       </c>
       <c r="AA125">
         <v>300000</v>
@@ -14685,7 +14682,7 @@
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B126">
         <v>475000</v>
@@ -14748,10 +14745,10 @@
         <v>0</v>
       </c>
       <c r="Y126" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z126" t="s">
         <v>299</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>300</v>
       </c>
       <c r="AA126">
         <v>345000</v>
@@ -14789,7 +14786,7 @@
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B127">
         <v>490000</v>
@@ -14852,10 +14849,10 @@
         <v>0</v>
       </c>
       <c r="Y127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA127">
         <v>368000</v>
@@ -14893,7 +14890,7 @@
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B128">
         <v>250000</v>
@@ -14956,10 +14953,10 @@
         <v>0</v>
       </c>
       <c r="Y128" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z128" t="s">
         <v>258</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>259</v>
       </c>
       <c r="AA128">
         <v>10000</v>
@@ -14992,12 +14989,12 @@
         <v>1</v>
       </c>
       <c r="AM128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B129">
         <v>300000</v>
@@ -15060,10 +15057,10 @@
         <v>0</v>
       </c>
       <c r="Y129" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z129" t="s">
         <v>261</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>262</v>
       </c>
       <c r="AA129">
         <v>15000</v>
@@ -15096,12 +15093,12 @@
         <v>1</v>
       </c>
       <c r="AM129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B130">
         <v>325000</v>
@@ -15164,10 +15161,10 @@
         <v>0</v>
       </c>
       <c r="Y130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA130">
         <v>30000</v>
@@ -15200,12 +15197,12 @@
         <v>1</v>
       </c>
       <c r="AM130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B131">
         <v>450000</v>
@@ -15268,10 +15265,10 @@
         <v>0</v>
       </c>
       <c r="Y131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA131">
         <v>50000</v>
@@ -15304,12 +15301,12 @@
         <v>1</v>
       </c>
       <c r="AM131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132">
         <v>475000</v>
@@ -15372,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="Y132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA132">
         <v>60000</v>
@@ -15408,12 +15405,12 @@
         <v>1</v>
       </c>
       <c r="AM132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B133">
         <v>500000</v>
@@ -15476,10 +15473,10 @@
         <v>0</v>
       </c>
       <c r="Y133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA133">
         <v>75000</v>
@@ -15512,12 +15509,12 @@
         <v>1</v>
       </c>
       <c r="AM133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B134">
         <v>560000</v>
@@ -15580,10 +15577,10 @@
         <v>0</v>
       </c>
       <c r="Y134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA134">
         <v>100000</v>
@@ -15616,12 +15613,12 @@
         <v>1</v>
       </c>
       <c r="AM134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B135">
         <v>600000</v>
@@ -15684,10 +15681,10 @@
         <v>0</v>
       </c>
       <c r="Y135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z135" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA135">
         <v>110000</v>
@@ -15720,12 +15717,12 @@
         <v>1</v>
       </c>
       <c r="AM135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B136">
         <v>670000</v>
@@ -15788,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="Y136" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA136">
         <v>130000</v>
@@ -15824,12 +15821,12 @@
         <v>1</v>
       </c>
       <c r="AM136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B137">
         <v>720000</v>
@@ -15892,10 +15889,10 @@
         <v>0</v>
       </c>
       <c r="Y137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA137">
         <v>150000</v>
@@ -15928,12 +15925,12 @@
         <v>1</v>
       </c>
       <c r="AM137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B138">
         <v>750000</v>
@@ -15996,10 +15993,10 @@
         <v>0</v>
       </c>
       <c r="Y138" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA138">
         <v>180000</v>
@@ -16032,12 +16029,12 @@
         <v>1</v>
       </c>
       <c r="AM138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B139">
         <v>775000</v>
@@ -16100,10 +16097,10 @@
         <v>0</v>
       </c>
       <c r="Y139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA139">
         <v>250000</v>
@@ -16136,12 +16133,12 @@
         <v>1</v>
       </c>
       <c r="AM139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B140">
         <v>800000</v>
@@ -16204,10 +16201,10 @@
         <v>0</v>
       </c>
       <c r="Y140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA140">
         <v>275000</v>
@@ -16240,12 +16237,12 @@
         <v>1</v>
       </c>
       <c r="AM140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B141">
         <v>825000</v>
@@ -16308,10 +16305,10 @@
         <v>0</v>
       </c>
       <c r="Y141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA141">
         <v>300000</v>
@@ -16344,12 +16341,12 @@
         <v>1</v>
       </c>
       <c r="AM141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B142">
         <v>850000</v>
@@ -16412,10 +16409,10 @@
         <v>0</v>
       </c>
       <c r="Y142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA142">
         <v>345000</v>
@@ -16448,12 +16445,12 @@
         <v>1</v>
       </c>
       <c r="AM142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B143">
         <v>875000</v>
@@ -16516,10 +16513,10 @@
         <v>0</v>
       </c>
       <c r="Y143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA143">
         <v>368000</v>
@@ -16552,12 +16549,12 @@
         <v>1</v>
       </c>
       <c r="AM143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B144">
         <v>250000</v>
@@ -16620,10 +16617,10 @@
         <v>0</v>
       </c>
       <c r="Y144" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z144" t="s">
         <v>258</v>
-      </c>
-      <c r="Z144" t="s">
-        <v>259</v>
       </c>
       <c r="AA144">
         <v>10000</v>
@@ -16656,12 +16653,12 @@
         <v>1</v>
       </c>
       <c r="AM144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B145">
         <v>300000</v>
@@ -16724,10 +16721,10 @@
         <v>0</v>
       </c>
       <c r="Y145" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z145" t="s">
         <v>261</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>262</v>
       </c>
       <c r="AA145">
         <v>15000</v>
@@ -16760,12 +16757,12 @@
         <v>1</v>
       </c>
       <c r="AM145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B146">
         <v>325000</v>
@@ -16828,10 +16825,10 @@
         <v>0</v>
       </c>
       <c r="Y146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z146" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA146">
         <v>30000</v>
@@ -16864,12 +16861,12 @@
         <v>1</v>
       </c>
       <c r="AM146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B147">
         <v>450000</v>
@@ -16932,10 +16929,10 @@
         <v>0</v>
       </c>
       <c r="Y147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z147" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA147">
         <v>50000</v>
@@ -16968,12 +16965,12 @@
         <v>1</v>
       </c>
       <c r="AM147" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B148">
         <v>475000</v>
@@ -17036,10 +17033,10 @@
         <v>0</v>
       </c>
       <c r="Y148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA148">
         <v>60000</v>
@@ -17072,12 +17069,12 @@
         <v>1</v>
       </c>
       <c r="AM148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B149">
         <v>500000</v>
@@ -17140,10 +17137,10 @@
         <v>0</v>
       </c>
       <c r="Y149" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z149" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA149">
         <v>75000</v>
@@ -17176,12 +17173,12 @@
         <v>1</v>
       </c>
       <c r="AM149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B150">
         <v>560000</v>
@@ -17244,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="Y150" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA150">
         <v>100000</v>
@@ -17280,12 +17277,12 @@
         <v>1</v>
       </c>
       <c r="AM150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B151">
         <v>600000</v>
@@ -17348,10 +17345,10 @@
         <v>0</v>
       </c>
       <c r="Y151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z151" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA151">
         <v>110000</v>
@@ -17384,12 +17381,12 @@
         <v>1</v>
       </c>
       <c r="AM151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B152">
         <v>670000</v>
@@ -17452,10 +17449,10 @@
         <v>0</v>
       </c>
       <c r="Y152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA152">
         <v>130000</v>
@@ -17488,12 +17485,12 @@
         <v>1</v>
       </c>
       <c r="AM152" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B153">
         <v>720000</v>
@@ -17556,10 +17553,10 @@
         <v>0</v>
       </c>
       <c r="Y153" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA153">
         <v>150000</v>
@@ -17592,12 +17589,12 @@
         <v>1</v>
       </c>
       <c r="AM153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B154">
         <v>750000</v>
@@ -17660,10 +17657,10 @@
         <v>0</v>
       </c>
       <c r="Y154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA154">
         <v>180000</v>
@@ -17696,12 +17693,12 @@
         <v>1</v>
       </c>
       <c r="AM154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B155">
         <v>775000</v>
@@ -17764,10 +17761,10 @@
         <v>0</v>
       </c>
       <c r="Y155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z155" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA155">
         <v>250000</v>
@@ -17800,12 +17797,12 @@
         <v>1</v>
       </c>
       <c r="AM155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B156">
         <v>800000</v>
@@ -17868,10 +17865,10 @@
         <v>0</v>
       </c>
       <c r="Y156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA156">
         <v>275000</v>
@@ -17904,12 +17901,12 @@
         <v>1</v>
       </c>
       <c r="AM156" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B157">
         <v>825000</v>
@@ -17972,10 +17969,10 @@
         <v>0</v>
       </c>
       <c r="Y157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA157">
         <v>300000</v>
@@ -18008,12 +18005,12 @@
         <v>1</v>
       </c>
       <c r="AM157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B158">
         <v>850000</v>
@@ -18076,10 +18073,10 @@
         <v>0</v>
       </c>
       <c r="Y158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA158">
         <v>345000</v>
@@ -18112,12 +18109,12 @@
         <v>1</v>
       </c>
       <c r="AM158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B159">
         <v>875000</v>
@@ -18180,10 +18177,10 @@
         <v>0</v>
       </c>
       <c r="Y159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA159">
         <v>368000</v>
@@ -18216,7 +18213,7 @@
         <v>1</v>
       </c>
       <c r="AM159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8C18E-24F0-214B-98C9-00161D21A8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>name</t>
   </si>
@@ -999,7 +983,10 @@
     <t>Queen of the Gloom Wings</t>
   </si>
   <si>
-    <t>Storm Gian</t>
+    <t>Storm Giant</t>
+  </si>
+  <si>
+    <t>Lifes Flail</t>
   </si>
   <si>
     <t>Fire Kin Elemental</t>
@@ -1047,9 +1034,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1060,37 +1052,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1380,46 +1363,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:AM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J83" workbookViewId="0">
-      <selection activeCell="O110" sqref="O110"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1567,16 +1564,16 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="K2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="L2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="M2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1621,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AF2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AG2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AH2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1677,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="K3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="M3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1728,19 +1725,19 @@
         <v>2</v>
       </c>
       <c r="AD3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AE3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AF3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AG3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AH3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1752,7 +1749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1832,19 +1829,19 @@
         <v>2</v>
       </c>
       <c r="AD4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AE4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AF4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AH4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1856,7 +1853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1936,19 +1933,19 @@
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AE5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AF5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1960,7 +1957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="AD6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AE6">
         <v>0.01</v>
@@ -2070,7 +2067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2643,16 +2640,16 @@
         <v>208</v>
       </c>
       <c r="J12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="K12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="M12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2697,16 +2694,16 @@
         <v>0.15</v>
       </c>
       <c r="AE12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AF12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AH12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2724,7 +2721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2932,7 +2929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3125,16 +3122,16 @@
         <v>0.36</v>
       </c>
       <c r="AE16">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AF16">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AG16">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AH16">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3152,7 +3149,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3256,7 +3253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -3547,16 +3544,16 @@
         <v>0.36</v>
       </c>
       <c r="AE20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AF20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AG20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AH20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -3568,7 +3565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -4094,7 +4091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -4614,13 +4611,13 @@
         <v>131</v>
       </c>
       <c r="AL30">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AM30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -4649,16 +4646,16 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="K31">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="L31">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="M31">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -4703,16 +4700,16 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AF31">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AG31">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AH31">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4724,7 +4721,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -4753,16 +4750,16 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="K32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="M32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -4804,19 +4801,19 @@
         <v>2</v>
       </c>
       <c r="AD32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AE32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AF32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AG32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AH32">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4828,7 +4825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -4908,19 +4905,19 @@
         <v>2</v>
       </c>
       <c r="AD33">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AE33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AF33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AH33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4932,7 +4929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -5012,19 +5009,19 @@
         <v>3</v>
       </c>
       <c r="AD34">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AE34">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AF34">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG34">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH34">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5036,7 +5033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>5</v>
       </c>
       <c r="AD35">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AE35">
         <v>0.01</v>
@@ -5140,7 +5137,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -5244,7 +5241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -5556,7 +5553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -5660,7 +5657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -5689,16 +5686,16 @@
         <v>208</v>
       </c>
       <c r="J41">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="K41">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L41">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="M41">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -5743,16 +5740,16 @@
         <v>0.15</v>
       </c>
       <c r="AE41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AF41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AH41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5764,7 +5761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -5868,7 +5865,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -5972,7 +5969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -6284,7 +6281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -6388,7 +6385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -6471,16 +6468,16 @@
         <v>0.36</v>
       </c>
       <c r="AE48">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AF48">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AG48">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AH48">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6492,7 +6489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -6596,7 +6593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -7024,7 +7021,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -7232,7 +7229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -7446,7 +7443,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -7945,16 +7942,16 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AF62">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AG62">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AH62">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -7966,7 +7963,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -8049,16 +8046,16 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AF63">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AG63">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AH63">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -8070,7 +8067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -8180,7 +8177,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -8299,7 +8296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -8403,10 +8400,13 @@
         <v>1</v>
       </c>
       <c r="AI66">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AJ66">
         <v>1</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>180</v>
       </c>
       <c r="AL66">
         <v>0.01</v>
@@ -8415,7 +8415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -8519,10 +8519,13 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AJ67">
         <v>1</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>180</v>
       </c>
       <c r="AL67">
         <v>0.01</v>
@@ -8531,7 +8534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
         <v>192</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="AI69">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AJ69">
         <v>1</v>
@@ -8757,7 +8760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="AI70">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AJ70">
         <v>1</v>
@@ -8870,7 +8873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -8979,11 +8982,17 @@
       <c r="AJ71">
         <v>1</v>
       </c>
+      <c r="AK71" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL71">
+        <v>0.2</v>
+      </c>
       <c r="AM71" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -9096,7 +9105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
         <v>205</v>
       </c>
@@ -9209,7 +9218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -9292,16 +9301,16 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AF74">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AG74">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AH74">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -9313,7 +9322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -9393,19 +9402,19 @@
         <v>2</v>
       </c>
       <c r="AD75">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AE75">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AF75">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AG75">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AH75">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -9417,7 +9426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -9497,19 +9506,19 @@
         <v>2</v>
       </c>
       <c r="AD76">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AE76">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AF76">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG76">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AH76">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -9521,7 +9530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -9601,19 +9610,19 @@
         <v>3</v>
       </c>
       <c r="AD77">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AE77">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AF77">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG77">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH77">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9625,7 +9634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -9705,7 +9714,7 @@
         <v>5</v>
       </c>
       <c r="AD78">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AE78">
         <v>0.01</v>
@@ -9729,7 +9738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
         <v>213</v>
       </c>
@@ -9833,7 +9842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -9937,7 +9946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
         <v>215</v>
       </c>
@@ -10041,7 +10050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
         <v>216</v>
       </c>
@@ -10151,7 +10160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -10255,7 +10264,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
         <v>218</v>
       </c>
@@ -10338,28 +10347,34 @@
         <v>0.15</v>
       </c>
       <c r="AE84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AF84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AH84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AI84">
         <v>0</v>
       </c>
       <c r="AJ84">
         <v>1</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL84">
+        <v>0.01</v>
       </c>
       <c r="AM84" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -10463,7 +10478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -10567,7 +10582,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
         <v>221</v>
       </c>
@@ -10671,7 +10686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
         <v>222</v>
       </c>
@@ -10775,7 +10790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -10879,7 +10894,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
         <v>224</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
         <v>225</v>
       </c>
@@ -11087,7 +11102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -11191,7 +11206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
         <v>227</v>
       </c>
@@ -11295,7 +11310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
         <v>228</v>
       </c>
@@ -11399,7 +11414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -11503,7 +11518,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
         <v>230</v>
       </c>
@@ -11607,7 +11622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
         <v>231</v>
       </c>
@@ -11711,7 +11726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
         <v>232</v>
       </c>
@@ -11815,7 +11830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -11919,7 +11934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
         <v>234</v>
       </c>
@@ -12023,7 +12038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
         <v>235</v>
       </c>
@@ -12127,7 +12142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
         <v>236</v>
       </c>
@@ -12231,7 +12246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -12335,7 +12350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
         <v>238</v>
       </c>
@@ -12418,16 +12433,16 @@
         <v>1</v>
       </c>
       <c r="AE104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AF104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AG104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AH104">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -12439,7 +12454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
         <v>239</v>
       </c>
@@ -12522,16 +12537,16 @@
         <v>1</v>
       </c>
       <c r="AE105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AF105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AG105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AH105">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AI105">
         <v>0</v>
@@ -12543,7 +12558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -12647,7 +12662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -12760,7 +12775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -12873,7 +12888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -12986,7 +13001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -13099,7 +13114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -13212,7 +13227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -13316,7 +13331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
         <v>259</v>
       </c>
@@ -13420,7 +13435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -13524,7 +13539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
         <v>265</v>
       </c>
@@ -13628,7 +13643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
         <v>268</v>
       </c>
@@ -13732,7 +13747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
         <v>271</v>
       </c>
@@ -13836,7 +13851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
         <v>274</v>
       </c>
@@ -13919,16 +13934,16 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF118">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG118">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AH118">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AI118">
         <v>0.1</v>
@@ -13940,7 +13955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
         <v>277</v>
       </c>
@@ -14044,7 +14059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -14148,7 +14163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
         <v>283</v>
       </c>
@@ -14252,7 +14267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
         <v>286</v>
       </c>
@@ -14356,7 +14371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -14460,7 +14475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
         <v>291</v>
       </c>
@@ -14564,7 +14579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
         <v>294</v>
       </c>
@@ -14668,7 +14683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
         <v>297</v>
       </c>
@@ -14772,7 +14787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -14876,7 +14891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
         <v>302</v>
       </c>
@@ -14980,7 +14995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
         <v>303</v>
       </c>
@@ -15084,7 +15099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
         <v>304</v>
       </c>
@@ -15188,7 +15203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
         <v>305</v>
       </c>
@@ -15292,7 +15307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
         <v>306</v>
       </c>
@@ -15396,7 +15411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
         <v>307</v>
       </c>
@@ -15500,7 +15515,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -15583,16 +15598,16 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF134">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG134">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AH134">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AI134">
         <v>0.1</v>
@@ -15604,7 +15619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
         <v>309</v>
       </c>
@@ -15708,7 +15723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
         <v>310</v>
       </c>
@@ -15812,7 +15827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
         <v>311</v>
       </c>
@@ -15916,7 +15931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
         <v>312</v>
       </c>
@@ -16020,7 +16035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
         <v>313</v>
       </c>
@@ -16124,7 +16139,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
         <v>314</v>
       </c>
@@ -16228,7 +16243,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
         <v>315</v>
       </c>
@@ -16332,7 +16347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
         <v>316</v>
       </c>
@@ -16436,7 +16451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -16540,7 +16555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
         <v>318</v>
       </c>
@@ -16644,7 +16659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
         <v>319</v>
       </c>
@@ -16748,7 +16763,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
         <v>320</v>
       </c>
@@ -16852,7 +16867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
         <v>321</v>
       </c>
@@ -16956,7 +16971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
         <v>322</v>
       </c>
@@ -17056,13 +17071,19 @@
       <c r="AJ148">
         <v>1</v>
       </c>
+      <c r="AK148" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL148">
+        <v>0.001</v>
+      </c>
       <c r="AM148" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B149">
         <v>500000</v>
@@ -17164,9 +17185,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B150">
         <v>560000</v>
@@ -17247,16 +17268,16 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF150">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AG150">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AH150">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AI150">
         <v>0.1</v>
@@ -17268,9 +17289,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B151">
         <v>600000</v>
@@ -17372,9 +17393,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B152">
         <v>670000</v>
@@ -17476,9 +17497,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B153">
         <v>720000</v>
@@ -17580,9 +17601,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B154">
         <v>750000</v>
@@ -17684,9 +17705,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B155">
         <v>775000</v>
@@ -17788,9 +17809,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B156">
         <v>800000</v>
@@ -17892,9 +17913,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B157">
         <v>825000</v>
@@ -17960,7 +17981,7 @@
         <v>295</v>
       </c>
       <c r="Z157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA157">
         <v>300000</v>
@@ -17996,9 +18017,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B158">
         <v>850000</v>
@@ -18064,7 +18085,7 @@
         <v>298</v>
       </c>
       <c r="Z158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA158">
         <v>345000</v>
@@ -18100,9 +18121,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B159">
         <v>875000</v>
@@ -18168,7 +18189,7 @@
         <v>206</v>
       </c>
       <c r="Z159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA159">
         <v>368000</v>
@@ -18205,8 +18226,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>name</t>
   </si>
@@ -392,6 +392,9 @@
     <t>90000-100000</t>
   </si>
   <si>
+    <t>Grain of sand</t>
+  </si>
+  <si>
     <t>Jester Of Beleth</t>
   </si>
   <si>
@@ -1029,6 +1032,15 @@
   </si>
   <si>
     <t>14300000-15000000</t>
+  </si>
+  <si>
+    <t>Shadowy Demonic Child</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Shadow Plane</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1379,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM159"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1425,7 @@
     <col min="36" max="36" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -4399,13 +4411,19 @@
       <c r="AJ28">
         <v>1</v>
       </c>
+      <c r="AK28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL28">
+        <v>0.001</v>
+      </c>
       <c r="AM28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29">
         <v>50000</v>
@@ -4468,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA29">
         <v>40000</v>
@@ -4509,7 +4527,7 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30">
         <v>65000</v>
@@ -4572,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA30">
         <v>50000</v>
@@ -4608,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="AK30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL30">
         <v>0.001</v>
@@ -4619,7 +4637,7 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4718,12 +4736,12 @@
         <v>1</v>
       </c>
       <c r="AM31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -4822,12 +4840,12 @@
         <v>1</v>
       </c>
       <c r="AM32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -4926,12 +4944,12 @@
         <v>1</v>
       </c>
       <c r="AM33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -5030,12 +5048,12 @@
         <v>1</v>
       </c>
       <c r="AM34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -5134,12 +5152,12 @@
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -5238,12 +5256,12 @@
         <v>1</v>
       </c>
       <c r="AM36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37">
         <v>48</v>
@@ -5342,12 +5360,12 @@
         <v>1</v>
       </c>
       <c r="AM37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -5446,12 +5464,12 @@
         <v>1</v>
       </c>
       <c r="AM38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>96</v>
@@ -5550,12 +5568,12 @@
         <v>1</v>
       </c>
       <c r="AM39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40">
         <v>145</v>
@@ -5654,12 +5672,12 @@
         <v>1</v>
       </c>
       <c r="AM40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41">
         <v>208</v>
@@ -5758,12 +5776,12 @@
         <v>1</v>
       </c>
       <c r="AM41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42">
         <v>600</v>
@@ -5862,12 +5880,12 @@
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -5966,12 +5984,12 @@
         <v>1</v>
       </c>
       <c r="AM43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44">
         <v>2300</v>
@@ -6070,12 +6088,12 @@
         <v>1</v>
       </c>
       <c r="AM44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45">
         <v>2500</v>
@@ -6138,10 +6156,10 @@
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA45">
         <v>60</v>
@@ -6174,12 +6192,12 @@
         <v>1</v>
       </c>
       <c r="AM45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>5000</v>
@@ -6278,12 +6296,12 @@
         <v>1</v>
       </c>
       <c r="AM46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47">
         <v>8000</v>
@@ -6382,12 +6400,12 @@
         <v>1</v>
       </c>
       <c r="AM47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>12000</v>
@@ -6486,12 +6504,12 @@
         <v>1</v>
       </c>
       <c r="AM48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49">
         <v>14000</v>
@@ -6590,12 +6608,12 @@
         <v>1</v>
       </c>
       <c r="AM49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>18000</v>
@@ -6694,18 +6712,18 @@
         <v>1</v>
       </c>
       <c r="AK50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL50">
         <v>0.01</v>
       </c>
       <c r="AM50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>24000</v>
@@ -6804,12 +6822,12 @@
         <v>1</v>
       </c>
       <c r="AM51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>28000</v>
@@ -6908,12 +6926,12 @@
         <v>1</v>
       </c>
       <c r="AM52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53">
         <v>32000</v>
@@ -7018,12 +7036,12 @@
         <v>0.15</v>
       </c>
       <c r="AM53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>38000</v>
@@ -7122,12 +7140,12 @@
         <v>1</v>
       </c>
       <c r="AM54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55">
         <v>40000</v>
@@ -7226,12 +7244,12 @@
         <v>1</v>
       </c>
       <c r="AM55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B56">
         <v>44000</v>
@@ -7336,12 +7354,12 @@
         <v>0.15</v>
       </c>
       <c r="AM56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57">
         <v>45000</v>
@@ -7440,12 +7458,12 @@
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58">
         <v>50000</v>
@@ -7508,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="Y58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA58">
         <v>50000</v>
@@ -7544,12 +7562,12 @@
         <v>1</v>
       </c>
       <c r="AM58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B59">
         <v>65000</v>
@@ -7612,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="Y59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA59">
         <v>60000</v>
@@ -7648,12 +7666,12 @@
         <v>1</v>
       </c>
       <c r="AM59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60">
         <v>68000</v>
@@ -7716,10 +7734,10 @@
         <v>0</v>
       </c>
       <c r="Y60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA60">
         <v>75000</v>
@@ -7752,12 +7770,12 @@
         <v>1</v>
       </c>
       <c r="AM60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B61">
         <v>70000</v>
@@ -7820,10 +7838,10 @@
         <v>0</v>
       </c>
       <c r="Y61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA61">
         <v>100000</v>
@@ -7856,12 +7874,12 @@
         <v>1</v>
       </c>
       <c r="AM61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B62">
         <v>80000</v>
@@ -7924,10 +7942,10 @@
         <v>0</v>
       </c>
       <c r="Y62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA62">
         <v>120000</v>
@@ -7960,12 +7978,12 @@
         <v>1</v>
       </c>
       <c r="AM62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B63">
         <v>90000</v>
@@ -8028,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="Y63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA63">
         <v>130000</v>
@@ -8064,12 +8082,12 @@
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64">
         <v>100000</v>
@@ -8132,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="Y64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA64">
         <v>150000</v>
@@ -8168,18 +8186,18 @@
         <v>1</v>
       </c>
       <c r="AK64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL64">
         <v>0.01</v>
       </c>
       <c r="AM64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>200000</v>
@@ -8251,10 +8269,10 @@
         <v>8</v>
       </c>
       <c r="Y65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA65">
         <v>400000</v>
@@ -8287,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="AK65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL65">
         <v>0.25</v>
@@ -8298,7 +8316,7 @@
     </row>
     <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B66">
         <v>300000</v>
@@ -8370,10 +8388,10 @@
         <v>10</v>
       </c>
       <c r="Y66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA66">
         <v>450000</v>
@@ -8406,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="AK66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL66">
         <v>0.01</v>
@@ -8417,7 +8435,7 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B67">
         <v>500000</v>
@@ -8489,10 +8507,10 @@
         <v>16</v>
       </c>
       <c r="Y67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA67">
         <v>500000</v>
@@ -8525,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="AK67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL67">
         <v>0.01</v>
@@ -8536,7 +8554,7 @@
     </row>
     <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>600000</v>
@@ -8608,10 +8626,10 @@
         <v>24</v>
       </c>
       <c r="Y68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA68">
         <v>600000</v>
@@ -8649,7 +8667,7 @@
     </row>
     <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B69">
         <v>750000</v>
@@ -8721,10 +8739,10 @@
         <v>36</v>
       </c>
       <c r="Y69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA69">
         <v>1000000</v>
@@ -8757,12 +8775,12 @@
         <v>1</v>
       </c>
       <c r="AM69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <v>800000</v>
@@ -8834,10 +8852,10 @@
         <v>16</v>
       </c>
       <c r="Y70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA70">
         <v>2000000</v>
@@ -8870,12 +8888,12 @@
         <v>1</v>
       </c>
       <c r="AM70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71">
         <v>950000</v>
@@ -8947,10 +8965,10 @@
         <v>24</v>
       </c>
       <c r="Y71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA71">
         <v>3000000</v>
@@ -8983,18 +9001,18 @@
         <v>1</v>
       </c>
       <c r="AK71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL71">
         <v>0.2</v>
       </c>
       <c r="AM71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B72">
         <v>1000000</v>
@@ -9066,10 +9084,10 @@
         <v>28</v>
       </c>
       <c r="Y72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA72">
         <v>4000000</v>
@@ -9102,12 +9120,12 @@
         <v>1</v>
       </c>
       <c r="AM72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B73">
         <v>2000000</v>
@@ -9179,10 +9197,10 @@
         <v>32</v>
       </c>
       <c r="Y73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA73">
         <v>5000000</v>
@@ -9215,12 +9233,12 @@
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -9324,7 +9342,7 @@
     </row>
     <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -9428,7 +9446,7 @@
     </row>
     <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -9532,7 +9550,7 @@
     </row>
     <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -9636,7 +9654,7 @@
     </row>
     <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>24</v>
@@ -9740,7 +9758,7 @@
     </row>
     <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B79">
         <v>30</v>
@@ -9844,7 +9862,7 @@
     </row>
     <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B80">
         <v>48</v>
@@ -9948,7 +9966,7 @@
     </row>
     <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B81">
         <v>50</v>
@@ -10052,7 +10070,7 @@
     </row>
     <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <v>96</v>
@@ -10151,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="AK82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL82">
         <v>0.1</v>
@@ -10162,7 +10180,7 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B83">
         <v>145</v>
@@ -10266,7 +10284,7 @@
     </row>
     <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B84">
         <v>208</v>
@@ -10365,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="AK84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL84">
         <v>0.01</v>
@@ -10376,7 +10394,7 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85">
         <v>600</v>
@@ -10480,7 +10498,7 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B86">
         <v>1000</v>
@@ -10584,7 +10602,7 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87">
         <v>2300</v>
@@ -10688,7 +10706,7 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88">
         <v>2500</v>
@@ -10751,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="Y88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z88" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA88">
         <v>60</v>
@@ -10792,7 +10810,7 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B89">
         <v>5000</v>
@@ -10896,7 +10914,7 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B90">
         <v>8000</v>
@@ -11000,7 +11018,7 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B91">
         <v>14000</v>
@@ -11104,7 +11122,7 @@
     </row>
     <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B92">
         <v>18000</v>
@@ -11208,7 +11226,7 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B93">
         <v>24000</v>
@@ -11312,7 +11330,7 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B94">
         <v>28000</v>
@@ -11416,7 +11434,7 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95">
         <v>32000</v>
@@ -11520,7 +11538,7 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96">
         <v>38000</v>
@@ -11624,7 +11642,7 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -11728,7 +11746,7 @@
     </row>
     <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B98">
         <v>44000</v>
@@ -11832,7 +11850,7 @@
     </row>
     <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B99">
         <v>45000</v>
@@ -11936,7 +11954,7 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B100">
         <v>50000</v>
@@ -11999,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="Y100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA100">
         <v>50000</v>
@@ -12033,6 +12051,12 @@
       </c>
       <c r="AJ100">
         <v>1</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL100">
+        <v>0.01</v>
       </c>
       <c r="AM100" t="s">
         <v>89</v>
@@ -12040,7 +12064,7 @@
     </row>
     <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B101">
         <v>65000</v>
@@ -12103,10 +12127,10 @@
         <v>0</v>
       </c>
       <c r="Y101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA101">
         <v>60000</v>
@@ -12144,7 +12168,7 @@
     </row>
     <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102">
         <v>68000</v>
@@ -12207,10 +12231,10 @@
         <v>0</v>
       </c>
       <c r="Y102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA102">
         <v>75000</v>
@@ -12248,7 +12272,7 @@
     </row>
     <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103">
         <v>70000</v>
@@ -12311,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="Y103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA103">
         <v>100000</v>
@@ -12352,7 +12376,7 @@
     </row>
     <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104">
         <v>80000</v>
@@ -12415,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="Y104" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA104">
         <v>120000</v>
@@ -12456,7 +12480,7 @@
     </row>
     <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B105">
         <v>90000</v>
@@ -12519,10 +12543,10 @@
         <v>0</v>
       </c>
       <c r="Y105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA105">
         <v>130000</v>
@@ -12560,7 +12584,7 @@
     </row>
     <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B106">
         <v>100000</v>
@@ -12623,10 +12647,10 @@
         <v>0</v>
       </c>
       <c r="Y106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA106">
         <v>150000</v>
@@ -12664,7 +12688,7 @@
     </row>
     <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107">
         <v>3000000</v>
@@ -12736,10 +12760,10 @@
         <v>40</v>
       </c>
       <c r="Y107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA107">
         <v>1000000</v>
@@ -12777,7 +12801,7 @@
     </row>
     <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B108">
         <v>4000000</v>
@@ -12849,10 +12873,10 @@
         <v>45</v>
       </c>
       <c r="Y108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA108">
         <v>2000000</v>
@@ -12890,7 +12914,7 @@
     </row>
     <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B109">
         <v>5000000</v>
@@ -12962,10 +12986,10 @@
         <v>50</v>
       </c>
       <c r="Y109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA109">
         <v>3000000</v>
@@ -13003,7 +13027,7 @@
     </row>
     <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B110">
         <v>10000000</v>
@@ -13075,10 +13099,10 @@
         <v>75</v>
       </c>
       <c r="Y110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA110">
         <v>4000000</v>
@@ -13116,7 +13140,7 @@
     </row>
     <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B111">
         <v>20000000</v>
@@ -13188,10 +13212,10 @@
         <v>100</v>
       </c>
       <c r="Y111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA111">
         <v>5000000</v>
@@ -13229,7 +13253,7 @@
     </row>
     <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B112">
         <v>80000</v>
@@ -13292,10 +13316,10 @@
         <v>0</v>
       </c>
       <c r="Y112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA112">
         <v>10000</v>
@@ -13333,7 +13357,7 @@
     </row>
     <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B113">
         <v>120000</v>
@@ -13396,10 +13420,10 @@
         <v>0</v>
       </c>
       <c r="Y113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA113">
         <v>15000</v>
@@ -13437,7 +13461,7 @@
     </row>
     <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B114">
         <v>130000</v>
@@ -13500,10 +13524,10 @@
         <v>0</v>
       </c>
       <c r="Y114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA114">
         <v>30000</v>
@@ -13541,7 +13565,7 @@
     </row>
     <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B115">
         <v>150000</v>
@@ -13604,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="Y115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA115">
         <v>50000</v>
@@ -13645,7 +13669,7 @@
     </row>
     <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B116">
         <v>180000</v>
@@ -13708,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="Y116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA116">
         <v>60000</v>
@@ -13749,7 +13773,7 @@
     </row>
     <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B117">
         <v>220000</v>
@@ -13812,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="Y117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA117">
         <v>75000</v>
@@ -13853,7 +13877,7 @@
     </row>
     <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B118">
         <v>250000</v>
@@ -13916,10 +13940,10 @@
         <v>0</v>
       </c>
       <c r="Y118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA118">
         <v>100000</v>
@@ -13957,7 +13981,7 @@
     </row>
     <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B119">
         <v>280000</v>
@@ -14020,10 +14044,10 @@
         <v>0</v>
       </c>
       <c r="Y119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA119">
         <v>110000</v>
@@ -14061,7 +14085,7 @@
     </row>
     <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B120">
         <v>290000</v>
@@ -14124,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="Y120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA120">
         <v>130000</v>
@@ -14165,7 +14189,7 @@
     </row>
     <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B121">
         <v>340000</v>
@@ -14228,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="Y121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA121">
         <v>150000</v>
@@ -14269,7 +14293,7 @@
     </row>
     <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B122">
         <v>350000</v>
@@ -14332,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="Y122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z122" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA122">
         <v>180000</v>
@@ -14373,7 +14397,7 @@
     </row>
     <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B123">
         <v>400000</v>
@@ -14436,10 +14460,10 @@
         <v>0</v>
       </c>
       <c r="Y123" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA123">
         <v>250000</v>
@@ -14477,7 +14501,7 @@
     </row>
     <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B124">
         <v>420000</v>
@@ -14540,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="Y124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z124" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA124">
         <v>275000</v>
@@ -14581,7 +14605,7 @@
     </row>
     <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B125">
         <v>450000</v>
@@ -14644,10 +14668,10 @@
         <v>0</v>
       </c>
       <c r="Y125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA125">
         <v>300000</v>
@@ -14685,7 +14709,7 @@
     </row>
     <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B126">
         <v>475000</v>
@@ -14748,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="Y126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA126">
         <v>345000</v>
@@ -14789,7 +14813,7 @@
     </row>
     <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B127">
         <v>490000</v>
@@ -14852,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="Y127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA127">
         <v>368000</v>
@@ -14893,7 +14917,7 @@
     </row>
     <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B128">
         <v>250000</v>
@@ -14956,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="Y128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA128">
         <v>10000</v>
@@ -14992,12 +15016,12 @@
         <v>1</v>
       </c>
       <c r="AM128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B129">
         <v>300000</v>
@@ -15060,10 +15084,10 @@
         <v>0</v>
       </c>
       <c r="Y129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA129">
         <v>15000</v>
@@ -15096,12 +15120,12 @@
         <v>1</v>
       </c>
       <c r="AM129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B130">
         <v>325000</v>
@@ -15164,10 +15188,10 @@
         <v>0</v>
       </c>
       <c r="Y130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA130">
         <v>30000</v>
@@ -15200,12 +15224,12 @@
         <v>1</v>
       </c>
       <c r="AM130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B131">
         <v>450000</v>
@@ -15268,10 +15292,10 @@
         <v>0</v>
       </c>
       <c r="Y131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA131">
         <v>50000</v>
@@ -15304,12 +15328,12 @@
         <v>1</v>
       </c>
       <c r="AM131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B132">
         <v>475000</v>
@@ -15372,10 +15396,10 @@
         <v>0</v>
       </c>
       <c r="Y132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z132" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA132">
         <v>60000</v>
@@ -15408,12 +15432,12 @@
         <v>1</v>
       </c>
       <c r="AM132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B133">
         <v>500000</v>
@@ -15476,10 +15500,10 @@
         <v>0</v>
       </c>
       <c r="Y133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA133">
         <v>75000</v>
@@ -15512,12 +15536,12 @@
         <v>1</v>
       </c>
       <c r="AM133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B134">
         <v>560000</v>
@@ -15580,10 +15604,10 @@
         <v>0</v>
       </c>
       <c r="Y134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA134">
         <v>100000</v>
@@ -15616,12 +15640,12 @@
         <v>1</v>
       </c>
       <c r="AM134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B135">
         <v>600000</v>
@@ -15684,10 +15708,10 @@
         <v>0</v>
       </c>
       <c r="Y135" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA135">
         <v>110000</v>
@@ -15720,12 +15744,12 @@
         <v>1</v>
       </c>
       <c r="AM135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B136">
         <v>670000</v>
@@ -15788,10 +15812,10 @@
         <v>0</v>
       </c>
       <c r="Y136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA136">
         <v>130000</v>
@@ -15824,12 +15848,12 @@
         <v>1</v>
       </c>
       <c r="AM136" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B137">
         <v>720000</v>
@@ -15892,10 +15916,10 @@
         <v>0</v>
       </c>
       <c r="Y137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA137">
         <v>150000</v>
@@ -15928,12 +15952,12 @@
         <v>1</v>
       </c>
       <c r="AM137" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B138">
         <v>750000</v>
@@ -15996,10 +16020,10 @@
         <v>0</v>
       </c>
       <c r="Y138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA138">
         <v>180000</v>
@@ -16032,12 +16056,12 @@
         <v>1</v>
       </c>
       <c r="AM138" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B139">
         <v>775000</v>
@@ -16100,10 +16124,10 @@
         <v>0</v>
       </c>
       <c r="Y139" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA139">
         <v>250000</v>
@@ -16136,12 +16160,12 @@
         <v>1</v>
       </c>
       <c r="AM139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B140">
         <v>800000</v>
@@ -16204,10 +16228,10 @@
         <v>0</v>
       </c>
       <c r="Y140" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA140">
         <v>275000</v>
@@ -16240,12 +16264,12 @@
         <v>1</v>
       </c>
       <c r="AM140" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B141">
         <v>825000</v>
@@ -16308,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="Y141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z141" t="s">
         <v>124</v>
@@ -16344,12 +16368,12 @@
         <v>1</v>
       </c>
       <c r="AM141" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B142">
         <v>850000</v>
@@ -16412,10 +16436,10 @@
         <v>0</v>
       </c>
       <c r="Y142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA142">
         <v>345000</v>
@@ -16448,12 +16472,12 @@
         <v>1</v>
       </c>
       <c r="AM142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B143">
         <v>875000</v>
@@ -16516,10 +16540,10 @@
         <v>0</v>
       </c>
       <c r="Y143" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z143" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA143">
         <v>368000</v>
@@ -16552,12 +16576,12 @@
         <v>1</v>
       </c>
       <c r="AM143" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B144">
         <v>250000</v>
@@ -16620,10 +16644,10 @@
         <v>0</v>
       </c>
       <c r="Y144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA144">
         <v>10000</v>
@@ -16661,7 +16685,7 @@
     </row>
     <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B145">
         <v>300000</v>
@@ -16724,10 +16748,10 @@
         <v>0</v>
       </c>
       <c r="Y145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA145">
         <v>15000</v>
@@ -16765,7 +16789,7 @@
     </row>
     <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B146">
         <v>325000</v>
@@ -16828,10 +16852,10 @@
         <v>0</v>
       </c>
       <c r="Y146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA146">
         <v>30000</v>
@@ -16869,7 +16893,7 @@
     </row>
     <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B147">
         <v>450000</v>
@@ -16932,10 +16956,10 @@
         <v>0</v>
       </c>
       <c r="Y147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA147">
         <v>50000</v>
@@ -16973,7 +16997,7 @@
     </row>
     <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B148">
         <v>475000</v>
@@ -17036,10 +17060,10 @@
         <v>0</v>
       </c>
       <c r="Y148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA148">
         <v>60000</v>
@@ -17072,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="AK148" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL148">
         <v>0.001</v>
@@ -17083,7 +17107,7 @@
     </row>
     <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B149">
         <v>500000</v>
@@ -17146,10 +17170,10 @@
         <v>0</v>
       </c>
       <c r="Y149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA149">
         <v>75000</v>
@@ -17187,7 +17211,7 @@
     </row>
     <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B150">
         <v>560000</v>
@@ -17250,10 +17274,10 @@
         <v>0</v>
       </c>
       <c r="Y150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z150" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA150">
         <v>100000</v>
@@ -17291,7 +17315,7 @@
     </row>
     <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B151">
         <v>600000</v>
@@ -17354,10 +17378,10 @@
         <v>0</v>
       </c>
       <c r="Y151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA151">
         <v>110000</v>
@@ -17395,7 +17419,7 @@
     </row>
     <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B152">
         <v>670000</v>
@@ -17458,10 +17482,10 @@
         <v>0</v>
       </c>
       <c r="Y152" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA152">
         <v>130000</v>
@@ -17499,7 +17523,7 @@
     </row>
     <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B153">
         <v>720000</v>
@@ -17562,10 +17586,10 @@
         <v>0</v>
       </c>
       <c r="Y153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA153">
         <v>150000</v>
@@ -17603,7 +17627,7 @@
     </row>
     <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B154">
         <v>750000</v>
@@ -17666,10 +17690,10 @@
         <v>0</v>
       </c>
       <c r="Y154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA154">
         <v>180000</v>
@@ -17707,7 +17731,7 @@
     </row>
     <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B155">
         <v>775000</v>
@@ -17770,10 +17794,10 @@
         <v>0</v>
       </c>
       <c r="Y155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA155">
         <v>250000</v>
@@ -17811,7 +17835,7 @@
     </row>
     <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B156">
         <v>800000</v>
@@ -17874,10 +17898,10 @@
         <v>0</v>
       </c>
       <c r="Y156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA156">
         <v>275000</v>
@@ -17915,7 +17939,7 @@
     </row>
     <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B157">
         <v>825000</v>
@@ -17978,10 +18002,10 @@
         <v>0</v>
       </c>
       <c r="Y157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA157">
         <v>300000</v>
@@ -18019,7 +18043,7 @@
     </row>
     <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B158">
         <v>850000</v>
@@ -18082,10 +18106,10 @@
         <v>0</v>
       </c>
       <c r="Y158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA158">
         <v>345000</v>
@@ -18123,7 +18147,7 @@
     </row>
     <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B159">
         <v>875000</v>
@@ -18186,10 +18210,10 @@
         <v>0</v>
       </c>
       <c r="Y159" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z159" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA159">
         <v>368000</v>
@@ -18223,6 +18247,113 @@
       </c>
       <c r="AM159" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39">
+      <c r="A160" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>0.05</v>
+      </c>
+      <c r="K160">
+        <v>0.05</v>
+      </c>
+      <c r="L160">
+        <v>0.05</v>
+      </c>
+      <c r="M160">
+        <v>0.05</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160">
+        <v>10</v>
+      </c>
+      <c r="T160" t="s">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
+      <c r="V160">
+        <v>0.1</v>
+      </c>
+      <c r="W160">
+        <v>1</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA160">
+        <v>10</v>
+      </c>
+      <c r="AB160">
+        <v>10</v>
+      </c>
+      <c r="AC160">
+        <v>10</v>
+      </c>
+      <c r="AD160">
+        <v>0.02</v>
+      </c>
+      <c r="AE160">
+        <v>0.1</v>
+      </c>
+      <c r="AF160">
+        <v>0.1</v>
+      </c>
+      <c r="AG160">
+        <v>0.1</v>
+      </c>
+      <c r="AH160">
+        <v>0.01</v>
+      </c>
+      <c r="AJ160">
+        <v>1</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2FC40A-EEC6-6D46-B9BF-6A02860B591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="390">
   <si>
     <t>name</t>
   </si>
@@ -1037,23 +1053,162 @@
     <t>Shadowy Demonic Child</t>
   </si>
   <si>
-    <t>1-10</t>
-  </si>
-  <si>
     <t>Shadow Plane</t>
+  </si>
+  <si>
+    <t>Shadowy Witch</t>
+  </si>
+  <si>
+    <t>Deprived Vampire</t>
+  </si>
+  <si>
+    <t>Lifeless Mage</t>
+  </si>
+  <si>
+    <t>Hated Wench</t>
+  </si>
+  <si>
+    <t>Flaming Floating Skull</t>
+  </si>
+  <si>
+    <t>Raging Centaur</t>
+  </si>
+  <si>
+    <t>Shadow Lord</t>
+  </si>
+  <si>
+    <t>Mage of Indalix</t>
+  </si>
+  <si>
+    <t>Grey Priest</t>
+  </si>
+  <si>
+    <t>Souless Mother</t>
+  </si>
+  <si>
+    <t>Lonley Banshee</t>
+  </si>
+  <si>
+    <t>Hells Sucubus</t>
+  </si>
+  <si>
+    <t>Skeleton Lord of the Bones</t>
+  </si>
+  <si>
+    <t>Posessed Armour</t>
+  </si>
+  <si>
+    <t>Shadow Bandit</t>
+  </si>
+  <si>
+    <t>King of the Smithies</t>
+  </si>
+  <si>
+    <t>Armoured Hell Lord</t>
+  </si>
+  <si>
+    <t>Hated Red Witch</t>
+  </si>
+  <si>
+    <t>Baby Shadow Dragon</t>
+  </si>
+  <si>
+    <t>Bugbear of Hinterlands</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>Souless Witch of the Shadow Lands</t>
+  </si>
+  <si>
+    <t>Shadow Hunter</t>
+  </si>
+  <si>
+    <t>Winged Ancient</t>
+  </si>
+  <si>
+    <t>Celestial Shadow Beast</t>
+  </si>
+  <si>
+    <t>Raging Elemental Golem</t>
+  </si>
+  <si>
+    <t>Bandit Lord of Hell</t>
+  </si>
+  <si>
+    <t>Posessed Shadow Mephit</t>
+  </si>
+  <si>
+    <t>Clock Work Dragon</t>
+  </si>
+  <si>
+    <t>Spector of Death</t>
+  </si>
+  <si>
+    <t>Shadow Tarrasque</t>
+  </si>
+  <si>
+    <t>Dream Creeper</t>
+  </si>
+  <si>
+    <t>Ancient Shadow Dragon</t>
+  </si>
+  <si>
+    <t>Elder Magician</t>
+  </si>
+  <si>
+    <t>Demonic Shadow Critter</t>
+  </si>
+  <si>
+    <t>Devouring Mouth</t>
+  </si>
+  <si>
+    <t>Hated Ephinany</t>
+  </si>
+  <si>
+    <t>Lady of the Beast</t>
+  </si>
+  <si>
+    <t>Candle Stick of Ice</t>
+  </si>
+  <si>
+    <t>Water Goddess</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Balrog</t>
+  </si>
+  <si>
+    <t>Shadow Balrog</t>
+  </si>
+  <si>
+    <t>Citizen of Shadow Plane</t>
+  </si>
+  <si>
+    <t>Demonic Summoning</t>
+  </si>
+  <si>
+    <t>Gate Keeper</t>
+  </si>
+  <si>
+    <t>Time Keeper</t>
+  </si>
+  <si>
+    <t>Winged Voided Baby</t>
+  </si>
+  <si>
+    <t>The Keeper of the Shadows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1064,28 +1219,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1375,60 +1539,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AM160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="AK64" sqref="AK64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="26" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1576,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1630,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1657,7 +1807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1686,16 +1836,16 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1737,19 +1887,19 @@
         <v>2</v>
       </c>
       <c r="AD3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1761,7 +1911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1841,19 +1991,19 @@
         <v>2</v>
       </c>
       <c r="AD4">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1865,7 +2015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1945,19 +2095,19 @@
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1969,7 +2119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2049,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="AD6">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE6">
         <v>0.01</v>
@@ -2079,7 +2229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2189,7 +2339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2299,7 +2449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +2553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2513,7 +2663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2652,16 +2802,16 @@
         <v>208</v>
       </c>
       <c r="J12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2706,16 +2856,16 @@
         <v>0.15</v>
       </c>
       <c r="AE12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2733,7 +2883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2837,7 +2987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2941,7 +3091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3051,7 +3201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3134,16 +3284,16 @@
         <v>0.36</v>
       </c>
       <c r="AE16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3161,7 +3311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3265,7 +3415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -3369,7 +3519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -3473,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -3556,16 +3706,16 @@
         <v>0.36</v>
       </c>
       <c r="AE20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -3577,7 +3727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -3681,7 +3831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3785,7 +3935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3895,7 +4045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3999,7 +4149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -4103,7 +4253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -4207,7 +4357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -4311,7 +4461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -4415,13 +4565,13 @@
         <v>125</v>
       </c>
       <c r="AL28">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -4525,7 +4675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -4629,13 +4779,13 @@
         <v>132</v>
       </c>
       <c r="AL30">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -4664,16 +4814,16 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -4718,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4739,7 +4889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -4768,16 +4918,16 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -4819,19 +4969,19 @@
         <v>2</v>
       </c>
       <c r="AD32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4843,7 +4993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -4923,19 +5073,19 @@
         <v>2</v>
       </c>
       <c r="AD33">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4947,7 +5097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -5027,19 +5177,19 @@
         <v>3</v>
       </c>
       <c r="AD34">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5051,7 +5201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -5131,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="AD35">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE35">
         <v>0.01</v>
@@ -5155,7 +5305,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -5259,7 +5409,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -5363,7 +5513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -5467,7 +5617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -5571,7 +5721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -5675,7 +5825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -5704,16 +5854,16 @@
         <v>208</v>
       </c>
       <c r="J41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -5758,16 +5908,16 @@
         <v>0.15</v>
       </c>
       <c r="AE41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5779,7 +5929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -5883,7 +6033,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -5987,7 +6137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -6091,7 +6241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -6195,7 +6345,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -6299,7 +6449,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -6403,7 +6553,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -6486,16 +6636,16 @@
         <v>0.36</v>
       </c>
       <c r="AE48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6507,7 +6657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -6611,7 +6761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -6721,7 +6871,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -6825,7 +6975,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6929,7 +7079,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -7039,7 +7189,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -7143,7 +7293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -7247,7 +7397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -7357,7 +7507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -7461,7 +7611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -7565,7 +7715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -7669,7 +7819,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7773,7 +7923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -7877,7 +8027,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -7960,16 +8110,16 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -7981,7 +8131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -8064,16 +8214,16 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -8085,7 +8235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -8195,7 +8345,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -8314,7 +8464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -8418,22 +8568,16 @@
         <v>1</v>
       </c>
       <c r="AI66">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ66">
         <v>1</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL66">
-        <v>0.01</v>
       </c>
       <c r="AM66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -8537,22 +8681,16 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ67">
         <v>1</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL67">
-        <v>0.01</v>
       </c>
       <c r="AM67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -8665,7 +8803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -8769,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="AI69">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ69">
         <v>1</v>
@@ -8778,7 +8916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -8882,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AI70">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ70">
         <v>1</v>
@@ -8891,7 +9029,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -9000,17 +9138,11 @@
       <c r="AJ71">
         <v>1</v>
       </c>
-      <c r="AK71" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL71">
-        <v>0.2</v>
-      </c>
       <c r="AM71" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -9123,7 +9255,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -9236,7 +9368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -9319,16 +9451,16 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -9340,7 +9472,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -9420,19 +9552,19 @@
         <v>2</v>
       </c>
       <c r="AD75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -9444,7 +9576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>211</v>
       </c>
@@ -9524,19 +9656,19 @@
         <v>2</v>
       </c>
       <c r="AD76">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -9548,7 +9680,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>212</v>
       </c>
@@ -9628,19 +9760,19 @@
         <v>3</v>
       </c>
       <c r="AD77">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -9652,7 +9784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>213</v>
       </c>
@@ -9732,7 +9864,7 @@
         <v>5</v>
       </c>
       <c r="AD78">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE78">
         <v>0.01</v>
@@ -9756,7 +9888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -9860,7 +9992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>215</v>
       </c>
@@ -9964,7 +10096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -10068,7 +10200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -10178,7 +10310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -10282,7 +10414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -10365,34 +10497,28 @@
         <v>0.15</v>
       </c>
       <c r="AE84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI84">
         <v>0</v>
       </c>
       <c r="AJ84">
         <v>1</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL84">
-        <v>0.01</v>
       </c>
       <c r="AM84" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -10496,7 +10622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -10600,7 +10726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>222</v>
       </c>
@@ -10704,7 +10830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>223</v>
       </c>
@@ -10808,7 +10934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -10912,7 +11038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -11016,7 +11142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -11120,7 +11246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>227</v>
       </c>
@@ -11224,7 +11350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>228</v>
       </c>
@@ -11328,7 +11454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -11432,7 +11558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -11536,7 +11662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -11640,7 +11766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -11744,7 +11870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -11848,7 +11974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -11952,7 +12078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>235</v>
       </c>
@@ -12062,7 +12188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -12166,7 +12292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>237</v>
       </c>
@@ -12270,7 +12396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -12374,7 +12500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -12457,16 +12583,16 @@
         <v>1</v>
       </c>
       <c r="AE104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -12478,7 +12604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>240</v>
       </c>
@@ -12561,16 +12687,16 @@
         <v>1</v>
       </c>
       <c r="AE105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI105">
         <v>0</v>
@@ -12582,7 +12708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>241</v>
       </c>
@@ -12686,7 +12812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>242</v>
       </c>
@@ -12799,7 +12925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>245</v>
       </c>
@@ -12912,7 +13038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>248</v>
       </c>
@@ -13025,7 +13151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -13138,7 +13264,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>254</v>
       </c>
@@ -13251,7 +13377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -13355,7 +13481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>260</v>
       </c>
@@ -13459,7 +13585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>263</v>
       </c>
@@ -13563,7 +13689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -13667,7 +13793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>269</v>
       </c>
@@ -13771,7 +13897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>272</v>
       </c>
@@ -13875,7 +14001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>275</v>
       </c>
@@ -13958,16 +14084,16 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI118">
         <v>0.1</v>
@@ -13979,7 +14105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>278</v>
       </c>
@@ -14083,7 +14209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>281</v>
       </c>
@@ -14187,7 +14313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>284</v>
       </c>
@@ -14291,7 +14417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>287</v>
       </c>
@@ -14395,7 +14521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -14499,7 +14625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>292</v>
       </c>
@@ -14603,7 +14729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -14707,7 +14833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -14811,7 +14937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>301</v>
       </c>
@@ -14915,7 +15041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>303</v>
       </c>
@@ -15019,7 +15145,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -15123,7 +15249,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>305</v>
       </c>
@@ -15227,7 +15353,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>306</v>
       </c>
@@ -15331,7 +15457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>307</v>
       </c>
@@ -15435,7 +15561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>308</v>
       </c>
@@ -15539,7 +15665,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>309</v>
       </c>
@@ -15622,16 +15748,16 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI134">
         <v>0.1</v>
@@ -15643,7 +15769,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>310</v>
       </c>
@@ -15747,7 +15873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>311</v>
       </c>
@@ -15851,7 +15977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>312</v>
       </c>
@@ -15955,7 +16081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>313</v>
       </c>
@@ -16059,7 +16185,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>314</v>
       </c>
@@ -16163,7 +16289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>315</v>
       </c>
@@ -16267,7 +16393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>316</v>
       </c>
@@ -16371,7 +16497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>317</v>
       </c>
@@ -16475,7 +16601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>318</v>
       </c>
@@ -16579,7 +16705,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -16683,7 +16809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>320</v>
       </c>
@@ -16787,7 +16913,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>321</v>
       </c>
@@ -16891,7 +17017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>322</v>
       </c>
@@ -16995,7 +17121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>323</v>
       </c>
@@ -17099,13 +17225,13 @@
         <v>324</v>
       </c>
       <c r="AL148">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM148" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>325</v>
       </c>
@@ -17209,7 +17335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>326</v>
       </c>
@@ -17292,16 +17418,16 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI150">
         <v>0.1</v>
@@ -17313,7 +17439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>327</v>
       </c>
@@ -17417,7 +17543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>328</v>
       </c>
@@ -17521,7 +17647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -17625,7 +17751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>330</v>
       </c>
@@ -17729,7 +17855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>331</v>
       </c>
@@ -17833,7 +17959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -17937,7 +18063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>333</v>
       </c>
@@ -18041,7 +18167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>335</v>
       </c>
@@ -18145,7 +18271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>337</v>
       </c>
@@ -18249,125 +18375,5209 @@
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>339</v>
       </c>
       <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>8</v>
+      </c>
+      <c r="H160">
+        <v>8</v>
+      </c>
+      <c r="I160">
+        <v>8</v>
+      </c>
+      <c r="J160">
+        <v>1E-4</v>
+      </c>
+      <c r="K160">
+        <v>1E-4</v>
+      </c>
+      <c r="L160">
+        <v>1E-4</v>
+      </c>
+      <c r="M160">
+        <v>1E-4</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160">
+        <v>3</v>
+      </c>
+      <c r="T160" t="s">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>2</v>
+      </c>
+      <c r="V160">
+        <v>0.01</v>
+      </c>
+      <c r="W160">
         <v>10</v>
       </c>
-      <c r="C160">
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
+      <c r="AE160">
+        <v>1E-3</v>
+      </c>
+      <c r="AF160">
+        <v>1E-3</v>
+      </c>
+      <c r="AG160">
+        <v>1E-3</v>
+      </c>
+      <c r="AH160">
+        <v>1E-3</v>
+      </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>1</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>341</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>9</v>
+      </c>
+      <c r="H161">
+        <v>9</v>
+      </c>
+      <c r="I161">
+        <v>9</v>
+      </c>
+      <c r="J161">
+        <v>2E-3</v>
+      </c>
+      <c r="K161">
+        <v>2E-3</v>
+      </c>
+      <c r="L161">
+        <v>2E-3</v>
+      </c>
+      <c r="M161">
+        <v>2E-3</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161" t="s">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>0.02</v>
+      </c>
+      <c r="W161">
+        <v>25</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA161">
+        <v>2</v>
+      </c>
+      <c r="AB161">
+        <v>2</v>
+      </c>
+      <c r="AC161">
+        <v>2</v>
+      </c>
+      <c r="AD161">
+        <v>2E-3</v>
+      </c>
+      <c r="AE161">
+        <v>2E-3</v>
+      </c>
+      <c r="AF161">
+        <v>2E-3</v>
+      </c>
+      <c r="AG161">
+        <v>2E-3</v>
+      </c>
+      <c r="AH161">
+        <v>2E-3</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>1</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>11</v>
+      </c>
+      <c r="H162">
+        <v>11</v>
+      </c>
+      <c r="I162">
+        <v>11</v>
+      </c>
+      <c r="J162">
+        <v>0.05</v>
+      </c>
+      <c r="K162">
+        <v>0.05</v>
+      </c>
+      <c r="L162">
+        <v>0.05</v>
+      </c>
+      <c r="M162">
+        <v>0.05</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
+      </c>
+      <c r="T162" t="s">
+        <v>4</v>
+      </c>
+      <c r="U162">
+        <v>3</v>
+      </c>
+      <c r="V162">
+        <v>0.03</v>
+      </c>
+      <c r="W162">
+        <v>50</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA162">
+        <v>2</v>
+      </c>
+      <c r="AB162">
+        <v>2</v>
+      </c>
+      <c r="AC162">
+        <v>2</v>
+      </c>
+      <c r="AD162">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE162">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF162">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG162">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH162">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>1</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>343</v>
+      </c>
+      <c r="B163">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>16</v>
+      </c>
+      <c r="E163">
+        <v>16</v>
+      </c>
+      <c r="F163">
+        <v>16</v>
+      </c>
+      <c r="G163">
+        <v>16</v>
+      </c>
+      <c r="H163">
+        <v>16</v>
+      </c>
+      <c r="I163">
+        <v>16</v>
+      </c>
+      <c r="J163">
+        <v>0.08</v>
+      </c>
+      <c r="K163">
+        <v>0.08</v>
+      </c>
+      <c r="L163">
+        <v>0.08</v>
+      </c>
+      <c r="M163">
+        <v>0.08</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163">
+        <v>8</v>
+      </c>
+      <c r="T163" t="s">
+        <v>6</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163">
+        <v>0.03</v>
+      </c>
+      <c r="W163">
+        <v>30</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA163">
+        <v>3</v>
+      </c>
+      <c r="AB163">
+        <v>3</v>
+      </c>
+      <c r="AC163">
+        <v>3</v>
+      </c>
+      <c r="AD163">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE163">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF163">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG163">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AH163">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>1</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>24</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
+      </c>
+      <c r="F164">
+        <v>24</v>
+      </c>
+      <c r="G164">
+        <v>24</v>
+      </c>
+      <c r="H164">
+        <v>24</v>
+      </c>
+      <c r="I164">
+        <v>24</v>
+      </c>
+      <c r="J164">
+        <v>0.1</v>
+      </c>
+      <c r="K164">
+        <v>0.1</v>
+      </c>
+      <c r="L164">
+        <v>0.1</v>
+      </c>
+      <c r="M164">
+        <v>0.1</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="S164">
+        <v>14</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>0.03</v>
+      </c>
+      <c r="W164">
+        <v>40</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+      <c r="AB164">
+        <v>5</v>
+      </c>
+      <c r="AC164">
+        <v>5</v>
+      </c>
+      <c r="AD164">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE164">
+        <v>0.01</v>
+      </c>
+      <c r="AF164">
+        <v>0.01</v>
+      </c>
+      <c r="AG164">
+        <v>0.01</v>
+      </c>
+      <c r="AH164">
+        <v>0.01</v>
+      </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>1</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>345</v>
+      </c>
+      <c r="B165">
+        <v>30</v>
+      </c>
+      <c r="C165">
+        <v>30</v>
+      </c>
+      <c r="D165">
+        <v>30</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>30</v>
+      </c>
+      <c r="J165">
+        <v>0.12</v>
+      </c>
+      <c r="K165">
+        <v>0.12</v>
+      </c>
+      <c r="L165">
+        <v>0.12</v>
+      </c>
+      <c r="M165">
+        <v>0.12</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>25</v>
+      </c>
+      <c r="T165" t="s">
+        <v>5</v>
+      </c>
+      <c r="U165">
+        <v>4</v>
+      </c>
+      <c r="V165">
+        <v>0.05</v>
+      </c>
+      <c r="W165">
+        <v>75</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA165">
+        <v>8</v>
+      </c>
+      <c r="AB165">
+        <v>8</v>
+      </c>
+      <c r="AC165">
+        <v>8</v>
+      </c>
+      <c r="AD165">
+        <v>0.01</v>
+      </c>
+      <c r="AE165">
+        <v>0.02</v>
+      </c>
+      <c r="AF165">
+        <v>0.02</v>
+      </c>
+      <c r="AG165">
+        <v>0.02</v>
+      </c>
+      <c r="AH165">
+        <v>0.02</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>1</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166">
+        <v>48</v>
+      </c>
+      <c r="C166">
+        <v>48</v>
+      </c>
+      <c r="D166">
+        <v>48</v>
+      </c>
+      <c r="E166">
+        <v>48</v>
+      </c>
+      <c r="F166">
+        <v>48</v>
+      </c>
+      <c r="G166">
+        <v>48</v>
+      </c>
+      <c r="H166">
+        <v>48</v>
+      </c>
+      <c r="I166">
+        <v>48</v>
+      </c>
+      <c r="J166">
+        <v>0.15</v>
+      </c>
+      <c r="K166">
+        <v>0.15</v>
+      </c>
+      <c r="L166">
+        <v>0.15</v>
+      </c>
+      <c r="M166">
+        <v>0.15</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>40</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>4</v>
+      </c>
+      <c r="V166">
+        <v>0.1</v>
+      </c>
+      <c r="W166">
+        <v>80</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA166">
         <v>10</v>
       </c>
-      <c r="D160">
+      <c r="AB166">
         <v>10</v>
       </c>
-      <c r="E160">
+      <c r="AC166">
         <v>10</v>
       </c>
-      <c r="F160">
+      <c r="AD166">
+        <v>0.03</v>
+      </c>
+      <c r="AE166">
+        <v>0.03</v>
+      </c>
+      <c r="AF166">
+        <v>0.03</v>
+      </c>
+      <c r="AG166">
+        <v>0.03</v>
+      </c>
+      <c r="AH166">
+        <v>0.03</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>1</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>50</v>
+      </c>
+      <c r="D167">
+        <v>50</v>
+      </c>
+      <c r="E167">
+        <v>50</v>
+      </c>
+      <c r="F167">
+        <v>50</v>
+      </c>
+      <c r="G167">
+        <v>50</v>
+      </c>
+      <c r="H167">
+        <v>50</v>
+      </c>
+      <c r="I167">
+        <v>50</v>
+      </c>
+      <c r="J167">
+        <v>0.2</v>
+      </c>
+      <c r="K167">
+        <v>0.2</v>
+      </c>
+      <c r="L167">
+        <v>0.2</v>
+      </c>
+      <c r="M167">
+        <v>0.2</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+      <c r="S167">
+        <v>60</v>
+      </c>
+      <c r="T167" t="s">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>4</v>
+      </c>
+      <c r="V167">
+        <v>0.05</v>
+      </c>
+      <c r="W167">
+        <v>95</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA167">
+        <v>12</v>
+      </c>
+      <c r="AB167">
+        <v>12</v>
+      </c>
+      <c r="AC167">
+        <v>12</v>
+      </c>
+      <c r="AD167">
+        <v>0.05</v>
+      </c>
+      <c r="AE167">
+        <v>0.04</v>
+      </c>
+      <c r="AF167">
+        <v>0.04</v>
+      </c>
+      <c r="AG167">
+        <v>0.04</v>
+      </c>
+      <c r="AH167">
+        <v>0.04</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>1</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168">
+        <v>96</v>
+      </c>
+      <c r="C168">
+        <v>96</v>
+      </c>
+      <c r="D168">
+        <v>96</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>96</v>
+      </c>
+      <c r="G168">
+        <v>96</v>
+      </c>
+      <c r="H168">
+        <v>96</v>
+      </c>
+      <c r="I168">
+        <v>96</v>
+      </c>
+      <c r="J168">
+        <v>0.22</v>
+      </c>
+      <c r="K168">
+        <v>0.22</v>
+      </c>
+      <c r="L168">
+        <v>0.22</v>
+      </c>
+      <c r="M168">
+        <v>0.22</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>100</v>
+      </c>
+      <c r="T168" t="s">
+        <v>6</v>
+      </c>
+      <c r="U168">
+        <v>5</v>
+      </c>
+      <c r="V168">
+        <v>0.09</v>
+      </c>
+      <c r="W168">
+        <v>100</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA168">
+        <v>14</v>
+      </c>
+      <c r="AB168">
+        <v>14</v>
+      </c>
+      <c r="AC168">
+        <v>14</v>
+      </c>
+      <c r="AD168">
+        <v>0.08</v>
+      </c>
+      <c r="AE168">
+        <v>0.05</v>
+      </c>
+      <c r="AF168">
+        <v>0.05</v>
+      </c>
+      <c r="AG168">
+        <v>0.05</v>
+      </c>
+      <c r="AH168">
+        <v>0.05</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>1</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169">
+        <v>145</v>
+      </c>
+      <c r="C169">
+        <v>145</v>
+      </c>
+      <c r="D169">
+        <v>145</v>
+      </c>
+      <c r="E169">
+        <v>145</v>
+      </c>
+      <c r="F169">
+        <v>145</v>
+      </c>
+      <c r="G169">
+        <v>145</v>
+      </c>
+      <c r="H169">
+        <v>145</v>
+      </c>
+      <c r="I169">
+        <v>145</v>
+      </c>
+      <c r="J169">
+        <v>0.25</v>
+      </c>
+      <c r="K169">
+        <v>0.25</v>
+      </c>
+      <c r="L169">
+        <v>0.25</v>
+      </c>
+      <c r="M169">
+        <v>0.25</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="S169">
+        <v>140</v>
+      </c>
+      <c r="T169" t="s">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>5</v>
+      </c>
+      <c r="V169">
+        <v>0.05</v>
+      </c>
+      <c r="W169">
+        <v>250</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA169">
+        <v>18</v>
+      </c>
+      <c r="AB169">
+        <v>18</v>
+      </c>
+      <c r="AC169">
+        <v>18</v>
+      </c>
+      <c r="AD169">
+        <v>0.1</v>
+      </c>
+      <c r="AE169">
+        <v>0.06</v>
+      </c>
+      <c r="AF169">
+        <v>0.06</v>
+      </c>
+      <c r="AG169">
+        <v>0.06</v>
+      </c>
+      <c r="AH169">
+        <v>0.06</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>1</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170">
+        <v>208</v>
+      </c>
+      <c r="C170">
+        <v>208</v>
+      </c>
+      <c r="D170">
+        <v>208</v>
+      </c>
+      <c r="E170">
+        <v>208</v>
+      </c>
+      <c r="F170">
+        <v>208</v>
+      </c>
+      <c r="G170">
+        <v>208</v>
+      </c>
+      <c r="H170">
+        <v>208</v>
+      </c>
+      <c r="I170">
+        <v>208</v>
+      </c>
+      <c r="J170">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K170">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L170">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M170">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>200</v>
+      </c>
+      <c r="T170" t="s">
+        <v>5</v>
+      </c>
+      <c r="U170">
+        <v>5</v>
+      </c>
+      <c r="V170">
+        <v>0.05</v>
+      </c>
+      <c r="W170">
+        <v>350</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA170">
+        <v>20</v>
+      </c>
+      <c r="AB170">
+        <v>20</v>
+      </c>
+      <c r="AC170">
+        <v>20</v>
+      </c>
+      <c r="AD170">
+        <v>0.15</v>
+      </c>
+      <c r="AE170">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF170">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG170">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH170">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>1</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171">
+        <v>600</v>
+      </c>
+      <c r="C171">
+        <v>600</v>
+      </c>
+      <c r="D171">
+        <v>600</v>
+      </c>
+      <c r="E171">
+        <v>600</v>
+      </c>
+      <c r="F171">
+        <v>600</v>
+      </c>
+      <c r="G171">
+        <v>600</v>
+      </c>
+      <c r="H171">
+        <v>600</v>
+      </c>
+      <c r="I171">
+        <v>600</v>
+      </c>
+      <c r="J171">
+        <v>0.3</v>
+      </c>
+      <c r="K171">
+        <v>0.3</v>
+      </c>
+      <c r="L171">
+        <v>0.3</v>
+      </c>
+      <c r="M171">
+        <v>0.3</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171">
+        <v>260</v>
+      </c>
+      <c r="T171" t="s">
+        <v>7</v>
+      </c>
+      <c r="U171">
+        <v>5</v>
+      </c>
+      <c r="V171">
+        <v>0.1</v>
+      </c>
+      <c r="W171">
+        <v>500</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA171">
+        <v>25</v>
+      </c>
+      <c r="AB171">
+        <v>25</v>
+      </c>
+      <c r="AC171">
+        <v>25</v>
+      </c>
+      <c r="AD171">
+        <v>0.18</v>
+      </c>
+      <c r="AE171">
+        <v>0.08</v>
+      </c>
+      <c r="AF171">
+        <v>0.08</v>
+      </c>
+      <c r="AG171">
+        <v>0.08</v>
+      </c>
+      <c r="AH171">
+        <v>0.08</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>1</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172">
+        <v>1000</v>
+      </c>
+      <c r="C172">
+        <v>1000</v>
+      </c>
+      <c r="D172">
+        <v>1000</v>
+      </c>
+      <c r="E172">
+        <v>1000</v>
+      </c>
+      <c r="F172">
+        <v>1000</v>
+      </c>
+      <c r="G172">
+        <v>1000</v>
+      </c>
+      <c r="H172">
+        <v>1000</v>
+      </c>
+      <c r="I172">
+        <v>1000</v>
+      </c>
+      <c r="J172">
+        <v>0.32</v>
+      </c>
+      <c r="K172">
+        <v>0.32</v>
+      </c>
+      <c r="L172">
+        <v>0.32</v>
+      </c>
+      <c r="M172">
+        <v>0.32</v>
+      </c>
+      <c r="Q172">
+        <v>1</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>300</v>
+      </c>
+      <c r="T172" t="s">
+        <v>4</v>
+      </c>
+      <c r="U172">
+        <v>8</v>
+      </c>
+      <c r="V172">
+        <v>0.01</v>
+      </c>
+      <c r="W172">
+        <v>750</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA172">
+        <v>30</v>
+      </c>
+      <c r="AB172">
+        <v>30</v>
+      </c>
+      <c r="AC172">
+        <v>30</v>
+      </c>
+      <c r="AD172">
+        <v>0.2</v>
+      </c>
+      <c r="AE172">
+        <v>0.09</v>
+      </c>
+      <c r="AF172">
+        <v>0.09</v>
+      </c>
+      <c r="AG172">
+        <v>0.09</v>
+      </c>
+      <c r="AH172">
+        <v>0.09</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>1</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173">
+        <v>2300</v>
+      </c>
+      <c r="C173">
+        <v>2300</v>
+      </c>
+      <c r="D173">
+        <v>2300</v>
+      </c>
+      <c r="E173">
+        <v>2300</v>
+      </c>
+      <c r="F173">
+        <v>2300</v>
+      </c>
+      <c r="G173">
+        <v>2300</v>
+      </c>
+      <c r="H173">
+        <v>2300</v>
+      </c>
+      <c r="I173">
+        <v>2300</v>
+      </c>
+      <c r="J173">
+        <v>0.34</v>
+      </c>
+      <c r="K173">
+        <v>0.34</v>
+      </c>
+      <c r="L173">
+        <v>0.34</v>
+      </c>
+      <c r="M173">
+        <v>0.34</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>425</v>
+      </c>
+      <c r="T173" t="s">
+        <v>4</v>
+      </c>
+      <c r="U173">
+        <v>9</v>
+      </c>
+      <c r="V173">
+        <v>0.01</v>
+      </c>
+      <c r="W173">
+        <v>825</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA173">
+        <v>50</v>
+      </c>
+      <c r="AB173">
+        <v>50</v>
+      </c>
+      <c r="AC173">
+        <v>50</v>
+      </c>
+      <c r="AD173">
+        <v>0.25</v>
+      </c>
+      <c r="AE173">
+        <v>0.1</v>
+      </c>
+      <c r="AF173">
+        <v>0.1</v>
+      </c>
+      <c r="AG173">
+        <v>0.1</v>
+      </c>
+      <c r="AH173">
+        <v>0.1</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>1</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174">
+        <v>2500</v>
+      </c>
+      <c r="C174">
+        <v>2500</v>
+      </c>
+      <c r="D174">
+        <v>2500</v>
+      </c>
+      <c r="E174">
+        <v>2500</v>
+      </c>
+      <c r="F174">
+        <v>2500</v>
+      </c>
+      <c r="G174">
+        <v>2500</v>
+      </c>
+      <c r="H174">
+        <v>2500</v>
+      </c>
+      <c r="I174">
+        <v>2500</v>
+      </c>
+      <c r="J174">
+        <v>0.36</v>
+      </c>
+      <c r="K174">
+        <v>0.36</v>
+      </c>
+      <c r="L174">
+        <v>0.36</v>
+      </c>
+      <c r="M174">
+        <v>0.36</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>470</v>
+      </c>
+      <c r="T174" t="s">
+        <v>5</v>
+      </c>
+      <c r="U174">
         <v>10</v>
       </c>
-      <c r="G160">
+      <c r="V174">
+        <v>0.05</v>
+      </c>
+      <c r="W174">
+        <v>1000</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA174">
+        <v>60</v>
+      </c>
+      <c r="AB174">
+        <v>60</v>
+      </c>
+      <c r="AC174">
+        <v>60</v>
+      </c>
+      <c r="AD174">
+        <v>0.3</v>
+      </c>
+      <c r="AE174">
+        <v>0.11</v>
+      </c>
+      <c r="AF174">
+        <v>0.11</v>
+      </c>
+      <c r="AG174">
+        <v>0.11</v>
+      </c>
+      <c r="AH174">
+        <v>0.11</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>1</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>355</v>
+      </c>
+      <c r="B175">
+        <v>5000</v>
+      </c>
+      <c r="C175">
+        <v>5000</v>
+      </c>
+      <c r="D175">
+        <v>5000</v>
+      </c>
+      <c r="E175">
+        <v>5000</v>
+      </c>
+      <c r="F175">
+        <v>5000</v>
+      </c>
+      <c r="G175">
+        <v>5000</v>
+      </c>
+      <c r="H175">
+        <v>5000</v>
+      </c>
+      <c r="I175">
+        <v>5000</v>
+      </c>
+      <c r="J175">
+        <v>0.38</v>
+      </c>
+      <c r="K175">
+        <v>0.38</v>
+      </c>
+      <c r="L175">
+        <v>0.38</v>
+      </c>
+      <c r="M175">
+        <v>0.38</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>490</v>
+      </c>
+      <c r="T175" t="s">
+        <v>5</v>
+      </c>
+      <c r="U175">
         <v>10</v>
       </c>
-      <c r="H160">
+      <c r="V175">
+        <v>0.04</v>
+      </c>
+      <c r="W175">
+        <v>1100</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA175">
+        <v>100</v>
+      </c>
+      <c r="AB175">
+        <v>100</v>
+      </c>
+      <c r="AC175">
+        <v>100</v>
+      </c>
+      <c r="AD175">
+        <v>0.33</v>
+      </c>
+      <c r="AE175">
+        <v>0.12</v>
+      </c>
+      <c r="AF175">
+        <v>0.12</v>
+      </c>
+      <c r="AG175">
+        <v>0.12</v>
+      </c>
+      <c r="AH175">
+        <v>0.12</v>
+      </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>1</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176">
+        <v>8000</v>
+      </c>
+      <c r="C176">
+        <v>8000</v>
+      </c>
+      <c r="D176">
+        <v>8000</v>
+      </c>
+      <c r="E176">
+        <v>8000</v>
+      </c>
+      <c r="F176">
+        <v>8000</v>
+      </c>
+      <c r="G176">
+        <v>8000</v>
+      </c>
+      <c r="H176">
+        <v>8000</v>
+      </c>
+      <c r="I176">
+        <v>8000</v>
+      </c>
+      <c r="J176">
+        <v>0.4</v>
+      </c>
+      <c r="K176">
+        <v>0.4</v>
+      </c>
+      <c r="L176">
+        <v>0.4</v>
+      </c>
+      <c r="M176">
+        <v>0.4</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>545</v>
+      </c>
+      <c r="T176" t="s">
+        <v>2</v>
+      </c>
+      <c r="U176">
         <v>10</v>
       </c>
-      <c r="I160">
+      <c r="V176">
+        <v>0.05</v>
+      </c>
+      <c r="W176">
+        <v>1200</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA176">
+        <v>200</v>
+      </c>
+      <c r="AB176">
+        <v>200</v>
+      </c>
+      <c r="AC176">
+        <v>200</v>
+      </c>
+      <c r="AD176">
+        <v>0.35</v>
+      </c>
+      <c r="AE176">
+        <v>0.13</v>
+      </c>
+      <c r="AF176">
+        <v>0.13</v>
+      </c>
+      <c r="AG176">
+        <v>0.13</v>
+      </c>
+      <c r="AH176">
+        <v>0.13</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>1</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177">
+        <v>12000</v>
+      </c>
+      <c r="C177">
+        <v>12000</v>
+      </c>
+      <c r="D177">
+        <v>12000</v>
+      </c>
+      <c r="E177">
+        <v>12000</v>
+      </c>
+      <c r="F177">
+        <v>12000</v>
+      </c>
+      <c r="G177">
+        <v>12000</v>
+      </c>
+      <c r="H177">
+        <v>12000</v>
+      </c>
+      <c r="I177">
+        <v>12000</v>
+      </c>
+      <c r="J177">
+        <v>0.43</v>
+      </c>
+      <c r="K177">
+        <v>0.43</v>
+      </c>
+      <c r="L177">
+        <v>0.43</v>
+      </c>
+      <c r="M177">
+        <v>0.43</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
+        <v>570</v>
+      </c>
+      <c r="T177" t="s">
+        <v>5</v>
+      </c>
+      <c r="U177">
         <v>10</v>
       </c>
-      <c r="J160">
+      <c r="V177">
         <v>0.05</v>
       </c>
-      <c r="K160">
+      <c r="W177">
+        <v>1300</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA177">
+        <v>400</v>
+      </c>
+      <c r="AB177">
+        <v>400</v>
+      </c>
+      <c r="AC177">
+        <v>400</v>
+      </c>
+      <c r="AD177">
+        <v>0.36</v>
+      </c>
+      <c r="AE177">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF177">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG177">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH177">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>1</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178">
+        <v>14000</v>
+      </c>
+      <c r="C178">
+        <v>14000</v>
+      </c>
+      <c r="D178">
+        <v>14000</v>
+      </c>
+      <c r="E178">
+        <v>14000</v>
+      </c>
+      <c r="F178">
+        <v>14000</v>
+      </c>
+      <c r="G178">
+        <v>14000</v>
+      </c>
+      <c r="H178">
+        <v>14000</v>
+      </c>
+      <c r="I178">
+        <v>14000</v>
+      </c>
+      <c r="J178">
+        <v>0.45</v>
+      </c>
+      <c r="K178">
+        <v>0.45</v>
+      </c>
+      <c r="L178">
+        <v>0.45</v>
+      </c>
+      <c r="M178">
+        <v>0.45</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="S178">
+        <v>610</v>
+      </c>
+      <c r="T178" t="s">
+        <v>4</v>
+      </c>
+      <c r="U178">
+        <v>10</v>
+      </c>
+      <c r="V178">
+        <v>0.02</v>
+      </c>
+      <c r="W178">
+        <v>1500</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA178">
+        <v>500</v>
+      </c>
+      <c r="AB178">
+        <v>500</v>
+      </c>
+      <c r="AC178">
+        <v>500</v>
+      </c>
+      <c r="AD178">
+        <v>0.37</v>
+      </c>
+      <c r="AE178">
+        <v>0.15</v>
+      </c>
+      <c r="AF178">
+        <v>0.15</v>
+      </c>
+      <c r="AG178">
+        <v>0.15</v>
+      </c>
+      <c r="AH178">
+        <v>0.15</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>1</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179">
+        <v>18000</v>
+      </c>
+      <c r="C179">
+        <v>18000</v>
+      </c>
+      <c r="D179">
+        <v>18000</v>
+      </c>
+      <c r="E179">
+        <v>18000</v>
+      </c>
+      <c r="F179">
+        <v>18000</v>
+      </c>
+      <c r="G179">
+        <v>18000</v>
+      </c>
+      <c r="H179">
+        <v>18000</v>
+      </c>
+      <c r="I179">
+        <v>18000</v>
+      </c>
+      <c r="J179">
+        <v>0.48</v>
+      </c>
+      <c r="K179">
+        <v>0.48</v>
+      </c>
+      <c r="L179">
+        <v>0.48</v>
+      </c>
+      <c r="M179">
+        <v>0.48</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>1</v>
+      </c>
+      <c r="S179">
+        <v>650</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <v>10</v>
+      </c>
+      <c r="V179">
+        <v>0.04</v>
+      </c>
+      <c r="W179">
+        <v>1700</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA179">
+        <v>1000</v>
+      </c>
+      <c r="AB179">
+        <v>1000</v>
+      </c>
+      <c r="AC179">
+        <v>1000</v>
+      </c>
+      <c r="AD179">
+        <v>0.4</v>
+      </c>
+      <c r="AE179">
+        <v>0.16</v>
+      </c>
+      <c r="AF179">
+        <v>0.16</v>
+      </c>
+      <c r="AG179">
+        <v>0.16</v>
+      </c>
+      <c r="AH179">
+        <v>0.16</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>1</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180">
+        <v>24000</v>
+      </c>
+      <c r="C180">
+        <v>24000</v>
+      </c>
+      <c r="D180">
+        <v>24000</v>
+      </c>
+      <c r="E180">
+        <v>24000</v>
+      </c>
+      <c r="F180">
+        <v>24000</v>
+      </c>
+      <c r="G180">
+        <v>24000</v>
+      </c>
+      <c r="H180">
+        <v>24000</v>
+      </c>
+      <c r="I180">
+        <v>24000</v>
+      </c>
+      <c r="J180">
+        <v>0.5</v>
+      </c>
+      <c r="K180">
+        <v>0.5</v>
+      </c>
+      <c r="L180">
+        <v>0.5</v>
+      </c>
+      <c r="M180">
+        <v>0.5</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="S180">
+        <v>710</v>
+      </c>
+      <c r="T180" t="s">
+        <v>5</v>
+      </c>
+      <c r="U180">
+        <v>10</v>
+      </c>
+      <c r="V180">
+        <v>0.08</v>
+      </c>
+      <c r="W180">
+        <v>1700</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA180">
+        <v>1500</v>
+      </c>
+      <c r="AB180">
+        <v>1500</v>
+      </c>
+      <c r="AC180">
+        <v>1500</v>
+      </c>
+      <c r="AD180">
+        <v>0.43</v>
+      </c>
+      <c r="AE180">
+        <v>0.17</v>
+      </c>
+      <c r="AF180">
+        <v>0.17</v>
+      </c>
+      <c r="AG180">
+        <v>0.17</v>
+      </c>
+      <c r="AH180">
+        <v>0.17</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>1</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181">
+        <v>28000</v>
+      </c>
+      <c r="C181">
+        <v>28000</v>
+      </c>
+      <c r="D181">
+        <v>28000</v>
+      </c>
+      <c r="E181">
+        <v>28000</v>
+      </c>
+      <c r="F181">
+        <v>28000</v>
+      </c>
+      <c r="G181">
+        <v>28000</v>
+      </c>
+      <c r="H181">
+        <v>28000</v>
+      </c>
+      <c r="I181">
+        <v>28000</v>
+      </c>
+      <c r="J181">
+        <v>0.52</v>
+      </c>
+      <c r="K181">
+        <v>0.52</v>
+      </c>
+      <c r="L181">
+        <v>0.52</v>
+      </c>
+      <c r="M181">
+        <v>0.52</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>750</v>
+      </c>
+      <c r="T181" t="s">
+        <v>4</v>
+      </c>
+      <c r="U181">
+        <v>10</v>
+      </c>
+      <c r="V181">
+        <v>0.01</v>
+      </c>
+      <c r="W181">
+        <v>2000</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA181">
+        <v>3000</v>
+      </c>
+      <c r="AB181">
+        <v>3000</v>
+      </c>
+      <c r="AC181">
+        <v>3000</v>
+      </c>
+      <c r="AD181">
+        <v>0.45</v>
+      </c>
+      <c r="AE181">
+        <v>0.18</v>
+      </c>
+      <c r="AF181">
+        <v>0.18</v>
+      </c>
+      <c r="AG181">
+        <v>0.18</v>
+      </c>
+      <c r="AH181">
+        <v>0.18</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>1</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182">
+        <v>32000</v>
+      </c>
+      <c r="C182">
+        <v>32000</v>
+      </c>
+      <c r="D182">
+        <v>32000</v>
+      </c>
+      <c r="E182">
+        <v>32000</v>
+      </c>
+      <c r="F182">
+        <v>32000</v>
+      </c>
+      <c r="G182">
+        <v>32000</v>
+      </c>
+      <c r="H182">
+        <v>32000</v>
+      </c>
+      <c r="I182">
+        <v>32000</v>
+      </c>
+      <c r="J182">
+        <v>0.53</v>
+      </c>
+      <c r="K182">
+        <v>0.53</v>
+      </c>
+      <c r="L182">
+        <v>0.53</v>
+      </c>
+      <c r="M182">
+        <v>0.53</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182">
+        <v>790</v>
+      </c>
+      <c r="T182" t="s">
+        <v>7</v>
+      </c>
+      <c r="U182">
+        <v>10</v>
+      </c>
+      <c r="V182">
+        <v>0.04</v>
+      </c>
+      <c r="W182">
+        <v>2300</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA182">
+        <v>5000</v>
+      </c>
+      <c r="AB182">
+        <v>5000</v>
+      </c>
+      <c r="AC182">
+        <v>5000</v>
+      </c>
+      <c r="AD182">
+        <v>0.48</v>
+      </c>
+      <c r="AE182">
+        <v>0.19</v>
+      </c>
+      <c r="AF182">
+        <v>0.19</v>
+      </c>
+      <c r="AG182">
+        <v>0.19</v>
+      </c>
+      <c r="AH182">
+        <v>0.19</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>1</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183">
+        <v>38000</v>
+      </c>
+      <c r="C183">
+        <v>38000</v>
+      </c>
+      <c r="D183">
+        <v>38000</v>
+      </c>
+      <c r="E183">
+        <v>38000</v>
+      </c>
+      <c r="F183">
+        <v>38000</v>
+      </c>
+      <c r="G183">
+        <v>38000</v>
+      </c>
+      <c r="H183">
+        <v>38000</v>
+      </c>
+      <c r="I183">
+        <v>38000</v>
+      </c>
+      <c r="J183">
+        <v>0.6</v>
+      </c>
+      <c r="K183">
+        <v>0.6</v>
+      </c>
+      <c r="L183">
+        <v>0.6</v>
+      </c>
+      <c r="M183">
+        <v>0.6</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>840</v>
+      </c>
+      <c r="T183" t="s">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>12</v>
+      </c>
+      <c r="V183">
+        <v>0.02</v>
+      </c>
+      <c r="W183">
+        <v>2450</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA183">
+        <v>10000</v>
+      </c>
+      <c r="AB183">
+        <v>10000</v>
+      </c>
+      <c r="AC183">
+        <v>10000</v>
+      </c>
+      <c r="AD183">
+        <v>0.6</v>
+      </c>
+      <c r="AE183">
+        <v>0.2</v>
+      </c>
+      <c r="AF183">
+        <v>0.2</v>
+      </c>
+      <c r="AG183">
+        <v>0.2</v>
+      </c>
+      <c r="AH183">
+        <v>0.2</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>1</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184">
+        <v>40000</v>
+      </c>
+      <c r="C184">
+        <v>40000</v>
+      </c>
+      <c r="D184">
+        <v>40000</v>
+      </c>
+      <c r="E184">
+        <v>40000</v>
+      </c>
+      <c r="F184">
+        <v>40000</v>
+      </c>
+      <c r="G184">
+        <v>40000</v>
+      </c>
+      <c r="H184">
+        <v>40000</v>
+      </c>
+      <c r="I184">
+        <v>40000</v>
+      </c>
+      <c r="J184">
+        <v>0.63</v>
+      </c>
+      <c r="K184">
+        <v>0.63</v>
+      </c>
+      <c r="L184">
+        <v>0.63</v>
+      </c>
+      <c r="M184">
+        <v>0.63</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>870</v>
+      </c>
+      <c r="T184" t="s">
+        <v>3</v>
+      </c>
+      <c r="U184">
+        <v>12</v>
+      </c>
+      <c r="V184">
         <v>0.05</v>
       </c>
-      <c r="L160">
+      <c r="W184">
+        <v>2600</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA184">
+        <v>15000</v>
+      </c>
+      <c r="AB184">
+        <v>15000</v>
+      </c>
+      <c r="AC184">
+        <v>15000</v>
+      </c>
+      <c r="AD184">
+        <v>0.7</v>
+      </c>
+      <c r="AE184">
+        <v>0.21</v>
+      </c>
+      <c r="AF184">
+        <v>0.21</v>
+      </c>
+      <c r="AG184">
+        <v>0.21</v>
+      </c>
+      <c r="AH184">
+        <v>0.21</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>1</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185">
+        <v>44000</v>
+      </c>
+      <c r="C185">
+        <v>44000</v>
+      </c>
+      <c r="D185">
+        <v>44000</v>
+      </c>
+      <c r="E185">
+        <v>44000</v>
+      </c>
+      <c r="F185">
+        <v>44000</v>
+      </c>
+      <c r="G185">
+        <v>44000</v>
+      </c>
+      <c r="H185">
+        <v>44000</v>
+      </c>
+      <c r="I185">
+        <v>44000</v>
+      </c>
+      <c r="J185">
+        <v>0.64</v>
+      </c>
+      <c r="K185">
+        <v>0.64</v>
+      </c>
+      <c r="L185">
+        <v>0.64</v>
+      </c>
+      <c r="M185">
+        <v>0.64</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>920</v>
+      </c>
+      <c r="T185" t="s">
+        <v>1</v>
+      </c>
+      <c r="U185">
+        <v>12</v>
+      </c>
+      <c r="V185">
+        <v>0.01</v>
+      </c>
+      <c r="W185">
+        <v>3000</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA185">
+        <v>20000</v>
+      </c>
+      <c r="AB185">
+        <v>20000</v>
+      </c>
+      <c r="AC185">
+        <v>20000</v>
+      </c>
+      <c r="AD185">
+        <v>0.75</v>
+      </c>
+      <c r="AE185">
+        <v>0.22</v>
+      </c>
+      <c r="AF185">
+        <v>0.22</v>
+      </c>
+      <c r="AG185">
+        <v>0.22</v>
+      </c>
+      <c r="AH185">
+        <v>0.22</v>
+      </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>1</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186">
+        <v>45000</v>
+      </c>
+      <c r="C186">
+        <v>45000</v>
+      </c>
+      <c r="D186">
+        <v>45000</v>
+      </c>
+      <c r="E186">
+        <v>45000</v>
+      </c>
+      <c r="F186">
+        <v>45000</v>
+      </c>
+      <c r="G186">
+        <v>45000</v>
+      </c>
+      <c r="H186">
+        <v>45000</v>
+      </c>
+      <c r="I186">
+        <v>45000</v>
+      </c>
+      <c r="J186">
+        <v>0.65</v>
+      </c>
+      <c r="K186">
+        <v>0.65</v>
+      </c>
+      <c r="L186">
+        <v>0.65</v>
+      </c>
+      <c r="M186">
+        <v>0.65</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>950</v>
+      </c>
+      <c r="T186" t="s">
+        <v>4</v>
+      </c>
+      <c r="U186">
+        <v>15</v>
+      </c>
+      <c r="V186">
+        <v>0.02</v>
+      </c>
+      <c r="W186">
+        <v>3300</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA186">
+        <v>40000</v>
+      </c>
+      <c r="AB186">
+        <v>40000</v>
+      </c>
+      <c r="AC186">
+        <v>40000</v>
+      </c>
+      <c r="AD186">
+        <v>0.8</v>
+      </c>
+      <c r="AE186">
+        <v>0.23</v>
+      </c>
+      <c r="AF186">
+        <v>0.23</v>
+      </c>
+      <c r="AG186">
+        <v>0.23</v>
+      </c>
+      <c r="AH186">
+        <v>0.23</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>1</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187">
+        <v>50000</v>
+      </c>
+      <c r="C187">
+        <v>50000</v>
+      </c>
+      <c r="D187">
+        <v>50000</v>
+      </c>
+      <c r="E187">
+        <v>50000</v>
+      </c>
+      <c r="F187">
+        <v>50000</v>
+      </c>
+      <c r="G187">
+        <v>50000</v>
+      </c>
+      <c r="H187">
+        <v>50000</v>
+      </c>
+      <c r="I187">
+        <v>50000</v>
+      </c>
+      <c r="J187">
+        <v>0.7</v>
+      </c>
+      <c r="K187">
+        <v>0.7</v>
+      </c>
+      <c r="L187">
+        <v>0.7</v>
+      </c>
+      <c r="M187">
+        <v>0.7</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>970</v>
+      </c>
+      <c r="T187" t="s">
+        <v>7</v>
+      </c>
+      <c r="U187">
+        <v>15</v>
+      </c>
+      <c r="V187">
+        <v>0.04</v>
+      </c>
+      <c r="W187">
+        <v>3400</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA187">
+        <v>50000</v>
+      </c>
+      <c r="AB187">
+        <v>50000</v>
+      </c>
+      <c r="AC187">
+        <v>50000</v>
+      </c>
+      <c r="AD187">
+        <v>0.9</v>
+      </c>
+      <c r="AE187">
+        <v>0.24</v>
+      </c>
+      <c r="AF187">
+        <v>0.24</v>
+      </c>
+      <c r="AG187">
+        <v>0.24</v>
+      </c>
+      <c r="AH187">
+        <v>0.24</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>1</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188">
+        <v>65000</v>
+      </c>
+      <c r="C188">
+        <v>65000</v>
+      </c>
+      <c r="D188">
+        <v>65000</v>
+      </c>
+      <c r="E188">
+        <v>65000</v>
+      </c>
+      <c r="F188">
+        <v>65000</v>
+      </c>
+      <c r="G188">
+        <v>65000</v>
+      </c>
+      <c r="H188">
+        <v>65000</v>
+      </c>
+      <c r="I188">
+        <v>65000</v>
+      </c>
+      <c r="J188">
+        <v>0.8</v>
+      </c>
+      <c r="K188">
+        <v>0.8</v>
+      </c>
+      <c r="L188">
+        <v>0.8</v>
+      </c>
+      <c r="M188">
+        <v>0.8</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="S188">
+        <v>990</v>
+      </c>
+      <c r="T188" t="s">
+        <v>1</v>
+      </c>
+      <c r="U188">
+        <v>20</v>
+      </c>
+      <c r="V188">
+        <v>0.01</v>
+      </c>
+      <c r="W188">
+        <v>5000</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA188">
+        <v>60000</v>
+      </c>
+      <c r="AB188">
+        <v>60000</v>
+      </c>
+      <c r="AC188">
+        <v>60000</v>
+      </c>
+      <c r="AD188">
+        <v>1</v>
+      </c>
+      <c r="AE188">
+        <v>0.25</v>
+      </c>
+      <c r="AF188">
+        <v>0.25</v>
+      </c>
+      <c r="AG188">
+        <v>0.25</v>
+      </c>
+      <c r="AH188">
+        <v>0.25</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>1</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189">
+        <v>68000</v>
+      </c>
+      <c r="C189">
+        <v>68000</v>
+      </c>
+      <c r="D189">
+        <v>68000</v>
+      </c>
+      <c r="E189">
+        <v>68000</v>
+      </c>
+      <c r="F189">
+        <v>68000</v>
+      </c>
+      <c r="G189">
+        <v>68000</v>
+      </c>
+      <c r="H189">
+        <v>68000</v>
+      </c>
+      <c r="I189">
+        <v>68000</v>
+      </c>
+      <c r="J189">
+        <v>0.85</v>
+      </c>
+      <c r="K189">
+        <v>0.86</v>
+      </c>
+      <c r="L189">
+        <v>0.85</v>
+      </c>
+      <c r="M189">
+        <v>0.85</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>999</v>
+      </c>
+      <c r="T189" t="s">
+        <v>6</v>
+      </c>
+      <c r="U189">
+        <v>20</v>
+      </c>
+      <c r="V189">
+        <v>0.04</v>
+      </c>
+      <c r="W189">
+        <v>4500</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA189">
+        <v>75000</v>
+      </c>
+      <c r="AB189">
+        <v>75000</v>
+      </c>
+      <c r="AC189">
+        <v>75000</v>
+      </c>
+      <c r="AD189">
+        <v>1</v>
+      </c>
+      <c r="AE189">
+        <v>0.26</v>
+      </c>
+      <c r="AF189">
+        <v>0.26</v>
+      </c>
+      <c r="AG189">
+        <v>0.26</v>
+      </c>
+      <c r="AH189">
+        <v>0.26</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>1</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190">
+        <v>70000</v>
+      </c>
+      <c r="C190">
+        <v>70000</v>
+      </c>
+      <c r="D190">
+        <v>70000</v>
+      </c>
+      <c r="E190">
+        <v>70000</v>
+      </c>
+      <c r="F190">
+        <v>70000</v>
+      </c>
+      <c r="G190">
+        <v>70000</v>
+      </c>
+      <c r="H190">
+        <v>70000</v>
+      </c>
+      <c r="I190">
+        <v>70000</v>
+      </c>
+      <c r="J190">
+        <v>0.9</v>
+      </c>
+      <c r="K190">
+        <v>0.9</v>
+      </c>
+      <c r="L190">
+        <v>0.9</v>
+      </c>
+      <c r="M190">
+        <v>0.9</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+      <c r="R190">
+        <v>1</v>
+      </c>
+      <c r="S190">
+        <v>1000</v>
+      </c>
+      <c r="T190" t="s">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>20</v>
+      </c>
+      <c r="V190">
+        <v>0.03</v>
+      </c>
+      <c r="W190">
+        <v>4700</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA190">
+        <v>100000</v>
+      </c>
+      <c r="AB190">
+        <v>100000</v>
+      </c>
+      <c r="AC190">
+        <v>100000</v>
+      </c>
+      <c r="AD190">
+        <v>1</v>
+      </c>
+      <c r="AE190">
+        <v>0.27</v>
+      </c>
+      <c r="AF190">
+        <v>0.27</v>
+      </c>
+      <c r="AG190">
+        <v>0.27</v>
+      </c>
+      <c r="AH190">
+        <v>0.27</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>1</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191">
+        <v>80000</v>
+      </c>
+      <c r="C191">
+        <v>80000</v>
+      </c>
+      <c r="D191">
+        <v>80000</v>
+      </c>
+      <c r="E191">
+        <v>80000</v>
+      </c>
+      <c r="F191">
+        <v>80000</v>
+      </c>
+      <c r="G191">
+        <v>80000</v>
+      </c>
+      <c r="H191">
+        <v>80000</v>
+      </c>
+      <c r="I191">
+        <v>80000</v>
+      </c>
+      <c r="J191">
+        <v>0.93</v>
+      </c>
+      <c r="K191">
+        <v>0.93</v>
+      </c>
+      <c r="L191">
+        <v>0.93</v>
+      </c>
+      <c r="M191">
+        <v>0.93</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="S191">
+        <v>1200</v>
+      </c>
+      <c r="T191" t="s">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>30</v>
+      </c>
+      <c r="V191">
+        <v>0.03</v>
+      </c>
+      <c r="W191">
+        <v>5000</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA191">
+        <v>120000</v>
+      </c>
+      <c r="AB191">
+        <v>120000</v>
+      </c>
+      <c r="AC191">
+        <v>120000</v>
+      </c>
+      <c r="AD191">
+        <v>1</v>
+      </c>
+      <c r="AE191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>1</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192">
+        <v>90000</v>
+      </c>
+      <c r="C192">
+        <v>90000</v>
+      </c>
+      <c r="D192">
+        <v>90000</v>
+      </c>
+      <c r="E192">
+        <v>90000</v>
+      </c>
+      <c r="F192">
+        <v>90000</v>
+      </c>
+      <c r="G192">
+        <v>90000</v>
+      </c>
+      <c r="H192">
+        <v>90000</v>
+      </c>
+      <c r="I192">
+        <v>90000</v>
+      </c>
+      <c r="J192">
+        <v>0.98</v>
+      </c>
+      <c r="K192">
+        <v>0.98</v>
+      </c>
+      <c r="L192">
+        <v>0.98</v>
+      </c>
+      <c r="M192">
+        <v>0.98</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
+        <v>1300</v>
+      </c>
+      <c r="T192" t="s">
+        <v>5</v>
+      </c>
+      <c r="U192">
+        <v>30</v>
+      </c>
+      <c r="V192">
         <v>0.05</v>
       </c>
-      <c r="M160">
+      <c r="W192">
+        <v>5250</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA192">
+        <v>130000</v>
+      </c>
+      <c r="AB192">
+        <v>130000</v>
+      </c>
+      <c r="AC192">
+        <v>130000</v>
+      </c>
+      <c r="AD192">
+        <v>1</v>
+      </c>
+      <c r="AE192">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF192">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG192">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH192">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>1</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193">
+        <v>100000</v>
+      </c>
+      <c r="C193">
+        <v>100000</v>
+      </c>
+      <c r="D193">
+        <v>100000</v>
+      </c>
+      <c r="E193">
+        <v>100000</v>
+      </c>
+      <c r="F193">
+        <v>100000</v>
+      </c>
+      <c r="G193">
+        <v>100000</v>
+      </c>
+      <c r="H193">
+        <v>100000</v>
+      </c>
+      <c r="I193">
+        <v>100000</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>1500</v>
+      </c>
+      <c r="T193" t="s">
+        <v>2</v>
+      </c>
+      <c r="U193">
+        <v>40</v>
+      </c>
+      <c r="V193">
+        <v>0.06</v>
+      </c>
+      <c r="W193">
+        <v>6000</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA193">
+        <v>150000</v>
+      </c>
+      <c r="AB193">
+        <v>150000</v>
+      </c>
+      <c r="AC193">
+        <v>150000</v>
+      </c>
+      <c r="AD193">
+        <v>1</v>
+      </c>
+      <c r="AE193">
+        <v>0.3</v>
+      </c>
+      <c r="AF193">
+        <v>0.3</v>
+      </c>
+      <c r="AG193">
+        <v>0.3</v>
+      </c>
+      <c r="AH193">
+        <v>0.3</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>1</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194">
+        <v>250000</v>
+      </c>
+      <c r="C194">
+        <v>250000</v>
+      </c>
+      <c r="D194">
+        <v>250000</v>
+      </c>
+      <c r="E194">
+        <v>250000</v>
+      </c>
+      <c r="F194">
+        <v>250000</v>
+      </c>
+      <c r="G194">
+        <v>250000</v>
+      </c>
+      <c r="H194">
+        <v>250000</v>
+      </c>
+      <c r="I194">
+        <v>250000</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>1800</v>
+      </c>
+      <c r="T194" t="s">
+        <v>4</v>
+      </c>
+      <c r="U194">
+        <v>42</v>
+      </c>
+      <c r="V194">
+        <v>0.01</v>
+      </c>
+      <c r="W194">
+        <v>10000</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA194">
+        <v>10000</v>
+      </c>
+      <c r="AB194">
+        <v>10000</v>
+      </c>
+      <c r="AC194">
+        <v>10000</v>
+      </c>
+      <c r="AD194">
+        <v>1</v>
+      </c>
+      <c r="AE194">
+        <v>0.25</v>
+      </c>
+      <c r="AF194">
+        <v>0.25</v>
+      </c>
+      <c r="AG194">
+        <v>0.25</v>
+      </c>
+      <c r="AH194">
+        <v>0.25</v>
+      </c>
+      <c r="AI194">
+        <v>0.1</v>
+      </c>
+      <c r="AJ194">
+        <v>1</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>375</v>
+      </c>
+      <c r="B195">
+        <v>300000</v>
+      </c>
+      <c r="C195">
+        <v>300000</v>
+      </c>
+      <c r="D195">
+        <v>300000</v>
+      </c>
+      <c r="E195">
+        <v>300000</v>
+      </c>
+      <c r="F195">
+        <v>300000</v>
+      </c>
+      <c r="G195">
+        <v>300000</v>
+      </c>
+      <c r="H195">
+        <v>300000</v>
+      </c>
+      <c r="I195">
+        <v>300000</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>1900</v>
+      </c>
+      <c r="T195" t="s">
+        <v>4</v>
+      </c>
+      <c r="U195">
+        <v>45</v>
+      </c>
+      <c r="V195">
+        <v>0.01</v>
+      </c>
+      <c r="W195">
+        <v>15000</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA195">
+        <v>15000</v>
+      </c>
+      <c r="AB195">
+        <v>15000</v>
+      </c>
+      <c r="AC195">
+        <v>15000</v>
+      </c>
+      <c r="AD195">
+        <v>1</v>
+      </c>
+      <c r="AE195">
+        <v>0.3</v>
+      </c>
+      <c r="AF195">
+        <v>0.3</v>
+      </c>
+      <c r="AG195">
+        <v>0.3</v>
+      </c>
+      <c r="AH195">
+        <v>0.3</v>
+      </c>
+      <c r="AI195">
+        <v>0.1</v>
+      </c>
+      <c r="AJ195">
+        <v>1</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>376</v>
+      </c>
+      <c r="B196">
+        <v>325000</v>
+      </c>
+      <c r="C196">
+        <v>325000</v>
+      </c>
+      <c r="D196">
+        <v>325000</v>
+      </c>
+      <c r="E196">
+        <v>325000</v>
+      </c>
+      <c r="F196">
+        <v>325000</v>
+      </c>
+      <c r="G196">
+        <v>325000</v>
+      </c>
+      <c r="H196">
+        <v>325000</v>
+      </c>
+      <c r="I196">
+        <v>325000</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <v>2000</v>
+      </c>
+      <c r="T196" t="s">
+        <v>5</v>
+      </c>
+      <c r="U196">
+        <v>45</v>
+      </c>
+      <c r="V196">
+        <v>0.04</v>
+      </c>
+      <c r="W196">
+        <v>20000</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA196">
+        <v>30000</v>
+      </c>
+      <c r="AB196">
+        <v>30000</v>
+      </c>
+      <c r="AC196">
+        <v>30000</v>
+      </c>
+      <c r="AD196">
+        <v>1</v>
+      </c>
+      <c r="AE196">
+        <v>0.35</v>
+      </c>
+      <c r="AF196">
+        <v>0.35</v>
+      </c>
+      <c r="AG196">
+        <v>0.35</v>
+      </c>
+      <c r="AH196">
+        <v>0.35</v>
+      </c>
+      <c r="AI196">
+        <v>0.1</v>
+      </c>
+      <c r="AJ196">
+        <v>1</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>377</v>
+      </c>
+      <c r="B197">
+        <v>450000</v>
+      </c>
+      <c r="C197">
+        <v>450000</v>
+      </c>
+      <c r="D197">
+        <v>450000</v>
+      </c>
+      <c r="E197">
+        <v>450000</v>
+      </c>
+      <c r="F197">
+        <v>450000</v>
+      </c>
+      <c r="G197">
+        <v>450000</v>
+      </c>
+      <c r="H197">
+        <v>450000</v>
+      </c>
+      <c r="I197">
+        <v>450000</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="S197">
+        <v>2250</v>
+      </c>
+      <c r="T197" t="s">
+        <v>2</v>
+      </c>
+      <c r="U197">
+        <v>45</v>
+      </c>
+      <c r="V197">
         <v>0.05</v>
       </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160">
-        <v>1</v>
-      </c>
-      <c r="R160">
-        <v>1</v>
-      </c>
-      <c r="S160">
-        <v>10</v>
-      </c>
-      <c r="T160" t="s">
-        <v>1</v>
-      </c>
-      <c r="U160">
-        <v>1</v>
-      </c>
-      <c r="V160">
+      <c r="W197">
+        <v>30000</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA197">
+        <v>50000</v>
+      </c>
+      <c r="AB197">
+        <v>50000</v>
+      </c>
+      <c r="AC197">
+        <v>50000</v>
+      </c>
+      <c r="AD197">
+        <v>1</v>
+      </c>
+      <c r="AE197">
+        <v>0.4</v>
+      </c>
+      <c r="AF197">
+        <v>0.4</v>
+      </c>
+      <c r="AG197">
+        <v>0.4</v>
+      </c>
+      <c r="AH197">
+        <v>0.4</v>
+      </c>
+      <c r="AI197">
         <v>0.1</v>
       </c>
-      <c r="W160">
-        <v>1</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160" t="s">
+      <c r="AJ197">
+        <v>1</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198">
+        <v>475000</v>
+      </c>
+      <c r="C198">
+        <v>475000</v>
+      </c>
+      <c r="D198">
+        <v>475000</v>
+      </c>
+      <c r="E198">
+        <v>475000</v>
+      </c>
+      <c r="F198">
+        <v>475000</v>
+      </c>
+      <c r="G198">
+        <v>475000</v>
+      </c>
+      <c r="H198">
+        <v>475000</v>
+      </c>
+      <c r="I198">
+        <v>475000</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>2500</v>
+      </c>
+      <c r="T198" t="s">
+        <v>6</v>
+      </c>
+      <c r="U198">
         <v>45</v>
       </c>
-      <c r="Z160" t="s">
+      <c r="V198">
+        <v>0.05</v>
+      </c>
+      <c r="W198">
+        <v>35000</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA198">
+        <v>60000</v>
+      </c>
+      <c r="AB198">
+        <v>60000</v>
+      </c>
+      <c r="AC198">
+        <v>60000</v>
+      </c>
+      <c r="AD198">
+        <v>1</v>
+      </c>
+      <c r="AE198">
+        <v>0.45</v>
+      </c>
+      <c r="AF198">
+        <v>0.45</v>
+      </c>
+      <c r="AG198">
+        <v>0.45</v>
+      </c>
+      <c r="AH198">
+        <v>0.45</v>
+      </c>
+      <c r="AI198">
+        <v>0.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1</v>
+      </c>
+      <c r="AM198" t="s">
         <v>340</v>
       </c>
-      <c r="AA160">
-        <v>10</v>
-      </c>
-      <c r="AB160">
-        <v>10</v>
-      </c>
-      <c r="AC160">
-        <v>10</v>
-      </c>
-      <c r="AD160">
+    </row>
+    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199">
+        <v>500000</v>
+      </c>
+      <c r="C199">
+        <v>500000</v>
+      </c>
+      <c r="D199">
+        <v>500000</v>
+      </c>
+      <c r="E199">
+        <v>500000</v>
+      </c>
+      <c r="F199">
+        <v>500000</v>
+      </c>
+      <c r="G199">
+        <v>500000</v>
+      </c>
+      <c r="H199">
+        <v>500000</v>
+      </c>
+      <c r="I199">
+        <v>500000</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199">
+        <v>2700</v>
+      </c>
+      <c r="T199" t="s">
+        <v>4</v>
+      </c>
+      <c r="U199">
+        <v>45</v>
+      </c>
+      <c r="V199">
         <v>0.02</v>
       </c>
-      <c r="AE160">
+      <c r="W199">
+        <v>40000</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA199">
+        <v>75000</v>
+      </c>
+      <c r="AB199">
+        <v>75000</v>
+      </c>
+      <c r="AC199">
+        <v>75000</v>
+      </c>
+      <c r="AD199">
+        <v>1</v>
+      </c>
+      <c r="AE199">
+        <v>0.5</v>
+      </c>
+      <c r="AF199">
+        <v>0.5</v>
+      </c>
+      <c r="AG199">
+        <v>0.5</v>
+      </c>
+      <c r="AH199">
+        <v>0.5</v>
+      </c>
+      <c r="AI199">
         <v>0.1</v>
       </c>
-      <c r="AF160">
+      <c r="AJ199">
+        <v>1</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>380</v>
+      </c>
+      <c r="B200">
+        <v>560000</v>
+      </c>
+      <c r="C200">
+        <v>560000</v>
+      </c>
+      <c r="D200">
+        <v>560000</v>
+      </c>
+      <c r="E200">
+        <v>560000</v>
+      </c>
+      <c r="F200">
+        <v>560000</v>
+      </c>
+      <c r="G200">
+        <v>560000</v>
+      </c>
+      <c r="H200">
+        <v>560000</v>
+      </c>
+      <c r="I200">
+        <v>560000</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>2800</v>
+      </c>
+      <c r="T200" t="s">
+        <v>1</v>
+      </c>
+      <c r="U200">
+        <v>45</v>
+      </c>
+      <c r="V200">
+        <v>0.04</v>
+      </c>
+      <c r="W200">
+        <v>45000</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA200">
+        <v>100000</v>
+      </c>
+      <c r="AB200">
+        <v>100000</v>
+      </c>
+      <c r="AC200">
+        <v>100000</v>
+      </c>
+      <c r="AD200">
+        <v>1</v>
+      </c>
+      <c r="AE200">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF200">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG200">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH200">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI200">
         <v>0.1</v>
       </c>
-      <c r="AG160">
+      <c r="AJ200">
+        <v>1</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>381</v>
+      </c>
+      <c r="B201">
+        <v>600000</v>
+      </c>
+      <c r="C201">
+        <v>600000</v>
+      </c>
+      <c r="D201">
+        <v>600000</v>
+      </c>
+      <c r="E201">
+        <v>600000</v>
+      </c>
+      <c r="F201">
+        <v>600000</v>
+      </c>
+      <c r="G201">
+        <v>600000</v>
+      </c>
+      <c r="H201">
+        <v>600000</v>
+      </c>
+      <c r="I201">
+        <v>600000</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>3000</v>
+      </c>
+      <c r="T201" t="s">
+        <v>5</v>
+      </c>
+      <c r="U201">
+        <v>45</v>
+      </c>
+      <c r="V201">
+        <v>0.08</v>
+      </c>
+      <c r="W201">
+        <v>50000</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA201">
+        <v>110000</v>
+      </c>
+      <c r="AB201">
+        <v>110000</v>
+      </c>
+      <c r="AC201">
+        <v>110000</v>
+      </c>
+      <c r="AD201">
+        <v>1</v>
+      </c>
+      <c r="AE201">
+        <v>0.6</v>
+      </c>
+      <c r="AF201">
+        <v>0.6</v>
+      </c>
+      <c r="AG201">
+        <v>0.6</v>
+      </c>
+      <c r="AH201">
+        <v>0.6</v>
+      </c>
+      <c r="AI201">
         <v>0.1</v>
       </c>
-      <c r="AH160">
+      <c r="AJ201">
+        <v>1</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>382</v>
+      </c>
+      <c r="B202">
+        <v>670000</v>
+      </c>
+      <c r="C202">
+        <v>670000</v>
+      </c>
+      <c r="D202">
+        <v>670000</v>
+      </c>
+      <c r="E202">
+        <v>670000</v>
+      </c>
+      <c r="F202">
+        <v>670000</v>
+      </c>
+      <c r="G202">
+        <v>670000</v>
+      </c>
+      <c r="H202">
+        <v>670000</v>
+      </c>
+      <c r="I202">
+        <v>670000</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="Q202">
+        <v>1</v>
+      </c>
+      <c r="R202">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>3500</v>
+      </c>
+      <c r="T202" t="s">
+        <v>4</v>
+      </c>
+      <c r="U202">
+        <v>45</v>
+      </c>
+      <c r="V202">
         <v>0.01</v>
       </c>
-      <c r="AJ160">
-        <v>1</v>
-      </c>
-      <c r="AM160" t="s">
-        <v>341</v>
+      <c r="W202">
+        <v>58000</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA202">
+        <v>130000</v>
+      </c>
+      <c r="AB202">
+        <v>130000</v>
+      </c>
+      <c r="AC202">
+        <v>130000</v>
+      </c>
+      <c r="AD202">
+        <v>1</v>
+      </c>
+      <c r="AE202">
+        <v>0.65</v>
+      </c>
+      <c r="AF202">
+        <v>0.65</v>
+      </c>
+      <c r="AG202">
+        <v>0.65</v>
+      </c>
+      <c r="AH202">
+        <v>0.65</v>
+      </c>
+      <c r="AI202">
+        <v>0.1</v>
+      </c>
+      <c r="AJ202">
+        <v>1</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>383</v>
+      </c>
+      <c r="B203">
+        <v>720000</v>
+      </c>
+      <c r="C203">
+        <v>720000</v>
+      </c>
+      <c r="D203">
+        <v>720000</v>
+      </c>
+      <c r="E203">
+        <v>720000</v>
+      </c>
+      <c r="F203">
+        <v>720000</v>
+      </c>
+      <c r="G203">
+        <v>720000</v>
+      </c>
+      <c r="H203">
+        <v>720000</v>
+      </c>
+      <c r="I203">
+        <v>720000</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>99999</v>
+      </c>
+      <c r="T203" t="s">
+        <v>7</v>
+      </c>
+      <c r="U203">
+        <v>45</v>
+      </c>
+      <c r="V203">
+        <v>0.04</v>
+      </c>
+      <c r="W203">
+        <v>60000</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA203">
+        <v>150000</v>
+      </c>
+      <c r="AB203">
+        <v>150000</v>
+      </c>
+      <c r="AC203">
+        <v>150000</v>
+      </c>
+      <c r="AD203">
+        <v>1</v>
+      </c>
+      <c r="AE203">
+        <v>0.75</v>
+      </c>
+      <c r="AF203">
+        <v>0.75</v>
+      </c>
+      <c r="AG203">
+        <v>0.75</v>
+      </c>
+      <c r="AH203">
+        <v>0.75</v>
+      </c>
+      <c r="AI203">
+        <v>0.1</v>
+      </c>
+      <c r="AJ203">
+        <v>1</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204">
+        <v>750000</v>
+      </c>
+      <c r="C204">
+        <v>750000</v>
+      </c>
+      <c r="D204">
+        <v>750000</v>
+      </c>
+      <c r="E204">
+        <v>750000</v>
+      </c>
+      <c r="F204">
+        <v>750000</v>
+      </c>
+      <c r="G204">
+        <v>750000</v>
+      </c>
+      <c r="H204">
+        <v>750000</v>
+      </c>
+      <c r="I204">
+        <v>750000</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="Q204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>99999</v>
+      </c>
+      <c r="T204" t="s">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>45</v>
+      </c>
+      <c r="V204">
+        <v>0.02</v>
+      </c>
+      <c r="W204">
+        <v>65000</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA204">
+        <v>180000</v>
+      </c>
+      <c r="AB204">
+        <v>180000</v>
+      </c>
+      <c r="AC204">
+        <v>180000</v>
+      </c>
+      <c r="AD204">
+        <v>1</v>
+      </c>
+      <c r="AE204">
+        <v>0.8</v>
+      </c>
+      <c r="AF204">
+        <v>0.8</v>
+      </c>
+      <c r="AG204">
+        <v>0.8</v>
+      </c>
+      <c r="AH204">
+        <v>0.8</v>
+      </c>
+      <c r="AI204">
+        <v>0.1</v>
+      </c>
+      <c r="AJ204">
+        <v>1</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>385</v>
+      </c>
+      <c r="B205">
+        <v>775000</v>
+      </c>
+      <c r="C205">
+        <v>775000</v>
+      </c>
+      <c r="D205">
+        <v>775000</v>
+      </c>
+      <c r="E205">
+        <v>775000</v>
+      </c>
+      <c r="F205">
+        <v>775000</v>
+      </c>
+      <c r="G205">
+        <v>775000</v>
+      </c>
+      <c r="H205">
+        <v>775000</v>
+      </c>
+      <c r="I205">
+        <v>775000</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <v>1</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>99999</v>
+      </c>
+      <c r="T205" t="s">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>45</v>
+      </c>
+      <c r="V205">
+        <v>0.05</v>
+      </c>
+      <c r="W205">
+        <v>70000</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA205">
+        <v>250000</v>
+      </c>
+      <c r="AB205">
+        <v>250000</v>
+      </c>
+      <c r="AC205">
+        <v>250000</v>
+      </c>
+      <c r="AD205">
+        <v>1</v>
+      </c>
+      <c r="AE205">
+        <v>0.85</v>
+      </c>
+      <c r="AF205">
+        <v>0.85</v>
+      </c>
+      <c r="AG205">
+        <v>0.85</v>
+      </c>
+      <c r="AH205">
+        <v>0.85</v>
+      </c>
+      <c r="AI205">
+        <v>0.1</v>
+      </c>
+      <c r="AJ205">
+        <v>1</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>386</v>
+      </c>
+      <c r="B206">
+        <v>800000</v>
+      </c>
+      <c r="C206">
+        <v>800000</v>
+      </c>
+      <c r="D206">
+        <v>800000</v>
+      </c>
+      <c r="E206">
+        <v>800000</v>
+      </c>
+      <c r="F206">
+        <v>800000</v>
+      </c>
+      <c r="G206">
+        <v>800000</v>
+      </c>
+      <c r="H206">
+        <v>800000</v>
+      </c>
+      <c r="I206">
+        <v>800000</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
+        <v>1</v>
+      </c>
+      <c r="S206">
+        <v>99999</v>
+      </c>
+      <c r="T206" t="s">
+        <v>1</v>
+      </c>
+      <c r="U206">
+        <v>50</v>
+      </c>
+      <c r="V206">
+        <v>0.01</v>
+      </c>
+      <c r="W206">
+        <v>75000</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA206">
+        <v>275000</v>
+      </c>
+      <c r="AB206">
+        <v>275000</v>
+      </c>
+      <c r="AC206">
+        <v>275000</v>
+      </c>
+      <c r="AD206">
+        <v>1</v>
+      </c>
+      <c r="AE206">
+        <v>0.9</v>
+      </c>
+      <c r="AF206">
+        <v>0.9</v>
+      </c>
+      <c r="AG206">
+        <v>0.9</v>
+      </c>
+      <c r="AH206">
+        <v>0.9</v>
+      </c>
+      <c r="AI206">
+        <v>0.1</v>
+      </c>
+      <c r="AJ206">
+        <v>1</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>387</v>
+      </c>
+      <c r="B207">
+        <v>825000</v>
+      </c>
+      <c r="C207">
+        <v>825000</v>
+      </c>
+      <c r="D207">
+        <v>825000</v>
+      </c>
+      <c r="E207">
+        <v>825000</v>
+      </c>
+      <c r="F207">
+        <v>825000</v>
+      </c>
+      <c r="G207">
+        <v>825000</v>
+      </c>
+      <c r="H207">
+        <v>825000</v>
+      </c>
+      <c r="I207">
+        <v>825000</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="Q207">
+        <v>1</v>
+      </c>
+      <c r="R207">
+        <v>1</v>
+      </c>
+      <c r="S207">
+        <v>99999</v>
+      </c>
+      <c r="T207" t="s">
+        <v>4</v>
+      </c>
+      <c r="U207">
+        <v>50</v>
+      </c>
+      <c r="V207">
+        <v>0.02</v>
+      </c>
+      <c r="W207">
+        <v>90000</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA207">
+        <v>300000</v>
+      </c>
+      <c r="AB207">
+        <v>300000</v>
+      </c>
+      <c r="AC207">
+        <v>300000</v>
+      </c>
+      <c r="AD207">
+        <v>1</v>
+      </c>
+      <c r="AE207">
+        <v>1</v>
+      </c>
+      <c r="AF207">
+        <v>1</v>
+      </c>
+      <c r="AG207">
+        <v>1</v>
+      </c>
+      <c r="AH207">
+        <v>1</v>
+      </c>
+      <c r="AI207">
+        <v>0.15</v>
+      </c>
+      <c r="AJ207">
+        <v>1</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>388</v>
+      </c>
+      <c r="B208">
+        <v>850000</v>
+      </c>
+      <c r="C208">
+        <v>850000</v>
+      </c>
+      <c r="D208">
+        <v>850000</v>
+      </c>
+      <c r="E208">
+        <v>850000</v>
+      </c>
+      <c r="F208">
+        <v>850000</v>
+      </c>
+      <c r="G208">
+        <v>850000</v>
+      </c>
+      <c r="H208">
+        <v>850000</v>
+      </c>
+      <c r="I208">
+        <v>850000</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="Q208">
+        <v>1</v>
+      </c>
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>99999</v>
+      </c>
+      <c r="T208" t="s">
+        <v>7</v>
+      </c>
+      <c r="U208">
+        <v>50</v>
+      </c>
+      <c r="V208">
+        <v>0.04</v>
+      </c>
+      <c r="W208">
+        <v>95000</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA208">
+        <v>345000</v>
+      </c>
+      <c r="AB208">
+        <v>345000</v>
+      </c>
+      <c r="AC208">
+        <v>345000</v>
+      </c>
+      <c r="AD208">
+        <v>1</v>
+      </c>
+      <c r="AE208">
+        <v>1</v>
+      </c>
+      <c r="AF208">
+        <v>1</v>
+      </c>
+      <c r="AG208">
+        <v>1</v>
+      </c>
+      <c r="AH208">
+        <v>1</v>
+      </c>
+      <c r="AI208">
+        <v>0.15</v>
+      </c>
+      <c r="AJ208">
+        <v>1</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="209" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>389</v>
+      </c>
+      <c r="B209">
+        <v>875000</v>
+      </c>
+      <c r="C209">
+        <v>875000</v>
+      </c>
+      <c r="D209">
+        <v>875000</v>
+      </c>
+      <c r="E209">
+        <v>875000</v>
+      </c>
+      <c r="F209">
+        <v>875000</v>
+      </c>
+      <c r="G209">
+        <v>875000</v>
+      </c>
+      <c r="H209">
+        <v>875000</v>
+      </c>
+      <c r="I209">
+        <v>875000</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="Q209">
+        <v>1</v>
+      </c>
+      <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209">
+        <v>99999</v>
+      </c>
+      <c r="T209" t="s">
+        <v>1</v>
+      </c>
+      <c r="U209">
+        <v>50</v>
+      </c>
+      <c r="V209">
+        <v>0.01</v>
+      </c>
+      <c r="W209">
+        <v>100000</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA209">
+        <v>368000</v>
+      </c>
+      <c r="AB209">
+        <v>368000</v>
+      </c>
+      <c r="AC209">
+        <v>368000</v>
+      </c>
+      <c r="AD209">
+        <v>1</v>
+      </c>
+      <c r="AE209">
+        <v>1</v>
+      </c>
+      <c r="AF209">
+        <v>1</v>
+      </c>
+      <c r="AG209">
+        <v>1</v>
+      </c>
+      <c r="AH209">
+        <v>1</v>
+      </c>
+      <c r="AI209">
+        <v>0.15</v>
+      </c>
+      <c r="AJ209">
+        <v>1</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226FD4A4-13C7-8242-8585-ECF85C31ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2F9FC2-900F-A14B-B155-FCEC97DCE6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="AM269" sqref="AM269:AM285"/>
+    <sheetView tabSelected="1" topLeftCell="K242" workbookViewId="0">
+      <selection activeCell="W263" sqref="W263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="s">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="s">
         <v>4</v>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>970</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="s">
         <v>7</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T29" t="s">
         <v>1</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T30" t="s">
         <v>4</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="s">
         <v>4</v>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T32" t="s">
         <v>5</v>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="T33" t="s">
         <v>2</v>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="T34" t="s">
         <v>6</v>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="T35" t="s">
         <v>4</v>
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T36" t="s">
         <v>1</v>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="T37" t="s">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="T38" t="s">
         <v>4</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>99999</v>
+        <v>2300</v>
       </c>
       <c r="T39" t="s">
         <v>7</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>99999</v>
+        <v>2400</v>
       </c>
       <c r="T40" t="s">
         <v>2</v>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>99999</v>
+        <v>2500</v>
       </c>
       <c r="T41" t="s">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="S42">
-        <v>99999</v>
+        <v>2600</v>
       </c>
       <c r="T42" t="s">
         <v>1</v>
@@ -6378,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="S43">
-        <v>99999</v>
+        <v>2700</v>
       </c>
       <c r="T43" t="s">
         <v>4</v>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="S44">
-        <v>99999</v>
+        <v>2800</v>
       </c>
       <c r="T44" t="s">
         <v>7</v>
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>99999</v>
+        <v>2900</v>
       </c>
       <c r="T45" t="s">
         <v>1</v>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>99999</v>
+        <v>3000</v>
       </c>
       <c r="T46" t="s">
         <v>4</v>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>99999</v>
+        <v>3100</v>
       </c>
       <c r="T47" t="s">
         <v>4</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>99999</v>
+        <v>3200</v>
       </c>
       <c r="T48" t="s">
         <v>5</v>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>99999</v>
+        <v>3300</v>
       </c>
       <c r="T49" t="s">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>99999</v>
+        <v>3400</v>
       </c>
       <c r="T50" t="s">
         <v>6</v>
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>99999</v>
+        <v>3500</v>
       </c>
       <c r="T51" t="s">
         <v>4</v>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>99999</v>
+        <v>3600</v>
       </c>
       <c r="T52" t="s">
         <v>1</v>
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>99999</v>
+        <v>4000</v>
       </c>
       <c r="T53" t="s">
         <v>5</v>
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>99999</v>
+        <v>5000</v>
       </c>
       <c r="T54" t="s">
         <v>4</v>
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="S55">
-        <v>99999</v>
+        <v>6000</v>
       </c>
       <c r="T55" t="s">
         <v>7</v>
@@ -7730,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>99999</v>
+        <v>7000</v>
       </c>
       <c r="T56" t="s">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>99999</v>
+        <v>8000</v>
       </c>
       <c r="T57" t="s">
         <v>3</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>99999</v>
+        <v>10000</v>
       </c>
       <c r="T58" t="s">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>99999</v>
+        <v>11000</v>
       </c>
       <c r="T59" t="s">
         <v>4</v>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>99999</v>
+        <v>12000</v>
       </c>
       <c r="T60" t="s">
         <v>7</v>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="S61">
-        <v>99999</v>
+        <v>13000</v>
       </c>
       <c r="T61" t="s">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="S93">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T93" t="s">
         <v>2</v>
@@ -11700,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="S94">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T94" t="s">
         <v>5</v>
@@ -11804,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="S95">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T95" t="s">
         <v>2</v>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T96" t="s">
         <v>4</v>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="S97">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T97" t="s">
         <v>4</v>
@@ -12122,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="S98">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T98" t="s">
         <v>5</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="S99">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="T99" t="s">
         <v>2</v>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="S100">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="T100" t="s">
         <v>6</v>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="S101">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="T101" t="s">
         <v>4</v>
@@ -12538,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="S102">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T102" t="s">
         <v>1</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="S103">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="T103" t="s">
         <v>5</v>
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="S104">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="T104" t="s">
         <v>4</v>
@@ -12850,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="S105">
-        <v>99999</v>
+        <v>2300</v>
       </c>
       <c r="T105" t="s">
         <v>7</v>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="S106">
-        <v>99999</v>
+        <v>2400</v>
       </c>
       <c r="T106" t="s">
         <v>2</v>
@@ -13058,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="S107">
-        <v>99999</v>
+        <v>2500</v>
       </c>
       <c r="T107" t="s">
         <v>3</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="S108">
-        <v>99999</v>
+        <v>2600</v>
       </c>
       <c r="T108" t="s">
         <v>1</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="S109">
-        <v>99999</v>
+        <v>2700</v>
       </c>
       <c r="T109" t="s">
         <v>4</v>
@@ -13370,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="S110">
-        <v>99999</v>
+        <v>2800</v>
       </c>
       <c r="T110" t="s">
         <v>7</v>
@@ -13474,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="S111">
-        <v>99999</v>
+        <v>2900</v>
       </c>
       <c r="T111" t="s">
         <v>1</v>
@@ -13578,13 +13578,13 @@
         <v>1</v>
       </c>
       <c r="S112">
-        <v>99999</v>
+        <v>3000</v>
       </c>
       <c r="T112" t="s">
         <v>4</v>
       </c>
       <c r="U112">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V112">
         <v>0.01</v>
@@ -13682,13 +13682,13 @@
         <v>1</v>
       </c>
       <c r="S113">
-        <v>99999</v>
+        <v>3100</v>
       </c>
       <c r="T113" t="s">
         <v>4</v>
       </c>
       <c r="U113">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V113">
         <v>0.01</v>
@@ -13786,13 +13786,13 @@
         <v>1</v>
       </c>
       <c r="S114">
-        <v>99999</v>
+        <v>3200</v>
       </c>
       <c r="T114" t="s">
         <v>5</v>
       </c>
       <c r="U114">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V114">
         <v>0.04</v>
@@ -13890,13 +13890,13 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>99999</v>
+        <v>3300</v>
       </c>
       <c r="T115" t="s">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V115">
         <v>0.05</v>
@@ -13994,13 +13994,13 @@
         <v>1</v>
       </c>
       <c r="S116">
-        <v>99999</v>
+        <v>3400</v>
       </c>
       <c r="T116" t="s">
         <v>6</v>
       </c>
       <c r="U116">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V116">
         <v>0.05</v>
@@ -14098,13 +14098,13 @@
         <v>1</v>
       </c>
       <c r="S117">
-        <v>99999</v>
+        <v>3500</v>
       </c>
       <c r="T117" t="s">
         <v>4</v>
       </c>
       <c r="U117">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V117">
         <v>0.02</v>
@@ -14202,13 +14202,13 @@
         <v>1</v>
       </c>
       <c r="S118">
-        <v>99999</v>
+        <v>3600</v>
       </c>
       <c r="T118" t="s">
         <v>1</v>
       </c>
       <c r="U118">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V118">
         <v>0.04</v>
@@ -14306,13 +14306,13 @@
         <v>1</v>
       </c>
       <c r="S119">
-        <v>99999</v>
+        <v>4000</v>
       </c>
       <c r="T119" t="s">
         <v>5</v>
       </c>
       <c r="U119">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V119">
         <v>0.08</v>
@@ -14410,13 +14410,13 @@
         <v>1</v>
       </c>
       <c r="S120">
-        <v>99999</v>
+        <v>5000</v>
       </c>
       <c r="T120" t="s">
         <v>4</v>
       </c>
       <c r="U120">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V120">
         <v>0.01</v>
@@ -14514,13 +14514,13 @@
         <v>1</v>
       </c>
       <c r="S121">
-        <v>99999</v>
+        <v>6000</v>
       </c>
       <c r="T121" t="s">
         <v>7</v>
       </c>
       <c r="U121">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V121">
         <v>0.04</v>
@@ -14618,13 +14618,13 @@
         <v>1</v>
       </c>
       <c r="S122">
-        <v>99999</v>
+        <v>7000</v>
       </c>
       <c r="T122" t="s">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V122">
         <v>0.02</v>
@@ -14722,13 +14722,13 @@
         <v>1</v>
       </c>
       <c r="S123">
-        <v>99999</v>
+        <v>8000</v>
       </c>
       <c r="T123" t="s">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V123">
         <v>0.05</v>
@@ -14826,13 +14826,13 @@
         <v>1</v>
       </c>
       <c r="S124">
-        <v>99999</v>
+        <v>10000</v>
       </c>
       <c r="T124" t="s">
         <v>1</v>
       </c>
       <c r="U124">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V124">
         <v>0.01</v>
@@ -14930,13 +14930,13 @@
         <v>1</v>
       </c>
       <c r="S125">
-        <v>99999</v>
+        <v>11000</v>
       </c>
       <c r="T125" t="s">
         <v>4</v>
       </c>
       <c r="U125">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V125">
         <v>0.02</v>
@@ -15034,13 +15034,13 @@
         <v>1</v>
       </c>
       <c r="S126">
-        <v>99999</v>
+        <v>12000</v>
       </c>
       <c r="T126" t="s">
         <v>7</v>
       </c>
       <c r="U126">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V126">
         <v>0.04</v>
@@ -15138,13 +15138,13 @@
         <v>1</v>
       </c>
       <c r="S127">
-        <v>99999</v>
+        <v>13000</v>
       </c>
       <c r="T127" t="s">
         <v>1</v>
       </c>
       <c r="U127">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V127">
         <v>0.01</v>
@@ -20524,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="S177">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T177" t="s">
         <v>3</v>
@@ -20628,7 +20628,7 @@
         <v>1</v>
       </c>
       <c r="S178">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T178" t="s">
         <v>2</v>
@@ -20732,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="S179">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T179" t="s">
         <v>5</v>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="S180">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T180" t="s">
         <v>4</v>
@@ -20940,7 +20940,7 @@
         <v>1</v>
       </c>
       <c r="S181">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T181" t="s">
         <v>4</v>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="S182">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T182" t="s">
         <v>5</v>
@@ -21148,7 +21148,7 @@
         <v>1</v>
       </c>
       <c r="S183">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="T183" t="s">
         <v>2</v>
@@ -21252,7 +21252,7 @@
         <v>1</v>
       </c>
       <c r="S184">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="T184" t="s">
         <v>6</v>
@@ -21362,7 +21362,7 @@
         <v>1</v>
       </c>
       <c r="S185">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="T185" t="s">
         <v>4</v>
@@ -21466,7 +21466,7 @@
         <v>1</v>
       </c>
       <c r="S186">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T186" t="s">
         <v>1</v>
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="S187">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="T187" t="s">
         <v>5</v>
@@ -21674,7 +21674,7 @@
         <v>1</v>
       </c>
       <c r="S188">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="T188" t="s">
         <v>4</v>
@@ -21778,7 +21778,7 @@
         <v>1</v>
       </c>
       <c r="S189">
-        <v>99999</v>
+        <v>2300</v>
       </c>
       <c r="T189" t="s">
         <v>7</v>
@@ -21882,7 +21882,7 @@
         <v>1</v>
       </c>
       <c r="S190">
-        <v>99999</v>
+        <v>2400</v>
       </c>
       <c r="T190" t="s">
         <v>2</v>
@@ -21986,7 +21986,7 @@
         <v>1</v>
       </c>
       <c r="S191">
-        <v>99999</v>
+        <v>2500</v>
       </c>
       <c r="T191" t="s">
         <v>3</v>
@@ -22090,7 +22090,7 @@
         <v>1</v>
       </c>
       <c r="S192">
-        <v>99999</v>
+        <v>2600</v>
       </c>
       <c r="T192" t="s">
         <v>1</v>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="S193">
-        <v>99999</v>
+        <v>2700</v>
       </c>
       <c r="T193" t="s">
         <v>4</v>
@@ -22298,7 +22298,7 @@
         <v>1</v>
       </c>
       <c r="S194">
-        <v>99999</v>
+        <v>2800</v>
       </c>
       <c r="T194" t="s">
         <v>7</v>
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="S195">
-        <v>99999</v>
+        <v>2900</v>
       </c>
       <c r="T195" t="s">
         <v>1</v>
@@ -22506,13 +22506,13 @@
         <v>1</v>
       </c>
       <c r="S196">
-        <v>99999</v>
+        <v>3000</v>
       </c>
       <c r="T196" t="s">
         <v>4</v>
       </c>
       <c r="U196">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V196">
         <v>0.01</v>
@@ -22610,13 +22610,13 @@
         <v>1</v>
       </c>
       <c r="S197">
-        <v>99999</v>
+        <v>3100</v>
       </c>
       <c r="T197" t="s">
         <v>4</v>
       </c>
       <c r="U197">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V197">
         <v>0.01</v>
@@ -22714,13 +22714,13 @@
         <v>1</v>
       </c>
       <c r="S198">
-        <v>99999</v>
+        <v>3200</v>
       </c>
       <c r="T198" t="s">
         <v>5</v>
       </c>
       <c r="U198">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V198">
         <v>0.04</v>
@@ -22818,13 +22818,13 @@
         <v>1</v>
       </c>
       <c r="S199">
-        <v>99999</v>
+        <v>3300</v>
       </c>
       <c r="T199" t="s">
         <v>2</v>
       </c>
       <c r="U199">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V199">
         <v>0.05</v>
@@ -22922,13 +22922,13 @@
         <v>1</v>
       </c>
       <c r="S200">
-        <v>99999</v>
+        <v>3400</v>
       </c>
       <c r="T200" t="s">
         <v>6</v>
       </c>
       <c r="U200">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V200">
         <v>0.05</v>
@@ -23026,13 +23026,13 @@
         <v>1</v>
       </c>
       <c r="S201">
-        <v>99999</v>
+        <v>3500</v>
       </c>
       <c r="T201" t="s">
         <v>4</v>
       </c>
       <c r="U201">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V201">
         <v>0.02</v>
@@ -23130,13 +23130,13 @@
         <v>1</v>
       </c>
       <c r="S202">
-        <v>99999</v>
+        <v>3600</v>
       </c>
       <c r="T202" t="s">
         <v>1</v>
       </c>
       <c r="U202">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V202">
         <v>0.04</v>
@@ -23234,13 +23234,13 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>99999</v>
+        <v>4000</v>
       </c>
       <c r="T203" t="s">
         <v>5</v>
       </c>
       <c r="U203">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V203">
         <v>0.08</v>
@@ -23338,13 +23338,13 @@
         <v>1</v>
       </c>
       <c r="S204">
-        <v>99999</v>
+        <v>5000</v>
       </c>
       <c r="T204" t="s">
         <v>4</v>
       </c>
       <c r="U204">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V204">
         <v>0.01</v>
@@ -23442,13 +23442,13 @@
         <v>1</v>
       </c>
       <c r="S205">
-        <v>99999</v>
+        <v>6000</v>
       </c>
       <c r="T205" t="s">
         <v>7</v>
       </c>
       <c r="U205">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V205">
         <v>0.04</v>
@@ -23546,13 +23546,13 @@
         <v>1</v>
       </c>
       <c r="S206">
-        <v>99999</v>
+        <v>7000</v>
       </c>
       <c r="T206" t="s">
         <v>2</v>
       </c>
       <c r="U206">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V206">
         <v>0.02</v>
@@ -23650,13 +23650,13 @@
         <v>1</v>
       </c>
       <c r="S207">
-        <v>99999</v>
+        <v>8000</v>
       </c>
       <c r="T207" t="s">
         <v>3</v>
       </c>
       <c r="U207">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V207">
         <v>0.05</v>
@@ -23754,13 +23754,13 @@
         <v>1</v>
       </c>
       <c r="S208">
-        <v>99999</v>
+        <v>10000</v>
       </c>
       <c r="T208" t="s">
         <v>1</v>
       </c>
       <c r="U208">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V208">
         <v>0.01</v>
@@ -23858,13 +23858,13 @@
         <v>1</v>
       </c>
       <c r="S209">
-        <v>99999</v>
+        <v>11000</v>
       </c>
       <c r="T209" t="s">
         <v>4</v>
       </c>
       <c r="U209">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V209">
         <v>0.02</v>
@@ -23962,13 +23962,13 @@
         <v>1</v>
       </c>
       <c r="S210">
-        <v>99999</v>
+        <v>12000</v>
       </c>
       <c r="T210" t="s">
         <v>7</v>
       </c>
       <c r="U210">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V210">
         <v>0.04</v>
@@ -24066,13 +24066,13 @@
         <v>1</v>
       </c>
       <c r="S211">
-        <v>99999</v>
+        <v>13000</v>
       </c>
       <c r="T211" t="s">
         <v>1</v>
       </c>
       <c r="U211">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V211">
         <v>0.01</v>
@@ -28298,7 +28298,7 @@
         <v>1</v>
       </c>
       <c r="S251">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T251" t="s">
         <v>2</v>
@@ -28402,7 +28402,7 @@
         <v>1</v>
       </c>
       <c r="S252">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T252" t="s">
         <v>5</v>
@@ -28506,7 +28506,7 @@
         <v>1</v>
       </c>
       <c r="S253">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T253" t="s">
         <v>2</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="S254">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T254" t="s">
         <v>4</v>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="S255">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T255" t="s">
         <v>4</v>
@@ -28818,7 +28818,7 @@
         <v>1</v>
       </c>
       <c r="S256">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T256" t="s">
         <v>5</v>
@@ -28922,7 +28922,7 @@
         <v>1</v>
       </c>
       <c r="S257">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="T257" t="s">
         <v>2</v>
@@ -29026,7 +29026,7 @@
         <v>1</v>
       </c>
       <c r="S258">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="T258" t="s">
         <v>6</v>
@@ -29130,7 +29130,7 @@
         <v>1</v>
       </c>
       <c r="S259">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="T259" t="s">
         <v>4</v>
@@ -29234,7 +29234,7 @@
         <v>1</v>
       </c>
       <c r="S260">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T260" t="s">
         <v>1</v>
@@ -29338,7 +29338,7 @@
         <v>1</v>
       </c>
       <c r="S261">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="T261" t="s">
         <v>5</v>
@@ -29442,7 +29442,7 @@
         <v>1</v>
       </c>
       <c r="S262">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="T262" t="s">
         <v>4</v>
@@ -29546,7 +29546,7 @@
         <v>1</v>
       </c>
       <c r="S263">
-        <v>99999</v>
+        <v>2300</v>
       </c>
       <c r="T263" t="s">
         <v>7</v>
@@ -29650,7 +29650,7 @@
         <v>1</v>
       </c>
       <c r="S264">
-        <v>99999</v>
+        <v>2400</v>
       </c>
       <c r="T264" t="s">
         <v>2</v>
@@ -29754,7 +29754,7 @@
         <v>1</v>
       </c>
       <c r="S265">
-        <v>99999</v>
+        <v>2500</v>
       </c>
       <c r="T265" t="s">
         <v>3</v>
@@ -29858,7 +29858,7 @@
         <v>1</v>
       </c>
       <c r="S266">
-        <v>99999</v>
+        <v>2600</v>
       </c>
       <c r="T266" t="s">
         <v>1</v>
@@ -29962,7 +29962,7 @@
         <v>1</v>
       </c>
       <c r="S267">
-        <v>99999</v>
+        <v>2700</v>
       </c>
       <c r="T267" t="s">
         <v>4</v>
@@ -30066,7 +30066,7 @@
         <v>1</v>
       </c>
       <c r="S268">
-        <v>99999</v>
+        <v>2800</v>
       </c>
       <c r="T268" t="s">
         <v>7</v>
@@ -30170,7 +30170,7 @@
         <v>1</v>
       </c>
       <c r="S269">
-        <v>99999</v>
+        <v>2900</v>
       </c>
       <c r="T269" t="s">
         <v>1</v>
@@ -30274,13 +30274,13 @@
         <v>1</v>
       </c>
       <c r="S270">
-        <v>99999</v>
+        <v>3000</v>
       </c>
       <c r="T270" t="s">
         <v>4</v>
       </c>
       <c r="U270">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V270">
         <v>0.01</v>
@@ -30378,13 +30378,13 @@
         <v>1</v>
       </c>
       <c r="S271">
-        <v>99999</v>
+        <v>3100</v>
       </c>
       <c r="T271" t="s">
         <v>4</v>
       </c>
       <c r="U271">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V271">
         <v>0.01</v>
@@ -30482,13 +30482,13 @@
         <v>1</v>
       </c>
       <c r="S272">
-        <v>99999</v>
+        <v>3200</v>
       </c>
       <c r="T272" t="s">
         <v>5</v>
       </c>
       <c r="U272">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V272">
         <v>0.04</v>
@@ -30586,13 +30586,13 @@
         <v>1</v>
       </c>
       <c r="S273">
-        <v>99999</v>
+        <v>3300</v>
       </c>
       <c r="T273" t="s">
         <v>2</v>
       </c>
       <c r="U273">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V273">
         <v>0.05</v>
@@ -30690,13 +30690,13 @@
         <v>1</v>
       </c>
       <c r="S274">
-        <v>99999</v>
+        <v>3400</v>
       </c>
       <c r="T274" t="s">
         <v>6</v>
       </c>
       <c r="U274">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V274">
         <v>0.05</v>
@@ -30794,13 +30794,13 @@
         <v>1</v>
       </c>
       <c r="S275">
-        <v>99999</v>
+        <v>3500</v>
       </c>
       <c r="T275" t="s">
         <v>4</v>
       </c>
       <c r="U275">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V275">
         <v>0.02</v>
@@ -30898,13 +30898,13 @@
         <v>1</v>
       </c>
       <c r="S276">
-        <v>99999</v>
+        <v>3600</v>
       </c>
       <c r="T276" t="s">
         <v>1</v>
       </c>
       <c r="U276">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V276">
         <v>0.04</v>
@@ -31002,13 +31002,13 @@
         <v>1</v>
       </c>
       <c r="S277">
-        <v>99999</v>
+        <v>4000</v>
       </c>
       <c r="T277" t="s">
         <v>5</v>
       </c>
       <c r="U277">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V277">
         <v>0.08</v>
@@ -31106,13 +31106,13 @@
         <v>1</v>
       </c>
       <c r="S278">
-        <v>99999</v>
+        <v>5000</v>
       </c>
       <c r="T278" t="s">
         <v>4</v>
       </c>
       <c r="U278">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V278">
         <v>0.01</v>
@@ -31210,13 +31210,13 @@
         <v>1</v>
       </c>
       <c r="S279">
-        <v>99999</v>
+        <v>6000</v>
       </c>
       <c r="T279" t="s">
         <v>7</v>
       </c>
       <c r="U279">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V279">
         <v>0.04</v>
@@ -31314,13 +31314,13 @@
         <v>1</v>
       </c>
       <c r="S280">
-        <v>99999</v>
+        <v>7000</v>
       </c>
       <c r="T280" t="s">
         <v>2</v>
       </c>
       <c r="U280">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V280">
         <v>0.02</v>
@@ -31418,13 +31418,13 @@
         <v>1</v>
       </c>
       <c r="S281">
-        <v>99999</v>
+        <v>8000</v>
       </c>
       <c r="T281" t="s">
         <v>3</v>
       </c>
       <c r="U281">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V281">
         <v>0.05</v>
@@ -31522,13 +31522,13 @@
         <v>1</v>
       </c>
       <c r="S282">
-        <v>99999</v>
+        <v>10000</v>
       </c>
       <c r="T282" t="s">
         <v>1</v>
       </c>
       <c r="U282">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V282">
         <v>0.01</v>
@@ -31626,13 +31626,13 @@
         <v>1</v>
       </c>
       <c r="S283">
-        <v>99999</v>
+        <v>11000</v>
       </c>
       <c r="T283" t="s">
         <v>4</v>
       </c>
       <c r="U283">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V283">
         <v>0.02</v>
@@ -31730,13 +31730,13 @@
         <v>1</v>
       </c>
       <c r="S284">
-        <v>99999</v>
+        <v>12000</v>
       </c>
       <c r="T284" t="s">
         <v>7</v>
       </c>
       <c r="U284">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V284">
         <v>0.04</v>
@@ -31834,13 +31834,13 @@
         <v>1</v>
       </c>
       <c r="S285">
-        <v>99999</v>
+        <v>13000</v>
       </c>
       <c r="T285" t="s">
         <v>1</v>
       </c>
       <c r="U285">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V285">
         <v>0.01</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39771348-A3E9-2049-B6EF-ADF8AD8ACBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE23A6-BC4F-D54B-9D4F-202CFA8850AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2329,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB323" workbookViewId="0">
-      <selection activeCell="AM308" sqref="AM308:AM357"/>
+    <sheetView tabSelected="1" topLeftCell="Z319" workbookViewId="0">
+      <selection activeCell="AE316" sqref="AE316:AH357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35915,16 +35915,16 @@
         <v>1</v>
       </c>
       <c r="AE319">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AF319">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AG319">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AH319">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AI319" s="2">
         <v>0.43333333333333302</v>
@@ -36019,16 +36019,16 @@
         <v>1</v>
       </c>
       <c r="AE320">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AF320">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AG320">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AH320">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AI320" s="2">
         <v>0.46833333333333299</v>
@@ -36123,16 +36123,16 @@
         <v>1</v>
       </c>
       <c r="AE321">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AF321">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AG321">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AH321">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AI321" s="2">
         <v>0.50333333333333297</v>
@@ -36227,16 +36227,16 @@
         <v>1</v>
       </c>
       <c r="AE322">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AF322">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AG322">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AH322">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AI322" s="2">
         <v>0.538333333333333</v>
@@ -36331,16 +36331,16 @@
         <v>1</v>
       </c>
       <c r="AE323">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AF323">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AG323">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AH323">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AI323" s="2">
         <v>0.57333333333333303</v>
@@ -36435,16 +36435,16 @@
         <v>1</v>
       </c>
       <c r="AE324">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AF324">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AG324">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AH324">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AI324" s="2">
         <v>0.60833333333333295</v>
@@ -36539,16 +36539,16 @@
         <v>1</v>
       </c>
       <c r="AE325">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AF325">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AG325">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AH325">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AI325" s="2">
         <v>0.64333333333333298</v>
@@ -36643,16 +36643,16 @@
         <v>1</v>
       </c>
       <c r="AE326">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="AF326">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="AG326">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="AH326">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="AI326" s="2">
         <v>0.67833333333333301</v>
@@ -36747,16 +36747,16 @@
         <v>1</v>
       </c>
       <c r="AE327">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AF327">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AG327">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AH327">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AI327" s="2">
         <v>0.71333333333333304</v>
@@ -36851,16 +36851,16 @@
         <v>1</v>
       </c>
       <c r="AE328">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AF328">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AG328">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AH328">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AI328" s="2">
         <v>0.74833333333333296</v>
@@ -36955,16 +36955,16 @@
         <v>1</v>
       </c>
       <c r="AE329">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="AF329">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="AG329">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="AH329">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="AI329" s="2">
         <v>0.78333333333333299</v>
@@ -37059,16 +37059,16 @@
         <v>1</v>
       </c>
       <c r="AE330">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="AF330">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="AG330">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="AH330">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="AI330" s="2">
         <v>0.81833333333333302</v>
@@ -37163,16 +37163,16 @@
         <v>1</v>
       </c>
       <c r="AE331">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AF331">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AG331">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AH331">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AI331" s="2">
         <v>0.85333333333333306</v>
@@ -37267,16 +37267,16 @@
         <v>1</v>
       </c>
       <c r="AE332">
-        <v>1</v>
+        <v>1.93</v>
       </c>
       <c r="AF332">
-        <v>1</v>
+        <v>1.93</v>
       </c>
       <c r="AG332">
-        <v>1</v>
+        <v>1.93</v>
       </c>
       <c r="AH332">
-        <v>1</v>
+        <v>1.93</v>
       </c>
       <c r="AI332" s="2">
         <v>0.88833333333333298</v>
@@ -37371,16 +37371,16 @@
         <v>1</v>
       </c>
       <c r="AE333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI333" s="2">
         <v>0.92333333333333301</v>
@@ -37475,16 +37475,16 @@
         <v>1</v>
       </c>
       <c r="AE334">
-        <v>1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AF334">
-        <v>1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AG334">
-        <v>1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AH334">
-        <v>1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AI334" s="2">
         <v>0.95833333333333304</v>
@@ -37579,16 +37579,16 @@
         <v>1</v>
       </c>
       <c r="AE335">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AF335">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AG335">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AH335">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AI335" s="2">
         <v>0.99333333333333296</v>
@@ -37683,16 +37683,16 @@
         <v>1</v>
       </c>
       <c r="AE336">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="AF336">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="AG336">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="AH336">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="AI336" s="2">
         <v>0.99333333333333296</v>
@@ -37787,16 +37787,16 @@
         <v>1</v>
       </c>
       <c r="AE337">
-        <v>1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AF337">
-        <v>1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AG337">
-        <v>1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AH337">
-        <v>1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AI337" s="2">
         <v>0.99333333333333296</v>
@@ -37891,16 +37891,16 @@
         <v>1</v>
       </c>
       <c r="AE338">
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="AF338">
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="AG338">
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="AH338">
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="AI338" s="2">
         <v>0.99333333333333296</v>
@@ -37995,16 +37995,16 @@
         <v>1</v>
       </c>
       <c r="AE339">
-        <v>1</v>
+        <v>2.42</v>
       </c>
       <c r="AF339">
-        <v>1</v>
+        <v>2.42</v>
       </c>
       <c r="AG339">
-        <v>1</v>
+        <v>2.42</v>
       </c>
       <c r="AH339">
-        <v>1</v>
+        <v>2.42</v>
       </c>
       <c r="AI339" s="2">
         <v>0.99333333333333296</v>
@@ -38099,16 +38099,16 @@
         <v>1</v>
       </c>
       <c r="AE340">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AF340">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AG340">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AH340">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AI340" s="2">
         <v>0.99333333333333296</v>
@@ -38203,16 +38203,16 @@
         <v>1</v>
       </c>
       <c r="AE341">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="AF341">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="AG341">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="AH341">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="AI341" s="2">
         <v>0.99333333333333296</v>
@@ -38307,16 +38307,16 @@
         <v>1</v>
       </c>
       <c r="AE342">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AF342">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AG342">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AH342">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AI342" s="2">
         <v>0.99333333333333296</v>
@@ -38411,16 +38411,16 @@
         <v>1</v>
       </c>
       <c r="AE343">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AF343">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AG343">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AH343">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AI343" s="2">
         <v>0.99333333333333296</v>
@@ -38515,16 +38515,16 @@
         <v>1</v>
       </c>
       <c r="AE344">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="AF344">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="AG344">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="AH344">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="AI344" s="2">
         <v>0.99333333333333296</v>
@@ -38619,16 +38619,16 @@
         <v>1</v>
       </c>
       <c r="AE345">
-        <v>1</v>
+        <v>2.84</v>
       </c>
       <c r="AF345">
-        <v>1</v>
+        <v>2.84</v>
       </c>
       <c r="AG345">
-        <v>1</v>
+        <v>2.84</v>
       </c>
       <c r="AH345">
-        <v>1</v>
+        <v>2.84</v>
       </c>
       <c r="AI345" s="2">
         <v>0.99333333333333296</v>
@@ -38723,16 +38723,16 @@
         <v>1</v>
       </c>
       <c r="AE346">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="AF346">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="AG346">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="AH346">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="AI346" s="2">
         <v>0.99333333333333296</v>
@@ -38827,16 +38827,16 @@
         <v>1</v>
       </c>
       <c r="AE347">
-        <v>1</v>
+        <v>2.98</v>
       </c>
       <c r="AF347">
-        <v>1</v>
+        <v>2.98</v>
       </c>
       <c r="AG347">
-        <v>1</v>
+        <v>2.98</v>
       </c>
       <c r="AH347">
-        <v>1</v>
+        <v>2.98</v>
       </c>
       <c r="AI347" s="2">
         <v>0.99333333333333296</v>
@@ -38931,16 +38931,16 @@
         <v>1</v>
       </c>
       <c r="AE348">
-        <v>1</v>
+        <v>3.05</v>
       </c>
       <c r="AF348">
-        <v>1</v>
+        <v>3.05</v>
       </c>
       <c r="AG348">
-        <v>1</v>
+        <v>3.05</v>
       </c>
       <c r="AH348">
-        <v>1</v>
+        <v>3.05</v>
       </c>
       <c r="AI348" s="2">
         <v>0.99333333333333296</v>
@@ -39035,16 +39035,16 @@
         <v>1</v>
       </c>
       <c r="AE349">
-        <v>1</v>
+        <v>3.12</v>
       </c>
       <c r="AF349">
-        <v>1</v>
+        <v>3.12</v>
       </c>
       <c r="AG349">
-        <v>1</v>
+        <v>3.12</v>
       </c>
       <c r="AH349">
-        <v>1</v>
+        <v>3.12</v>
       </c>
       <c r="AI349" s="2">
         <v>0.99333333333333296</v>
@@ -39139,16 +39139,16 @@
         <v>1</v>
       </c>
       <c r="AE350">
-        <v>1</v>
+        <v>3.19</v>
       </c>
       <c r="AF350">
-        <v>1</v>
+        <v>3.19</v>
       </c>
       <c r="AG350">
-        <v>1</v>
+        <v>3.19</v>
       </c>
       <c r="AH350">
-        <v>1</v>
+        <v>3.19</v>
       </c>
       <c r="AI350" s="2">
         <v>0.99333333333333296</v>
@@ -39243,16 +39243,16 @@
         <v>1</v>
       </c>
       <c r="AE351">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="AF351">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="AG351">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="AH351">
-        <v>1</v>
+        <v>3.26</v>
       </c>
       <c r="AI351" s="2">
         <v>0.99333333333333296</v>
@@ -39347,16 +39347,16 @@
         <v>1</v>
       </c>
       <c r="AE352">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="AF352">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="AG352">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="AH352">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="AI352" s="2">
         <v>0.99333333333333296</v>
@@ -39451,16 +39451,16 @@
         <v>1</v>
       </c>
       <c r="AE353">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AF353">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG353">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AH353">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AI353" s="2">
         <v>0.99333333333333296</v>
@@ -39555,16 +39555,16 @@
         <v>1</v>
       </c>
       <c r="AE354">
-        <v>1</v>
+        <v>3.47</v>
       </c>
       <c r="AF354">
-        <v>1</v>
+        <v>3.47</v>
       </c>
       <c r="AG354">
-        <v>1</v>
+        <v>3.47</v>
       </c>
       <c r="AH354">
-        <v>1</v>
+        <v>3.47</v>
       </c>
       <c r="AI354" s="2">
         <v>0.99333333333333296</v>
@@ -39659,16 +39659,16 @@
         <v>1</v>
       </c>
       <c r="AE355">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="AF355">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="AG355">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="AH355">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="AI355" s="2">
         <v>0.99333333333333296</v>
@@ -39763,16 +39763,16 @@
         <v>1</v>
       </c>
       <c r="AE356">
-        <v>1</v>
+        <v>3.61</v>
       </c>
       <c r="AF356">
-        <v>1</v>
+        <v>3.61</v>
       </c>
       <c r="AG356">
-        <v>1</v>
+        <v>3.61</v>
       </c>
       <c r="AH356">
-        <v>1</v>
+        <v>3.61</v>
       </c>
       <c r="AI356" s="2">
         <v>0.99333333333333296</v>
@@ -39867,16 +39867,16 @@
         <v>1</v>
       </c>
       <c r="AE357">
-        <v>1</v>
+        <v>3.68</v>
       </c>
       <c r="AF357">
-        <v>1</v>
+        <v>3.68</v>
       </c>
       <c r="AG357">
-        <v>1</v>
+        <v>3.68</v>
       </c>
       <c r="AH357">
-        <v>1</v>
+        <v>3.68</v>
       </c>
       <c r="AI357">
         <v>0.15</v>

--- a/resources/data-imports/monsters.xlsx
+++ b/resources/data-imports/monsters.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F0AD22-FEA1-DD4F-AA02-4F64A19BF385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" r:id="rId4"/>
+    <sheet name="Monsters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="678">
   <si>
     <t>name</t>
   </si>
@@ -1962,19 +1978,101 @@
   </si>
   <si>
     <t>10000000000-12000000000</t>
+  </si>
+  <si>
+    <t>Forgotten Anguishing Soul</t>
+  </si>
+  <si>
+    <t>5600780900000-6800980900000</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>Shattered Mage of Death</t>
+  </si>
+  <si>
+    <t>12456780900000-18679987460000</t>
+  </si>
+  <si>
+    <t>20568970800000-24000000000000</t>
+  </si>
+  <si>
+    <t>28967895789000-32760650780000</t>
+  </si>
+  <si>
+    <t>38760900600000-42780900450000</t>
+  </si>
+  <si>
+    <t>45300600700000-48654390987000</t>
+  </si>
+  <si>
+    <t>53478900000000-56790600000000</t>
+  </si>
+  <si>
+    <t>60768967000000-63679987000000</t>
+  </si>
+  <si>
+    <t>64743900000000-68900000000000</t>
+  </si>
+  <si>
+    <t>73890659000000-78560960000000</t>
+  </si>
+  <si>
+    <t>83456789900000-88904658820000</t>
+  </si>
+  <si>
+    <t>95000000000000-105670890000000</t>
+  </si>
+  <si>
+    <t>109876568900000-115987867000000</t>
+  </si>
+  <si>
+    <t>118967567890000-120000000000000</t>
+  </si>
+  <si>
+    <t>Fiend of Nightmares</t>
+  </si>
+  <si>
+    <t>Faceless Corrupter</t>
+  </si>
+  <si>
+    <t>The Holy Knight of Kalidar</t>
+  </si>
+  <si>
+    <t>Satans Queen of The Damned</t>
+  </si>
+  <si>
+    <t>Dark Knight of Valifore</t>
+  </si>
+  <si>
+    <t>Rune Golem of Hate</t>
+  </si>
+  <si>
+    <t>Dark Missery</t>
+  </si>
+  <si>
+    <t>Cloud of Judgement</t>
+  </si>
+  <si>
+    <t>Little Child of Rage</t>
+  </si>
+  <si>
+    <t>Child Bone Eater of the Abyss</t>
+  </si>
+  <si>
+    <t>Winged Abomination</t>
+  </si>
+  <si>
+    <t>Unholy Sin of Man</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1985,28 +2083,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2296,60 +2403,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AM357"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="I371" sqref="I371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="35" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="26" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2497,16 +2592,16 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2551,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -2578,7 +2673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2607,16 +2702,16 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2658,19 +2753,19 @@
         <v>2</v>
       </c>
       <c r="AD3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH3">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2682,7 +2777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2762,19 +2857,19 @@
         <v>2</v>
       </c>
       <c r="AD4">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -2786,7 +2881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2866,19 +2961,19 @@
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -2890,7 +2985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2970,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="AD6">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE6">
         <v>0.01</v>
@@ -3000,7 +3095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3110,7 +3205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3220,7 +3315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -3324,7 +3419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3434,7 +3529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -3544,7 +3639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -3573,16 +3668,16 @@
         <v>208</v>
       </c>
       <c r="J12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3627,16 +3722,16 @@
         <v>0.15</v>
       </c>
       <c r="AE12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH12">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -3654,7 +3749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3758,7 +3853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3862,7 +3957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3972,7 +4067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -4055,16 +4150,16 @@
         <v>0.36</v>
       </c>
       <c r="AE16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -4082,7 +4177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -4192,7 +4287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -4296,7 +4391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -4400,7 +4495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -4483,16 +4578,16 @@
         <v>0.36</v>
       </c>
       <c r="AE20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -4504,7 +4599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4608,7 +4703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -4712,7 +4807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -4822,7 +4917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -4926,7 +5021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -5030,7 +5125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -5134,7 +5229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -5238,7 +5333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -5342,13 +5437,13 @@
         <v>126</v>
       </c>
       <c r="AL28">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -5452,7 +5547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -5556,13 +5651,13 @@
         <v>133</v>
       </c>
       <c r="AL30">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -5591,16 +5686,16 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -5645,16 +5740,16 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -5666,7 +5761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5695,16 +5790,16 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -5746,19 +5841,19 @@
         <v>2</v>
       </c>
       <c r="AD32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH32">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -5770,7 +5865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -5850,19 +5945,19 @@
         <v>2</v>
       </c>
       <c r="AD33">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -5874,7 +5969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -5954,19 +6049,19 @@
         <v>3</v>
       </c>
       <c r="AD34">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH34">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5978,7 +6073,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -6058,7 +6153,7 @@
         <v>5</v>
       </c>
       <c r="AD35">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE35">
         <v>0.01</v>
@@ -6082,7 +6177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6186,7 +6281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -6290,7 +6385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -6394,7 +6489,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -6498,7 +6593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -6602,7 +6697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -6631,16 +6726,16 @@
         <v>208</v>
       </c>
       <c r="J41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -6685,16 +6780,16 @@
         <v>0.15</v>
       </c>
       <c r="AE41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH41">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -6706,7 +6801,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -6810,7 +6905,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -6914,7 +7009,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -7018,7 +7113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -7122,7 +7217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -7226,7 +7321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -7330,7 +7425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -7413,16 +7508,16 @@
         <v>0.36</v>
       </c>
       <c r="AE48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH48">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -7434,7 +7529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -7538,7 +7633,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -7648,7 +7743,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -7752,7 +7847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -7856,7 +7951,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -7966,7 +8061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -8070,7 +8165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -8174,7 +8269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -8284,7 +8379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -8388,7 +8483,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -8492,7 +8587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -8596,7 +8691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -8700,7 +8795,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -8804,7 +8899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -8887,16 +8982,16 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH62">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -8908,7 +9003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -8991,16 +9086,16 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -9012,7 +9107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -9122,7 +9217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -9241,7 +9336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -9345,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="AI66">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ66">
         <v>1</v>
@@ -9360,7 +9455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -9464,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ67">
         <v>1</v>
@@ -9479,7 +9574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -9592,7 +9687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -9696,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="AI69">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ69">
         <v>1</v>
@@ -9705,7 +9800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -9809,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="AI70">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AJ70">
         <v>1</v>
@@ -9818,7 +9913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -9937,7 +10032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -10050,7 +10145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -10163,7 +10258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>210</v>
       </c>
@@ -10192,16 +10287,16 @@
         <v>8</v>
       </c>
       <c r="J74">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K74">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L74">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M74">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -10246,16 +10341,16 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH74">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -10267,7 +10362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -10296,16 +10391,16 @@
         <v>9</v>
       </c>
       <c r="J75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -10347,19 +10442,19 @@
         <v>2</v>
       </c>
       <c r="AD75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH75">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -10371,7 +10466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -10451,19 +10546,19 @@
         <v>2</v>
       </c>
       <c r="AD76">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH76">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -10475,7 +10570,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -10555,19 +10650,19 @@
         <v>3</v>
       </c>
       <c r="AD77">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH77">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -10579,7 +10674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -10659,7 +10754,7 @@
         <v>5</v>
       </c>
       <c r="AD78">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE78">
         <v>0.01</v>
@@ -10683,7 +10778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -10787,7 +10882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>216</v>
       </c>
@@ -10891,7 +10986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>217</v>
       </c>
@@ -10995,7 +11090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -11105,7 +11200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -11209,7 +11304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -11238,16 +11333,16 @@
         <v>208</v>
       </c>
       <c r="J84">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K84">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L84">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M84">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -11292,16 +11387,16 @@
         <v>0.15</v>
       </c>
       <c r="AE84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH84">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI84">
         <v>0</v>
@@ -11319,7 +11414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -11423,7 +11518,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>222</v>
       </c>
@@ -11527,7 +11622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -11631,7 +11726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -11735,7 +11830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>225</v>
       </c>
@@ -11839,7 +11934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>226</v>
       </c>
@@ -11943,7 +12038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -12047,7 +12142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>228</v>
       </c>
@@ -12151,7 +12246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -12255,7 +12350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>230</v>
       </c>
@@ -12359,7 +12454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>231</v>
       </c>
@@ -12463,7 +12558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>232</v>
       </c>
@@ -12567,7 +12662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>233</v>
       </c>
@@ -12671,7 +12766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>234</v>
       </c>
@@ -12775,7 +12870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -12885,7 +12980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -12995,7 +13090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>237</v>
       </c>
@@ -13099,7 +13194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -13203,7 +13298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -13307,7 +13402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -13390,16 +13485,16 @@
         <v>1</v>
       </c>
       <c r="AE104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH104">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -13411,7 +13506,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -13494,16 +13589,16 @@
         <v>1</v>
       </c>
       <c r="AE105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH105">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI105">
         <v>0</v>
@@ -13515,7 +13610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>242</v>
       </c>
@@ -13619,7 +13714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -13732,7 +13827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>246</v>
       </c>
@@ -13845,7 +13940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -13958,7 +14053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>252</v>
       </c>
@@ -14071,7 +14166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -14184,7 +14279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>258</v>
       </c>
@@ -14288,7 +14383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -14392,7 +14487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>264</v>
       </c>
@@ -14496,7 +14591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -14600,7 +14695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -14704,7 +14799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>273</v>
       </c>
@@ -14808,7 +14903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -14891,16 +14986,16 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH118">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI118">
         <v>0.1</v>
@@ -14912,7 +15007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>279</v>
       </c>
@@ -15016,7 +15111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>282</v>
       </c>
@@ -15120,7 +15215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -15224,7 +15319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -15328,7 +15423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>291</v>
       </c>
@@ -15432,7 +15527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -15536,7 +15631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -15640,7 +15735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>299</v>
       </c>
@@ -15744,7 +15839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>302</v>
       </c>
@@ -15848,7 +15943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>304</v>
       </c>
@@ -15952,7 +16047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>305</v>
       </c>
@@ -16056,7 +16151,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>306</v>
       </c>
@@ -16160,7 +16255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>307</v>
       </c>
@@ -16264,7 +16359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>308</v>
       </c>
@@ -16368,7 +16463,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>309</v>
       </c>
@@ -16472,7 +16567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>310</v>
       </c>
@@ -16555,16 +16650,16 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI134">
         <v>0.1</v>
@@ -16576,7 +16671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>311</v>
       </c>
@@ -16680,7 +16775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>312</v>
       </c>
@@ -16784,7 +16879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>313</v>
       </c>
@@ -16888,7 +16983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>314</v>
       </c>
@@ -16992,7 +17087,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>315</v>
       </c>
@@ -17096,7 +17191,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>316</v>
       </c>
@@ -17200,7 +17295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>317</v>
       </c>
@@ -17304,7 +17399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>318</v>
       </c>
@@ -17408,7 +17503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>319</v>
       </c>
@@ -17512,7 +17607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>320</v>
       </c>
@@ -17616,7 +17711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -17720,7 +17815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>322</v>
       </c>
@@ -17824,7 +17919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>323</v>
       </c>
@@ -17928,7 +18023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>324</v>
       </c>
@@ -18032,13 +18127,13 @@
         <v>325</v>
       </c>
       <c r="AL148">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AM148" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>326</v>
       </c>
@@ -18142,7 +18237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>327</v>
       </c>
@@ -18225,16 +18320,16 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI150">
         <v>0.1</v>
@@ -18246,7 +18341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>328</v>
       </c>
@@ -18350,7 +18445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>329</v>
       </c>
@@ -18454,7 +18549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -18558,7 +18653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>331</v>
       </c>
@@ -18662,7 +18757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -18766,7 +18861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>333</v>
       </c>
@@ -18870,7 +18965,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>334</v>
       </c>
@@ -18974,7 +19069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -19078,7 +19173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>338</v>
       </c>
@@ -19182,7 +19277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>340</v>
       </c>
@@ -19211,16 +19306,16 @@
         <v>8</v>
       </c>
       <c r="J160">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K160">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L160">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="M160">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -19262,19 +19357,19 @@
         <v>0</v>
       </c>
       <c r="AD160">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AE160">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AF160">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG160">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH160">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI160">
         <v>0</v>
@@ -19286,7 +19381,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>342</v>
       </c>
@@ -19315,16 +19410,16 @@
         <v>9</v>
       </c>
       <c r="J161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -19366,19 +19461,19 @@
         <v>2</v>
       </c>
       <c r="AD161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AE161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AF161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AG161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AH161">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AI161">
         <v>0</v>
@@ -19390,7 +19485,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>343</v>
       </c>
@@ -19470,19 +19565,19 @@
         <v>2</v>
       </c>
       <c r="AD162">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE162">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF162">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG162">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH162">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI162">
         <v>0</v>
@@ -19494,7 +19589,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -19574,19 +19669,19 @@
         <v>3</v>
       </c>
       <c r="AD163">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE163">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AF163">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG163">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH163">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI163">
         <v>0</v>
@@ -19598,7 +19693,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>345</v>
       </c>
@@ -19678,7 +19773,7 @@
         <v>5</v>
       </c>
       <c r="AD164">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE164">
         <v>0.01</v>
@@ -19702,7 +19797,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -19806,7 +19901,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -19910,7 +20005,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>348</v>
       </c>
@@ -20014,7 +20109,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>349</v>
       </c>
@@ -20118,7 +20213,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>350</v>
       </c>
@@ -20222,7 +20317,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -20251,16 +20346,16 @@
         <v>208</v>
       </c>
       <c r="J170">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K170">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L170">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M170">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -20305,16 +20400,16 @@
         <v>0.15</v>
       </c>
       <c r="AE170">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF170">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG170">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH170">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI170">
         <v>0</v>
@@ -20326,7 +20421,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>352</v>
       </c>
@@ -20430,7 +20525,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -20534,7 +20629,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -20638,7 +20733,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -20742,7 +20837,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -20846,7 +20941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>357</v>
       </c>
@@ -20950,7 +21045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>358</v>
       </c>
@@ -21033,16 +21128,16 @@
         <v>0.36</v>
       </c>
       <c r="AE177">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF177">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG177">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH177">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI177">
         <v>0</v>
@@ -21054,7 +21149,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -21158,7 +21253,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>360</v>
       </c>
@@ -21262,7 +21357,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>361</v>
       </c>
@@ -21366,7 +21461,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>362</v>
       </c>
@@ -21470,7 +21565,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -21574,7 +21669,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -21678,7 +21773,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -21782,7 +21877,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -21886,7 +21981,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>367</v>
       </c>
@@ -21990,7 +22085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>368</v>
       </c>
@@ -22094,7 +22189,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>369</v>
       </c>
@@ -22198,7 +22293,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>370</v>
       </c>
@@ -22302,7 +22397,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -22406,7 +22501,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>372</v>
       </c>
@@ -22489,16 +22584,16 @@
         <v>1</v>
       </c>
       <c r="AE191">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF191">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG191">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH191">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI191">
         <v>0</v>
@@ -22510,7 +22605,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>373</v>
       </c>
@@ -22593,16 +22688,16 @@
         <v>1</v>
       </c>
       <c r="AE192">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AF192">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG192">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AH192">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI192">
         <v>0</v>
@@ -22614,7 +22709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>374</v>
       </c>
@@ -22718,7 +22813,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>375</v>
       </c>
@@ -22822,7 +22917,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>376</v>
       </c>
@@ -22926,7 +23021,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>377</v>
       </c>
@@ -23030,7 +23125,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>378</v>
       </c>
@@ -23134,7 +23229,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>379</v>
       </c>
@@ -23238,7 +23333,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>380</v>
       </c>
@@ -23342,7 +23437,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="200" spans="1:39">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>381</v>
       </c>
@@ -23425,16 +23520,16 @@
         <v>1</v>
       </c>
       <c r="AE200">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF200">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG200">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH200">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI200">
         <v>0.1</v>
@@ -23446,7 +23541,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>382</v>
       </c>
@@ -23550,7 +23645,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>383</v>
       </c>
@@ -23654,7 +23749,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>384</v>
       </c>
@@ -23758,7 +23853,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>385</v>
       </c>
@@ -23862,7 +23957,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>386</v>
       </c>
@@ -23966,7 +24061,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>387</v>
       </c>
@@ -24070,7 +24165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>388</v>
       </c>
@@ -24174,7 +24269,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>389</v>
       </c>
@@ -24278,7 +24373,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>390</v>
       </c>
@@ -24382,7 +24477,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>391</v>
       </c>
@@ -24486,7 +24581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>393</v>
       </c>
@@ -24515,16 +24610,16 @@
         <v>3000000</v>
       </c>
       <c r="J211">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K211">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L211">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M211">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q211">
         <v>1</v>
@@ -24590,7 +24685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>395</v>
       </c>
@@ -24619,16 +24714,16 @@
         <v>8000000</v>
       </c>
       <c r="J212">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K212">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L212">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M212">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -24694,7 +24789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>397</v>
       </c>
@@ -24798,7 +24893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>399</v>
       </c>
@@ -24902,7 +24997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>401</v>
       </c>
@@ -25006,7 +25101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>403</v>
       </c>
@@ -25110,7 +25205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>405</v>
       </c>
@@ -25214,7 +25309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>407</v>
       </c>
@@ -25318,7 +25413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>409</v>
       </c>
@@ -25422,7 +25517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -25526,7 +25621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>412</v>
       </c>
@@ -25630,7 +25725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>414</v>
       </c>
@@ -25734,7 +25829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>416</v>
       </c>
@@ -25838,7 +25933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>418</v>
       </c>
@@ -25942,7 +26037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>420</v>
       </c>
@@ -26046,7 +26141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>422</v>
       </c>
@@ -26150,7 +26245,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>423</v>
       </c>
@@ -26179,16 +26274,16 @@
         <v>3000000</v>
       </c>
       <c r="J227">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K227">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L227">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M227">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -26254,7 +26349,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>424</v>
       </c>
@@ -26283,16 +26378,16 @@
         <v>8000000</v>
       </c>
       <c r="J228">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K228">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L228">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M228">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q228">
         <v>1</v>
@@ -26358,7 +26453,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>425</v>
       </c>
@@ -26462,7 +26557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>426</v>
       </c>
@@ -26566,7 +26661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>427</v>
       </c>
@@ -26670,7 +26765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>428</v>
       </c>
@@ -26774,7 +26869,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>429</v>
       </c>
@@ -26878,7 +26973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>430</v>
       </c>
@@ -26982,7 +27077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>431</v>
       </c>
@@ -27086,7 +27181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>432</v>
       </c>
@@ -27190,7 +27285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>433</v>
       </c>
@@ -27294,7 +27389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>434</v>
       </c>
@@ -27398,7 +27493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>435</v>
       </c>
@@ -27502,7 +27597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>436</v>
       </c>
@@ -27606,7 +27701,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>437</v>
       </c>
@@ -27710,7 +27805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>438</v>
       </c>
@@ -27823,7 +27918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>441</v>
       </c>
@@ -27936,7 +28031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>444</v>
       </c>
@@ -28049,7 +28144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>447</v>
       </c>
@@ -28162,7 +28257,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>448</v>
       </c>
@@ -28275,7 +28370,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>449</v>
       </c>
@@ -28388,7 +28483,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>450</v>
       </c>
@@ -28501,7 +28596,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>451</v>
       </c>
@@ -28614,7 +28709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>452</v>
       </c>
@@ -28718,7 +28813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>453</v>
       </c>
@@ -28747,16 +28842,16 @@
         <v>3000000</v>
       </c>
       <c r="J251">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K251">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L251">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M251">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q251">
         <v>1</v>
@@ -28822,7 +28917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>454</v>
       </c>
@@ -28851,16 +28946,16 @@
         <v>8000000</v>
       </c>
       <c r="J252">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K252">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L252">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M252">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q252">
         <v>1</v>
@@ -28926,7 +29021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>455</v>
       </c>
@@ -29030,7 +29125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>456</v>
       </c>
@@ -29134,7 +29229,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>457</v>
       </c>
@@ -29238,7 +29333,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>458</v>
       </c>
@@ -29342,7 +29437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>459</v>
       </c>
@@ -29446,7 +29541,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>460</v>
       </c>
@@ -29550,7 +29645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>461</v>
       </c>
@@ -29654,7 +29749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>462</v>
       </c>
@@ -29758,7 +29853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>463</v>
       </c>
@@ -29862,7 +29957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>464</v>
       </c>
@@ -29966,7 +30061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>465</v>
       </c>
@@ -30070,7 +30165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>466</v>
       </c>
@@ -30174,7 +30269,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>467</v>
       </c>
@@ -30278,7 +30373,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>468</v>
       </c>
@@ -30391,7 +30486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>470</v>
       </c>
@@ -30495,7 +30590,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>471</v>
       </c>
@@ -30524,16 +30619,16 @@
         <v>3000000</v>
       </c>
       <c r="J268">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K268">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L268">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M268">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q268">
         <v>1</v>
@@ -30599,7 +30694,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>472</v>
       </c>
@@ -30628,16 +30723,16 @@
         <v>8000000</v>
       </c>
       <c r="J269">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K269">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L269">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M269">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -30703,7 +30798,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>473</v>
       </c>
@@ -30807,7 +30902,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>474</v>
       </c>
@@ -30911,7 +31006,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>475</v>
       </c>
@@ -31015,7 +31110,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>476</v>
       </c>
@@ -31119,7 +31214,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>477</v>
       </c>
@@ -31223,7 +31318,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>478</v>
       </c>
@@ -31327,7 +31422,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>479</v>
       </c>
@@ -31431,7 +31526,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>480</v>
       </c>
@@ -31535,7 +31630,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>481</v>
       </c>
@@ -31639,7 +31734,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>482</v>
       </c>
@@ -31743,7 +31838,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>483</v>
       </c>
@@ -31847,7 +31942,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>484</v>
       </c>
@@ -31951,7 +32046,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>485</v>
       </c>
@@ -32055,7 +32150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>486</v>
       </c>
@@ -32159,7 +32254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>488</v>
       </c>
@@ -32263,7 +32358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>490</v>
       </c>
@@ -32367,7 +32462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>492</v>
       </c>
@@ -32471,7 +32566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>494</v>
       </c>
@@ -32575,7 +32670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>496</v>
       </c>
@@ -32679,7 +32774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>498</v>
       </c>
@@ -32783,7 +32878,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>499</v>
       </c>
@@ -32887,7 +32982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>500</v>
       </c>
@@ -32991,7 +33086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>501</v>
       </c>
@@ -33095,7 +33190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>502</v>
       </c>
@@ -33199,7 +33294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>503</v>
       </c>
@@ -33303,7 +33398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>504</v>
       </c>
@@ -33407,7 +33502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>505</v>
       </c>
@@ -33511,7 +33606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>506</v>
       </c>
@@ -33615,7 +33710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>507</v>
       </c>
@@ -33719,7 +33814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>508</v>
       </c>
@@ -33823,7 +33918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>509</v>
       </c>
@@ -33927,7 +34022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>510</v>
       </c>
@@ -34031,7 +34126,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>511</v>
       </c>
@@ -34135,7 +34230,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>512</v>
       </c>
@@ -34239,7 +34334,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>513</v>
       </c>
@@ -34343,7 +34438,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>514</v>
       </c>
@@ -34447,7 +34542,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>515</v>
       </c>
@@ -34551,7 +34646,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>516</v>
       </c>
@@ -34670,7 +34765,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>520</v>
       </c>
@@ -34780,7 +34875,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>522</v>
       </c>
@@ -34809,16 +34904,16 @@
         <v>50000000</v>
       </c>
       <c r="J309">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="K309">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L309">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M309">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q309">
         <v>1</v>
@@ -34884,7 +34979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>523</v>
       </c>
@@ -34988,7 +35083,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>526</v>
       </c>
@@ -35083,7 +35178,7 @@
         <v>0.46</v>
       </c>
       <c r="AI311">
-        <v>0.1533</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="AJ311">
         <v>1</v>
@@ -35092,7 +35187,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>529</v>
       </c>
@@ -35196,7 +35291,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>532</v>
       </c>
@@ -35300,7 +35395,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>535</v>
       </c>
@@ -35395,7 +35490,7 @@
         <v>0.67</v>
       </c>
       <c r="AI314">
-        <v>0.2583</v>
+        <v>0.25829999999999997</v>
       </c>
       <c r="AJ314">
         <v>1</v>
@@ -35404,7 +35499,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>538</v>
       </c>
@@ -35499,7 +35594,7 @@
         <v>0.74</v>
       </c>
       <c r="AI315">
-        <v>0.2933</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="AJ315">
         <v>1</v>
@@ -35508,7 +35603,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>541</v>
       </c>
@@ -35603,7 +35698,7 @@
         <v>0.81</v>
       </c>
       <c r="AI316">
-        <v>0.3283</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AJ316">
         <v>1</v>
@@ -35612,7 +35707,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>544</v>
       </c>
@@ -35707,7 +35802,7 @@
         <v>0.88</v>
       </c>
       <c r="AI317">
-        <v>0.3633</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="AJ317">
         <v>1</v>
@@ -35716,7 +35811,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>547</v>
       </c>
@@ -35745,16 +35840,16 @@
         <v>178000000</v>
       </c>
       <c r="J318">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K318">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L318">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M318">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q318">
         <v>1</v>
@@ -35811,7 +35906,7 @@
         <v>0.95</v>
       </c>
       <c r="AI318">
-        <v>0.3983</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="AJ318">
         <v>1</v>
@@ -35820,7 +35915,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>550</v>
       </c>
@@ -35915,7 +36010,7 @@
         <v>1.02</v>
       </c>
       <c r="AI319">
-        <v>0.4333</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="AJ319">
         <v>1</v>
@@ -35924,7 +36019,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>553</v>
       </c>
@@ -36007,19 +36102,19 @@
         <v>1</v>
       </c>
       <c r="AE320">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AF320">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AG320">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AH320">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AI320">
-        <v>0.4683</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="AJ320">
         <v>1</v>
@@ -36028,7 +36123,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>556</v>
       </c>
@@ -36111,19 +36206,19 @@
         <v>1</v>
       </c>
       <c r="AE321">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AF321">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AG321">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AH321">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AI321">
-        <v>0.5033</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="AJ321">
         <v>1</v>
@@ -36132,7 +36227,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>559</v>
       </c>
@@ -36236,7 +36331,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>562</v>
       </c>
@@ -36331,7 +36426,7 @@
         <v>1.3</v>
       </c>
       <c r="AI323">
-        <v>0.5733</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AJ323">
         <v>1</v>
@@ -36340,7 +36435,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>565</v>
       </c>
@@ -36435,7 +36530,7 @@
         <v>1.37</v>
       </c>
       <c r="AI324">
-        <v>0.6083</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AJ324">
         <v>1</v>
@@ -36444,7 +36539,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>568</v>
       </c>
@@ -36539,7 +36634,7 @@
         <v>1.44</v>
       </c>
       <c r="AI325">
-        <v>0.6433</v>
+        <v>0.64329999999999998</v>
       </c>
       <c r="AJ325">
         <v>1</v>
@@ -36548,7 +36643,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>571</v>
       </c>
@@ -36643,7 +36738,7 @@
         <v>1.51</v>
       </c>
       <c r="AI326">
-        <v>0.6783</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="AJ326">
         <v>1</v>
@@ -36652,7 +36747,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>574</v>
       </c>
@@ -36747,7 +36842,7 @@
         <v>1.58</v>
       </c>
       <c r="AI327">
-        <v>0.7133</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="AJ327">
         <v>1</v>
@@ -36756,7 +36851,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>577</v>
       </c>
@@ -36851,7 +36946,7 @@
         <v>1.65</v>
       </c>
       <c r="AI328">
-        <v>0.7483</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="AJ328">
         <v>1</v>
@@ -36860,7 +36955,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>580</v>
       </c>
@@ -36964,7 +37059,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>583</v>
       </c>
@@ -37059,7 +37154,7 @@
         <v>1.79</v>
       </c>
       <c r="AI330">
-        <v>0.8183</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="AJ330">
         <v>1</v>
@@ -37068,7 +37163,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>586</v>
       </c>
@@ -37163,7 +37258,7 @@
         <v>1.86</v>
       </c>
       <c r="AI331">
-        <v>0.8533</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="AJ331">
         <v>1</v>
@@ -37172,7 +37267,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>589</v>
       </c>
@@ -37267,7 +37362,7 @@
         <v>1.93</v>
       </c>
       <c r="AI332">
-        <v>0.8883</v>
+        <v>0.88829999999999998</v>
       </c>
       <c r="AJ332">
         <v>1</v>
@@ -37276,7 +37371,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>592</v>
       </c>
@@ -37371,7 +37466,7 @@
         <v>2</v>
       </c>
       <c r="AI333">
-        <v>0.9233</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="AJ333">
         <v>1</v>
@@ -37380,7 +37475,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>595</v>
       </c>
@@ -37463,19 +37558,19 @@
         <v>1</v>
       </c>
       <c r="AE334">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AF334">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AG334">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AH334">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AI334">
-        <v>0.9583</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="AJ334">
         <v>1</v>
@@ -37484,7 +37579,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>598</v>
       </c>
@@ -37579,7 +37674,7 @@
         <v>2.14</v>
       </c>
       <c r="AI335">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ335">
         <v>1</v>
@@ -37588,7 +37683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>601</v>
       </c>
@@ -37683,7 +37778,7 @@
         <v>2.21</v>
       </c>
       <c r="AI336">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ336">
         <v>1</v>
@@ -37692,7 +37787,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>604</v>
       </c>
@@ -37775,19 +37870,19 @@
         <v>1</v>
       </c>
       <c r="AE337">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AF337">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AG337">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AH337">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AI337">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ337">
         <v>1</v>
@@ -37796,7 +37891,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>607</v>
       </c>
@@ -37891,7 +37986,7 @@
         <v>2.35</v>
       </c>
       <c r="AI338">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ338">
         <v>1</v>
@@ -37900,7 +37995,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>610</v>
       </c>
@@ -37995,7 +38090,7 @@
         <v>2.42</v>
       </c>
       <c r="AI339">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ339">
         <v>1</v>
@@ -38004,7 +38099,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>613</v>
       </c>
@@ -38087,19 +38182,19 @@
         <v>1</v>
       </c>
       <c r="AE340">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AF340">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AG340">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AH340">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AI340">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ340">
         <v>1</v>
@@ -38108,7 +38203,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>615</v>
       </c>
@@ -38203,7 +38298,7 @@
         <v>2.56</v>
       </c>
       <c r="AI341">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ341">
         <v>1</v>
@@ -38212,7 +38307,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>617</v>
       </c>
@@ -38307,7 +38402,7 @@
         <v>2.63</v>
       </c>
       <c r="AI342">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ342">
         <v>1</v>
@@ -38316,7 +38411,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>619</v>
       </c>
@@ -38411,7 +38506,7 @@
         <v>2.7</v>
       </c>
       <c r="AI343">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ343">
         <v>1</v>
@@ -38420,7 +38515,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>621</v>
       </c>
@@ -38515,7 +38610,7 @@
         <v>2.77</v>
       </c>
       <c r="AI344">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ344">
         <v>1</v>
@@ -38524,7 +38619,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>623</v>
       </c>
@@ -38619,7 +38714,7 @@
         <v>2.84</v>
       </c>
       <c r="AI345">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ345">
         <v>1</v>
@@ -38628,7 +38723,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>625</v>
       </c>
@@ -38723,7 +38818,7 @@
         <v>2.91</v>
       </c>
       <c r="AI346">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ346">
         <v>1</v>
@@ -38732,7 +38827,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>627</v>
       </c>
@@ -38827,7 +38922,7 @@
         <v>2.98</v>
       </c>
       <c r="AI347">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ347">
         <v>1</v>
@@ -38836,7 +38931,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>629</v>
       </c>
@@ -38931,7 +39026,7 @@
         <v>3.05</v>
       </c>
       <c r="AI348">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ348">
         <v>1</v>
@@ -38940,7 +39035,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>631</v>
       </c>
@@ -39035,7 +39130,7 @@
         <v>3.12</v>
       </c>
       <c r="AI349">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ349">
         <v>1</v>
@@ -39044,7 +39139,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>633</v>
       </c>
@@ -39139,7 +39234,7 @@
         <v>3.19</v>
       </c>
       <c r="AI350">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ350">
         <v>1</v>
@@ -39148,7 +39243,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>635</v>
       </c>
@@ -39243,7 +39338,7 @@
         <v>3.26</v>
       </c>
       <c r="AI351">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ351">
         <v>1</v>
@@ -39252,7 +39347,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>637</v>
       </c>
@@ -39347,7 +39442,7 @@
         <v>3.33</v>
       </c>
       <c r="AI352">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ352">
         <v>1</v>
@@ -39356,7 +39451,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>639</v>
       </c>
@@ -39451,7 +39546,7 @@
         <v>3.4</v>
       </c>
       <c r="AI353">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ353">
         <v>1</v>
@@ -39460,7 +39555,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>641</v>
       </c>
@@ -39555,7 +39650,7 @@
         <v>3.47</v>
       </c>
       <c r="AI354">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ354">
         <v>1</v>
@@ -39564,7 +39659,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>643</v>
       </c>
@@ -39659,7 +39754,7 @@
         <v>3.54</v>
       </c>
       <c r="AI355">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ355">
         <v>1</v>
@@ -39668,7 +39763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>645</v>
       </c>
@@ -39763,7 +39858,7 @@
         <v>3.61</v>
       </c>
       <c r="AI356">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="AJ356">
         <v>1</v>
@@ -39772,7 +39867,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>647</v>
       </c>
@@ -39876,18 +39971,1471 @@
         <v>521</v>
       </c>
     </row>
+    <row r="358" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>649</v>
+      </c>
+      <c r="B358">
+        <v>15000000000000</v>
+      </c>
+      <c r="C358">
+        <v>15000000000000</v>
+      </c>
+      <c r="D358">
+        <v>15000000000000</v>
+      </c>
+      <c r="E358">
+        <v>15000000000000</v>
+      </c>
+      <c r="F358">
+        <v>15000000000000</v>
+      </c>
+      <c r="G358">
+        <v>15000000000000</v>
+      </c>
+      <c r="H358">
+        <v>15000000000000</v>
+      </c>
+      <c r="I358">
+        <v>15000000000000</v>
+      </c>
+      <c r="J358">
+        <v>3</v>
+      </c>
+      <c r="K358">
+        <v>3</v>
+      </c>
+      <c r="L358">
+        <v>3</v>
+      </c>
+      <c r="M358">
+        <v>3</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>1</v>
+      </c>
+      <c r="R358">
+        <v>1</v>
+      </c>
+      <c r="S358">
+        <v>99999</v>
+      </c>
+      <c r="T358" t="s">
+        <v>1</v>
+      </c>
+      <c r="U358">
+        <v>30</v>
+      </c>
+      <c r="V358">
+        <v>1E-3</v>
+      </c>
+      <c r="W358">
+        <v>100000000</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA358">
+        <v>15000000000000</v>
+      </c>
+      <c r="AB358">
+        <v>15000000000000</v>
+      </c>
+      <c r="AC358">
+        <v>15000000000000</v>
+      </c>
+      <c r="AD358">
+        <v>1</v>
+      </c>
+      <c r="AE358">
+        <v>1.6</v>
+      </c>
+      <c r="AF358">
+        <v>1.5</v>
+      </c>
+      <c r="AG358">
+        <v>1.8</v>
+      </c>
+      <c r="AH358">
+        <v>2</v>
+      </c>
+      <c r="AI358">
+        <v>2.1</v>
+      </c>
+      <c r="AJ358">
+        <v>1</v>
+      </c>
+      <c r="AM358" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="359" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>652</v>
+      </c>
+      <c r="B359">
+        <v>22000000000000</v>
+      </c>
+      <c r="C359">
+        <v>22000000000000</v>
+      </c>
+      <c r="D359">
+        <v>22000000000000</v>
+      </c>
+      <c r="E359">
+        <v>22000000000000</v>
+      </c>
+      <c r="F359">
+        <v>22000000000000</v>
+      </c>
+      <c r="G359">
+        <v>22000000000000</v>
+      </c>
+      <c r="H359">
+        <v>22000000000000</v>
+      </c>
+      <c r="I359">
+        <v>22000000000000</v>
+      </c>
+      <c r="J359">
+        <v>3.5</v>
+      </c>
+      <c r="K359">
+        <v>3.5</v>
+      </c>
+      <c r="L359">
+        <v>3.5</v>
+      </c>
+      <c r="M359">
+        <v>3.5</v>
+      </c>
+      <c r="Q359">
+        <v>1</v>
+      </c>
+      <c r="R359">
+        <v>1</v>
+      </c>
+      <c r="S359">
+        <v>99999</v>
+      </c>
+      <c r="T359" t="s">
+        <v>1</v>
+      </c>
+      <c r="U359">
+        <v>37</v>
+      </c>
+      <c r="V359">
+        <v>1E-3</v>
+      </c>
+      <c r="W359">
+        <v>150000000</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA359">
+        <v>22000000000000</v>
+      </c>
+      <c r="AB359">
+        <v>22000000000000</v>
+      </c>
+      <c r="AC359">
+        <v>22000000000000</v>
+      </c>
+      <c r="AD359">
+        <v>1</v>
+      </c>
+      <c r="AE359">
+        <v>1.8</v>
+      </c>
+      <c r="AF359">
+        <v>1.8</v>
+      </c>
+      <c r="AG359">
+        <v>2</v>
+      </c>
+      <c r="AH359">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI359">
+        <v>2.5</v>
+      </c>
+      <c r="AJ359">
+        <v>1</v>
+      </c>
+      <c r="AM359" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="360" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>666</v>
+      </c>
+      <c r="B360">
+        <v>29000000000000</v>
+      </c>
+      <c r="C360">
+        <v>29000000000000</v>
+      </c>
+      <c r="D360">
+        <v>29000000000000</v>
+      </c>
+      <c r="E360">
+        <v>29000000000000</v>
+      </c>
+      <c r="F360">
+        <v>29000000000000</v>
+      </c>
+      <c r="G360">
+        <v>29000000000000</v>
+      </c>
+      <c r="H360">
+        <v>29000000000000</v>
+      </c>
+      <c r="I360">
+        <v>29000000000000</v>
+      </c>
+      <c r="J360">
+        <v>3.8</v>
+      </c>
+      <c r="K360">
+        <v>3.8</v>
+      </c>
+      <c r="L360">
+        <v>3.8</v>
+      </c>
+      <c r="M360">
+        <v>3.8</v>
+      </c>
+      <c r="Q360">
+        <v>1</v>
+      </c>
+      <c r="R360">
+        <v>1</v>
+      </c>
+      <c r="S360">
+        <v>99999</v>
+      </c>
+      <c r="T360" t="s">
+        <v>3</v>
+      </c>
+      <c r="U360">
+        <v>38</v>
+      </c>
+      <c r="V360">
+        <v>1E-3</v>
+      </c>
+      <c r="W360">
+        <v>180000000</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="Y360" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z360" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA360">
+        <v>29000000000000</v>
+      </c>
+      <c r="AB360">
+        <v>29000000000000</v>
+      </c>
+      <c r="AC360">
+        <v>29000000000000</v>
+      </c>
+      <c r="AD360">
+        <v>1</v>
+      </c>
+      <c r="AE360">
+        <v>2</v>
+      </c>
+      <c r="AF360">
+        <v>2.1</v>
+      </c>
+      <c r="AG360">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH360">
+        <v>2.4</v>
+      </c>
+      <c r="AI360">
+        <v>2.9</v>
+      </c>
+      <c r="AJ360">
+        <v>1</v>
+      </c>
+      <c r="AM360" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="361" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>667</v>
+      </c>
+      <c r="B361">
+        <v>36000000000000</v>
+      </c>
+      <c r="C361">
+        <v>36000000000000</v>
+      </c>
+      <c r="D361">
+        <v>36000000000000</v>
+      </c>
+      <c r="E361">
+        <v>36000000000000</v>
+      </c>
+      <c r="F361">
+        <v>36000000000000</v>
+      </c>
+      <c r="G361">
+        <v>36000000000000</v>
+      </c>
+      <c r="H361">
+        <v>36000000000000</v>
+      </c>
+      <c r="I361">
+        <v>36000000000000</v>
+      </c>
+      <c r="J361">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="K361">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="L361">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="M361">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>1</v>
+      </c>
+      <c r="S361">
+        <v>99999</v>
+      </c>
+      <c r="T361" t="s">
+        <v>7</v>
+      </c>
+      <c r="U361">
+        <v>42</v>
+      </c>
+      <c r="V361">
+        <v>1E-3</v>
+      </c>
+      <c r="W361">
+        <v>190000000</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA361">
+        <v>36000000000000</v>
+      </c>
+      <c r="AB361">
+        <v>36000000000000</v>
+      </c>
+      <c r="AC361">
+        <v>36000000000000</v>
+      </c>
+      <c r="AD361">
+        <v>1</v>
+      </c>
+      <c r="AE361">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF361">
+        <v>2.4</v>
+      </c>
+      <c r="AG361">
+        <v>2.4</v>
+      </c>
+      <c r="AH361">
+        <v>2.6</v>
+      </c>
+      <c r="AI361">
+        <v>3.3</v>
+      </c>
+      <c r="AJ361">
+        <v>1</v>
+      </c>
+      <c r="AM361" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="362" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>668</v>
+      </c>
+      <c r="B362">
+        <v>43000000000000</v>
+      </c>
+      <c r="C362">
+        <v>43000000000000</v>
+      </c>
+      <c r="D362">
+        <v>43000000000000</v>
+      </c>
+      <c r="E362">
+        <v>43000000000000</v>
+      </c>
+      <c r="F362">
+        <v>43000000000000</v>
+      </c>
+      <c r="G362">
+        <v>43000000000000</v>
+      </c>
+      <c r="H362">
+        <v>43000000000000</v>
+      </c>
+      <c r="I362">
+        <v>43000000000000</v>
+      </c>
+      <c r="J362">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="K362">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="L362">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="M362">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="Q362">
+        <v>1</v>
+      </c>
+      <c r="R362">
+        <v>1</v>
+      </c>
+      <c r="S362">
+        <v>99999</v>
+      </c>
+      <c r="T362" t="s">
+        <v>5</v>
+      </c>
+      <c r="U362">
+        <v>43</v>
+      </c>
+      <c r="V362">
+        <v>1E-3</v>
+      </c>
+      <c r="W362">
+        <v>200000000</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z362" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA362">
+        <v>43000000000000</v>
+      </c>
+      <c r="AB362">
+        <v>43000000000000</v>
+      </c>
+      <c r="AC362">
+        <v>43000000000000</v>
+      </c>
+      <c r="AD362">
+        <v>1</v>
+      </c>
+      <c r="AE362">
+        <v>2.4</v>
+      </c>
+      <c r="AF362">
+        <v>2.7</v>
+      </c>
+      <c r="AG362">
+        <v>2.6</v>
+      </c>
+      <c r="AH362">
+        <v>2.8</v>
+      </c>
+      <c r="AI362">
+        <v>3.7</v>
+      </c>
+      <c r="AJ362">
+        <v>1</v>
+      </c>
+      <c r="AM362" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="363" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>669</v>
+      </c>
+      <c r="B363">
+        <v>50000000000000</v>
+      </c>
+      <c r="C363">
+        <v>50000000000000</v>
+      </c>
+      <c r="D363">
+        <v>50000000000000</v>
+      </c>
+      <c r="E363">
+        <v>50000000000000</v>
+      </c>
+      <c r="F363">
+        <v>50000000000000</v>
+      </c>
+      <c r="G363">
+        <v>50000000000000</v>
+      </c>
+      <c r="H363">
+        <v>50000000000000</v>
+      </c>
+      <c r="I363">
+        <v>50000000000000</v>
+      </c>
+      <c r="J363">
+        <v>5.0333333333333297</v>
+      </c>
+      <c r="K363">
+        <v>5.0333333333333297</v>
+      </c>
+      <c r="L363">
+        <v>5.0333333333333297</v>
+      </c>
+      <c r="M363">
+        <v>5.0333333333333297</v>
+      </c>
+      <c r="Q363">
+        <v>1</v>
+      </c>
+      <c r="R363">
+        <v>1</v>
+      </c>
+      <c r="S363">
+        <v>99999</v>
+      </c>
+      <c r="T363" t="s">
+        <v>4</v>
+      </c>
+      <c r="U363">
+        <v>45</v>
+      </c>
+      <c r="V363">
+        <v>1E-3</v>
+      </c>
+      <c r="W363">
+        <v>210000000</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA363">
+        <v>50000000000000</v>
+      </c>
+      <c r="AB363">
+        <v>50000000000000</v>
+      </c>
+      <c r="AC363">
+        <v>50000000000000</v>
+      </c>
+      <c r="AD363">
+        <v>1</v>
+      </c>
+      <c r="AE363">
+        <v>2.6</v>
+      </c>
+      <c r="AF363">
+        <v>3</v>
+      </c>
+      <c r="AG363">
+        <v>2.8</v>
+      </c>
+      <c r="AH363">
+        <v>3</v>
+      </c>
+      <c r="AI363">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AJ363">
+        <v>1</v>
+      </c>
+      <c r="AM363" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="364" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>670</v>
+      </c>
+      <c r="B364">
+        <v>57000000000000</v>
+      </c>
+      <c r="C364">
+        <v>57000000000000</v>
+      </c>
+      <c r="D364">
+        <v>57000000000000</v>
+      </c>
+      <c r="E364">
+        <v>57000000000000</v>
+      </c>
+      <c r="F364">
+        <v>57000000000000</v>
+      </c>
+      <c r="G364">
+        <v>57000000000000</v>
+      </c>
+      <c r="H364">
+        <v>57000000000000</v>
+      </c>
+      <c r="I364">
+        <v>57000000000000</v>
+      </c>
+      <c r="J364">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="K364">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="L364">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="M364">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="Q364">
+        <v>1</v>
+      </c>
+      <c r="R364">
+        <v>1</v>
+      </c>
+      <c r="S364">
+        <v>99999</v>
+      </c>
+      <c r="T364" t="s">
+        <v>6</v>
+      </c>
+      <c r="U364">
+        <v>48</v>
+      </c>
+      <c r="V364">
+        <v>1E-3</v>
+      </c>
+      <c r="W364">
+        <v>220000000</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA364">
+        <v>57000000000000</v>
+      </c>
+      <c r="AB364">
+        <v>57000000000000</v>
+      </c>
+      <c r="AC364">
+        <v>57000000000000</v>
+      </c>
+      <c r="AD364">
+        <v>1</v>
+      </c>
+      <c r="AE364">
+        <v>2.8</v>
+      </c>
+      <c r="AF364">
+        <v>3.3</v>
+      </c>
+      <c r="AG364">
+        <v>3</v>
+      </c>
+      <c r="AH364">
+        <v>3.2</v>
+      </c>
+      <c r="AI364">
+        <v>4.5</v>
+      </c>
+      <c r="AJ364">
+        <v>1</v>
+      </c>
+      <c r="AM364" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="365" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>671</v>
+      </c>
+      <c r="B365">
+        <v>64000000000000</v>
+      </c>
+      <c r="C365">
+        <v>64000000000000</v>
+      </c>
+      <c r="D365">
+        <v>64000000000000</v>
+      </c>
+      <c r="E365">
+        <v>64000000000000</v>
+      <